--- a/기사데이터/토스/엑셀파일/news(토스, 2022.09.16~2022.09.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.09.16~2022.09.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>더 커진 은행 예대금리차... 8월 최대는 농협</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000697891?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>가파른 대출금리 상승세 영향농협 "단기성 정부자금 수신 때문"지난달 서울 시내의 한 시중은행 외벽에 걸린 대출상품 금리 안내 현수막. 뉴시스지난달 국내 5대 시중은행의 가계 예대금리차가 한 달 전보다 더 커진 것으로 나타났다. NH농협의 예대금리차가 가장 컸다. 예대금리차가 크다는 건 대출·예금금리 격차에 따른 마진이 많다는 뜻으로 금융당국은 이를 '이자 장사'라고 지적했다.20일 은행연합회 소비자포털에 공시된 '예대금리차 비교'에 따르면, 지난달 5대 은행의 가계 예대금리차(가계대출 금리-저축성 수신금리)는 전월보다 적게는 0.03%포인트, 많게는 0.36%포인트 확대됐다. 최근 예대금리차를 줄이기 위해 은행권이 경쟁적으로 대출금리를 낮추고 수신금리를 올렸다지만, 워낙 가파른 대출금리 상승세를 수신금리가 따라잡지 못한 결과로 풀이된다.가계 예대금리차가 가장 큰 곳은 NH농협은행(1.76%포인트)이었다. 햇살론 등 정책서민금융을 제외해도 예대금리차는 1.73%포인트로 5대 은행 중 가장 컸다. 햇살론 등 저소득 서민이 대상인 대출을 많이 취급할수록 예대금리차가 커지는 왜곡 현상을 방지하기 위해 이달부터 이들 정책금융 상품을 제외한 예대금리차를 따로 공시한 결과다. KB국민(1.40%포인트), 우리(1.37%포인트), 신한(1.36%포인트), 하나은행(1.09%포인트)이 뒤를 이었다. NH농협은행 관계자는 "대출금리는 다른 은행보다 낮은 수준이지만, 8월 정부 정책자금을 포함한 단기성(6개월 미만) 자금이 대거 유입되면서 예금금리가 떨어진 영향을 받았다"고 설명했다. 인터넷은행 중에선 토스뱅크의 가계 예대금리차가 4.76%로 최대였다. 케이뱅크(3.13%포인트)와 카카오뱅크(1.86%포인트)가 뒤를 이었다. 공시에 참여한 19개 전체 은행 중엔 7월과 마찬가지로 전북은행의 가계 예대금리차가 5.66%로 가장 컸다. 정책서민금융을 제외해도 4.80%로 전체 은행 중 가장 컸다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>"코로나 피해 사장님들 도와드려요"...토스뱅크, 연 5.5% '사장님 대환대출' 사전신청</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000077357?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>(토스뱅크 제공) 인터넷전문은행 토스뱅크가 '코로나 피해 사장님 대환대출' 서비스를 시작한다.사장님 대환대출은 2년간 최대 5.5%의 고정금리를 적용하는 상품이다. 이날부터 오는 29일까지 토스뱅크에서 사전 신청하면 30일부터 순차적으로 대출이 신청된다. 내달 중부터는 상시적으로 신청할 수 있다.대상은 코로나19로 피해를 입어 손실보전금 등 재난지원금, 손실보상금을 수령했거나 만기연장·상환유예를 받은 차주 중 현재 정상적인 경영활동을 하고 있는 개인사업자다. 지난 5월 31일까지 취급된 대출에 한해 대환이 가능하다.한도는 최소 1000만원 최대 5000만원이다. 고객들은 2년 거치 후 3년간 분할 상환한다. 2년이 지난 후 3~5년 차에는 은행채(신용등급 AAA 기준) 1년물에 2%포인트 가산한 협약금리가 상한선으로 적용된다. 여기에 신용보증기금 보증료 연 1%는 일시 납입해야 한다. 기존 대출 상환에 따른 수수료는 물론 신규 대출에 대한 중도상환수수료도 전액 면제되기에 비용 없이 대출을 옮길 수 있다. 신청은 토스 앱 접속 후 토스뱅크 홈 화면 '상품찾기', '토스뱅크로 갈아타기'에서 '코로나 피해 사장님을 위한 대환대출 미리 예약하기'를 선택하면 된다.토스뱅크 관계자는 "코로나19를 맞아 어려움에 처한 사장님들의 대출이 크게 늘었지만, 최근 글로벌 금리인상으로 부담은 오히려 가중됐다"며 "고객을 먼저 생각하는 토스뱅크의 취지에 따라 신용보증기금과 함께 이번 대환대출에 참여하게 됐다"고 밝혔다.인터넷전문은행 가운데 신용보증기금과 대환대출 서비스에 참여한 것은 토스뱅크가 처음이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.09.23.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>증권사 ‘빚투’ 이자율 10% 돌파…“예치금은 0%대”</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001055928?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;전 세계적인 기준금리 인상 추세에 증권사들도 잇따라 대출 금리를 올리고 있습니다.상황이 이렇자 신용거래융자 이자율이 10%를 넘어선 증권사도 등장했는데요.반면, 투자자가 돈을 맡기면 받을 수 있는 예탁금 이자율은 아직도 0%대에 머물러 있습니다.문형민 기자가 보도합니다.&lt;기자&gt;증권사에서 돈을 빌려 투자하는 신용거래융자 이자율이 빠른 속도로 치솟고 있습니다.이달 기준 유안타증권이 10.3%로 가장 높았고 삼성증권 9.8%, DB금융투자 9.7% 등 9%를 넘는 증권사도 19곳에 달합니다.특히 유진투자·키움·하나증권은 단 하루만 신용거래융자를 이용해도 7%가 넘는 이자율이 적용됩니다.미국이 최근 또 한 번 자이언트스텝을 밟아 우리나라도 기준금리를 큰 폭으로 올릴 가능성이 커진 상황.이에 따라 국내 증권사들의 신용거래융자 이자율 상승 랠리는 당분간 지속될 것으로 전망됩니다.한편, 증권사들이 이른바 ‘빚투’ 이자를 통해 벌어들인 돈은 지난해 기준 1조 8,095억원.올해 상반기만 해도 8,619억원의 수익을 남기며 2년 사이 그 규모가 세 배 이상 커졌습니다.이렇게 증권사들이 ‘빚투’로 곳간을 채우는 동안 투자자들의 주머니는 오히려 가벼워지고 있습니다.[정의정 / 한국주식투자자연합회 대표: 유독 증권사만 다른 금융권 대비 금리가 지나치게 높은데 폭리라고 봅니다. 예대금리차를 이용해서 이익을 내는 것은 당연한 이치인데 그 폭이 너무 차이가 난다.]투자자들이 증권사에 돈을 맡기고 받는 ‘투자자예탁금 이용료율’은 1%도 채 되지 않습니다.KB증권(1.03%)과 토스증권(1%)을 제외한 나머지 증권사 28곳의 평균 이자율은 0.26%에 불과했습니다.증시부진에도 불구하고 시장금리가 오르면서 증권사들이 지나친 ‘이자 장사’를 하고 있다는 개인 투자자들의 불만도 커지고 있습니다.한국경제TV 문형민입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>"예대금리차 더 벌어졌다" NH농협은행 1.76% '최대'</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000853593?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>지난 8월 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 예대금리차는 평균 1.45%포인트로 나타났다. 사진은 서울 시내의 한 은행의 대출 창구./사진=뉴시스 은행권의 과도한 '이자 장사'를 막겠다는 취지로 '예대금리차' 공시가 도입됐지만 금리차는 더 커진 것으로 나타났다. 올라간 예금금리 만큼 대출금리가 올라간 탓이다. 21일 은행연합회에 따르면 지난달 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 예대금리차는 평균 1.45%포인트로 나타났다. 7월 예대금리차와 비교하면 0.24%포인트 높아졌다. 예대금리차는 은행들이 일정 기간 취급한 가계대출과 기업대출의 가중평균금리와 같은 기간 취급한 정기 예·적금, 시장형 금융상품의 가중평균금리 간 차이다. 은행의 수익성 지표인 순이자마진(NIM)을 구성하는 핵심 요소다.가계대출 금리와 저축성 수신금리의 차이인 가계 예대금리차도 평균 1.51%포인트로 같은 기간 0.14%포인트 확대됐다.5대 은행 중에선 NH농협은행의 예대금리차가 가장 컸다.  농협은행은 7월 취급액 기준으로 1.36%포인트의 예대금리차를 보인 데 이어 8월에도 1.78%포인트로 가장 높은 수준의 예대금리차를 기록했다.농협은행 관계자는 "지난달 정부정책 자금을 포함한 6개월 미만의 단기성 자금이 대거 유입된 영향"이라고 설명했다.중금리의 중·저신용자 대출 비중이 높은 인터넷전문은행 중에선 토스뱅크(4.76%포인트) 케이뱅크(3.13%포인트) 카카오뱅크(1.96%포인트) 순으로 나타났다. 지방은행과 외국계 은행을 포함한 전체 19개 은행 중 8월 예대금리차 가장 큰 곳은 전북은행(5.66%포인트)다. 전북은행은 중저신용자 대상 중금리 대출이 많아 예대금리차가 큰 것으로 파악된다.은행연합회는 이달부터 정책서민금융을 제외한 예대금리차와 가계 대출금리를 추가 공시한다. 햇살론 등 고금리 정책대출 상품으로 인해 예대금리차가 커지는 왜곡이 발생한다는 지적을 보완하기 위해서다.8월 예대금리차 산정에서 제외된 보증부 서민금융상품은 햇살론뱅크, 햇살론15, 안전망대출Ⅱ이다. 정책서민금융상품 중 보증료를 은행이 분납 후취하는 상품을 제외하고 가계 예대금리차와 가계 대출금리를 산정했다.한편 은행권은 금리정보를 소비자에게 정확하고 충분하게 제공해 금리상승기에 금융소비자의 부담을 완화하고자 지난달부터 예대금리차를 공시하고 있다.금융소비자가 매월 변동 추이를 확인할 수 있도록 신규 취급액 기준으로 산출된다. 가계대출 기준 예대금리차와 기업대출을 포함한 대출평균 기준 예대금리차를 모두 공시한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>NH농협은행, 5대 시중은행 중 예대금리차 가장 컸다</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001055169?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>5대 시중은행 가운데 대출 금리와 예·적금 금리의 차이가 가장 큰 곳은 NH농협은행인 것으로 나타났다.은행연합회가 20일 소비자포털에 공시한 자료에 따르면 지난 8월 정책서민금융을 제외한 NH농협은행의 가계 예대금리차는 1.73%포인트로 5대 시중은행 가운데 가장 컸다.NH농협은행 다음으로는 KB국민은행(1.40%포인트), 우리은행(1.37%포인트), 신한은행(1.36%포인트) 순으로 예대금리차가 컸으며 하나은행은 (1.09%포인트)로 차이가 가장 작았다.금융당국은 은행의 지나친 예대금리차를 방지하기 위해 지난 7월부터 시중은행의 '예대금리차'를 공시해왔다.예대금리차란 대출금리에서 저축성수신금리를 뺀 값으로 일반적으로 예대금리차가 클 수록 은행의 마진이 커진다.NH농협은행 관계자는 "대출 금리가 타행 대비 낮지만 예금 금리가 낮아 예대금리차가 높게 기록됐다"며 "지난달 전체 비중의 60%가량이 단기성 정책상품이어서 예금 금리가 낮게 나타났다"고 설명했다.인터넷은행 가운데에는 토스뱅크의 가계 예대금리차가 4.76%포인트로 제일 컸고, 케이뱅크(3.13%포인트), 카카오뱅크(1.96%포인트)가 뒤를 이었다.인터넷은행의 경우 중·저신용자 대상 대출 비중이 높기 때문에 일반적으로 예대금리차가 크게 나타난다.한편 지방은행, 외국계은행 등 이날 공시에 참여한 19개 은행 가운데 가계 예대금리차가 가장 큰 곳은 전북은행(4.80%포인트)이었으며 가장 작은 곳은 IBK기업은행(0.96%포인트)이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>예대금리차 공시, 은행들은 ‘해명 릴레이’… 벌써부터 실효성 논란</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000842361?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>예대금리차 1, 2위 은행들 “정책 금융 영향”은행마다 특성 달라 일괄 비교는 불합리        정부가 가계의 금융부담을 덜기 위한 정책으로 도입한 은행권 예대금리차(예금금리와 대출금리 차이) 공시가 시행된 지 두 달 만에 실효성 논란에 휩싸이고 있다. 공시 직후 은행들은 앞다퉈 해명자료를 내놓는 것이 대표적인 예다. 공시 이후 예금금리와 가계대출 금리 간의 격차는 오히려 확대됐다. 은행 별로 다른 고객 특성을 무시한 일률적인 줄세우기식 비교가 금융소비자들에게 도움이 되는 지 의문이 제기된다. NH농협 예대금리차 공시 직후 “정책자금 유치 늘어 예금금리 떨어진 탓” 해명        22일 은행연합회 소비자포털에 공시된 ‘예대금리차 비교’ 통계에 따르면 지난달 5대 시중은행 가운데 예대금리차(대출금리-예금금리)가 가장 컸던 곳은 NH농협은행으로 나타났다. NH농협은행의 가계 예대금리차는 1.76%포인트(p)로 1위를 기록했다. 예대금리차가 상대적으로 크다는 것은 산술적으로 대출·예금 금리 격차에 따른 마진이 많다는 뜻이다.서울 시내 시중은행 ATM기기의 모습. /정민하 기자        가계대출 중 정책서민금융상품(햇살론뱅크·햇살론15·안전망 대출)을 뺀 예대금리차에서도 농협은행이 1.73%포인트로 주요 시중은행 중 가장 컸다. 이어 KB국민은행(1.40%포인트), 우리은행(1.37%포인트), 신한은행(1.36%포인트), 하나은행(1.09%포인트) 순으로 가계 예대금리차가 컸다.NH농협은행은 즉각 해명에 나섰다. 대출 금리는 다른 은행보다 낮았지만, 8월에 단기성(6개월 미만) 정부 정책자금을 많이 취급(수신)하면서 예금 금리도 떨어져 예대금리차가 커졌다는 것이다. NH농협은행은 특수은행 성격이 있어 정부 정책 자금을 다른 은행보다 많이 취급한다. 즉 정부의 정책에 부응하다 보니 예대금리차가 커졌다는 주장이다.실제 농협은행의 지난달 가계대출금리는 4.21%로, 5대 은행 중 가장 낮았다. 대출금리가 가장 낮은 은행이 예대금리차 1위가 된 셈이다. 예대마진을 얻기 위해 대출금리를 높여 예대금리차가 벌어진 것이 아니라고 볼 수 있는 부분이다. 다만 예금금리는 2.45%로 다른 은행(2.99%~3.21%)에 비해 낮았다.NH농협은행에 이어 예대금리차가 두 번째로 큰 KB국민은행도 서민금융 지원 활동을 적극적으로 실행한 영향이라고 배경 설명에 나섰다. KB국민은행 관계자는 “은행권에서 대출을 받기 어려운 금융소외계층을 위한 서민 대출상품인 새희망홀씨대출을 8월에 다른 은행의 2배 이상 규모로 취급했다”며 “이번 공시부터 햇살론 등은 예대금리차 계산 대상에서 빠졌지만, 새희망홀씨대출은 그대로 포함돼 대출금리가 다소 높아진 것”이라고 말했다.서울 여의도 금융감독원 앞으로 한 시민이 지나고 있다. /뉴스1        지난달에 이어 이달에도 인터넷전문은행 중 가장 예대금리차가 컸던 토스뱅크 역시 억울하기는 마찬가지다. 토스뱅크는 7월엔 5.6%포인트, 8월엔 4.76%포인트를 기록했다. 토스뱅크 관계자는 “토스뱅크는 상대적으로 대출 금리가 높은 중·저신용자 고객을 중점적으로 포용하고 있어 이로 인해 예대금리차가 높게 나타나는 점이 있다”고 설명했다. 은행연합회 공시에 따르면 6월 말 기준 중·저신용자 대상 신용대출 비중(중금리대출)은 토스뱅크가 36.3%, 카카오뱅크가 22.2%, 케이뱅크 24.0%다. 정책서민금융 상품 늘어나니 예대금리차 확대        예대금리차는 공시 제도 도입 이후 오히려 벌어졌다. 공시 대상인 19개 은행의 가계대출을 기준으로 한 예대금리차는 7월에는 1.99%포인트였는데, 8월에는 2.19%포인트로 0.20%포인트 벌어졌다. 예금금리 기준이 되는 저축성 수신금리는 연 2.86%에서 2.95%로 0.08%포인트 높아졌는데, 가계대출 금리는 4.74%에서 5.0%로 0.27%포인트 뛰었기 때문이다./조선비즈        가계대출금리 상승을 이끈 건 정책서민금융 금리가 뛰었기 때문이다. 특히 정책서민금융을 제외한 가계대출금리 상승 폭은 0.12%포인트에 불과했다. 정책서민금융을 제외한 가계 예대금리차는 7월 1.92%포인트에서 8월 2.04%로 0.12%포인트 늘어났다. 중·저신용자를 대상으로 한 정책금융이 공급된 게, 통계적 착시를 불러일으킨 셈이다.예금금리 기준에 대한 논란도 끊이지 않는다. 은행들이 저비용 자금조달 창구로 삼는 요구불예금이 예금금리 산출 대상에서 빠졌기 때문이다. 올 상반기 5대 은행 중에서 순이자마진(NIM)이 가장 낮은 곳은 NH농협은행과 우리은행으로 각각 1.52%였다. 그런데 NH농협은행의 예대금리차가 가장 높게 나왔다. 또 상반기 예대마진이 가장 컸던(1.69%) KB국민은행은 7월 예대금리차가 하나은행을 제외한 5대 은행보다 작은 것으로 공시됐다. 요구불예금이 금리차 산출에 빠지면서 통계 왜곡이 나타난 것이다.한 은행 관계자는 “은행마다 예금과 대출 특성이 다르기 때문에 예대금리차만 가지고 비교하는 건 불합리하다”며 “차주 특성별 대출 금리 비교도 아닌 줄 세우기식 공시 제도 운영을 하는 이유를 모르겠다”고 불만을 표시했다. 또 다른 은행 관계자도 “은행들이 공시 직후 해명에 열을 올리는 건 금리차 공시 신뢰도가 낮은 상황에서 꼴찌만 피하면 되기 때문”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.09.25.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>"고금리 사업자 대출 갈아타세요"…소상공인 '저금리 대환' 시행</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001056025?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>금융위원회는 오는 30일부터 코로나19로 피해를 입은 자영업자 및 소상공인을 위해 연 7% 이상 고금리 사업자 대출을 저금리로 전환하는 대환 프로그램을 시행한다고 25일 밝혔다.신청 및 접수는 국민, 신한, 우리, 하나, 기업, 농협, 수협, 부산, 토스 등 14개 은행의 모바일 앱과 은행 창구를 통해 가능하다. 법인 소기업 또는 대표자가 2인 이상이면 예외적으로 직접 은행 영업점을 방문해야 한다.금융위 관계자는 "비은행권 금융기관은 향후 대환 프로그램 공급 의사에 따라 관련 취급 기관으로 참여가 가능하다"고 설명했다.지원 대상은 코로나19로 피해를 입은 정상 차주로 개인 사업자 또는 법인 소기업이다. 손실보전금 등 재난지원금, 손실보상금을 수령했거나 금융권에서 만기연장, 상환유예를 받은 사실이 있는 차주 등이 이에 해당한다. 지원이 가능한 채무는 설비, 운전자금 등 사업자 대출로 대환 신청 시점에 금리가 7% 이상인 경우다. 지난 5월 말까지 은행 및 저축은행, 여전사, 상호금융, 보험사에서 취급한 사업자 신용 및 담보 대출이면 지원 가능하다.다만, 휴·폐업, 국세·지방세 체납, 금융기관 연체 및 기타 부실 우려 차주 등 대환 이후 대출 상환능력 등을 고려할 때 정상차주로 보기 어려운 경우에는 새출발기금을 통해 지원할 예정이다.코로나 피해로 보기 어려운 도박, 사행성 관련 업종, 유흥주점, 부동산 임대 및 매매, 금융, 법무, 회계, 세무, 보건 등 소상공인 정책자금 제외 업종은 지원 대상에서 제외된다. 주거 또는 임대목적 부동산 대출, 개인용도 자동차 구입, 스탁론 등 사업자 대출로 보기 어렵거나 대출성격상 대환 처리가 적절하지 않는 대출도 지원 대상에 포함되지 않는다.이번 대환 프로그램은 내년 말까지 운영되며 총 8조 5천억원이 투입될 예정이다. 대환 한도는 개인사업자는 5천만원, 법인 소기업은 1억원이며 한도 내에서는 여러 건의 고금리 대출을 대환 할 수 있다.대환 프로그램을 이용하는 자영업자 및 소상공인이 부담하는 금리와 보증료는 최대 6.5%로 차주 신용도에 따라 차등적으로 결정된다. 금리는 1~2년차의 경우 최대 5.5%로 최초 취급 시점의 금리를 기준으로 2년간 고정 금리를 적용한다. 3~5년차는 협약 금리를 상한선으로 적용한다. 보증료는 연 1% 고정이다.대출 상환 관련 중도상환수수료는 금융권 협의 등을 거쳐 전액 면제된다. 상환은 5년 간 2년 거치 후 3년 간 분할 상환하는 구조다. 중도상환수수료가 면제되는 만큼 차주의 개별 상황에 맞춰 금융 부담 없이 조기에 원리금 상환도 가능하다.한편 자영업자 및 소상공인의 원활한 저금리 대환 신청을 위해 신용보증기금 내 온라인 대환 안내 시스템도 운영한다. 신청인은 입력한 정보 등을 토대로 본인이 대환 프로그램의 지원 대상에 해당하는지, 대상 채무를 보유하고 있는지 등을 확인할 수 있다.금융위는 시행 초기 한달간 사업자번호 끝자리 기준으로 5부제를 시행할 예정이다.금융위 관계자는 "정부, 공공기관 및 금융기관을 사칭해 대출 알선 등을 통해 전화 상담을 유도하거나 유알엘(URL)을 클릭하도록 하는 보이스피싱 문자가 무작위로 발생하고 있다"고 강조했다. 이어 "출처가 불분명한 URL주소는 절대 터치하지 말고 피해금을 송금한 경우에는 사기범이 자금을 인출하지 못하도록 금융회사 콜센터, 경찰청 또는 금융감독원에 전화해 신속히 계좌의 지급 정지 조치를 하는 것이 피해 예방에 중요하다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.09.23.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>'짠테크' 이복현·'우량주' 강석훈…금융공직자 재산 '원톱'은?</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000303832?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[앵커]올 6월 임용된 고위공직자 재산 현황이 공개됐습니다.금융권에서는 이복현 금융감독원장이 18억 원대의 재산을, 강석훈 산업은행 회장이 28억 원대 재산을 각각 공개했습니다.최나리 기자, 금융공기관 수장들의 재산 얼마입니까?[기자]정부공직자윤리위원회가 공개한 6월 임용 고위공직자 수시재산 공개 자료에 따르면 이복현 금감원장이 본인과 배우자 명의로 신고한 재산은 18억 6천여만 원입니다.이 중 부동산이 이 원장과 배우자 공동명의로 보유한 서울 서초구 잠원동 소재 아파트가 19억 8,000만 원으로 재산의 대부분을 차지했고요.예금 형태의 금융자산이 총 2억 6천만 원이었지만 채무가 약 4억 3천만 원이었습니다.[앵커]그런데 이 원장의 '평범한' 재테크 방식이 눈길을 끌고 있다고요?[기자]이 가운데 이 원장은 본인 명의의 예금 8천만 원 중 450만 원, 배우자 명의 예금 1억 원 중 5천만 원을 인터넷은행인 토스뱅크 파킹통장에 예치하고 있어 눈길을 끌었는데요.이 파킹통장은 하루만 돈을 넣어도 연 2% 이자를 받을 수 있습니다.금리인상기 직장인들의 이른바 '짠테크' 통장으로 알려져 있는데, 이 원장도 이를 활용하고 있었습니다.[앵커]강석훈 회장은 이 원장보다 재산이 10억 원 정도 많군요?[기자]강석훈 산업은행 회장은 재산 28억 8천840만 원을 신고했습니다.본인과 배우자 공동명의로 보유한 서울 서초구 서초동 아파트가 18억 원이고, 본인과 배우자 등 명의의 예금 형태 재산이 7억 2천만 원입니다.강 회장 본인과 가족 명의로 상장주식 2억 3천만 원어치를 보유하고 있다고 신고했는데, 롯데지주와 현대차 등 국내 대기업 주식을 대거 보유하고 있었습니다.김창기 국세청장도 28억 8천만 원을 신고했습니다.지난해 말 부산지방국세청장으로 퇴임할 때 신고 당시보다 7억 6천만 원 늘었습니다.앞서 김소영 금융위 부위원장은 지난달 292억 원의 재산을 신고했는데, 아직 이를 뛰어넘은 금융공직자는 없습니다.SBS Biz 최나리입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>불황에도 대규모 채용한 스타트업들, 이유가 있다</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003718155?sid=105</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>구조조정·투자유치 끝낸 스타트업들 적극적 채용							금융앱 토스가 하반기에만 300여 명을 뽑는 대규모 채용에 나섰다. 간편결제·인터넷은행·보험·글로벌 등 9개 계열사에서 개발·제품·보안 등 24개 직군을 새로 뽑을 예정이다. 현재 전체 직원이 1800명 규모인데, 6분의 1에 달하는 인원을 채용하는 것이다. 토스 관계자는 “지난해보다 전체 채용을 3배 가까이 늘린 역대 최대 규모”라고 했다.일러스트=김성규										올해 스타트업 경기가 얼어붙으면서 구조조정과 폐업이 잇따르는 가운데서도 오히려 채용을 공격적으로 늘리는 스타트업들이 속속 등장하고 있다. 하지만 채용 트렌드는 작년 호황기 때와 차이가 있다. 지난해엔 화끈한 스톡옵션과 복지를 앞세워 개발자 확보 전쟁을 벌였다면 최근엔 개발자뿐 아니라 효율적인 조직·재무 관리를 위한 인력도 비중 있게 채용하고 있다. 밴처캐피털 관계자는 “최근 채용에 나선 곳들은 대규모 투자를 미리 유치했거나, 일찌감치 구조조정을 겪고 수익화에 나선 기업들”이라며 “이들이 불황기에 우수 인력 입도선매에 나서면서 스타트업계 양극화는 더욱 심해질 것”이라고 했다.불황에 채용 늘리는 스타트업, 이유 있었네							최근 적극적인 채용에 나서는 스타트업들은 대규모 투자금을 유치했거나 흑자 전환에 성공해 사업의 지속 성장 가능성을 확인한 곳들이다. 실제로 토스는 최근 10년 새 유례 없는 투자 혹한기에도 불구하고 지난달 무려 5300억원 규모의 투자금을 유치했다. 국내외 투자자들은 매월 35만명씩 늘어나는 토스 월간 이용자수(현재 1400만명)와 은행·증권 같은 토스 신사업 성장성을 높게 산 것으로 알려졌다. 토스는 올해 소상공인 매장결제 플랫폼(토스플레이스), 내년 신용평가(토스신용데이터) 사업 확장을 예고한 상태다.										올해 수백억원대 투자를 받은 ‘알짜’ 스타트업들도 공격적인 채용에 나서고 있다. 지난 4월 알토스벤처스 등으로부터 300억원 규모 투자를 유치한 식당 예약앱 ‘캐치테이블’은 현재 40여 명 목표로 채용을 진행 중이다. 이 회사의 전체 인원은 107명 정도다. 외화 송금앱 ‘센트비’도 북미 시장 공략을 위해 개발자·마케터·고객관리 직군 등 두 자릿수 채용을 시작했다.이미 사업이 본 궤도에 올랐거나 흑자를 내는 스타트업들도 불황기를 맞아 인재 ‘줍줍’을 시작했다. 핀테크 스타트업 중 드물게 흑자를 내고 있는 대출 중개앱 핀다는 창사 이래 처음으로 대규모 개발자 채용에 나섰다. 핀다 관계자는 “현재 임직원이 140명 정도인데, 연말까지 60여 명을 신규 채용할 방침”이라며 “핀테크 경험이 없어도 4년 이상 경력 개발자면 누구든 지원할 수 있다”고 했다. 마찬가지로 흑자 전환에 성공한 웹사이트 구축 서비스 스타트업 ‘아임웹’도 올해 말까지 60명을 더 뽑을 계획이다. 현재 직원 규모가 100명 안팎인 점을 감안하면 60%를 더 뽑는 것이다.'오직 개발자’에서 ‘인사·재무 관리’ 비중 늘려							최근 불황 속 스타트업 채용 트렌드는 이전과는 확연히 다른 모양새다. 올초까지만해도 ‘스톡옵션 대박’, ‘계약 보너스 지급’같이 수천만원 돈잔치와 복지를 앞세웠던 스타트업이 많았지만 지금은 이런 미사여구 없이 조용히 진행되는 것이 특징이다. 스타트업이 몰려있는 강남~판교 일대 지하철 2호선과 신분당선 지하철 역사 내 채용광고 경쟁도 사라진 지 오래다. 한 스타트업 관계자는 “언제 상장할지도 모르는 상황에서 스톡옵션으로 지원자를 끌어들이는 것은 오히려 마이너스”라며 “스톡옵션을 주더라도 광고는 하지 않는 추세”라고 했다.또한 ‘오직 개발자’ 기조에서 인사·재무 같은 관리직 직군 비중이 늘어난 것도 특징이다. 지난해 말 경영난으로 대규모 구조조정을 겪은 오디오 방송 스타트업 스푼라디오의 최혁재 대표는 “확실한 수익 모델이 필수가 되면서, 사업을 효율적으로 관리하고 인재 이탈을 막을 인사·재무·기획 직군을 강화하고 있다”며 “과거 개발자만을 압도적으로 우선 채용하던 때와는 다르다”고 했다. 스푼라디오는 최근 최고제품책임자·최고재무책임자 임원을 새로 영입하고, 연말까지 최대 30여 명을 새로 뽑는다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>예대금리차 두 번째 공시…가계·기업 모두 'NH농협은행' 최대</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001175133?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>지난달 5대 시중은행 중 예대금리차가 가장 큰 곳은 NH농협은행으로 나타났다. 예대금리차란 가계 예금금리와 대출금리의 차이를 뜻한다. 예대금리차가 크다는 것은 쉽게 말해 대출과 예금 금리 차이에 따른 마진이 많다는 것을 의미한다.20일 은행연합회는 19개 전체 은행의 ‘가계 예대금리차 비교’ 통계를 공시했다.기존에는 은행들의 예대금리차를 매 분기 사업보고서를 통해서만 알 수 있었다. 하지만 지난 7월부터 은행연합회 홈페이를 통해 매달 개별 은행의 예대금리차가 공시된다.공시제도 개편을 통해 은행별로 금리 경쟁을 촉진시켜 금융소비자의 부담을 완화하는 동시에 선택권을 높이겠다는 취지다.지난 7월 첫 공시 이후 서민 대상 정책금융상품의 금리가 높아 이를 많이 취급할 수록 예대금리차가 커지는 왜곡 현상이 벌어지자 지난달부터는 이를 제외한 예대금리차가 따로 공개됐다.5대 시중은행 중에는 농협은행의 가계 예대금리차가 1.73%포인트(P)로 가장 컸다. 이어 KB국민은행(1.40%P), 우리은행(1.37%P), 신한은행(1.36%P), 하나은행(1.09%P) 순이었다.19개 전체 은행을 기준으로 보면 전북은행의 가계 예대금리차가 4.80%P로 가장 높았다. 가장 낮은 곳은 기업은행(0.96%P)으로 나타났다.인터넷은행 중에서는 토스뱅크의 가계 예대금리차(4.76%포인트)가 최대였고, 케이뱅크(3.13%포인트)와 카카오뱅크(1.86%포인트)가 뒤를 이었다.기업대출까지 포함한 전체 은행의 예대금리차도 5대 은행 가운데 NH농협은행이 1.78%P로 가장 컸다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>8월 예대금리차 공시…전북은행 5.66%p·토스뱅크 4.76%p '최고'</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006345057?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>시중은행 전월比 소폭 상승해 1% 안팎 유지…농협은행 1.76%p서울의 한 은행 외벽에 대출 관련 현수막이 걸려 있다. 2022.9.16/뉴스1 ⓒ News1 이광호 기자(서울=뉴스1) 신병남 기자 = 은행권 대출과 예금금리 차이를 보여주는 예대금리차가 두 번째 공시된 가운데 8월 예대금리차는 7월보다 0.21%포인트(p) 더 벌어진 것으로 나타났다. 지방은행과 인터넷전문은행의 예대금리차가 여전히 시중은행을 앞섰으며, 주요 은행 중에는 농협은행의 예대금리차가 가장 높았다. 20일 은행연합회 공시에 따르면 KDB산업은행을 제외한 18개 은행의 8월 단순 평균 기준 가계예대금리차는 2.19%p로 지난 7월 1.98%p보다 0.21%p 올랐다. 은행들이 취급한 평균 가계대출금리가 한 달 사이 4.83%에서 5.11%로 오를 때 저축성수신금리는 2.84%에서 2.92%로 오르는데 그쳤다. 지방은행과 인터넷은행의 예대금리차가 시중은행에 비해 상대적으로 높은 점은 8월에도 이어졌다. 8월 기준 KB국민·신한·하나·우리·농협 등 5대 은행의 가계예대금리차는 평균 1.50%p, 부산·경남·대구·광주·전북·제주 등 6개 지방은행은 평균 2.87%p다. 카카오·케이·토스뱅크는 평균 3.28%p인데 예대금리차가 직전달보다 0.18%p 줄었다. 세부적으로 살펴보면 은행권 중 8월 가계예대금리차가 가장 높은 곳은 전북은행이다. 전북은행은 가계대출금리가 8.66%, 저축성 수신금리가 3%로 가계예대금리차가 5.66%p로 나타났다. 이어 인터넷전문은행인 토스뱅크의 금리차가 컸다. 토스뱅크의 가계예대금리차는 4.76%p로 나타났다. 앞서 두 은행은 7월에도 은행권 중 가장 예대금리차가 컸다. 각각 중금리의 중·저신용자 대출 비중이 높기 때문이다. 다만 8월에는 자체 대출 금리 인하, 예금 금리 인상 등을 진행해 직전달보다는 편차가 줄어들었다. 시중은행들은 대체로 1%p 안팎의 예대금리차를 보였지만 전반적으로 편차가 7월보다 상승했다. 그 중에서는 농협은행이 1.76%p로 예대금리차가 가장 컸고, 신한은행 1.65%p, 우리은행 1.57%p, KB국민은행 1.43%p, 하나은행 1.12%p다. 특히 보증부 서민금융상품(햇살론15 등)이 공시에서 제외되면서 7월 기준 5대 은행 중 예대금리차 가장 높았던 신한은행은 5대 은행 중 4번째로 순위가 내려갔다.  가계대출 중 고금리 정책서민금융상품을 제외한 예대금리차도 1위는 농협은행(1.73%p)이고, 이어 KB국민은행(1.40%p), 우리은행(1.37%p), 신한은행(1.36%p), 하나은행(1.09%p) 순이다. 해당 지표는 정부 정책에 부응해 서민금융을 많이 취급할수록 예대금리차가 벌어지는 통계 착시 현상을 해소하기 위해 이달부터 마련됐다.  농협은행 관계자는 "8월 정책자금 관련한 예금이 많이 들어왔는데 단기성 자금이다 보니 저축성수신금리가 낮아졌다"며 "가계대출을 비롯한 기업대출 금리 자체는 시중은행 대비 낮은 걸로 파악하고 있다"고 해명했다. KB국민은행 관계자는 "은행권 대출이 어려운 금융소외계층을 위한 서민 맞춤형 대출상품인 새희망홀씨대출을 적극 지원한 결과 8월은 타행 대비 2배 이상 취급했다"며 "새희망홀씨대출이 정책서민금융상품에는 포함되지 않아 정책서민금융 제외 대출금리가 다소 높게 나타났다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.09.16.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>토스뱅크, 연 4.2% 한투증권 발행어음 특판</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011423236?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 '내게 맞는 금융상품 찾기'를 통해 소개 중인 한국투자증권의 발행어음 구매 가능 시간을 24시간, 365일로 확대한다고 16일 밝혔다.토스뱅크에 따르면 17일부터 만나볼 수 있는 한국투자증권 발행어음은 1년 만기 특판 상품이다. 개인당 최대 5000만원까지 가입할 수 있다. 연 4.2%의 이자(세전)를 제공한다. 특판 한도 소진 시 조기 종료될 수 있다.  토스뱅크는 기존 평일 오전 9시부터 오후 11시까지였던 한국투자증권 발행어음의 구매 시간을 24시간으로 확대했다. 구매 가능일도 평일에서 주말까지 늘린다. 한국투자증권의 전산 점검시간(23:10~00:12)은 제외된다. 발행어음은 자기자본이 4조원이 넘는 대형 금융기관이 금융당국의 허가를 받아 발행할 수 있는 만기 1년 이하의 단기금융상품이다. 한국투자증권 발행어음의 상품가입은 토스뱅크와 연계된 한국투자증권 계좌만 있으면 가능하다. 토스뱅크의 '내게 맞는 금융상품 찾기' 메뉴에서 별도 앱 설치 없이 가입할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.09.30.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>토스증권-SC은행 환전 사고…왜</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011450823?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>기사내용 요약토스증권, 싱가포르SC은행와 환전 제휴 SC은행 시스템 오류로 잘못된 환율 전송손실 보상 진행…환차익은 회수 않기로[서울=뉴시스]이주혜 최현호 기자 = 원·달러 환율이 장중 1440원대를 기록할 때 토스증권에서 달러당 1200원대로 환전 서비스가 이뤄진 사고는 은행의 환율 정보가 틀렸기 때문인 것으로 파악됐다. 토스증권과 환전 서비스 제휴를 맺은 싱가포르SC은행의 시스템 오류로 잘못된 환율 정보가 제공됐다.30일 금융권에 따르면 토스증권은 국내 SC제일은행이 아닌 싱가포르SC은행과 환전 서비스 제휴를 맺고 있다. 28일 오후 발생한 환전 사고는 싱가포르SC은행의 시스템 오류 때문인 것으로 드러났다.28일 오후 1시50분부터 2시15분까지 약 25분간 토스증권 환전 서비스에서 달러당 1298원에 환전이 이뤄졌다. 같은 날 서울 외환시장에서 달러대비 원화 환율은 1439.9원에 거래를 마쳤으며 장중에는 1442.2원까지 오르기도 했다.토스증권은 제휴 은행의 환율을 연동해 환전 서비스를 제공한다. 싱가포르SC은행의 시스템 오류로 토스증권 측에 잘못된 환율이 전송되면서 해당 시간에 원·달러 환율이 실제 환율보다 낮은 달러당 1298원으로 적용됐다.은행권 관계자는 "은행에서 잘못된 환율 정보가 전달되기는 쉽지 않다. 매우 드문 사례"라며 "자칫하면 대형 사고로 이어질 수 있는 일"고 말했다. 이에 일부 투자자들은 오류가 발생한 25분 동안 낮은 환율로 달러를 구매해 환차익을 보거나 달러를 싼값에 팔아 손실을 입기도 했다. 인터넷 커뮤니티에는 환전 오류를 이용해 환차익을 얻었다는 게시물이 올라오기도 했다.당시 환전 거래 규모나 구체적인 피해 금액 등은 확인되지 않았다. SC은행 측은 "이번 이슈와 관련해 여러 부서에서 면밀히 살펴보는 중이며 거래 규모와 피해액 등은 파악 중"이라고 설명했다.토스증권은 환차익을 올린 고객으로부터 수익을 회수하지 않겠다는 입장이다. 손실을 본 고객에 대해서는 보상 절차를 진행 중이다.토스증권 관계자는 "사고 당일부터 홈페이지 공지를 통해 손실 보상 절차를 안내하고 있다"며 "손실 내용을 접수하면 검토를 통해 보상이 이뤄질 것"이라고 말했다. 다만 현재까지는 이번 사고로 손실을 본 경우는 많지 않은 것으로 파악되고 있다.손실 고객에 대한 보상이 이뤄진 후에 보상 비용을 싱가포르SC은행이 토스증권에 지불할지는 정해지지 않았다. 양측은 이와 관련해 추후 논의를 진행할 것으로 예상된다.현재 토스증권이 환전 서비스와 관련해 제휴를 맺은 은행은 싱가포르SC은행 한 곳이다. 토스증권 관계자는 "환전 은행 이중화를 진행 중이며 연내 마무리하는 게 목표"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>예대금리차 공시에도…'이자 장사'에 집착하는 은행들</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011430073?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>기사내용 요약공시제 시행 2달째 가계예대금리차 오히려 더 벌어져기준금리 인상에 예금금리 오르지만 대출금리 더 크게 벌어져 [서울=뉴시스] 김진아 기자 = 빌라와 오피스텔의 거래량은 줄고 가격도 내리며 비(非)아파트 시장의 인기가 줄어들고 있다. 19일 한국부동산원에 따르면 지난 8월 서울 빌라(연립·다세대) 매매가격지수 변동률은 -0.02%로 집계됐다. 지난 6월(-0.01%)과 7월(-0.01%)에 이어 3개월 연속 하락세가 이어졌다. 사진은 이날서울 송파구 롯데월드타워 전망대 서울스카이에서 바라본 빌라 밀집지역 모습. 2022.09.19. bluesoda@newsis.com[서울=뉴시스] 이정필 이주혜 최홍 기자 = 예대금리차를 좁히라는 금융당국 주문에 공시제가 시행됐지만 은행들의 예금금리와 대출금리 차이는 오히려 더 벌어지고 있다. 시중은행의 대출금리 인상폭이 예금금리 인상폭을 크게 웃돌고 있기 때문이다. 일정 이상의 수익을 지키려는 은행의 관행은 지속되고 있는 셈이다.21일 은행연합회 공시에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 지난달 가계대출금리에서 저축성수신금리를 뺀 가계예대금리차는 모두 전달보다 확대됐다. 본격적인 금리인상기를 맞아 서민들의 원리금 상환 부담을 덜기 위해 지난 7월부터 공시에 들어간 당국의 취지가 무색해졌다는 지적이 나오는 이유다.NH농협은행의 가계예대금리차는 7월 1.40%포인트에서 8월 1.76%포인트로 커졌다. 이 기간 가계대출금리가 3.94%에서 4.21%로 오른 반면, 저축성수신금리는 2.54%에서 2.45%로 내린 결과다.KB국민은행의 가계예대금리차는 1.38%포인트에서 1.43%포인트로 확대됐다. 그동안 국민은행의 가계대출금리는 4.36%에서 4.42%로 뛴 반면, 저축성수신금리는 2.98%에서 2.99%로 0.01%포인트 오르는 데 그친 영향이다.우리은행의 가계예대금리차는 1.40%포인트에서 1.57%포인트로 높아졌다. 우리은행의 가계대출금리는 4.22%에서 4.65%로 0.43%포인트 뛰었다. 저축성수신금리는 2.82%에서 3.08%로 0.26%포인트 상승했다.신한은행의 경우 가계예대금리차가 1.62%포인트에서 1.65%포인트로 확대됐다. 신한은행의 가계대출금리는 4.57%에서 4.67%로 0.10%포인트 올랐고, 저축성수신금리는 2.95%에서 3.02%로 0.07%포인트 상승했다.하나은행의 가계예대금리차는 1.04%포인트에서 1.12%포인트로 커졌다. 이 기간 하나은행의 가계대출금리는 4.12%에서 4.33%로 0.21%포인트, 저축성수신금리는 3.08%에서 3.21%로 0.13%포인트 각각 올랐다.이처럼 대출금리 인상폭이 예금금리 상승폭을 크게 상회하면서 시중은행들의 예대금리차는 공시 이후 오히려 더 벌어진 상황이다. 은행들은 기준금리 인상이 이어지면서 자금조달 비용이 높아져 대출금리 상승이 불가피하다는 입장이다. 하지만 이에 발맞춰 예금금리 역시 보다 적극적으로 높여야 한다는 지적이 나온다.실제 인터넷전문은행 등 금융사들은 공시제 시행 이후 예대금리차가 좁혀진 것으로 나타났다. 대표적으로 카카오뱅크의 가계예대금리차는 7월 2.33%포인트에서 8월 1.96%포인트로 내려갔다. 정책서민금융을 제외한 가계예대금리차는 2.25%포인트에서 1.86%포인트로 낮아졌다.이 기간 카카오뱅크의 가계대출금리가 4.46%에서 4.76%로 0.30%포인트 올라갔지만, 저축성수신금리가 2.13%에서 2.80%로 두 배 넘게(0.67%포인트) 뛴 결과다. 토스뱅크 역시 저축성수신금리가 1.00%에서 2.20%로 두 배 넘게 오르면서 예대금리차가 축소됐다. 시장에서는 기존 시중은행들이 보다 적극적으로 수신금리 인상에 나서야 한다는 목소리가 커진다.이 같은 고객들의 지적에 시중은행 관계자는 "금리상승기에는 예대금리차가 확대될 수밖에 없다"며 금리 결정 구조상 예금금리보다 대출금리 상승 속도가 빠르기 때문이다. 예금금리는 한국은행 금융통화위원회의 기준금리 결정 후에 오르는 경향이 있지만 대출금리는 주 단위, 일 단위로 시장금리가 바로 반영된다"고 설명했다.이어 "현재 예금금리를 올릴 이유가 크지 않은 것도 사실"이라며 "가계대출이 역성장하는 상황에서 마진 관리를 위해서는 예수금을 많이 쌓을 이유가 없다. 예금금리를 올리기보다는 적당히 조달해서 운용하는 게 수익에는 긍정적"이라고 덧붙였다.다른 은행 관계자는 "은행들이 가산금리를 낮춰도 시장금리가 상승하면서 대출금리가 더 큰 폭으로 뛰고 있어 대출인상폭을 줄이는 데 한계가 있다"면서 "예대차공시가 금리 전략에 간접적인 영향을 주고는 있지만 시장 상황 속에서 어떻게 수익을 내고 성장할 것인지가 은행의 최우선 과제"라고 말했다.이에 대해 금융당국 관계자는 "아직 예대금리차 공시가 시행된지 얼마 되지 않아 더 지켜볼 필요가 있다"며 "향후에도 금리인상기에 소비자들에게 충분한 정보를 전달함으로써 은행 간 경쟁이 더욱 촉발될 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.09.28.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>[단독] 나도 몰래 400만 원 실종... "문자 16통 받은 뒤에야 알았다"</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000699184?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>간편결제 '부정 결제' 사고 5년 새 17.5배금융사 입장에선 '정상 거래'와 구별 어려워윤창현 의원 "모니터링과 소비자 안내 강화를"게티이미지뱅크A씨는 지난해 6월 결제 알림 문자 16통을 무더기로 받고 깜짝 놀랐다. 한 게임사이트에서 A씨 명의 신용카드로 총 447만 원이 결제됐다는 내용이었는데, 전혀 모르는 거래였다. 조사 결과 범인은 A씨 개인정보로 알뜰폰을 개통해 간편결제 서비스인 KB페이에 가입, 16차례에 걸쳐 돈을 빼간 것으로 확인됐다.부정 결제 신고를 받은 KB페이 측은 즉각 계정을 정지하고 거래를 차단했다. 추가 피해는 막았지만 이미 인출해 간 돈까지 돌려받을 순 없었다. 금융감독원 분쟁조정국은 A씨에게 “일반적인 절차에 따라 결제가 됐기 때문에 피해금액에 대한 분쟁 조정을 할 수 없다”고 통보했다. 금융사 입장에선 정상 거래로 인지할 수밖에 없었다는 설명이다.신종 코로나바이러스 감염증(코로나19) 사태 이후 간편결제 서비스를 통한 온라인 비대면 거래가 활성화하면서 부정 결제 피해도 덩달아 늘고 있는 것으로 나타났다. 27일 금감원이 국회 정무위원회 소속 윤창현 국민의힘 의원실에 제출한 국정감사 자료에 따르면, 비대면 금융거래 사고는 2016년 6건(피해액 3,591만 원)에 불과했지만 지난해 105건(4억3,949만 원)으로 5년 사이 17.5배나 폭증했다.증가세는 올해도 이어지고 있다. 올해 1분기(1~3월 중)에만 사고 건수가 28건, 금액은 1억6,506만 원에 달했는데 이런 추세가 이어지면 연말쯤 피해액이 6억 원을 훌쩍 넘어설 것이란 관측이 나온다. 건당 평균 피해액은 400만~500만 원 수준이다. 연도별 비대면 금융사고 발생 추이. 그래픽=신동준 기자수법은 대부분 비슷하다. 문자나 메신저 피싱 등을 통해 수집한 개인정보로 명의 도용 휴대폰을 만든 다음 간편결제 서비스에 가입, 온라인몰에서 결제한 사례가 많았다. 주로 구입하는 품목은 현금화가 쉬운 상품권이나 게임 머니 등이다. 2020년 고객 8명 명의로 총 937만 원을 몰래 취한 토스 부정 결제 사건이 대표적이다. 이외에도 쿠페이, 페이코, 엘페이, 쓱페이 등 플랫폼을 가리지 않고 사고가 발생했다. 특정 플랫폼의 보안 허점으로 보기 어렵다는 방증이다.   금융당국은 모니터링과 검사를 통해 이상거래 정보를 수집, 주기적으로 업계에 전파하고 있다. 금융사 이상거래탐지시스템(FDS)을 고도화해야 한다는 목소리도 나오지만, 편의성과 보안성이라는 ‘두 마리 토끼’를 모두 잡기 어렵다는 점이 업계 딜레마다. 교묘한 수법의 이상거래까지 탐지하려다 보면 정상 거래까지 차단되는 불상사가 발생하기 쉽고, 인증 절차가 겹겹이 추가되면 ‘간편 결제’ 이름이 무색해진다.결국 당국과 업계의 상시적인 점검과 더불어 소비자 경각심을 높이는 게 중요하다는 지적이다. 윤창현 의원은 “코로나19 여파로 2020년부터 비대면 금융 거래 증가와 함께 비대면 금융 거래 사고도 폭증하고 있다”며 “더욱 정교해진 수법 때문에 피해를 인지하지 못하는 경우도 발생하고 있어 금융당국의 철저한 모니터링과 소비자 안내 절차 강화가 필요하다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>토스 보안 취약점 찾으면 최대 3000만원 현상금</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003045454?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>모바일 금융플랫폼 '토스' 운영사 비바리퍼블리카(이하 토스)는 보안 취약점 신고포상제인 '토스 버그바운티 챌린지'를 실시한다고 21일 밝혔다.버그바운티란는서비스 내 보안 취약점을 찾아낸 참가자에게 리워드를 지급하는 제도다. 구글과 애플 등 글로벌 IT기업들은, 각각 'Bug Hunting Community' , 'Apple Security Bounty' 등을 통해 관련 활동을 적극적으로 전개 중이며, 자사의 보안 체계 강화는 물론 보안 연구 커뮤니티 전체에 기여하는 기회로 삼고 있다.이번 프로그램에는 토스를 비롯해 토스뱅크, 토스증권, 토스페이먼츠 등 주요 금융 계열사가 참여한다.취약점 신고 대상은 토스 애플리케이션 내 주요 서비스는 물론, 계열사 공식 홈페이지도 포함되며 자세한 내용은 관련 홈페이지를 통해 확인할 수 있다. 접수된 리포트는 토스 내부 검증과 평가를 거쳐 건당 최대 3000만원까지 포상금을 지급 받게 된다.이번 버그바운티는 보안에 관심있는 국내 토스 가입자면 누구나 참여할 수 있다. 단, 이날부터 오는 30일 오후 6시까지 공식 홈페이지를 통해 사전 신청한 사람에 한해 다음 달 개최되는 프로그램에 참여 자격이 주어진다. 신청자에게는 버그바운티에 참여할 수 있는 별도 환경을 제공하며 해당 환경에서 모의해킹이 진행된다.이종호 토스 보안기술팀 리더는 “토스는 해커의 관점에서 보안을 구축하며 자체 보안 프로그램을 만드는 등 보안에 많은 투자를 해왔다”며 “외부 전문가의 관점에서 객관적으로 취약점을 점검해 보고, 국내 금융분야 보안연구 활성화에도 기여할 수 있는 계기가 되길 바란다“고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[ET] “한 푼이라도 더”…쌈짓돈 잡는 ‘파킹통장’ 경쟁 치열</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011341796?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>[앵커] 하루만 돈을 맡겨도 쏠쏠한 이자를 주는 통장을 '파킹 통장'이라고 하는데요. 최근 금융시장 상황이 불안 하다 보니 여기에 돈을 넣고 안전하게 한 푼이라도 더 벌려는 사람들이 늘고 있습니다. 이런 고객을 잡으려는 은행 간 경쟁도 치열합니다. 경제부 오수호 기자와 이야기 나눠보겠습니다.  먼저 파킹 통장이란 게 뭔지 구체적으로 설명해주시겠어요? [기자] '파킹'이란게 주차란 뜻이잖아요. 차를 일 년 내내 두는 게 아니라 잠깐 세워두는 건데 대신 주차 요금 내야 하죠. 파킹 통장도 돈을 잠깐 넣어뒀다가 뺀 뒤에 다시 넣을 수 있는 통장입니다. 대신  이건 내가 돈을 맡겼으니 오히려 이자를 받겠죠, 하루만 맡겨도 은행에서 계산해서 이자를 줍니다. 이게 출시된 건 사실 벌써 한 3년 됐거든요. 당시만 해도 직장인들이 주로 재테크로 주식이나 가상화폐에 투자했잖아요. 그런데 최근  미국이 강도 높은 긴축을 하면서 투자 시장이 꽁꽁 얼어붙었습니다.  코스피는 올해 초와 비교하면 20% 가까이, 비트코인은 약 60%나  하락했는데요. 반면 물가를 잡기 위해 한국은행이 기준금리를 올리면서 예금 금리도 오르고 있습니다. 그러다 보니 이런 하락장이 좀 나아질 때까지 여윳돈을 잠시 맡겨두고 이자를 받을 수 있는 파킹통장이 인기를 끌고 있는 겁니다. [앵커] 그럼 구체적으로 이자를 얼마나 받을 수 있습니까? [기자] 제가 40대 직장인 한 분을 만났는데 보면서 설명드리겠습니다. 꾸준히 주식 투자를 하던 이한성 씨는 몇 달 전 이 돈 550만 원을 이른바 파킹통장으로 옮겼습니다. 괜히 무리한 투자로 손해를 보는 것보다 안전하게 맡겨 둔 건데요. 연 이자율이 2.2%라 한 달에 만 원 정도 이자를 받습니다. [이한성 /직장인 : "큰 돈은 아니지만 오백만 원이란 돈을 이렇게 놔두고 한 달에 점심값이나마 이렇게 들어온다는 자체가 저한테는 어느 정도 의미가 있고요."] 최근 금리가 오르면서 정기예금과 적금이 인기를 끌었는데요. 만기까지 돈을 묶어둬야 하고 다달이 돈을 내야 하는 부담이 있습니다. 대신 파킹통장은 아무 때나 입출금이 가능하고 하루만 둬도 이자가 계산돼서 나오거든요. 은행들은 이런 틈새 수요를 노리고 좋은 조건을 내걸며 상품을 출시하고 있습니다. [앵커] 이런 파킹통장, 시중 은행들보다는 인터넷은행들이 앞다퉈  경쟁을 벌이고 있다고요. [기자] 네, 일반 시중은행도 파킹통장이 있긴 하지만 이자율이 높으면 1% 수준입니다. 아무래도 기업 자금 비중이 높은 데다 이미 개인 고객이 많아서 예·적금 등 다른 상품에 주력하고 있고요. 대신 후발 주자라 고객 수를 늘려야 하는 인터넷 은행들이 더 적극적입니다.  지난해 가을 토스뱅크가 출범하면서부터 연 2% 이자를 주는 파킹통장을 내놨고요. 케이뱅크가 올해 7월에 이자율을 2.1%로 높였습니다. 이때 가입자 수가 15%나 늘었다고 하는데요. 곧 이어서 카카오뱅크가 2%로 높인 뒤 한 달 뒤 케이뱅크보다 더 올렸습니다. 그러자 1주일 만에 케이뱅크가 다시 이보다 더 높게 올리며 엎치락뒤치락 하고 있는데요. 졸지에 이자율이 가장 낮아진 토스뱅크도 금리 인상을 긍정적으로 검토하겠다는 입장을 밝혀 치열한 경쟁을 예고했습니다. 인터넷 은행들은 별다른 조건 없이 가입만 하면 이 금리를 모두 주고 있고요, 한도는 1~3억 원 정도입니다. [앵커] 그럼 2%보다 더 주는 은행도 있습니까? [기자] 네, 일부 저축은행들이 더 공격적으로 나서고 있는데요. 이자율이 연 3%대인 파킹통장 상품을 잇따라 출시하고 있습니다. 대신 한도가 천만 원에서 5천만 원 정도라 인터넷 은행에 비해선 다소 작고요 그리고 3%대라는 이자율을 급여 이체, 자동 납부 등 각종 조건을 달성해야 주는 곳도 있습니다. 그래서 가입하시기 전에 이런 점을 꼼꼼히 살펴보시는 게 좋습니다. 영상편집:황보현평/그래픽:최창준</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘사장님 대환대출’ 사전신청…“최대 5.5% 고정금리”</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005322662?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>29일까지 사전신청 가능…한도 최대 5천만원까지[이데일리 정두리 기자] 토스뱅크는 최대 2년간 고정금리를 유지하는 ‘코로나 피해 사장님 대환대출(이하 사장님 대환대출)’ 사전 신청을 받는다고 22일 밝혔다.‘사장님 대환대출’은 2년간 최대 5.5%의 고정금리를 적용하는 상품이다. 이날부터 이달 29일까지 토스뱅크에서 사전 신청하면 30일부터 순차적으로 대출이 신청된다. 10월 중부터는 5부제 방식으로 운영될 예정이다.대상은 코로나19로 피해를 입어 손실보전금 등 재난지원금, 손실보상금을 수령했거나 만기연장·상환유예를 받은 차주 가운데, 현재 정상적인 경영활동을 하고 있는 개인사업자이다. 코로나19 피해 업체를 지원하는 취지에서 시작돼 올해 5월 31일까지 취급된 대출에 한해 대환이 가능하다.한도는 최소 1000만원 최대 5000만원이며, 고객들은 2년 거치 후 3년간 분할 상환한다. 2년이 지난 후 3~5년 차에는 은행채(신용등급 AAA 기준) 1년물에 2.0% 포인트 가산한 협약금리가 상한선으로 적용된다. 여기에 신용보증기금 보증료 연 1.0%는 일시 납입해야 한다. 기존 대출 상환에 따른 수수료는 물론 신규 대출에 대한 중도상환수수료도 전액 면제되기 때문에 비용 없이 대출을 옮길 수 있다.신청은 토스앱 접속 후 토스뱅크 홈 화면 ‘상품찾기’, ‘토스뱅크로 갈아타기’에서 ‘코로나 피해 사장님을 위한 대환대출 미리 예약하기’를 클릭하면 된다.토스뱅크는 인터넷전문은행 가운데 처음으로 신용보증기금과 대환대출 서비스에 참여했다. 글로벌 금리 인상 등으로 이자 부담이 가중된 소상공인, 자영업자들에게 실질적인 도움을 제공하겠다는 취지다. ‘사장님 대환대출’은 고정금리 상품으로 금리 인상에 영향을 받지 않아 기존에 고금리 대출상품을 이용하는 고객들에게 유리할 것으로 전망하고 있다.토스뱅크 관계자는 “코로나19를 맞아 어려움에 처한 사장님들의 대출이 크게 늘었지만, 최근 글로벌 금리인상으로 부담은 오히려 가중됐다“라며 ”고객을 먼저 생각하는 토스뱅크의 취지에 따라 신용보증기금과 함께 이번 대환대출에 참여하게 됐다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>200만원짜리 허먼밀러 의자에 앉으면 생산성이 더 높아질까? [긱스]</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004754227?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>무엇이 조직을 건강하게 만들까 ①이진열 한국시니어연구소 대표 기고문이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.스타트업에 가장 귀한 것이 '좋은 인재'다, 그들을 영입하기 위해서라면 뭐라도 하겠다는 게 최근 2~3년간 스타트업 생태계의 큰 화두였다. 하지만 투자 생태계가 얼어 붙을 때 가장 먼저 줄이는 것 역시 인건비와 복지다. 그럼 이 과정에서 복지제도와 업무 환경이 변한다면 그 회사의 ‘조직문화’가 바뀐 것일까? 실버테크 스타트업인 한국시니어연구소를 운영하는 이진열 대표가 좋은 조직문화가 과연 무엇인지에 대한 여러 고민과 해법을 한경 긱스(Geeks)에 공유해왔다.미국 샌프란시스코에 위치한 에어비앤비 본사 회의실필자가 처음 스타트업 생태계에 들어왔던 2013년과 비교하면 스타트업에 대한 대중들의 인식은 정말 많이 변했다고 생각한다. 처음 이 생태계에 들어왔을 때 ‘창업’을 했다고 하면 다들 걱정스러운 눈초리로 ‘현실을 모르는 철부지’ 라고 바라보곤 했다. 게다가 친구들이나 가족들에게 스타트업을 하고 있다고 하면 그게 뭐냐고 묻기 일쑤였다. 누구나 한 번 쯤은 벤처버블을 들어보았다며 혀를 끌끌 차곤 했던 기억이 난다. 스타트업 생태계의 성장과 파격적인 복지제도그런데 지금은 어떠한가. 스타트업이라는 제목의 드라마가 방영되고 최정상급 배우들이 주연으로 등장할 만큼 스타트업이라는 말이 대중적인 단어가 되었다. 뿐만 아니라 수십억은 물론이고 수백억, 수천억, 심지어는 조단위의 지분가치를 보유하게된 창업자들이 수두룩 하고, 이런 성공 신화를 꿈꾸며 정말 많은 창업자들이 창업 전선에 뛰어들고 있다. 통계청에서 실시한 청년 사회·경제 실태조사 중 ‘창업 고려 또는 경험 여부’ 항목에 따르면, 34.9%의 응답자가 ‘창업을 생각해봤다’고 답했을 만큼 한국 사회에 ‘스타트업’이라는 존재는 더 이상 ‘현실을 모르는 철부지’들이 하는 장난이 아니게 된 셈이다.출처 : 더 기빙 플레지, 세계적인 기부단체 '더 기빙 플레지'(The Giving Pledge)는 작년 2월 219번째 기부자로 배달의민족 창업자인 김봉진 의장 부부의 서약서를 공개했다. 김봉진 의장은 본인의 재산 절반을 기부한다고 발표했다. 이 단체에 가입하려면 10억 달러(약 1조 1천억 원) 이상의 자산을 보유해야 한다.이제는 오히려 스타트업에 엄청난 투자금이 몰리고 있고 이를 기반으로 스타트업들이 좋은 인재를 유치하기 위해 좋은 업무환경과 복지정책을 내세우고 있다 보니 오히려 대기업과 비교했을 때 연봉이나 복지를 비롯한 근무 조건에서 스타트업이 열세라고 보기도 어려운 상황이라고 볼 수 있겠다. 실제로 한 언론사와 포켓서베이가 일반인 1,516명을 대상으로 조사한 설문에 따르면 전체의 17%가 스타트업의 이미지를 ‘수평적/자율적 조직문화와 복지 혜택’으로 꼽기도 했다.출처: 얼리슬로스, 아주경제그도 그럴 것이 스타트업들의 복지제도와 업무 환경을 보면 실로 대단하다고 이야기하지 않을 수 없다. 좋은 인재들이 모여서 집약적으로, 폭발적인 성장을 해내야하는 스타트업들에게 가장 귀한 것이 좋은 인재이다 보니 그들을 영입하기 위해서라면 무엇이라도 하겠다는 것이 최근 2-3년간 스타트업 생태계의 큰 화두였다.예컨대 한국 스타트업을 대표하는 토스의 경우 누구나 일하고 싶은 업무 환경과 파격적인 복지 제도를 갖고 있다. 대표적으로 6개월간 장기근속을 하는 직원의 경우엔 1억 원 상당의 무이자 주택 대출을 제공하고, 개인 법인카드를 지급해 금액 제한이 없는 식대와 승인 없는 무제한 유급휴가를 제공하고 있다. 뿐만 아니라 사내에는 헤어디자이너와 바리스타도 따로 배치해 둘 정도로 복지에 신경을 쓰고 있는데, 지난 4월에는 토스의 이승건 대표님이 만우절 이벤트로 직원들에게 테슬라 10대를 선물한 것으로 화제가 되기도 했다.토스의 사내 카페의 모습이승건 대표가 이벤트를 위해 준비한 테슬라 차량 10대뿐만 아니라 최근 오늘의집을 운영하고 있는 버킷플레이스는 허먼밀러 의자를 전 직원의 집으로 선물한 것으로 주목을 받기도 했는데, 실리콘밸리 스타트업들이 전 직원에게 제공하며 유명해진 이 의자는 가격만 200만원 안팎에 이르며 최근 스타트업 뿐만 아니라 대기업을 까지도 기업들의 복지 수준을 가르는 척도로 떠올랐다.허먼밀러의 대표적인 제품인 에어론 "저러다 다 망할 줄 알았어"스타트업들의 좋은 복지제도와 업무 환경은 좋은 가십거리가 되기도 하고 누군가에게는 조롱거리가, 누군가에게는 부러움의 대상이 되기도 한다. ‘남의 돈으로 저렇게 보여주기식 퍼주기를 하는게 맞아?’ 라든지, ‘기사에서는 저렇게 좋은 복지와 업무 환경을 제공하는 회사들이 많은데 왜 정작 우리 회사는 이렇지?’ 라는 식으로 말이다. 그러다 보니 최근 2-3년간 스타트업 생태계에 어마어마한 투자금이 몰리고, 전 세계적으로 불마켓 (장기간에 걸친 주가상승이나 강세장을 뜻하는 것으로, 이를 황소에 비유한 것)을 형성하면서 너도 나도 할 것 없이 눈에 보이는 복지제도와 업무 환경을 개선하고 더 파격적인 보상을 제공하는 것에 집중해왔다고 생각한다.그런데 지금은 어떠한가. 금리와 원달러 환율의 인상, 전 세계적인 불황, IPO에 올라선 회사들의 기업가치 하락 등 스타트업 생태계에 다시금 베어마켓 (주가를 비롯한 자산 가격이 하락하고 있거나 하락할 것으로 예상되는 약세장을 뜻하는 말로, 하락장을 곰에 비유한 말)이 찾아왔다고 생각한다. 폭발적인 성장을 이루고 세간의 주목을 받던 회사들이 갑작스러운 비보를 들려주고 있고 너도 나도 할 것 없이 ‘거봐 저러다 다 망할 줄 알았어’라고 이야기하기도 한다.이렇게 갑작스럽게 투자 생태계가 얼어 붙고 자금 경색이 생기면, 회사들이 가장 먼저 줄이는 것이 인건비와 복지라고 생각한다. 실제로 많은 회사들이 감원을 이야기하고 있고, 재택근무와 공격적인 유연근무를 외치던 회사들이 ‘전시상황’이라고 표현하며 다시 사무실로 모이라고 외친다. 그런데 그 과정에서 복지제도와 업무 환경이 변한다면 그 회사의 ‘조직문화’가 바뀐 것인가? 이렇게 상황이 좋지 않을 때 갑자기 바뀌고 얼어 붙는 것이 그 조직의 ‘조직문화’라고 이야기할 수 있는 것인가? '복지=조직문화'는 아니다결론적으로, 필자는 복지 = 조직문화라고 생각하지않는다. 복지는 의사결정 방식, 보상제도, 커뮤니케이션 형태 등과 함께 그 기업의 조직문화를 보여주는 단면이자 조직 전체가 약속한 규칙일 뿐이다. 그렇기 때문에 어떤 상황이더라도, 오히려 더 힘든 상황이라면 더 단단하게 그 규칙이 지켜지고 모두가 같은 규칙 하에 같은 방향으로 나아가야 할텐데 어려울 때 갑자기 규칙을 바꾼다는 것은 애초에 그 규칙을 잘못 만든 것이 아닌지 고민을 해보아야 한다.예컨대, 우리 회사에 전사 재택근무라는 ‘자율적인 업무 환경’이 있다고 가정해보자. 만약 재택근무가 조직 전체의 업무 생산성을 높이는 것이라는 확신이 있다면 혹은 우리 조직이 가장 중요하게 생각하는 것이 개개인의 자율성과 일과 삶의 균형이고, 이렇게 보장한 개인의 자율성이 높은 생산성과 좋은 성과의 근간이 된다는 확신이 있을 때 전사 재택근무라는 업무 환경이 빛을 발할 것이다. 그런데 우리 회사는 개인의 자율성 보다는 굉장히 많은 협업과 소통이 필요하고 정해진 업무 규칙과 업무의 완결성이 중요한 조직이라면 어쩌면 재택근무라는 환경은 생산상을 저하하는 요인이 될 수 있다.복지 제도도 마찬가지다. 회사가 점심식대를 무제한 제공한다고 가정해보자. 직원들의 입장에서 회사가 점심식대를 제공하는 것 뿐만 아니라 무제한으로 제공한다면 이를 싫어할 이유가 없다. 회사 입장에서도 좋은 인재를 유치하기 위해 충분히 투자할 수 있는 비용이다.그런데 이런 파격적인 복지 제도는 기본적으로 세 가지가 전제 되어야 한다. 가장 첫 번째는 창업자와 대표를 비롯해서 주요 경영진들이 이런 제도를 ‘진짜’ 받아들일 수 있는가 이다. 사실 필자를 비롯해서 아직 시작한 작은 스타트업 뿐만 아니라 이미 규모를 이루고 성장하고 있는 스타트업의 창업자와 대표도 그 상황과 자리가 처음일 확률이 매우 높다. 그러니 그들도 아직 대단한 기업가정신을 가진 창업자가 아닐 확률이 높고, 극단적으로 좋거나 극단적으로 어려운 상황을 모두 건강하게 대응할 수 있는 경지에 이르지 못했을 확률이 높다. 그렇다 보니 직원들이 점심식대로 수십만원을 먹어도 정말 괜찮은지, 그게 정말 스스로 합당하다고 받아들여질 수 있는지가 이런 제도를 고민할 때 첫 번째로 고려해야하는 점이다.두 번째는 이를 활용하는 직원들의 책임감과 윤리의식이 채용 단계에서나 복지 제도 설계 과정에서 고려되었느냐는 점이다. 사실 조직이 커질 수록, 아무리 채용 단계에서 고민을 많이 하고 문턱을 높이더라도 모든 조직 구성원의의 책임감과 윤리의식이 100% 확률로 보장되기는 어렵다고 생각한다. 그러다 보니 만약 소수의 직원들이 부정하게 혹은 책임감 없이 복지 제도를 활용하는 사례가 나올 수 밖에 없는데, 이런 상황을 미연에 방지할 수 있는지가 이런 복지 제도 설계에 정말 중요한 요소다. 만약 누군가가 반복적으로 부정하게 복지 제도를 활용한다면 책임감 있게 선을 지키는 사람들의 의욕을 저하 할 수 있는 요인이 될 수 있고, 이는 곧 조직 전체에 영향을 줄 수 밖에 없다.마지막은 이런 제도가 진정으로 조직 전체의 생산성을 높이는데 이바지하는지를 살펴볼 필요가 있다. 사실 최근의 스타트업 투자 붐 이전에 기업은 ‘누군가의 돈’으로 만들고 운영하는 것이 아니었다. 창업자가 좋은 제품이나 서비스를 만들고 이를 고객에게 인정받아 돈을 벌면 그것으로 사세를 확장하고 함께 일한 사람들에게 보상을 하고 더 많은 사람들을 채용하는 식이 기본적인 기업의 운영 형태였다. 다만 그러다 보니 소수의 창업자나 오너, 대표이사의 사익을 위해서만 기업의 방향이 결정되고 이익이 분배되는 형태가 많았다.그런데 지금은 어떠한가. 많은 스타트업들이 외부의 큰 투자를 받아 빠르게 성장을 이루고 있고, 과거 세대와 다른 기업가 정신을 가진 창업자와 대표들이 등장하고 있으며, 그들은 조직원들의 성장과 그들의 이익, 더 좋은 근무 환경에 집중하고 이에 투자한다. 그 만큼 기업을 바라보는 창업자, 대표, 구성원들의 생각과 시각이 달라진 셈이다. 그런데 이런 상황에서도 바뀌지 않는 것이 있다. 바로 결국 기업은 이익을 내야 살아남을 수 있다는 점이다. 최근 2-3년간 불마켓을 경험하면서 스타트업 생태계에 ‘돈이 마르지 않을 것 같은’ 상황을 경험해 왔다. 그런데 사실 그건 착시였을 뿐 기업은 이익을 내지 않으면 돈이 마른다. 그러니 조직 전체가 생산성을 높이고 그 결과 지속적인 이익을 만들 수 있어야만 조직이 죽지 않고 ‘살아남을 수 있는’ 셈이다.그래서 우리가 선택한 복지 제도나 업무 환경이라는 ‘규칙’은 결국 우리 조직의 생산성을 높이기 위한 것이어야 한다. 물론 어떤 회사에게 이 ‘생산성’이 개개인의 창의성과 연결될 수 있고, 어떤 회사에게는 특정 시간을 잘 채워주는 것이 생산성의 핵심일 수 있다. 그렇지만 어찌되었던 이런 생산성에 대한 고민이 있어야만 갑자기 회사가 힘들고 외부 환경이 척박해진다고 우리가 정한 ‘규칙’을 깨고 없애는 상황이 발생하지 않는다고 생각한다.-&lt;무엇이 조직을 건강하게 만들까②&gt;에 계속-이진열 | 한국시니어연구소 대표서울대 졸업생 대표 연설을 하였으며, 재학생 창업자가 졸업생 대표 연설을 한 최초의 사례였다. 대학 재학 시절부터 창업에 뛰어들어, K-Pop 팬덤 서비스로 스타와 가상 대화를 할 수 있는 마이돌'을 창업해 글로벌 1400만 다운로드라는 성공과 업계 주목을 한몫에 받았다. 하지만, 결국 비즈니스 모델을 만들지 못했고 복잡한 지분구조 문제로 고통스러운 매각을 진행해야만 했다.첫 번째 창업의 실패를 반면교사 삼아 마이돌의 공동 창업자였던 김선중 CTO와 함께 재창업한 회사가 한국시니어연구소이다. 고령화라는 인구구조 변화가 메가 트렌드로 자리잡고 있고, 10조원에 이르는 요양시장의 시장성을 확인하고, 당장 개인사업자로 방문요양센터를 창업하며 시장의 문제점과 사업기회를 포착했다.한국시니어연구소는 오프라인 중심의 요양산업을 IT기술과 서비스로 혁신하는 실버테크 기업으로, 설립 2년만에 누적 투자액 123억을 유치했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.09.19.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>미성년자도 비대면 증권계좌 개설 가능? 9개월째 결론 못 내는 금융위</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003174020?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>“비대면 실명확인제 전반적 검토”토스증권, 서비스 출시했다 중단증권업계 “조속히 허용해달라”금융당국이 미성년자도 비대면으로 증권 계좌를 개설해도 되는지를 9개월째 결론 내리지 못하고 있다. 증권업계는 소비자 불편을 줄이는 차원에서 보완장치를 마련해서라도 조속히 허용해달라는 입장이다. 반면 금융위원회는 비대면 실명확인 제도 전반에 대한 검토가 필요하다며 논의를 계속하고 있다.19일 금융권에 따르면 금융위는 미성년자 비대면 계좌 개설 서비스의 허용 여부를 계속 검토 중이다. 토스증권은 지난해 말 만 14~18세 청소년을 대상으로 한 비대면 계좌 개설 서비스를 출시했으나 금융당국이 법적 검토가 필요하다고 하면서 나흘 만에 잠정 중단했다.민법상 만 19세 미만 미성년자는 법정대리인의 동의를 얻어야 법률행위를 할 수 있고 동의 없는 행위는 미성년자 본인이나 법정대리인이 취소할 수 있다. 다만 단순히 권리만을 얻거나 의무를 면하는 행위는 예외를 두고 있다.이 때문에 미성년자의 증권 계좌를 만들 때는 가족관계증명서, 기본증명서, 본인(자녀) 도장, 보호자(부모) 신분증 등을 은행이나 증권사 지점에 직접 제출하도록 하고 있다. 반면 미성년자의 은행 계좌는 ‘단순히 권리만을 얻는’ 행위로 취급돼 만 14세 이상이면 부모 동의 없이도 개설할 수 있다.증권업계는 미성년자의 비대면 계좌 개설 여부가 수익성에 직접적인 영향을 준다고 볼 수는 없지만 소비자 편익 증대와 잠재 고객 확보 차원에서 보완장치를 마련해서라도 허용해달라고 주장한다.금융투자협회 관계자는 “올 상반기에 실명확인 절차를 강화해 미성년자도 비대면 계좌를 개설할 수 있도록 해달라는 뜻을 금융당국에 전달했다”면서 “금융당국이 서비스 가능 여부를 빨리 판단해주면 좋겠다”고 말했다.금융위는 미성년자의 행위능력, 금융실명법 위반 여부 등 법적 문제뿐 아니라 비대면 금융사기 예방 문제 등도 검토해야 한다며 신중한 입장이다. 지난 2월부터 운영 중인 ‘비대면 실명확인 제도 개선 태스크포스(TF)’에서 비대면 계좌 개설 제도 전반을 들여다보고 있다.금융위 관계자는 “지난 7월 금융규제혁신회의를 출범하면서 확정한 금융규제혁신 36개 세부과제에 ‘비대면 실명확인 제도 개선’이 포함됐다”면서 “담당 사무관이 출산, 이직 등으로 두 차례 바뀌면서 세 번째 담당자가 업무를 맡는 어려움도 있었다”고 말했다.금융위의 가부 판단이 늦어지면서 금융권은 당국의 눈치만 보고 있다. 지금 상태로는 새로운 서비스를 준비할 수도, 준비하지 않을 수도 없다는 것이다. 토스증권 관계자는 “당국이 검토 의견을 확정하면 개선된 서비스를 선보이겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.09.27.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>"토스도 별 수 없다".. 목표치 1조 절반인 5300억 투자유치 마무리</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004754609?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>이 기사는 09월 26일 17:27 마켓인사이트에 게재된 기사입니다.종합 금융 플랫폼 서비스 '토스'를 운영하는 비바리퍼블리카가 5300억 규모 투자 유치를 마무리했다. 토스의 기업가치는 약 9조1000억원을 평가받았다.26일 투자은행(IB)업계에 따르면 따르면 비바리퍼블리카는 지난달 말 총 5300억원 규모의 시리즈G 투자 유치 작업을 마쳤다. 이번 라운드는 두 차례에 나눠 진행됐다. 앞서 지난 7월 말 1차적으로 3000억원의 자금을 유치한 바 있다. 비바리퍼블리카는 올해 초만 해도 최대 1조원 규모 수준의 자금 유치를 목표로 했으나, 금리 인상 등 급작스럽게 외부 환경이 악화되면서 투자금 유치 규모도 절반 가까이 줄었다. 회사 측은 당분간 시장 상황 추이를 지켜본 뒤 추가 펀딩 여부를 결정할 예정이다.이번 투자 라운드에는 기존 주주 뿐 아니라 신규 투자자들이 일부 참여했다.국내 사모펀드 운용사인 토닉PE가 1500억원을 투자했다. 이밖에 해외에서도 굿워터캐피탈, 그레이하운드캐피털, 하베스트캐피털 등이 참여했다.앞선 3000억 규모 투자 라운드에는 기존 주주인 KDB산업은행, 알토스벤처스가 각각 투자금 1000억원 규모로 참여했고, 다올인베스트먼트도 50억원을 투자했다. 신규 투자자로 합류한 광주은행과 미래에셋증권은 각각 200억원, 50억원을 투자한 것으로 알려졌다.토스의 투자 후 기업가치는 약 9조1000억원으로 평가받았다. 1차 클로징에서는 지난 8조원 중후반대 수준이었으나 이번엔 소폭 오른 것으로 파악된다. 투자자들은 토스의 가입자수, 거래액 등이 꾸준히 늘면서 수익성이 개선되고 있는 점을 높게 평가한 것으로 분석된다.토스는 이번에 확보한 투자금을 사업 확장에 사용할 예정이다. 토스는 현재 금리인상 국면이지만 공격적인 투자로 현재의 성장 국면을 이어가겠다는 계획이다. 이를 토대로 오는 2024년을 목표로 기업공개(IPO)를 나선다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>토스뱅크 '최고 5.5% 고정금리' 사장님 대환대출 접수</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013455085?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[토스뱅크 제공. 재판매 및 DB금지]    (서울=연합뉴스) 김유아 기자 = 인터넷전문은행 토스뱅크는 최장 2년간 최고 연 5.5%의 고정금리를 유지하는 '코로나 피해 사장님 대환대출'을 오는 29일까지 미리 신청받는다고 22일 밝혔다.    이 기간 내 신청하면 30일부터 순차적으로 대출이 접수되며, 다음 달부터는 5부제로 운영된다.    코로나19 확산으로 재난지원금이나 손실보상금 등을 수령했거나 만기 연장 또는 상환유예를 받은 차주 중 현재 정상적으로 경영활동을 하는 개인사업자라면 신청할 수 있다.    한도는 최소 1천만원에서 최대 5천만원으로, 2년 거치 후 3년간 분할 상환한다. 2년이 지나면 5년 차까지 은행채(신용등급 AAA 기준) 1년물에 2.0%포인트가 더해진 협약금리가 상한선으로 적용된다. 여기에 신용보증기금 보증료 연 1.0%는 일시 납입해야 한다.    토스뱅크는 "인터넷전문은행 중 신용보증기금과 대환대출 서비스에 참여한 곳은 처음"이라며 "기존 대출 상환에 따른 수수료뿐만 아니라 신규 대출에 대한 중도상환수수료도 전액 면제받을 수 있다"라고 설명했다.    kua@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>더 커진 예금 · 대출 금리 차…어느 은행 갈까?</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001000841?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;은행들의 예금과 대출 금리 차가 한 달 전보다 더 벌어진 걸로 나타났습니다. 지난달에 이어 어제(20일) 두 번째로 은행별 예대금리차가 공시됐는데 임태우 기자가 공시 내용을 분석했습니다. &lt;기자&gt;이번 공시에서는 전체 가계 대출에서 서민 정책대출 실적을 뺀, 예대금리차가 적용됐습니다.신용점수가 낮은 서민을 위해 정책대출을 많이 해줄수록 예대금리차가 더 커지는 착시를 없애기 위해서입니다.새로 도입한 예대금리차로 누가 '이자장사'를 많이 했는지 좀 더 엄밀하게 가려내겠다는 겁니다.그 결과 5대 시중은행 가운데 농협이 1.73%포인트로 가장 높게 나타났습니다.가장 적은 하나은행보다 약 0.6%포인트 높았습니다.지난달 예대금리차 1위 오명을 썼던 신한은행은 새 기준을 적용했더니 4위로 내려갔습니다.중·저신용 고객이 많은 인터넷 은행들 중에서는 토스뱅크가 4.76%포인트로 가장 높았습니다.예대금리차는 한 달 전보다 더 벌어졌습니다.시중은행들은 0.1%포인트 내외로 소폭 벌어졌지만, 지방은행 중에서는 0.8%포인트 가량 벌어진 곳도 있습니다.대출 금리를 올린 만큼 예금 금리를 따라 올리지 못해서인데, 가파른 기준금리 인상이 영향을 미쳤다는 분석도 나옵니다.[은행연합회 관계자 : 저축성 수신 금리 같은 경우 단기 예금 비중이 커졌어요. 단기예금은 장기 예금보다 금리가 일반적으로 낮잖아요? 그 비중이 커지면서 대출 금리만큼 (수신) 금리 상승을 못 보인 거죠.]은행연합회 공시 사이트에서는 자신의 신용 점수로 어느 은행에서 제일 싼 금리로 돈을 빌릴 수 있는지 한눈에 살펴볼 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>"LG생건 만원어치만요"… 1주 매수때와 수수료율 비슷</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002755951?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>국내 주식, 1주 미만 '소수점 거래' 첫날NH 등 5개사 소수단위 거래 시작활성화 한계불구 접근성 확대 기대국내 주식을 1주 미만 소수점 단위로 쪼개 사고파는 '소수점 거래'가 가능해졌다. 주가가 비싸 투자가 힘들었던 고가 주식을 사고 팔기가 한결 쉬워지는 것이다. 해외 주식에만 적용됐던 소수점 거래가 국내 주식까지 확대된 것은 지난 2월 금융위원회가 '국내주식 소수점 거래 서비스'를 혁신금융서비스로 지정한 데 따른 것이다. 소수 단위 주식 거래는 주식을 1주 단위로 거래하는 것이 아니라 소수점 단위까지 쪼개 사고 파는 것을 말한다. 이렇게 되면 1주당 65만원 수준인 LG생활건강 주식을 0.1주(6만5000원)만 살 수도 있고, 1만원 어치만 살 수도 있다.다만 증권사에 따라 주문 금액 단위, 취합 주기, 주문 가능 종목, 의결권 행사 가능 여부 등 세부 내용이 다르므로 투자전 자세히 알아볼 필요가 있다. 수수료는 온주 거래와 같은 수준으로 책정됐다. ◇NH·KB·미래에셋 등 5개사 오늘부터 소수점거래 시작= 한국예탁결제원과 NH투자증권, KB증권, 미래에셋증권, 키움증권, 한화투자증권 등 5개 증권사는 26일 '국내주식 소수단위 거래 서비스'를  시작했다. 이 서비스는 증권사가 투자자의 소수단위 매수주문을 취합하고 부족분을 자기재산으로 채워 온주를 취득한 뒤 해당 주식을 예탁결제원에 신탁하고, 예탁결제원은 신탁받은 주식에 기초해 다수의 수익증권으로 분할 발행하는 방식으로 이뤄진다. 예탁원 측은 "이번 서비스로 투자자의 주식 시장에 대한 접근성이 확대되고, 증권시장이 활성화될 것으로 기대된다"고 전했다.이날 5개사에 이어 순차적으로 삼성증권과 신한금융투자는 10월 4일부터, 다올투자증권, 대신증권, 상상인증권, 유안타증권, IBK투자증권은 연내 서비스를 시작한다. 교보증권, 메리츠증권, 신영증권, 유진투자증권, 이베스트투자증권, 카카오페이증권, 토스증권, 하나증권, 한국투자증권, 현대차증권, DB금융투자, SK증권 등 12개사는 내년 이후 서비스를 시작하기로 했다.◇증권사마다 주문 금액·취합주기 등 달라…의결권 행사도 가능= 국내 주식 소수점 거래를 원하는 투자자는 증권사마다 주문 금액 단위, 주문 취합 주기, 주문 가능 종목 등 세부 내용이 달라 확인해야 한다. 미래에셋증권은 10분 단위 주문 취합으로 국내 주식 소수점 거래 단점을 보완할 계획이다. 소수점 거래의 경우 여러 투자자들의 주문을 합산해 호가를 제출하는 구조여서 일반 거래와는 달리 실시간으로 체결되지 않는다는 단점이 있다. 미래에셋증권은 투자자의 주문을 매 10분 단위로 거래소에 전송하는 방식을 채택, 실시간 거래에 가까운 환경을 구현했다. 1000원부터 1원 단위로 투자자가 원하는 금액으로 투자할 수 있으며, 여섯째 자리까지 소수점 단위로 구분해 거래하는 것도 가능하다.NH투자증권은 100원 단위로 투자할 수 있도록 했다. 예약주문을 통해 24시간 주문이 가능해 고객 편의성을 높였다. 국내 주식 소수점 매매는 760여개 종목이 대상이다. 장바구니 기능을 도입, 소수점 매매를 원하는 종목을 30개까지 담아둘 수 있으며 일괄 매수도 가능하다. KB증권에서는 약 350개 종목의 매매가 가능하며, 영업일 오전 10시부터 오후 2시까지 총 5번 주문이 체결된다. 연말까지 국내 거주 개인 고객이 2만원 이하 국내 소수점 주식을 매수 시 수수료 0원 이벤트도 한다. 한화투자증권은 고객이 종목을 선택해 1000원 단위로 금액과 기간을 설정하면 주기적으로 자동 구매해주는 '적립식 자동 투자 서비스'를 함께 제공한다.예탁원은 소수점 주식에 대한 의결권 행사 시스템도 구축했다. 개별 증권사와 고객 간 약관에 따라 소수 단위의 의결권을 취합해 행사할 수도 있다. 증권사는 의결권 행사, 미행사, 중립투표 중 하나를 선택해 서비스를 제공한다. 의결권을 행사할 수 있는 증권사에서는 투자자가 A주를 0.2주 갖고 있다면 주총 안건별로 0.2만큼의 찬반 의사를 낼 수 있다. 증권사는 이를 취합해 온주 단위로 예탁원에 의결권 행사를 통보하고, 예탁원은 발행회사에 신탁주식에 대한 의결권을 행사한다. 다만 이날 서비스를 시작하는 5개사는 의결권을 행사하지 않기로 했다.소수점 거래는 수수료가 온주 거래보다 높기 마련인데, 현재로서는 국내주식 소수점 거래 수수료는 일반 국내주식 매매 수수료율과 동일하다. 소수점 거래와 관련, 국내 주식의 경우 1주당 100만원 이상인 황제주가 전무해 실효성이 크지 않다는 지적이 나온다. 지난해까지 100만원이 넘던 LG생활건강과 삼성바이오로직스 등도 주가가 크게 하락해 더 이상 고가 주식이라 하기도 어렵다. 코스피지수가 2300선을 하회하는 등 약세장에서 당장 거래금액이 많이 늘어나지 않을 수도 있다. 예탁원 관계자는 "현재 14개 증권사에서 시행 중인 해외 주식 소수점거래를 보면 미국 주식 거래금액의 약 1% 정도를 차지한다"며 "국내 주식 소수점거래가 시작돼도 시장이 크게 활성화되는 데는 한계가 있을 것"이라고 말했다. 이어 "개인 투자자가 금액 제한 때문에 기관보다 분산투자하기 어려웠던 점을 개선하고, 조각투자에 대한 투자자들의 요구를 실현한 데 의미가 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>“면접 떨어져도 무조건 100만원 준다” 너무 착한 ‘회사’ 실화냐?</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002044002?sid=105</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>[망고보드][헤럴드경제=김현일 기자] “사원 모집에 쏟아붓는 돈만 총 4억원이라니….”모바일 금융 서비스 ‘토스’가 대규모 채용계획을 발표하면서 서류합격자들에게 100만원 지급 조건을 내걸었다. 최종 단계에서 떨어지더라도 서류전형에 붙었다면 100만원을 받을 기회를 제공한다는 계획이다.토스를 운영하는 비바리퍼블리카(이하 토스)는 지난 21일부터 ‘2022 토스커뮤니티 대규모 채용’을 시작했다. 토스를 비롯해 토스뱅크, 토스페이먼츠, 토스증권, 토스인슈어런스, 토스씨엑스, 토스글로벌, 토스플레이스 등 전 계열사에 걸쳐 최대 300명을 뽑을 예정이다.지원 가능한 직군은 개발, 제품, 보안 등 총 24개에 달한다. 전형은 ‘서류→직무 인터뷰→문화 인터뷰’ 순으로 진행되는데 직군에 따라 과제 또는 코딩테스트 전형을 추가로 실시한다.[토스]토스는 서류합격자 중 400명을 추첨으로 뽑아 1인당 각 100만원의 성장지원금을 지급하겠다는 계획을 내걸었다. 이번 채용을 위해 최소 4억원 투입을 예고한 셈이다. 그동안 우수 인력 영입을 위해 전사적 역량을 집중해온 토스의 조직문화가 이번 채용 전략에도 반영됐다는 분석이다.앞서 토스는 지난 7월 경력 3년 이하 개발자를 공개 채용하는 ‘2022 토스 NEXT 개발자 챌린지’를 실시하면서 지원자 50명에게 5만원 상당의 토스포인트를 선물하는 이벤트를 내걸었다. 코딩테스트를 완료한 지원자 중 추첨으로 뽑힌 20명에게는 개발지원금 100만원을 지급하기도 했다. 당시 80명을 뽑는 전형에 6000명이 넘게 몰린 것으로 알려졌다.이번 채용에서는 개발자 외에도 제품, 보안 등 24개 직군에서 최대 300명을 뽑을 계획이다. 현재 임직원 수가 1800명인 점을 고려할 때 6분의 1에 해당하는 규모다.[토스 홈페이지]토스는 지난 2년간 인재 영입에 공격적으로 나선 결과, 전체 임직원 수가 2020년 8월 650여명에서 2년 만에 세 배 가까이 늘었다.파격적인 복지정책도 젊은 인재를 끌어오는 데 기여했다. 토스는 현재 주요 직원 복지제도로 ▷법인카드 전원 지급 ▷무제한 휴가제도 ▷금요일 오후 2시 전원 퇴근 ▷주택자금 대출 무이자 1억원 등을 시행하고 있다.토스 채용팀 관계자는 “토스커뮤니티에 합류를 원하는 분들의 모든 여정이 성장의 발판이 될 수 있도록 다양한 측면에서 심혈을 기울였다”며 “사람들의 삶을 바꾸었고, 앞으로도 바꿔나갈 토스의 혁신 여정에 함께할 동료를 기다린다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.09.17.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>서울시, 17일부터 서울 곳곳서 ‘청년의 날’ 행사 개최</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003716532?sid=100</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>서울시가 17일 ‘청년의 날’(매년 9월 셋째 주 토요일)을 맞아 17일부터 23일 일주일 간 서울 곳곳에서 청년이 주인공이 되는 ‘2022 청년주간’ 행사를 개최한다.올해 행사 슬로건은 ‘청년의 [행복·꿈·희망+@]를 동행하다’다. 오세훈 서울시장의 민선 8기 시정 핵심 키워드인 ‘동행’과 올해 3월 오 시장이 발표한 ‘청년행복프로젝트’의 핵심 단어인 ‘행복’을 반영했다. [+@]를 남겨둬 미래, 내일 등 청년들이 서울시와 동행하고 싶은 각자의 키워드를 추가해 완성되는 참여형 슬로건이다.17일 서울 광화문 광장에서 2022 청년의날 청년정책 박람회가 열리고 있다. /뉴시스										올해 행사는 2020년 8월 청년기본법 제정 이후 처음 열리는 대면행사다. 광화문광장과 서울시청, 서울청년센터, 무중력지대 등 서울 곳곳에서 청년들이 취업 등 고민을 나누고 청년을 위한 정책과 정보를 얻어갈 수 있는 다양한 행사가 열린다.주말인 17일과 18일 광화문광장에서는 정부, 지자체, 공공기관, 민간기업 등이 참여하는 ‘청년정책 박람회’가 열린다. 서울시는 나에게 맞는 ‘청년행복프로젝트’ 정책 찾기, 퍼스널 컬러 진단, 청년 일자리 매칭강화 전담창구 상담사가 참여하는 현장 취업 상담실, 면접 메이크업 및 사진촬영, 영테크 맛보기 재무상담 등 총 12개 부스를 운영한다. 각 부스에서는 정책을 직접 체험하고, 알아갈 수 있는 다양한 프로그램이 진행된다.박람회 기간 중 광화문광장에 설치된 무대에서는 서울시 청년참여기구인 서울청년정책네트워크와 함께하는 정책 토크와 청년정책 퀴즈쇼, 청년 고민상담 토크쇼 등이 열린다. 싱어송라이터 윤딴딴, 신현희의 축하공연도 있다.19일 서울시청에서는 테슬라, 나이키, 아마존 등 글로벌 기업에서 일하는 40인 현직자 선배의 조언을 들을 수 있는 ‘글로벌 취업 멘토링 데이’가 열린다. 글로벌 기업에 취업을 희망하는 청년 300여명이 테슬라, LG전자, SK하이닉스, 토스 등 에 재직 중인 현직자 멘토와 만날 예정이다.이날 행사에서는 ‘디지털 시대 글로벌 인재 기준과 혁신 분석’을 주제로 한 김형석 IBM 디지털 사업부 전무의 키노트 특강을 시작으로, 공개 모의면접, 현직자의 현장 Q&amp;A, 그룹별 멘토링이 진행된다.‘글로벌 취업 멘토링 데이’에는 글로벌 기업 취업을 희망하는 청년 누구나 참여할 수 있으며, 사전 신청을 한 청년에게 참석 우선권을 부여한다. 사전 신청은 청년몽땅정보통(https://youth.seoul.go.kr) 공지사항에서 할 수 있다.17일 서울 광화문 광장에서 2022 청년의날 청년정책 박람회가 열리고 있다. /뉴시스										21일 오전 10시 서울시청 시민청 활짝라운지에서는 그간 청년취업사관학교, 영테크, 희망두배 청년통장, 청년 마음건강 등 서울시 주요 정책에 참여한 청년들이 정책 참여 경험을 공유하는 청년 토크콘서트 ‘오히려 좋아’가 열린다.이밖에도 서울청년센터, 무중력지대 등 서울시 청년공간 11곳에서 청년의 날 기념 프로그램이 진행된다. 무중력지대 양천은 16일, 17일 이틀간 목동 메가박스에서 ‘무중력영화제(MUFF)’를 연다. 서울청년센터 동대문은 19일부터 30일까지 자기소개서 컨설팅, 면접 특강, 퍼스널 컬러 등 맞춤형 취업 지원 컨설팅을 진행한다.김철희 서울시 미래청년기획단장은 “올해 청년주간은 서울시가 ‘청년의 날’을 기념해 처음으로 개최하는 대면 행사로, 청년들이 청년정책을 피부로 느끼고 활력을 되찾을 수 있는 프로그램을 마련했다”며 “청년의 날은 청년이 주인공인 만큼 청년의, 청년을 위한, 청년에 의한 특별한 한 주가 될 수 있도록 최선을 다해 준비하겠다”고 말했다.한편 오세훈 시장은 17일 서울 송파구 올림픽공원에서 ‘2022 제6회 대한민국 청년의 날’ 행사 중 하나인 ‘제5회 청년친화헌정대상 시상식’에서 종합대상을 받는다. 서울시는 청년종합계획 ‘청년행복프로젝트’ 수립, 지자체 최대 규모 청년정책 추진(지난해 7079억원), 청년자율예산 운영 등 성과를 인정받아 지난 7월 청년친화 우수 광역자치단체로 선정됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.09.16.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>"야외오페라 '마술피리' 한강 노들섬에서 무료 관람하세요"</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003685815?sid=103</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>야외오페라 '마술피리' 서울 한강 노들섬서 10월 1~2일 무료공연서울문화재단 제공 모차르트의 오페라 '마술피리'가 10월 1~2일 서울 한강 노들섬에서 무료공연한다. 서울문화재단이 창립 이래 처음 제작하는 야외 오페라다.공연은 노들섬 잔디마당의 1200석 규모 야외 특설무대에서 열린다. 오후 7시 30분 시작해 휴식 없이 100분간 진행한다.베테랑 제작진과 실력파 출연자가 의기투합했다. 연출 이회수, 지휘 여자경, 콜로라투라 소프라노 유성녀(밤의 여왕 역), 테너 이명현(타미노 역), 소프라노 장혜지(파미나 역), 바리톤 최은석(파파게노 역), 소프라노 이세희(파파게나 역), 베이스 박준혁(자라스트로 역), 테너 오정율(모노스타토스 역)가 감동의 무대를 펼친다.'마술피리'는 왕자 타미노가 밤의 여왕으로 불리는 딸 파미나를 구하기 위해 새장수 파파게노와 함께 모험을 떠나는 여정을 담았다. 당시 이탈리아어를 이해하지 못하는 서민을 위해 만들어진 '징슈필'(Singspiel·작품 중간에 대사가 포함된 민속적인 독일어 오페라)로, 모차르트의 천재성이 집약됐다. 소박한 가곡부터 아름다운 아리아와 다양하게 어우러지는 중창, 진지한 종교음악이 모두 녹아 있다. 이날 오후 4~6시에는 음악 관련 거리예술과 서커스 작품을 관람할 수 있다. △팔도보부상 이야기보따리(안해본소리 프로덕션) △랄랄라 패밀리쇼(음악당 달다) △도시소리(지온) △팔팔(콜렉티브 쿠치) △스러지다(봉앤줄) 공연을 준비했다.이창기 서울문화재단 대표는 "한강노들섬오페라 '마술피리'는 팬데믹으로 위축된 시민의 문화향유권을 회복하고자 특별 기획된 공연이다. 평소 접하기 힘든 클래식 오페라 공연을 일상 속에서 부담 없이 즐기며 많은 이들이 예술이 주는 감동을 만끽하기를 기대한다"고 전했다. 만 5세 이상부터 관람할 수 있다. 오는 19일부터 사전 예약 가능하다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>8월 예대금리차, 5대 은행 중 농협 가장 커… 인터넷은행은 토스</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000841842?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>지난달 5대 시중은행 가운데 예대금리차(대출금리-예금금리)가 가장 컸던 곳은 NH농협은행으로 나타났다.20일 은행연합회 소비자포털에 공시된 ‘예대금리차 비교’ 통계에 따르면 8월 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 NH농협은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 1.73%포인트(p)로 집계됐다.뉴스1        예대금리차가 상대적으로 크다는 것은 산술적으로 대출·예금 금리 격차에 따른 마진이 많다는 뜻이다.은행권이 7월 첫 공시 이후 저소득·저신용 서민 대상의 정책금융상품의 금리가 높아 이를 많이 취급할수록 예대금리차가 커지는 왜곡 현상을 지적하자, 8월 통계부터 일부 정책금융상품을 제외한 예대금리차가 따로 공개됐다.NH농협에 이어 KB국민은행(1.40%포인트), 우리은행(1.37%포인트), 신한은행(1.36%포인트), 하나은행(1.09%포인트) 순으로 가계 예대금리차가 컸다.NH농협은행 관계자는 “대출 금리는 다른 은행보다 낮았지만, 8월 단기성(6개월 미만) 정부 정책자금을 많이 취급(수신)하면서 예금 금리도 떨어져 예대금리차가 커졌다”고 설명했다.인터넷전문은행 중에선 토스뱅크의 가계 예대금리차(4.76%포인트)가 가장 컸다. 케이뱅크(3.13%포인트)와 카카오뱅크(1.86%포인트)가 뒤를 이었다.지방은행, 외국계은행을 포함해 공시에 참여한 19개 은행 가운데 가계 예대금리차가 가장 큰 곳은 전북은행(4.80%포인트)이었다. 예대금리차가 최소인 은행은 IBK기업은행(0.96%포인트)이었다.기업 대출까지 포함한 전체 은행의 예대금리차(대출금리-저축성수신금리) 통계에서도 5대 은행 가운데 NH농협은행이 1.78%포인트로 가장 컸다. KB국민은행(1.45%포인트), 우리은행(1.43%포인트), 신한은행(1.39%포인트), 하나은행(1.20%포인트)이 뒤를 이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.09.24.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>돌아온 ‘예금 전성시대’… 수시입출금 통장 금리도 3% 뚫었다</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000842757?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>최근 기준금리 인상에 따라 시중은행과 저축은행 등의 예금 금리도 빠르게 오르고 있다. 주식과 부동산, 암호화폐 등 호황을 누렸던 주요 자산들의 가격도 크게 떨어지면서, 안전하게 현금을 굴릴 수 있는 예금으로 눈을 돌리는 소비자들이 다시 늘어나는 추세다.24일 금융 시장 관계자에 따르면 이달 들어 일부 저축은행들은 잇따라 연이율 4%대의 정기예금 상품을 출시했다. 시중 은행들의 정기예금 금리도 최근 연 3% 후반대까지 올랐다.사진은 이달 서울 시내 한 은행에 내걸린 상품 안내 현수막. /연합뉴스        상상인저축은행과 상상인플러스저축은행은 지난 23일 주요 예금 상품인 ‘회전정기예금’의 금리를 최대 연 4.21%까지 올렸다. 이는 이날 기준 업계 최고 수준에 해당된다.키움저축은행의 ‘SB톡톡 회전식 정기예금’의 기본금리는 연 4.15%, HB저축은행의 ‘비대면 회전정기예금(3년 만기)’ 금리는 연 4.10%, DB저축은행의 ‘1년 회전주기 3년 만기 M-드림빅 정기예금(모바일 전용)’ 금리는 연 4.05%다.회전정기예금은 회전 주기(1년)마다 정기예금 이율에 우대 이율을 더해 자동 회전되는 예금이다. 가장 큰 특징은 변동 금리를 적용한다는 점이다. 가입 기간 내 금리가 오를 경우 금리가 상향 적용되고, 반대로 금리가 내릴 경우 금리를 낮춰 적용한다는 얘기다. 단, 가입 기간이 최소 24개월부터 60개월까지 1년 단위로 정해져 있어, 만기까지 자금이 묶이게 된다.서울 소재 한 저축은행 관계자는 “미국을 비롯한 주요 국가들의 금리 인상 기조가 당분간 계속될 가능성이 크다”며 “지금 회전정기예금 가입하면 자산 증식 효과가 클 것”이라고 말했다. 최근 제롬 파월 미국 연방준비제도이사회(Fed) 의장도 “금리 인상을 멈출 때가 아니다”라며 물가를 잡기 전까지 금리를 계속 올리겠다는 뜻을 밝히기도 했다.그래픽=이은현        돈이 묶이는 것을 피하고 잠깐 돈을 맡기기에는 이른바 ‘파킹 통장(자유 수시입출금 통장)’이 유용하다. 저축은행의 파킹통장 금리도 최근 3%대를 넘어섰다. OK저축은행의 ‘OK세컨드통장’의 최대 금리는 연 3.3%, SBI저축은행 ‘사이다뱅크 파킹통장’과 페퍼저축은행의 ‘페퍼스 파킹통장’이 각각 연 3.2%의 금리를 적용한다.OK세컨드통장의 기본금리는 연 3.0%다. 시중은행과 증권사에 세컨드통장 오픈뱅킹 약정 시 다음날부터 우대금리 0.3%포인트가 붙는다. 1000만원까지 최대 연 3.3%의 이자를 주고, 초과 분에 대해서는 연 1% 이자가 붙는다. ‘페퍼스파킹통장’은 한도 5000만원까지 연 3.2%의 금리를 적용한다.인터넷은행인 토스뱅크의 파킹통장은 최대 1억원에 대해 연 2.0% 금리를 준다. 금리는 상대적으로 낮아졌지만, ‘지금 이자받기’라는 기능이 있다. 최대 한도 1억원인 카카오뱅크의 ‘세이프박스’는 연 2.2%의 금리를 적용하고, 최대 한도 3억원인 케이뱅크의 ‘플러스박스’는 연 2.3%의 이자를 준다.기업 고객을 잡기 위한 시중은행들의 예금 상품 금리 경쟁도 치열하게 전개되고 있다. 사업자등록증을 소지한 개인사업자와 법인만 가입할 수 있는 정기예금 상품이 최근 잇따라 출시됐다.현재 우리은행의 ‘WON 기업정기예금’ 금리가 연 4.27%로 가장 높다. 이는 한 계좌에 100만원 이상 50억원 이하를 예치할 수 있는 상품이다. 만약 1000만원을 12개월 간 이 정기예금 계좌에 넣어두면, 세후 36만1242원의 이자가 붙는다.IBK기업은행의 IBK성공의 법칙 예금(복리채) 금리는 최고 연 4.07%다. 이는 1000만원 이상 10억원 이내에서 예치할 수 있는 상품으로, 기본금리는 3.87%이다. 여기에 기업은행 입출금식 계좌를 제로페이 가맹점 계좌로 등록하거나, 해당 계좌에 BC카드 매출대금을 입금할 경우 우대금리 0.2%를 적용한다.시중은행의 주요 상품으로는 우리은행이 기본금리 연 3.64%에 우대금리 0.3%를 적용해 최고 금리가 연 3.94%인 특판상품 ‘우리은행 WON플러스 예금’을 이달 출시했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>고가 주식도 1000원에 매수…소수점 거래 시작</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004103068?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>NH투자·KB 등 5개 증권사서 서비스[서울경제] 26일부터 국내 주식도 1주 미만 소수점 단위로 주식을 쪼개 사고파는 ‘소수점 거래’가 가능해지면서 5개 증권사가 국내 주식 소수점 거래의 포문을 열었다. 1주당 수십만 원에 이르는 고가 주식에 대한 접근성이 크게 높아질 것으로 전망된다.금융투자 업계에 따르면 한국예탁결제원과 NH투자증권·KB증권·미래에셋증권·키움증권·한화투자증권 등 5개 증권사는 이날부터 국내 상장 주식을 소수 단위로 거래할 수 있도록 하는 서비스를 시작했다. 1주 단위가 아닌 1000원, 1만 원 등 금액 단위로 거래할 수 있게 된 것이다. 그동안 소수점 거래는 해외 주식에 대해서만 가능했지만 금융위원회가 올해 2월 국내 주식 소수점 거래 서비스도 혁신금융 서비스로 지정하면서 도입의 물꼬를 텄다.서비스는 증권사가 투자자의 소수 단위 매수 주문을 취합하고 부족분을 자기 재산으로 채워 온주(1주)를 취득한 후 해당 주식을 예탁결제원에 신탁, 예탁결제원이 신탁 받은 주식에 기초해 다수의 수익증권으로 분할·발행하는 방식으로 이뤄진다. 거래 수수료는 대부분 증권사가 온주 단위 거래와 같은 수수료를 받는다. 다만 증권사별로 주문 금액 단위와 주문 취합 주기, 주문 가능 종목들은 조금씩 다르다. 예컨대 미래에셋증권은 1000원부터 1원 단위로 주문이 가능하고 매 10분 단위로 거래가 체결돼 사실상 실시간 거래에 가까운 투자 환경을 구현했다. NH투자증권은 살 수 있는 종목이 760여 개에 이르며 100원 단위로 투자할 수 있게 했고, 한화투자증권은 고객이 금액과 기간을 설정하면 주기적으로 자동 구매해주는 ‘적립식 자동 투자 서비스’를 제공한다.스타트는 5개 증권사가 끊었지만 대부분 증권사도 서비스 도입을 잇따라 계획 중이다. 삼성증권과 신한금융투자가 다음 달 4일부터, 다올투자·대신·상상인·유안타·IBK투자증권이 올해 내 서비스를 시작한다. 교보·메리츠·신영·유진·이베스트·카카오페이·토스·하나·한국투자·현대차·DB금융투자·SK증권 등 12개 사는 내년 이후 서비스를 시작하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.09.17.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>하루만 맡겨도 연 3%…파킹통장 경쟁 뜨겁다</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011423939?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>기사내용 요약인터넷은행 2%·저축은행 3%대금리인상기 수신 경쟁력 확보[서울=뉴시스]이주혜 기자 = 금리인상기 은행들의 자금 조달 경쟁이 치열해지면서 파킹통장 금리가 예금금리 못지않게 오르고 있다. 인터넷은행에서는 하루만 맡겨도 연 2% 금리를 제공하는 파킹통장이 보편화됐다. 저축은행에서는 연 3%대 파킹통장도 등장했다.17일 금융권에 따르면 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷전문은행 3사의 파킹통장 금리는 2%대를 넘어섰다.케이뱅크는 14일 파킹통장 '플러스박스'의 금리를 연 2.3%로 인상했다. 이는 인터넷은행 3사 파킹통장 중 가장 높은 수준이다. 플러스박스는 돈을 임시로 보관해 언제든지 자유롭게 뺄 수 있는 상품이다. 최대 3억원까지 예치가 가능하다. 최대한도인 3억원을 한 달(30일) 동안 예치할 경우 세후 약 48만원의 이자를 받을 수 있다.카카오뱅크는 케이뱅크보다 일주일 앞서 '세이프박스' 금리를 인상했다. 카카오뱅크는 8일 파킹통장 상품인 '세이프박스' 금리를 연 2.2%로 0.2%포인트 높였다. 세이프박스 1개의 최대 보관 한도는 1억원이지만 여러 개의 세이프박스를 보유할 경우 1억원이 넘는 자금도 보관이 가능하다. 토스뱅크의 입출금통장 금리는 2%다. 다른 은행보다 먼저 2%대 금리를 제공해 인기몰이를 한 바 있다. 다만 카카오뱅크와 케이뱅크의 금리 인상으로 현재는 인터넷은행 3사 중 파킹통장 금리가 가장 낮다. 토스뱅크 관계자는 "'지금이자받기' 서비스 등으로 상품 경쟁력은 충분하다고 판단한다"면서도 "금리 인상을 긍정적으로 검토하고 있다"고 말했다.저축은행에서는 3%대 파킹통장 상품도 등장했다. OK저축은행은 13일 최고 연 3.3%(세전) 금리를 제공하는 파킹통장 'OK세컨드통장'을 출시했다. 1000만원까지 기본금리 연 3.0%가 적용되며 다른 은행 오픈뱅킹에 계좌를 등록하면 우대금리 0.3%포인트를 받을 수 있다. 1000만원 초과분에는 최고 연 1.0%가 적용된다. 페퍼저축은행의 '페퍼스파킹통장'은 별도 조건 없이 5000만원까지 최고 연 3.2%의 금리를 받을 수 있다. 5000만원 초과분은 연 1.0%(세전) 금리가 적용된다. 웰컴저축은행의 '웰컴 직장인사랑 보통예금'은 5000만원까지 최고 연 3% 금리를 준다. 저축은행과 인터넷은행이 이처럼 파킹통장 금리 경쟁을 벌이는 것은 시중은행의 정기예금 금리가 3%대 중후반으로 높아지면서 수신 경쟁력을 확보하기 위해서다. 저축은행 관계자는 "시중은행이 수신금리를 올리면서 이를 방어할 수 있는 수준으로 파킹통장 금리를 올리고 있다"면서 "금리 인상 기조가 계속되면서 고객들도 6개월, 1년 이상 자금을 묶어둬야 하는 정기예금보다는 쉽게 갈아탈 수 있는 파킹통장을 선호하는 추세"라고 말했다.파킹통장의 금리가 높아지는 대신 한도는 줄어들고 있다. 입출금 장벽이 낮은 점을 고려해 수신고를 관리하기 위해서다. 저축은행 관계자는 "저축은행의 경우 과거에는 파킹통장 한도가 1억원 이상이거나 한도가 없는 경우도 있었지만 수신 포트폴리오 관리를 위해 최근에는 금리를 올리는 대신 한도를 5000만원 이하로 낮추고 있다"고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>투자 빙하기에…토스, 5300억 유치 성공</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005022321?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>수익 개선·오프라인 확장 주목종합금융 플랫폼 서비스 '토스'를 운영하는 비바리퍼블리카가 자금유치를 잇따라 성사시켰다. 두드러진 대출 실적 성장세와 오프라인 확장 속도가 높은 평가를 받았다. 26일 관련 업계에 따르면 토스는 최근 두 차례에 걸쳐 약 5300억원 규모 자본 확충 작업을 마무리했다. 기존 주주뿐 아니라 신규 투자자까지 유치하는 데 성공했다. 거래에 참여한 이들은 토스의 기업가치를 9조1000억원으로 추산했다. 신규 투자자들은 토스의 수익성이 줄곧 개선세인 점에 주목했다. NICE신용평가에 따르면 지난 7월 기준 국내 신규 신용대출 규모는 9조원 정도다. 이 중 토스를 통해 대출이 집행된 금액은 1조8000억원 수준으로 약 20%에 달한다. IB업계에서는 토스의 기업공개(IPO) 시점을 2024년 이후로 전망하는 분위기다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.09.16.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>'중금리대출 여파'…카뱅·케뱅 가계대출 부실 늘어</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005147916?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>올해 들어 카카오뱅크와 케이뱅크의 가계대출 부실채권이 크게 늘어났다. 인터넷은행들이 금융당국에 약속한 ‘중금리대출’을 꾸준히 확대하는 과정에서, 돌려받기 어려워진 부실채권 규모도 함께 늘어났다는 분석이다.16일 주요 은행 경영공시에 따르면 올해 상반기 카카오뱅크와 케이뱅크의 무수익(고정 이하) 여신 잔액이 전년동기에 비해 크게 늘었다. 카카오뱅크의 무수익여신 잔액은 전년동기(501억원)보다 210억 늘어난 711억원을 기록했다. 무수익여신비율(무수익여신을 총여신으로 나눈값)은 0.27%로 전년동기(0.22%)보다 0.05%포인트(p) 높아졌다. 케이뱅크의 경우 무수익여신 증가 규모가 더 컸다. 지난해 상반기 기준 276억원이었던 무수익여신잔액은 올해 554억원으로 두배 가까이(278억원) 늘어났다. 무수익여신비율은 지난해 상반기 0.54%에서 0.63%로 0.09%p 상승했다.무수익여신은 부실채권을 나타내는 주요 지표다. 은행이 돈을 빌려주고 제때 원리금을 회수하지 못하는 채권을 뜻한다. 원리금이 3개월 이상 연체된 부실채권 등이 여기에 포함된다. 두 인터넷은행의 부실채권은 모두 가계대출에서 잡혔다. 토스뱅크의 경우 출범 1년이 되지 않아 비교 지표가 없었다. 토스뱅크의 경우 상반기 기준 무수익여신규모는 총 54억원, 무수익여신비율은 0.13%로 두 은행보다 모두 양호한 수준이었다. 같은 기간 주요 시중은행의 무수익여신 규모와 비율은 안정적인 모습이다. 국민은행의 무수익여신 규모는 지난해 상반기 6425억원에서 5084억원으로, 무수익여신비율은 0.20%에서 0.14%로 개선됐다. 우리은행의 무수익여신 규모는  6943억원에서 5198억원으로 1745억원 줄어들었고, 무수익여신비율도 0.25%에서 0.18%로 0.07%p 하락했다. 신한은행 또한 무수익여신규모는 8314억원에 6545억원으로 1769억원 줄었다. 무수익여신비율도 0.28%에서 0.21%로 0.08%p 떨어졌다.카카오뱅크와 케이뱅크의 부실 지표 악화는 지난해부터 확대해 온 중금리대출의 여파로 풀이된다. 중금리대출은 개인신용평점 하위 50% 고객에게 연 6.5% 금리 상한으로 제공하는 신용대출이다. 중저신용자에 대한 대출 규모를 늘리는 과정에서, 자연히 부실채권도 함께 늘어난 것으로 파악된다. 은행연합회 공시에 따르면 두 은행의 6월말 기준 중·저신용자 대상 신용대출 비중(중금리대출)은 카카오뱅크가 22.2%, 케이뱅크 24.0%다. 두 은행이 올해말까지 제시한 목표치는 카카오뱅크와 케이뱅크가 25%, 토스뱅크가 42%다. 다만 부실채권지표는 과거 부실을 기반으로 한 만큼, 아직 통계에 잡히지 않는 미래 부실 가능성을 배제하기는 어렵다. 기준금리가 계속 상승하는 국면에서 대출 금리가 더 오르고, 올해부터는 본격적으로 사업자 대출 등을 시작한 영향으로 향후 부실률이 더 늘어날 수 있다. 카카오뱅크 관계자는 “작년 하반기만해도 (중금리대출이) 규모는 10% 정도였으나 지금은 22.2%로 늘렸다. 포용금융을 실천하는 과정에서 고정이하 여신이나 연체율 증가가 발생한 영향으로 보지만, 충분히 관리가능한 수준”이라고 설명했다. 케이뱅크 관계자도 “케이뱅크는 지난해부터 대출 총액을 크게 늘렸고, 특히 중저신용자 대출비중을 지난해 말 16.6%에서 더 늘었다”며 “(지표 악화)는 빠른 성장의 결과고, 연체율 관리나 CSS(신용평가모형) 고도화 등을 통해 충분히 관리해 나가겠다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>"연 5.5%에 최대 5000만원 대환"… 토스뱅크 '사장님 대환대출' 사전 신청</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004101650?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>[서울경제] 토스뱅크가 최대 2년간 고정금리를 유지하는 ‘코로나 피해 사장님 대환대출(이하 사장님 대환대출)’의 사전 신청을 받는다고 22일 밝혔다. 사장님 대환대출은 2년간 최대 5.5%의 고정금리를 적용하는 상품이다. 이날부터 29일까지 토스뱅크에서 사전 신청하면 30일부터 순차적으로 대출이 신청된다. 10월부터는 출생연도에 따른 5부제 방식이 적용될 예정이다. 대상은 코로나19로 피해를 입어 손실보전금 등 재난지원금, 손실보상금을 수령했거나 만기연장·상환유예를 받은 차주 중 현재 정상적인 경영활동을 하고 있는 개인사업자다. 코로나19 피해 업체를 지원하는 취지에서 올해 5월 31일까지 취급된 대출에 한해 대환이 가능하다.한도는 최소 1000만 원, 최대 5000만 원이다. 고객들은 2년 거치 후 3년간 분할 상환해야 한다. 3~5년 차에는 은행채(신용등급 AAA 기준) 1년물에 2.0% 포인트 가산한 협약금리가 상한선으로 적용된다. 신용보증기금 보증료 연 1.0%는 일시 납입해야 한다. 기존 대출 상환에 따른 수수료와 신규 대출에 대한 중도상환수수료는 전액 면제된다.신청은 토스 애플리케이션에 접속해 토스뱅크 홈 화면 ‘상품찾기’, ‘토스뱅크로 갈아타기’에서 ‘코로나 피해 사장님을 위한 대환대출 미리 예약하기’를 클릭하면 된다. 신보와 함께 대환대출 서비스에 참여한 건 인터넷전문은행 중 토스뱅크가 처음이다.토스뱅크 관계자는 “고객을 먼저 생각하는 토스뱅크의 취지에 따라 신용보증기금과 함께 이번 대환대출에 참여하게 됐다”며 “고정금리 상품으로 금리 인상에 영향을 받지 않아 기존에 고금리 대출상품을 이용하는 고객들에게 유리할 것으로 전망한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>토스뱅크, '사장님 대환대출' 사전 신청 시작</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004902607?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>토스뱅크 '사장님 대환대출' 사전 신청 관련 이미지. 토스뱅크 제공  [파이낸셜뉴스] 토스뱅크는 최대 2년간 고정금리를 유지하는 '코로나 피해 사장님 대환대출(이하 사장님 대환대출)' 사전 신청을 받는다고 22일 밝혔다.   '사장님 대환대출'은 2년간 최대 5.5%의 고정금리를 적용하는 상품이다. 이달 29일까지 토스뱅크에서 사전 신청하면 30일부터 순차적으로 대출이 신청된다. 오는 10월부터는 5부제 방식으로 운영될 예정이다.   대상은 코로나19로 피해를 입어 손실보전금 등 재난지원금, 손실보상금을 수령했거나 만기연장·상환유예를 받은 차주 가운데, 현재 정상적인 경영활동을 하고 있는 개인사업자이다. 코로나19 피해 업체를 지원하는 취지에서 시작돼 올해 5월 31일까지 취급된 대출에 한해 대환이 가능하다.   한도는 최소 1000만원 최대 5000만원이며, 고객들은 2년 거치 후 3년간 분할 상환한다. 2년이 지난 후 3~5년 차에는 은행채(신용등급 AAA 기준) 1년물에 2.0% 포인트 가산한 협약금리가 상한선으로 적용된다. 여기에 신용보증기금 보증료 연 1.0%는 일시 납입해야 한다.   아울러 기존 대출 상환에 따른 수수료는 물론 신규 대출에 대한 중도상환수수료도 전액 면제되기 때문에 비용 없이 대출을 옮길 수 있다.   신청은 토스앱 접속 후 토스뱅크 홈 화면 '상품찾기', '토스뱅크로 갈아타기'에서 '코로나 피해 사장님을 위한 대환대출 미리 예약하기'를 클릭하면 된다. #고정금리 #대환대출 #사장님 #재난지원금 #손실보상금 #토스뱅크</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>[한경에세이] 금융 서비스도 넷플릭스처럼</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004752159?sid=110</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>사이먼 데일 어도비코리아 사장 simondale@adobe.com지난해 12월 동남아시아에서 호출형 승차 공유 서비스로 유명한 그랩이 나스닥에 상장해 화제가 됐다. ‘동남아의 우버’로 불리는 그랩은 교통에서 시작해 쇼핑, 핀테크 등 다양한 디지털 결제 서비스를 제공하는 기업으로 성장한 흥미로운 사례다. 그랩처럼 전통적인 금융회사가 아니면서도 핀테크 업계에 진출하는 사례가 최근 전 세계적으로 빈번해지고 있다. 한국에서도 토스, 카카오, 네이버와 같은 기업들이 국내 핀테크 산업을 주도하는 것은 주지의 사실이다.대표적인 규제 산업인 금융 서비스가 고객 행동의 변화와 높아지는 기대치 속에서 전례 없는 변화를 겪고 있다. 한국의 경우 ‘마이데이터’ 서비스를 올해 초 시작하면서 세계적인 금융업계의 흐름에 발맞춰 디지털 전환에 박차를 가하고 있다. 마이데이터가 성공적으로 구현되면 고객의 데이터 제어 능력을 향상하는 것은 물론 새로운 서비스를 제공하는 것도 가능해진다.오늘날의 고객들은 금융회사의 규모나 명성만 가지고 금융 상품을 선택하지 않는다. 얼마나 가치 있는 경험을 제공하는지가 고객의 결정을 좌우한다. “최근 고객들은 우리를 다른 은행, 또는 결제 솔루션과 비교하지 않는다. 그들은 넷플릭스 경험과 우리를 견주고 있다”는 HSBC 모바일 결제서비스 페이미 임원의 말은 변화한 고객의 기대를 잘 대변한다. 여기서 말하는 ‘넷플릭스 경험’이 단순히 콘텐츠를 즐기는 것만 의미하는 게 아니듯, 금융 서비스의 디지털 경험 또한 계좌 관리 및 거래에만 국한돼서는 안 될 것이다.하지만 이상과 현실은 아직 격차를 보인다. 어도비가 발표한 2022 디지털 트렌드 금융업 보고서에 따르면 자사가 제공하는 디지털 경험이 고객의 기대를 충족하고 있는지에 대해 12%만이 그렇다고 답해 여전히 해결해야 할 과제가 산적했음을 확인할 수 있었다. 한편으로 혁신을 수용하고 초개인화된 고객 경험을 제공하기 위해 역량과 기술에 집중한 기업이라면 경쟁 우위에 설 좋은 기회를 얻을 수 있다. 일례로 싱가포르개발은행(DBS)은 인텔리전트 뱅킹 투자로 고객 여정을 한눈에 파악하고 행동을 예측 분석하며, 가치 있는 경험을 제공하는 고객 중심 혁신을 이어가고 있다.금융 서비스의 다음 단계는 도구, 콘텐츠, 전문성을 다양한 접점에서 제공하며, 고객과의 관계를 거래 중심에서 적극적인 금융 라이프 파트너로 변화시키는 것이다. 산업 간 경계는 모호해지고 고객의 기대치는 점점 높아지는 디지털 경제 시대, 기업은 다각화를 위한 다각화가 아니라 확장된 고객 가치가 어디에 있는지에 초점을 맞춰야 할 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>주식·코인 시장 휘청에 카뱅·케뱅 수수료 수익도 떨어져</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005150224?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>올해 들어 카카오뱅크와 케이뱅크의 비이자이익이 크게 줄었다. 가상자산과 주식시장의 침체 여파가 인터넷전문은행들의 수익 감소로 이어진 영향이다. 시장에 참여하려는 투자자들이 줄어들면서 은행을 연계한 계좌 개설이 감소해, 수수료 수익이 줄어든 것으로 파악된다.21일 주요 은행들의 상반기 경영공시에 따르면, 카카오뱅크의 수수료 수익은 전년동기 251억원에서 170억원으로 81억원이 줄었다. 케이뱅크는 지난해 상반기 84억원 수수료 수익을 기록했는데 올해 상반기에는 40억원에 그쳤다. 절반 가량 감소한 것이다. 토스뱅크는 수수료 수익을 내지 못했다. 올해 상반기 수수료 적자만 247억원을 기록했다.인터넷은행들의 수수료 수익은 증권사 주식 계좌 개설 서비스나 제휴 신용카드의 고객 모집 과정에서 주로 발생한다. 카카오뱅크의 경우 한국투자증권, NH투자증권, KB증권, 하나금융투자, 신한금융투자, 삼성증권 등과 제휴하고 있다. 케이뱅크의 경우 NH투자증권, 미래에셋, 삼성증권 등과 제휴한다. 또 케이뱅크는 가상자산거래소 업비트의 실명확인 입출금 계좌 서비스를 대행하면서 수수료 수익을 올리고 있다.올해 들어 주식시장과 가상자산 시장이 침체돼 투자심리가 악화하면서, 인터넷은행들의 수수료 수익도 함께 감소한 것으로 보인다. 투자에 참여하기 위해 인터넷은행 플랫폼을 통한 간편한 계좌 개설을 하려는 수요가 전년에 비해 줄어들면서 여기서 얻는 수수료 수익도 자연히 줄어들 수밖에 없었던 것이다. 반면 고객들의 ATM(입출금 기기) 사용료 등을 무료로 유지하면서 이로 인한 비용은 그대로 지출됐다. 이 때문에 전년도에 비해 수수료 수익이 급감한 결과로 나타났다.카카오뱅크는 이용자들의 ATM 수수료 부담 비용 등이 증가한 영향이라고 설명했다. 카카오뱅크 관계자는 “수수료 수익도 충분히 증가했지만 고객수가 늘어나면서 ATM 수수료 비용 부담이 더 크게 증가한 영향”이라며 “인터넷은행으로 고객이 몰리면서 늘어나는 비용으로 인한 측면”이라고 설명했다. 케이뱅크의 경우 가상자산 시장 침체의 영향을 받았다는 설명이다. 케이뱅크 관계자는 “가상자산 거래가 활발하지 않고, 이러한 부분들이 업비트 뱅킹 수수료에 영향을 미쳤다”고 설명했다.주요 시중은행들 또한 수수료 수익이 감소한 상황은 엇비슷했다. 다만 인터넷은행들에 비해서 감소폭이 크지는 않았다. 우리은행은 4739억원에서 4500억원으로, 국민은행도 5980억원에서 5491억원으로 줄어드는 데 그쳤다. 신한은행의 경우 수수료 수익은 오히려 늘어났다. 전년동기 4955억원이었던 수수료 수익은 5035억원으로 증가했다. 시중은행 또한 비이자이익이 제한적인 것은 마찬가지이나, 인터넷은행들에 비해서는 수수료 수익처가 더 다양하기 때문으로 보인다.인터넷은행들도 수수료 수익을 다양화하기 위한 소폭 드라이브에 나서는 모습이다. 증권사 제휴 계좌 숫자를 늘리고, 새로운 수익처 발굴에 나서고 있다. 카카오뱅크는 올해 증권사 제휴 계좌에 미래에셋증권을 추가했고, 가상자산거래소 코인원과의 제휴계약을 통해서 수수료 수익원 발굴을 꾀한다. 케이뱅크 또한 당근페이, 롯데카드 등과 제휴를 추가하면서 비이자이익 수익처 다양화에 나섰다. 토스뱅크는 올해 하반기부터 한국투자증권과 연계해 발행어음 판매 등을 선보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>"플랫폼 금융 막을 수 있나?…이제 제도화 논의로 넘어가야"</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005326566?sid=105</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>인기협과 김희곤, 이정문 의원 공동주최금소법 개정방향 토론회 열려"샌드박스 보다 신규 진입규제 만들어 제도화해야"시민단체도 플랫폼 금융 역할 인정..."소비자보호 책임감 높여야"[이데일리 임유경 기자] “플랫폼 금융이 제도화되면 금융회사들은 제조와 판매가 분리되는 환경에서 더 질적으로 좋은 금융상품, 즉 투자자에게 더 유리한 금융 상품을 제조하기 위해서 경쟁하게 될 것이다. 이는 금융회사 간 질적인 경쟁을 유도하고, 금융 소비자들 후생을 증진하는 데 큰 도움이 될 것이다.”황현일 법무법인 세종 변호사는 26일 서울 전경련회관에서 열린 ‘온라인 금융상품 판매중개업 진출을 위한 금융소비자보호법(금소법) 개정방향’ 토론회에서 이런 이유로 “플랫폼 금융을 아예 금지할 수 없지 않느냐”며 “이제 어떻게 규제해야 할 것인지 논의해야 한다”고 언급했다.이날 토론회는 한국인터넷기업협회와 김희곤 국민의힘 의원, 이정문 더불어민주당 의원이 공동 주최했다. 금소법 시행 1년 6개월을 맞아, 금융상품판매대리·중개업에 대한 진입규제를 근본적으로 개선할 방안을 논의하기 위해서다. 지난해 금소법 시행을 앞두고 금융당국이 카카오페이·토스 등 인터넷 플랫폼의 금융상품 추천 서비스를 ‘광고’에서 ‘중개’ 행위로 유권해석하면서 핀테크 업계는 관련 상품을 전면 중지했다.지난 8월 금융위원회가 금융규제 샌드박스(시범운영)제도를 통해 플랫폼도 예금·보험·P2P 중개업을 할 수 있도록 규제를 풀었지만, 플랫폼 기업들은 근본적인 제도화가 필요하다는 입장이다.26일 여의도 전경련회관에서 열린 온라인 금융상품 판매중개업 진출을 위한 금융소비자보호법(금소법) 개정방향 토론회에서 황현일 법무법인 세종 변호사(왼쪽에서 세 번째)가 발언하고 있다.(사진=이데일리 임유경 기자)온라인 금융상품 판매 기업 위한 새로운 진입규제 필요황 변호사는 플랫폼 금융을 금지할 수 없는 이유를 먼저 짚었다. 첫째는 금융소비자에게 주는 편의성이 막대하다는 점이다. 그는 “은행 창구에 가지 않아도, 여러 앱에 접속하지 않아도 하나의 통로로 금융 서비스를 누릴 수 있다는 건 대체할 수 없는 이점”이라고 했다. 두 번째는 금융회사 간에 질적인 경쟁을 유도할 수 있다는 점이라고 했다. 그는 “기존 금융은 고객 끌어오기 경쟁에만 집중했다”며 “고객이 다른 회사와 상품을 놓고 비교 판단하기 어려웠기 때문에 상품 경쟁이 일어나지 않았다”고 지적했다.플랫폼 금융 규제 방법에 대해서는 기존 법을 개정하기 보다 새로운 진입규제를 만드는 것이 좋다고 봤다. 황 변호사는 “각 업권법(자본시장법, 보험업법, 여신전문금융어법)에서 정의하고 있는 ‘판매대리중개’ ‘보조업자’의 지위가 플랫폼 기업들이 하려는 역할과 판이하게 다르기 때문”이라고 설명했다. 그러면서 “기존 업권법에 녹아 있는 규제들을 개정하고 수정하기보다 온라인으로 금융 상품을 판매/대리하는 업자들에 대한 새로운 진입규제를 만들고 그에 맞는 검사/감독 규정을 만드는 더 합리적”이라고 덧붙였다.소비자 보호라는 원칙 지키는 플랫폼 필요플랫폼 금융의 역할이 필요하다는 데는 소비자단체도 공감했다. 토론회에 참석한 조윤미 미래소비자행동 상임대표는 “금융 소비자 개개인이 어떤 금융 상품이 어떤 측면에서 더 우수한가를 판단하는 능력에는 한계가 있을 수밖에 없다”며 “이런 일을 대리할 수 있는 (플랫폼 금융의) 역할이 필요하다”고 말했다. 플랫폼의 책임감 있는 운영이 필요하다고 강조했다. 조 대표는 “플랫폼은 알고리즘으로 타깃팅이 가능하기 때문에 그들이 제공하는 중개 및 권고가 소비자에게 미치는 영향이 강력하다”며 “중개자로서 그만큼의 책임을 가져야 한다”고 했다. 또 “상품 출시나 영업에 있어 소비자 보호라는 가장 기본적인 원칙에 입각해야 한다”고 덧붙였다. 신중한 금융당국금융 당국은 일단 금융규제 샌드박스를 통해 점진적으로 테스트가 필요하다는 입장이다. 금융위원회 김연준 은행과장은 “소비자 선택권은 물론 소비자 보호와 금융 시장의 공정한 경쟁 구도까지 고민해야 한다”며 “지금은 일단 혁신금융 서비스 지정을 통해 혁신성이 인정되고 소비자 후생에 도움이 될 것으로 예상이 되는 부분에 대해 시범 운영을 하고, 종합적으로 점검한 후 제도화를 단계적으로 검토해 나가야 한다”고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.09.25.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>[뭉칫돈 어디로③] 증권사 발행어음 인기</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011438022?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>기사내용 요약발행어음 잔고 11조…올해 37%↑연 4%대 고금리…금리 인상 수혜[서울=뉴시스] 임태훈 기자 = 서울 여의도 증권가 전경. 2020.09.03. taehoonlim@newsis.com[서울=뉴시스] 강수윤 기자 = 세계적으로 금리 인상 압력이 거세지고 주식시장이 침체에 빠지면서 기준금리 인상에 따른 수혜를 받을 수 있는 증권사 발행어음에 투자자들이 몰리고 있다.25일 금융투자협회에 따르면 지난 달 말 기준 증권사 발행어음형 종합자산관리계좌(CMA) 잔고는 11조6609억원을 기록했다. 지난해 말 잔고(7조4646억원) 대비 56.2% 증가했다. 올해 1월 말(8조 2835억원)과 비교하면 37%나 늘어났다. CMA 계좌 수도 지난해 말 360만9098개에서 이달 21일 490만8962개로 늘었다.반면 개인 투자자들은 올 들어 주식투자에서 자금을 빼고 있다. 주식투투자 대기 자금인 자자예탁금은 연초 71조7328억원에서 지난 21일 50조7793억원으로 29.2% 급감했다. 투자자 예탁금이 50조원대를 기록한 것은 2020년 6월26일(50조6469억원) 이후 처음이다.발행어음은 증권사가 자체 신용을 바탕으로 어음을 발행하고 투자자에게 약정금리로 원리금을 지급하는 만기 1년 이내 단기 금융 상품이다. 자기자본이 4조원을 넘는 초대형 IB(투자은행)으로 지정된 증권사만 발행 사업이 가능하다. 국내 증권사 가운데 미래에셋증권, 한국투자증권, NH투자증권, KB증권 등이 발행어음 사업을 하고 있다.발행어음의 잔고규모가 빠르게 늘어난 이유는 금리가 오르면서 수익률이 시중은행의 예·적금 상품보다 높아졌기 때문이다. 실제로  지난달 한국투자증권이 토스뱅크를 통해 판매한 발행어음 특판 상품은 입소문으 타면서 나흘 만에 한도 2000억원을 소진했다. 이 상품은 연 최대 4.5% 이자를 지급한다. 일평균 판매액은 약 500억원으로 집계됐고, 토스뱅크를 통해 한국투자증권 뱅키스 신규 계좌를 개설한 고객이 약 1만명에 달했다.한국은행은 연초 이후 9월까지 금리를 1.5%포인트 올렸다. 지난 7월 빅스텝(한번에 기준금리 0.5%포인트 인상)을 단행한 데 이어 지난달 25일 기준금리를 2.25%에서 2.50%로 인상하자 증권사들도 발행어음 금리를 줄줄이 올렸다. 현재 이들 증권사의 1년 만기 발행어음 금리는 평균 연 4.10~4.15%까지 올라갔다. 1년 만기 기준으로 한국투자증권과 NH투자증권, KB증권 등 3개사가 4.15%의 이자를 지급하고 있고 미래에셋증권은 4.1%다. 6개월 약정으로는 연 3.0~3.65%의 이자를 제공하고 있다. 2020년까지만 해도 증권사들의 발행어음 금리는 연 1.55% 수준에 불과했다.발행어음의 인기는 당분간 지속될 전망이다. 10월과 11일 한은 금융통화위원회에서 금리 인상 가능성이 높아 발행어음 금리도 더 높아질 수 있기 때문이다. 연말가지 기준금리가 3%까지 오른다면 5%를 넘는 발행어음도 나타날 가능성이 있다.발행어음의 가장 큰 장점은 은행과 달리 가입 조건이 없다는 점이다. 다만 원금과 이자가 최고 5000만원 한도까지 보호되는 예·적금과는 달리 발행어음은 예금자보호법에 따라 보호받을 수 없다는 점은 주의가 필요하다.증권사 관계자는 "발행어음이 예금보다 금리가 높은 편이고 실질적으로 금리가 올라가면서 투자자들이 많이 찾고 있다. 금리 인상기에 안정적으로 투자할 수 있다"며 "신용도가 높은 초대형 증권사만 발행할 수 있어 부실 위험은 낮다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.09.27.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>"노들섬에서 펼쳐질 '마술피리', 아이와 함께 오페라 즐기세요"</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004754904?sid=103</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>인터뷰 - 총연출 맡은 이회수서울문화재단 첫 야외 오페라왕자가 '밤의 여왕'의 딸 구하려새장수와 함께 떠나는 이야기'밤의 여왕 아리아'로 유명해여자경 지휘, 한경 arte 필 연주내달 1~2일 공연…좌석 매진'마술피리' 연출을 맡은 이회수가 연습실에서 공연을 준비하는 모습.  서울문화재단 제공“야외 공연을 통해 오페라가 어렵고 딱딱하다는 편견을 깨고 싶어요. 온 가족이 즐길 수 있을 만큼 오페라의 문턱을 낮추고 싶습니다.”다음달 1일부터 이틀간 서울 이촌동 한강 노들섬 잔디마당에서 공연하는 오페라 ‘마술피리’의 연출가 이회수는 이번 야외 공연에 각별한 의미를 두고 있다. 오페라 대중화의 기폭제로 삼고 싶다는 욕심에서다. 그는 최근 한국경제신문과의 인터뷰에서 “야외 공연에 걸맞은 무대장치와 연출로 오페라의 매력을 한껏 알리고 싶다”고 말했다. 이탈리아 로마 국립예술원에서 연출을 전공한 이회수는 2006년 체코 프라하 국립 오페라하우스가 주최한 국제연출 콩쿠르에서 아시아인 최초로 입상했다. 제6회 대한민국 오페라 대상 연출상, 제16회 대구오페라축제 오페라 아이다 작품상 등을 수상하면서 이름을 알렸다.이명현(타미노 역)이번 마술피리는 서울문화재단이 제작한 오페라 가운데 창립 이후 처음으로 야외무대에서 펼쳐진다. 모차르트의 작품으로 왕자 타미노가 밤의 여왕 딸 파미나를 구하기 위해 새장수 파파게노와 함께 모험을 떠나는 내용이다. 밤의 여왕 아리아로 대중에게 잘 알려진 작품이다. 지휘는 여자경, 반주는 한경아르떼필하모닉이 맡는다. 좌석은 이미 매진(무료)됐다.야외에서 펼쳐지는 오페라는 극장에서 하는 것과 어떻게 다를까. 오페라는 원래 마이크 등 확성장치 사용을 최소화하고 성악가의 발성에 온전히 의존한다. 하지만 극장이 아니라 야외무대에서 상연하는 오페라는 마이크를 사용할 수밖에 없다. 이 연출가는 “무대에 온전히 집중할 수 있는 환경을 갖춘 전문 극장과 달리 야외 공연은 사방이 뚫려 있어 오로지 무대에만 집중하기 어려운 환경”이라며 “이런 약점을 극복하기 위해 보다 극적인 연출로 관객들의 집중을 도우려 한다”고 했다.장혜지(파미나 역)반면 야외 공연의 장점은 최대한 부각할 계획이다. 그는 “야외 공연만이 낼 수 있는 여유로운 분위기가 있다”며 “바람이 불면 바람이 부는 대로, 풀벌레가 울면 풀벌레가 우는 대로 편하게 감상할 수 있도록 노력하고 있다”고 말했다.이 연출가는 이번 공연으로 대중이 오페라 공연의 맛을 느껴볼 수 있는 ‘마중물’ 역할을 하고 싶다고 했다. 독일어 대사를 우리말로 바꾼 것도 같은 이유다. 그는 오페라에 익숙하지 않은 관객들도 어렵지 않게 즐길 수 있도록 하기 위해 직접 번역에 나섰다. 그는 “중간중간 배우들이 관객에게 직접 질문하기도 하고, 노들섬 야외무대의 현장감을 살리는 대사들을 추가했다”고 말했다. 극중 재기발랄한 감초 역할을 하는 새장수 파파게노의 비중도 크게 높였다. 그는 “어린이를 동반한 가족 단위 관객도 많이 올 것”이라며 “오페라 공연을 접해 본 어린이들이 늘어날수록 클래식 음악의 저변이 더욱 확장될 것이라 생각한다”고 말했다.유성녀(밤의 여왕 역)이 연출가는 원래 성악으로 음악을 시작했다. 그는 “노래를 했던 사람이니 성악가 배우들의 호흡과 감정적인 해석 등을 이해하기 쉬운 측면이 있다”고 했다. “국내와 해외 무대를 가리지 않고 새로운 작품을 연출하고 싶어요. 연출가로서 경력이 쌓일수록 매너리즘에 빠지지 않고 늘 최선을 다하고 싶습니다.”이번 공연에서 주인공 타미노와 파미나는 각각 이명현 테너와 장혜지 소프라노가, ‘밤의 여왕’은 유성녀 소프라노가 담당한다. 파파게노와 파파게나는 각각 최은석 바리톤과 이세희 소프라노가, 자라스트로는 박준혁 베이스, 모노스타토스는 오정율 테너가 맡는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>농협, 시중은행 중 8월 예대마진 가장 커</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005019741?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>은행 18곳 예대금리차 공시0.33%P 올라 금리차 1.73%P단기성 정부예금 비중 높은 탓지난달 1위 신한은행은 감소광주銀 0.82%P로 증가폭 최대 지난 8월 은행권의 예금금리와 대출금리 차이를 조사한 결과 NH농협은행 예대금리차가 5대 시중은행(KB국민·신한·하나·우리·NH농협) 가운데 가장 큰 것으로 조사됐다. 전체 18개 조사 대상 가운데 전월 대비 예대마진이 가장 크게 늘어난 곳은 광주은행이었으며, 반대로 격차가 가장 많이 감소한 곳은 전북은행이었다. 8월 처음 실시된 예대금리차 공시 이후 은행들 간에 경쟁이 치열해지고 계산에 활용된 예금과 대출 비중이 달라지면서 예대금리차도 들쭉날쭉해지고 있다. 이에 따라 소비자들이 실제 예금과 대출을 할 때 정확한 정보를 제공하는 데 한계가 있다는 지적도 제기된다.20일 은행연합회에 따르면 NH농협은행의 8월 예대금리차(정책서민금융 제외)는 1.73%포인트로 7월(1.40%포인트)에 비해 0.33%포인트나 증가했다. 8월 예대금리차와 증가폭 모두 5대 은행 가운데 압도적 1위다. KB국민은행의 8월 예대금리차가 1.40%포인트로 2위를 기록했으며 이어 우리은행(1.37%포인트), 신한은행(1.36%포인트), 하나은행(1.09%포인트) 순이었다. NH농협은행은 대출금리 증가폭은 5대 시중은행  중간 수준이었지만, 저축성 수신금리가 유일하게 하락한 점이 돋보인다.NH농협은행 측은 "정책금융 취급 비중이 높아 이를 운용하기 위한 정부 자금 수신이 많은 편"이라며 "정부 자금은 주로 예치기간이 6개월 미만인 단기성 자금이어서 기준금리 인상에 따른 금리 인상폭이 작다. 상대적으로 낮은 비용에 자금을 조달해 와 예대마진이 확대된 것"이라고 설명했다.지난달 발표(7월 수치) 때 예대마진이 가장 높게 나왔던 신한은행은 5대 시중은행 가운데 유일하게 예대금리차가 좁혀지며 8월에는 마진이 두 번째로 낮게 나타났다. 8월 중 취급된 대출을 대상으로 파격적인 금리 인하 조치를 이어갔던 덕분이다. 신한은행은 지난 7월 6일 전세대출금리 0.3%포인트 인하, 7월 11일 주택담보대출금리 0.35%포인트 인하 등의 조치를 시행했다. 시중은행 예대마진이 대부분 확대된 것은 기준금리 인상의 영향으로 해석된다. 하준경 한양대 경제학부 교수는 "경제가 안 좋아지고 금리 인상 기조가 이어지면서 어려운 사람들이 금리가 더 오르기 전에 지금이라도 필요한 돈을 구하기 위해 대출을 받는 것도 영향을 미쳤을 수 있다"고 말했다.한편 조사 대상 전체 18개 은행 가운데 전월 발표에 비해 예대금리차가 가장 크게 늘어난 곳은 증가폭이 0.82%포인트에 달했던 광주은행이다. 2위는 0.7%포인트가 늘어난 DGB대구은행이었으며, 3위는 0.67%포인트가 확대된 케이뱅크가 차지했다.예대금리차 감소폭이 가장 컸던 곳은 전북은행으로 감소폭이 0.93%포인트나 됐다. 이어 토스뱅크(0.84%포인트)의 감소폭이 컸으며, 3위는 0.39%포인트가 줄어든 카카오뱅크였다.지방은행들은 지난달 발표에서 조사 대상 18개 은행 가운데 예대금리차가 가장 컸던 전북은행을 제외하고는 일제히 증가폭 상위권에 이름을 올렸다. 은행권 관계자는 "5대 시중은행은  당국을 신경 쓰는 경향이 강한 반면, 지방은행들은 예대마진이 낮게 나온 경우 주주들에게 영업 실적 압박을 받았다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스 전 계열사 대규모 채용…24개 직군 최대 300명</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003045787?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>모바일 금융 서비스 토스를 운영하는 비바리퍼블리카(이하 토스)는 '2022 토스커뮤니티 대규모 채용'을 실시한다고 22일 밝혔다.토스는 이번 대규모 채용을 통해 토스, 토스뱅크, 토스페이먼츠, 토스증권, 토스인슈어런스, 토스씨엑스, 토스글로벌, 토스플레이스 등 전 계열사 24개 직군에서 최대 300명을 채용할 예정이다.토스는 우수인력 영입에 전사적 역량을 집중하고 있다. 토스커뮤니티 전체 임직원은 2020년 8월 650여 명에서 2022년 8월 현재 1800명으로 늘었다.채용 과정은 서류전형, 직무 인터뷰, 문화 인터뷰 순으로 진행되며, 직군에 따라 과제 또는 코딩 테스트 전형을 추가로 실시한다. 두 차례의 인터뷰(직무 및 문화)는 모두 화상으로 진행되며, 서류 전형부터 최종 합격 발표까지 최대 3주 이내에 마무리된다. 지원 가능한 직군은 개발, 제품, 보안 등 총 24개에 달하며, 자세한 일정은 토스 통합 채용 홈페이지에서 확인할 수 있다.이번 대규모 채용 기간 동안에는 최근 6개월 내 입사 지원 이력이 있던 사람도 재지원이 가능한 것이 특징이다. 또한 어떤 직무에 지원해야 할지 고민이 될 경우, 토스 채용 페이지 내 '합격 확률 높은 포지션 찾기' 기능을 통해 적합한 직무를 추천받을 수도 있다.토스 채용팀 관계자는 “토스커뮤니티에 합류를 원하는 분들의 모든 여정이 성장의 발판이 될 수 있도록 다양한 측면에서 심혈을 기울였다”며 “사람들의 삶을 바꾸었고, 앞으로도 바꿔나갈 토스의 혁신 여정에 함께할 동료를 기다린다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>토스, 첫 자체 버그바운티 개최…"건당 최대 3000만원 포상금 지급"</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006347750?sid=105</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>21일부터 30일 오후 6시까지 공식 홈페이지 통해 사전 신청 가능버그바운티 프로그램 개최는 내달로 예정토스 첫 자체 버그바운티. (토스 측 자료 제공)(서울=뉴스1) 김지현 기자 = 모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카가 보안 취약점 신고포상제인 '토스 버그바운티 챌린지(Toss Bugbounty Challenge)'를 처음으로 실시한다고 21일 밝혔다.버그바운티란 서비스 내 보안 취약점을 찾아낸 참가자에게 리워드를 지급하는 제도다. 이번 프로그램에는 토스를 비롯해 토스뱅크, 토스증권, 토스페이먼츠 등 주요 금융 계열사가 참여한다. 취약점 신고 대상은 토스 애플리케이션 내 주요 서비스는 물론, 계열사 공식 홈페이지도 포함되며 자세한 내용은 관련 홈페이지를 통해 확인할 수 있다. 접수된 리포트는 토스 내부 검증과 평가를 거쳐 건당 최대 3000만원까지 포상금을 지급 받게 된다.   이번 버그바운티는 보안에 관심있는 국내 토스 가입자면 누구나 참여할 수 있다. 단, 이날부터 오는 30일 오후 6시까지 공식 홈페이지를 통해 사전 신청한 사람에 한해 다음 달 개최되는 프로그램에 참여 자격이 주어진다. 신청자에게는 버그바운티에 참여할 수 있는 별도 환경을 제공하며 해당 환경에서 모의해킹이 진행된다.  이종호 토스 보안기술팀 리더는 "해커의 관점에서 보안을 구축하며 자체 보안 프로그램을 만드는 등 보안에 많은 투자를 해왔다"며 "외부 전문가의 관점에서 객관적으로 취약점을 점검해 보고, 국내 금융분야 보안연구 활성화에도 기여할 수 있는 계기가 되길 바란다"고 말했다. 토스는 2018년부터 금융권 최초로 KISA(한국인터넷진흥원) '정보보호공시'에 자율적으로 참여하며, 보안투자 현황을 공개하고 있다. 또한 사용자의 휴대폰에 피싱앱이 깔렸을 경우 경고 메시지와 함께 해당 앱을 삭제할 수 있는 '악성앱 탐지 시스템'을 포함한 이상거래 시스템 탐지 등 보안 환경을 구축하는 '토스가드'를 운영 중에 있다. 토스가드는 토스앱 실행시 자동 실행되며 올해 출시한 '악성앱 탐지 시스템'은 약 5개월간 50만건 이상의 피싱 피해를 막은 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>삼성전자 1천원어치 사볼까…국내주식 소수점거래 시작(종합)</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013463509?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>거래 활성화 효과 크지는 않을 듯…증권사 약관 따라 의결권 행사도 가능(서울=연합뉴스) 채새롬 기자 = 26일부터 국내 주식을 1주 미만 소수점 단위로 쪼개 사고파는 '소수점 거래'가 가능해졌다. 우량 주식에 대한 접근성이 확대된다는 측면에서 긍정적이지만, 거래 활성화 효과가 크지는 않을 것이라는 지적도 나온다.    증권사에 따라 주문 금액 단위, 취합 주기, 주문 가능 종목, 의결권 행사 가능 여부 등 세부 내용이 달라 소수점 거래를 원하는 투자자는 증권사별로 자세한 내용을 확인해볼 필요가 있다. [NH투자증권 제공]  NH·KB·미래에셋 등 5개사 오늘부터 소수점거래 시작    한국예탁결제원과 NH투자증권, KB증권, 미래에셋증권, 키움증권, 한화투자증권 등 5개 증권사는 이날 투자자가 국내 상장주식을 소수 단위로 거래할 수 있도록 하는 '국내 주식 소수 단위 거래 서비스'를 시작했다.     1주 단위가 아닌 1천원, 1만원 등 금액 단위로 거래할 수 있어 고가의 주식에 대해 투자자가 원하는 금액만큼 주식을 매매할 수 있다.    예를 들어 23일 종가 기준으로 LG에너지솔루션 1주를 사려면 46만500원이 필요하지만 4만6천원을 내고 0.1주를 사는 것이 가능하다.      이 서비스는 증권사가 투자자의 소수단위 매수주문을 취합하고 부족분을 자기재산으로 채워 온주를 취득한 뒤 해당 주식을 예탁결제원에 신탁하고, 예탁결제원은 신탁받은 주식에 기초해 다수의 수익증권으로 분할 발행하는 방식으로 이뤄진다.    그동안은 해외주식에 대해서만 소수단위 거래가 가능했지만, 금융위원회가 올해 2월 국내주식 소수점 거래 서비스도 혁신금융서비스로 지정하면서 예탁원과 증권사들이 서비스를 도입하게 됐다.     예탁원은 "이번 서비스로 투자자의 주식 시장에 대한 접근성이 확대되고, 증권시장이 활성화될 것으로 기대된다"고 전했다.     이날 5개사에 이어 삼성증권과 신한금융투자는 10월 4일부터, 다올투자증권, 대신증권, 상상인증권, 유안타증권, IBK투자증권은 올해 내 서비스를 시작한다.    교보증권, 메리츠증권, 신영증권, 유진투자증권, 이베스트투자증권, 카카오페이증권, 토스증권, 하나증권, 한국투자증권, 현대차증권, DB금융투자, SK증권 등 12개사는 내년 이후 서비스를 시작하기로 했다.     다만 국내 주식의 경우 1주당 100만원 이상인 황제주가 전무해 실효성이 크지 않다는 지적도 나온다.     올 초 이후 하락장이 지속되면서 기존 황제주였던 LG생활건강, 삼성바이오로직스, 엔씨소프트 등 주가가 크게 하락했다.     코스피가 2,300선을 하회하는 등 약세장에서 당장 거래금액이 많이 늘어나지 않을 수도 있다.     예탁원 관계자는 "현재 14개 증권사에서 시행 중인 해외주식 소수점거래를 보면 미국 주식 거래금액의 약 1% 정도를 차지한다"며 "국내 주식 소수점거래가 시작돼도 시장 활성도를 대폭 증가시키기는 한계가 있을 것"이라고 말했다.    이어 "개인 투자자가 금액적 제한 때문에 기관보다 분산투자 하기 어려웠던 점을 개선하고, 조각투자에 대한 투자자들의 요구를 실현한 것에 의미가 크다"고 덧붙였다. [KB증권 제공]  증권사마다 주문 금액·취합주기 등 달라…의결권 행사도 가능    국내주식 소수점 거래를 원하는 투자자는 증권사마다 주문 금액 단위, 주문 취합 주기, 주문 가능 종목 등 세부 내용이 달라 확인해야 한다.     거래 수수료는 대부분 증권사가 온주 단위 거래와 같은 수수료를 받는다.     미래에셋증권 서비스는 투자자의 주문을 매 10분 단위로 거래소에 전송하는 방식을 채택해 실시간 거래에 가까운 환경을 구현한 것이 특징이다.     1천원부터 1원 단위로 투자자가 원하는 금액으로 투자할 수 있고, 여섯째 자리까지 소수점 단위로 구분해 거래하는 것이 가능하다.     NH투자증권 국내 주식 소수점 매매는 760여개 종목이 대상이다.     100원 단위로 투자할 수 있도록 했고, 예약주문을 통해 24시간 주문이 가능해 고객 편의성을 높였다. 장바구니 기능을 도입해 소수점 매매를 원하는 종목을 30개까지 담아둘 수 있으며 일괄 매수도 가능하다.     KB증권에서는 약 350개 종목의 매매가 가능하며, 영업일 오전 10시부터 오후 2시까지 총 5번 주문이 체결된다.    KB증권은 연말까지 국내 거주 개인 고객이 2만원 이하 국내 소수점 주식을 매수 시 수수료 0원 이벤트도 한다.    또 11월 말까지 서비스 신청 시 선착순 5만 계좌에 국내 주식 쿠폰 2천원을 지급하고, 국내 주식 소수점 서비스 가입자 10만 계좌 돌파 시에는 이벤트 내 신청한 모든 계좌에 국내 주식 쿠폰 5천원을 추가 지급한다.    한화투자증권은 고객이 종목을 선택해 1천원 단위로 금액과 기간을 설정하면 주기적으로 자동 구매해주는 '적립식 자동 투자 서비스'를 함께 제공한다. 키움증권 서비스는 1천원 단위로 매수하고, 0.001주 단위로 매도할 수 있다.     예탁원은 소수점 주식에 대한 의결권 행사 시스템도 구축했다. 개별 증권사와 고객 간 약관에 따라 소수 단위의 의결권을 취합해서 행사할 수도 있다.     증권사는 의결권 행사, 미행사, 중립투표 중 하나를 선택해 서비스를 제공한다.    의결권을 행사할 수 있는 증권사에서는 투자자가 A주를 0.2주 가지고 있다면 주총 안건별로 0.2만큼의 찬반 의사를 낼 수 있다. 증권사는 이를 취합해 온주 단위로 예탁원에 의결권 행사를 통보하고, 예탁원은 발행회사에 신탁주식에 대한 의결권을 행사한다.     이날 서비스를 시작하는 5개사는 의결권을 행사하지 않기로 했다.     srchae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.09.19.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>NICE디앤알, 2022 상반기 금융 시장 기획조사 결과 발표</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000077290?sid=102</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>금융소비자 10명 중 5명... '가상자산 못믿어' NICE디앤알(대표이사 박정우)이 2022년 상반기 금융 시장 기획조사(KFSS·Korea Finance Syndicated Study) 결과를 발표했다. KFSS 조사는 2008년부터 연 1만5000명(상반기 7500명, 하반기7500명)을 대상으로 실시하는 설문조사다. 금융기관 인지도, 이미지, 주요 이슈 등을 조사한다. 이번 조사에서는 조사의 시의성과 활용성을 높이기 위해 금융소비자 보호법, 가상자산, 헬스케어 서비스, 퇴직연금 등 금융 시장 주요 이슈를 심층 분석하는 데 초점을 맞췄다.금융기관 거래자 대상으로 서비스 만족도를 평가한 결과, 은행은 케이뱅크, 카카오뱅크, 하나은행, 증권사는 토스증권, IBK투자증권, 카카오페이증권, 보험사는 하나생명, 삼성생명, KB생명 순으로 높은 만족도를 보였다. 은행은 케이뱅크, 카카오뱅크, 증권사는 토스증권, 카카오페이증권 등 인터넷전문은행과 플랫폼사의 약진이 두드러지게 나타났다. 특히 은행의 경우 만족도는 테크 기반 플랫폼사의 순위가 높은 반면, 신뢰도는 전통적인 시중은행 순위가 높았다.2021년 3월부터 시행하고 있는 ‘금융소비자 보호법’에 대해서는 10명 중 9명이 금융소비자 보호법에 대해 들어본 것으로 나타났다. 다만 금융소비자 보호법에 대해 ‘전혀 들어본 적 없다’ 10.9%, ‘들어본 적 있다’ 89.1%로 단순 인지도는 높았으나, 들어본 적이 있는 사람 중에 ‘내용에 대해 알고 있다’는 응답은 32.7%에 그쳤다. 2019년 이후 투자자산으로 가장 급격히 성장한 가상자산에 대해서는 10명 중 3명이 투자 경험이 있는 것으로 조사됐다. 경제적 가치를 지닌 암호화폐, NFT 등 가상자산에 대해 ‘전혀 들어본 적 없다’ 8.6%, ‘들어본 적이 있으나 투자해보지 않았다’ 61.5%, ‘투자해본 적이 있으나 지금은 투자하지 않는다’ 14.8%, ‘현재 투자하고 있다’ 15.2%로 나타났다. 가상자산을 알고 있지만 아직까지 투자를 경험하지 않은 비중이 상대적으로 높았다.가상자산에 대해서는 10명 중 5명이 부정적으로 인식했다. 가상자산 규제 필요성에 대해서는 10명 중 6명이 공감했다. 가상자산에 대해 어떻게 생각하고 있는지에 대한 질문에 ‘긍정적이다’ 12.7%, ‘보통이다’ 32.4%, ‘부정적이다’ 54.9%로 여전히 가상자산에 대한 부정적인 인식이 존재했다. 금융위원회 등 정부기관의 가상자산 규제가 얼마나 필요한지에 대해서는 ‘필요하다’ 64.7%, ‘보통이다’ 25.2%, ‘필요하지 않다’ 10.1%이며, 가상자산 규제가 ‘필요하다’는 응답 비중은 가상자산 투자 비경험자(70.9%)가 경험자(58.3%) 대비 높게 나타났다.한편 2022년 상반기 금융 시장 기획조사는 전국 만 20~64세 금융 거래 소비자 7500명을 대상으로 진행됐다. 자세한 조사 결과는 NICE디앤알 담당자를 통해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>소수점거래 시작한 해외주식 서비스 들여다보니</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005321621?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>토스증권, 수수료·제공 종목 수 가장 많아해외주식 위탁매매 수수료 수입 3배 증가[이데일리 유준하 기자] 해외주식 소수단위 거래 서비스는 이제 국내 대부분의 증권사가 시행한다. 최근 금융위원회가 IBK투자증권 등 5개사를 추가 지정한 가운데 증권사들은 점차 대상 종목 수를 늘리며 열띤 경쟁을 펼치고 있다.[이데일리 문승용 기자]20일 금융투자업계에 따르면 현재 해외주식 소수점 거래를 지원하고 있는 증권사는 총 25개사로 국내 대부분의 증권사가 서비스를 제공하고 있다. 금융위원회는 지난 7일 해외주식 소수단위 거래 서비스를 위한 혁신금융서비스 사업자로 △IBK투자증권 △이베스트투자증권 △SK증권 △현대차증권 △상상인증권 등 5개사를 선정했다. 이미 기존 20개 증권사에 대해 해외주식 소수점거래 혁신금융서비스를 지정한 뒤 이번에 5개 증권사를 추가로 지정한 것이다.증권사들 서로 소수점거래 대상이나 수수료 등을 차별화하며 모객에 나섰다. 낮은 수수료는 물론 가장 많은 소수점거래 종목을 제공하는 곳은 토스증권이었다. 토스증권은 거래 가능한 종목 수가 3562개로 가장 많았고 수수료는 오는 2023년 6월30일까지 0.1%를 제공한다. 토스 증권 측은 “10달러 이하 주문시 수수료는 무료”라며 “수수료 0.1% 제공 기간은 추후 연장이 가능하다”고 설명했다.토스증권의 모바일트레이딩시스템(MTS)는 해외 주식 소수점 주문을 온주 단위로 묶지 않고 즉시 체결하는 방식이다. 기존 방식은 투자자들이 소수점 거래를 신청하면 증권사가 이를 1주 단위로 만들어서 매매주문을 체결하는 식인데, 토스증권은 이 과정을 생략하고 소수점 거래 라이센스를 가지고 있는 미국 파트너사에 거래 주문을 직접 전송한다는 설명이다.그래서일까. 지난해 4분기부터 해외주식 서비스를 본격화한 토스증권의 해외주식 거래대금은 올해 1분기 6조2380억원에서 소수점 거래를 본격화한 지난 2분기에 9조4450억원으로 51.41% 급증했다. 이에 토스증권 해외주식거래 위탁매매 수수료 수입은 1분기 37억원에서 2분기 100억원으로 3배가량 증가했다.동일하게 수수료 0.1%를 제공하는 키움증권은 527종목이 거래 가능하다. 또한 삼성증권은 0.25% 표준 온라인 수수료를 제공하지만 24시간 주문이 가능해 투자자 편의를 배려했다. 이처럼 점차 해외주식 소수점 거래 서비스가 확장되고 있는 가운데 투자자들은 단기 매매보다는 장기 적립식 매매에 적합한 것 같다고 평가했다.20대 투자자인 A(29)씨는 “미국 주식만 매매하고 있는데 소수점이 된다고 해서 큰 차이는 사실 느껴지지 않는다”며 “단기 투자보다는 소액으로 꾸준히 적립식으로 매매하는 분들 편의가 늘어날 것 같다”고 말했다. 다만 최근 주식 시장에 한파가 불어닥쳤다는 점은 증권사들 입장에서 아쉬운 요소다. 가뜩이나 국내 주식 거래대금은 물론 해외주식 거래대금까지 감소세를 이어가기 때문이다. 이날 한국예탁결제원 증권정보포털 세이브로에 따르면 월별 미국주식 거래대금은 올 초 323억달러에서 지난달 259억달러로 집계되며 지난 7월 반등 시기의 증가세를 제외하곤 전반적인 감소세를 보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.09.25.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>자영업자 ‘저금리’ 대출 전환 30일부터 신청… 8조5000억 규모</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003737993?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>7% 이상 대출, 최대 6.5% 금리로채무조정 ‘새출발기금’ 4일 시행금융당국이 연 7% 이상의 고금리를 이용 중인 자영업자·소상공인을 대상으로 시행하는 대환 대출 프로그램 신청·접수가 오는 30일 시작된다. 또 코로나19로 피해를 입은 자영업자·소상공인의 채무조정을 위한 30조원 규모의 새출발기금도 내달 4일부터 시행된다.   금융위원회는 자영업자·소상공인의 금융부담을 낮추기 위해 8조5000억원 규모의 대환 프로그램을 시행한다고 25일 밝혔다.     게티이미지뱅크    신청·접수는 KB국민·신한·우리·하나·기업·NH농협·수협·부산·대구·광주·경남·전북·제주·토스 등 14개 은행의 모바일 앱과 은행 창구를 통해 가능하다.   지원대상은 코로나19로 피해를 본 정상차주로 개인사업자 또는 법인 소기업으로, 금융권에서 받은 설비·운전 자금 등 사업자 대출이면서 대환 신청 시점에 금리 7% 이상인 경우다. 코로나 피해로 보기 어려운 도박·사행성 관련 업종, 유흥주점, 부동산 임대·매매, 금융, 법무, 회계, 세무, 보건 등 업종은 지원대상에서 제외된다.   사업자별 대환 한도는 개인사업자 5000만원, 법인 소기업 1억원이다. 한도 내에서 여러 건의 고금리 대출을 대환할 수 있다. 금리와 보증료는 최대 6.5%로 실제 적용받는 금리는 대출자의 신용도에 따라 각각 다르다. 중도 상환 수수료는 전액 면제되며 총 5년간 2년 거치 후 3년간 분할 상환 방식이 적용된다.   금융위는 신청·접수과정에서 불편함이 최소화될 수 있도록 시행 초기 한 달간 사업자번호 끝자리를 기준으로 5부제를 시행할 예정이다. 대환 신청 접수 후 실제 대환대출까지는 2주 정도가 걸릴 것으로 보인다.   국민의힘과 정부는 이날 고위당정협의회를 열고 이달 종료될 예정이던 자영업자와 중소기업에 대한 대출의 만기 연장과 상환유예를 해주는 방안을 시행하기로 했다.   국민의힘 박정하 수석대변인은 이날 삼청동 총리 공관에서 열린 고위당정협의회 관련 국회 브리핑에서 “지난 3월의 만기연장조치가 9월에 종료되더라도 이들 자영업자·중소기업 등이 충분한 영업정상화 시간을 가질 수 있도록 만기연장과 상환 유예를 해주는 연착륙 방안을 10월부터 시행하는 한편, 코로나19로 피해를 입은 소상공인·자영업자 채무조정을 위한 30조원 규모의 새 출발 기금도 10월4일부터 차질 없이 시행키로 했다”고 밝혔다.   이처럼 코로나19에 이은 금리 인상기에 자영업자들의 이자 부담을 낮추기 위한 정부와 정치권의 노력이 진행 중이지만, 다중채무자를 중심으로 부실에 대한 우려가 커지고 있다.   국회 정무위원회 윤창현 의원(국민의힘)이 나이스평가정보로부터 제출받은 자료에 따르면 자영업자(개인사업자)가 전체 금융권에서 빌린 기업대출 잔액은 올해 6월 말 기준 688조원으로 집계됐다. 6개월 전인 지난해 말(637조원) 대비 8.0%, 1년 전(596조원) 대비 15.6% 늘어난 규모다. 특히 자영업자 중 다중채무자(3개 이상 금융기관서 대출)는 41만4964명으로 지난해 말(28만6839명) 대비 44.7% 증가했다. 이들의 1인당 평균 대출액이 4억6992만원에 달하는 셈이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.09.28.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>"간편결제 1위 도전"…오프라인 힘주는 카카오</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004755427?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>'POS 1위' 오케이포스 지분 인수영세사업자 가맹점 공략 강화카카오페이가 국내 판매시점관리시스템(POS) 1위 사업자인 오케이포스의 지분 일부를 인수하기로 했다. 카카오페이는 시장점유율이 40%에 달하는 오케이포스와 협업해 가맹점을 대거 늘릴 수 있을 것으로 예상된다. 롱테일(중소 영세사업자) 가맹점에 강점이 있는 네이버페이가 네이버 스마트스토어를 내세워 오프라인 간편결제 시장에 도전장을 내민 가운데 애플페이도 국내 진출을 선언하면서 빅테크들의 시장 쟁탈전이 본격화할 전망이다.28일 업계에 따르면 카카오페이는 전략적 파트너십을 강화하기 위해 최근 오케이포스에 지분 투자를 한 것으로 전해졌다. 오케이포스는 POS와 카드단말기, 키오스크 등을 제작·판매하는 오프라인 전문 결제사로 24만 개 가맹점을 보유하고 있다. 나이스그룹 계열사인 나이스디더블유알(56.42%)과 밴(VAN) 자회사인 한국전자금융(31.75%)이 오케이포스 지분 88.17%를 보유하고 있다.카카오페이는 이번 지분 인수를 통해 부족한 오프라인 가맹점을 더 확보하겠다는 계획이다. 카카오페이 가맹점은 6월 말 기준 166만 개로 신용카드 가맹점(300만 개)의 절반을 조금 웃돌지만 대부분 대형 프랜차이즈 가맹점이다. 오케이포스 가맹점은 영세사업자가 많아 이를 보완할 수 있을 것으로 카카오페이는 보고 있다. 카카오페이는 지난 4월 소규모 가맹점 결제 점유율을 높이기 위해 9만 개 가맹점을 보유한 토스의 전자금융결제대행(PG) 자회사인 토스페이먼츠와 제휴를 맺기도 했다.빅테크들은 올해 들어 오프라인 간편결제 시장 진출에 속도를 내고 있다. 간편결제 시장의 결제액이 지난해 221조원으로 5년간 연평균 57% 늘어나면서 국내 민간 결제액(1000조원)의 20%를 넘어섰기 때문이다. 네이버파이낸셜은 올 들어 오프라인 결제에 힘을 쏟고 있다. 올 2분기 오프라인과 온라인을 합한 카카오페이 결제액은 29조1000억원(송금 포함), 네이버페이는 12조원을 기록했다. 네이버페이의 오프라인 결제액은 약 7000억원에 불과하지만 전년 동기 대비 증가율이 100%에 달했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>생활맥주, 청정원 호밍스와 ‘바삭 비벼볼만두’ 콜라보 메뉴 출시</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002641535?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>ⓒ생활맥주[데일리안 = 임유정 기자] 수제맥주 프랜차이즈 생활맥주가 대상 청정원의 간편식 브랜드 호밍스와 콜라보레이션을 통해 ‘바삭 비벼볼만두’를 출시했다.‘바삭 비벼볼만두’는 생활맥주의 인기 메뉴인 비빔면에 호밍스의 ‘바삭만두’가 만나 최고의 조합을 자랑한다. 매콤새콤한 특제소스로 비빈 꼬들꼬들한 비빔면에 갓 튀긴 바삭한 식감의 고기, 고추 2종의 바삭 만두를 더해 조화로운 맛과 식감까지 잡았다.또한 한끼 식사로도 제격이라 출시와 동시에 생활맥주를 찾는 소비자들에게 긍정적인 반응이 쏟아지고 있다.바삭 비벼볼만두는 지난 15일부터 생활맥주 전국매장에서 판매를 시작했으며, 10월까지 한정판매 될 예정이다. 출시를 기념해 메뉴 주문자에 한하여 선착순 스크래치 쿠폰 이벤트를 진행하고 있다.바삭 비벼볼만두와 페어링 좋은 맥주는 레드 라거 스타일의 ‘생활맥주’다. 카라멜 몰트의 단맛이 비빔소스의 매콤한 맛을 중화시켜 부담 없이 먹을 수 있고, 라거의 청량감이 만두의 바삭한 식감과 잘 어우러진다.생활맥주 관계자는 ‘생활맥주를 찾아 주시는 고객분들께 다양한 안주를 선보이기 위해 청정원 호밍스와 콜라보 메뉴를 출시하게 되었다”며 “선선해지는 날씨 생활맥주와 함께 즐거운 시간 보내실 수 있도록 맛있는 안주와 수제맥주 개발에 더욱 힘쓰겠다’고 전했다.한편, 생활맥주는 모바일 금융서비스 ‘토스’, 코스메틱 브랜드 ‘더 라퓨즈’등 업종을 가리지 않는 활발한 브랜드 제휴 프로모션을 이어가고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.09.24.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>하루만 맡겨도 이자 지급되는 '파킹통장'...최고 금리는 어느 은행?</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002286567?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>인터넷은행 2%·저축은행 3%대 수시입출금 통장예치금, 우대실적 등 가입조건에 따라 이자 책정 ◆…자료사진:연합뉴스     #. 회사원 A(35)씨는 여행경비 2000만원을 잠시 주식에 투자하려고 했지만 어렵게 모은 목돈을 잃을까봐 일단 1년짜리 정기예금에 돈을 넣었다. A씨는 "딱 6개월만 더 넣고 싶은데 대부분 일년 이상 만기 예금 상품이어서 어떻게 해야할지 모르겠다"고 말했다.   최근 주식·코인 등 위험자산에 대한 불안감이 커지면서 ‘파킹 통장(자유 수시입출금 통장)’에 대한 관심이 높아지고 있다. 파킹통장은 하루만 맡겨도 이자가 지급되는데다 만기 없이 입출금이 자유로워 단기 여유자금을 넣어두기에 적합한 상품이다.   시중에 부동자금이 급증한 가운데 파킹통장 금리도 연 3%대가 나오면서 금융회사들의 금리 경쟁이 본격화되고 있다. 하지만 금융사마다 예치금, 우대실적 등에 따라 금리가 다르기 때문에 조건을 잘 따져보고 선택해야 한다.   현재 금리가 가장 높은 파킹통장 상품은 OK저축은행의 'OK세컨드통장'이다. 기본금리 연 3.0%(한도 1000만원) 이자가 적용되며 다른 은행 오픈뱅킹에 계좌 등록을 하면 우대금리 0.3%포인트가 추가로 제공된다. 단 1000만원 초과분의 금리는 연 1.0%의 이자가 적용된다. 1인 1계좌로 모바일 앱인 ‘OK모바일뱅킹’ ‘SB톡톡플러스’ 등 비대면 채널을 통해 가입이 가능하다.   페퍼저축은행의 '페퍼스파킹통장'은 별도의 조건 없이 5000만원까지 연 3.2% 이자를 지급하고 있다. 5000만원 초과분에는 연 1.0%의 이자가 적용된다. 모바일 앱 ‘디지털페퍼’ 에서 계좌를 개설할 수 있다.   SBI저축은행의 '사이다뱅크'도 별도 조건 없이 1억원까지 연 2.2% 이자를 제공하고 있다. 하나저축은행의 ‘하이하나 보통예금'은 기본금리 1.5%에 마케팅 동의 0.3%포인트, 종이통장 없는 계좌로 개설하면 0.1%포인트, 매달 잔액이 200만원 이상이면 연 0.6%포인트가 우대금리가 지급된다. '사이다뱅크' 앱을 통해 가입할 수 있다.   인터넷전문은행 3사도 최근 금리를 인상해 2%대의 이자를 제공하고 있다.   ‘파킹 통장’의 원조인 토스뱅크 통장은 최대 1억원 한도까지 연 2.0% 금리 혜택을 주고 있다. 금리는 경쟁상품에 비해 낮지만 '일 복리' 효과를 누릴 수 있는 '지금 이자받기' 서비스를 제공하고 있다.   카카오뱅크의 세이프박스 금리는 1억원까지 연 2.2%다. 1개의 세이프박스 한도는 1억원이지만 여러 개의 세이프박스를 만들 수 있어 1억원 이상의 자금도 보관할 수 있다.   케이뱅크의 플러스박스 한도는 3억원으로 연 2.3%의 금리 혜택을 주고 있다. '용돈 계좌', '비상금 계좌' 등 용도별로 최대 10개까지 통장 쪼개기가 가능하다.   저축은행과 인터넷은행의 파킹 통장도 예금자보호가 가능한 상품이지만 리스크를 최소화하고 싶다면 시중·국책은행의 상품을 이용하는 것도 한 방법이다.   SC제일은행은 지난 5일 연 1.0%의 기본 금리를 적용한 비대면 전용 수시입출금 상품 ‘제일EZ통장’을 출시했다. 첫 거래 고객에 한해 6개월간 최고 연 2.5%(세전)의 금리를 제공한다. 산업은행의 비대면 전용 상품 'KDB Hi 비대면 입출금 통장'은 별다른 조건 없이 연 2.25% 금리를 지급하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.09.29.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>[데일리안 창간18주년포럼] 행사를 빛내주신 분들</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002643809?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>29일 오전 서울 여의도 CCMM빌딩 컨벤션홀에서 열린 데일리안 창간 18주년 2022 경제산업비전포럼 '쓴소리, 윤석열 정부에 2030 MZ세대가 전하다' 윤석열 정부의 성공을 위해 나가야 할 방향 제언 토론이 진행되고 있다.ⓒ데일리안 박항구 기자[데일리안 = 오수진 기자] 데일리안이 29일 서울 여의도 CCMM빌딩에서 ‘쓴소리, 윤석열 정부에 2030 MZ세대가 전한다’라는 주제로 개최한 '창간 18주년 2022 경제산업비전포럼'이 성황리에 마무리됐다.이날 포럼에는 주호영 국민의힘 원내대표, 장경태 더불어민주당 국회의원(최고위원), 김민규 국민의힘 전 부대변인, 김연주 국민의힘 전 상근부대변인, 권지웅 전 민주당 비상대책위원, 박성민 전 국민의힘 대학생위원장, 신인규 전 국민의힘 부대변인, 이동수 청년정치크루 대표 등 400여명이 참석했다.다음은 포럼에 참석해 축하해주신 분들. (성명 가나다 순)▲갈상면 하나증권 부장 ▲강승수 한국투자신탁운용 실장 ▲강신애 코스콤 과장 ▲강영진 롯데칠성음료 팀장 ▲강윤구 아모레퍼시픽 팀장 ▲경종욱 애경그룹 팀장 ▲고진순 롯데건설 팀장 ▲고진희 감정평가사협회 이사 ▲구양모 삼성SDI 프로 ▲김경래 생명보험협회 실장 ▲김경환 (주)LG 상무 ▲김광재 신한금융그룹 본부장 ▲김대식 롯데카드 팀장 ▲김대용 신영 이사 ▲김륜환 코웨이 과장 ▲김민우 넥슨 과장 ▲김민희 포스코 팀장 ▲김범석 미래에셋자산운용 상무 ▲김병도 SK이노베이션 부장 ▲김상수 LG유플러스 상무 ▲김상우 이지스자산운용 팀장 ▲김석준 미래에셋생명 팀장 ▲김성철 세븐일레븐 팀장 ▲김소정 티몬 실장 ▲김순갑 대우산업개발 차장 ▲김승규 미래에셋자산운용 이사 ▲김승록 하이트진로 차장 ▲김영산 손해보험협회 부장 ▲김영선 BC카드 팀장 ▲김영식 한화생명 상무 ▲김영진 동국제강 부장 ▲김용성 콴텍투자일임 매니저 ▲김윤진 은행연합회 실장 ▲김응준 HY 팀장 ▲김정훈 신한은행 부장 ▲김종술 한화투자증권 실장 ▲김준석 골든블루 과장 ▲김진태 신한금융그룹 팀장 ▲김재훈 대우조선해양 과장 ▲김창현 하나금융그룹 부장 ▲곽용섭 쌍용자동차 부장 ▲권이상 쌍용건설 차장 ▲권혁민 전국경제인연합회 팀장 ▲노승수 매일유업 팀장 ▲류준형 BBQ 상무 ▲문정선 포스코건설 과장 ▲문정원 한국콜마 팀장 ▲문종열 상장사협의회 팀장 ▲박경욱 금호건설 과장 ▲박대수 현대해상 부장 ▲박대원 코웨이 과장 ▲박상래 GS리테일 팀장 ▲박상훈 우아한형제들 팀장 ▲박소영 메리츠화재 차장 ▲박승배 유안타증권 실장 ▲박승신 위메프 팀장 ▲박은규 현대건설 팀장 ▲박준석 신한자산운용 팀장 ▲박준현 KB증권 부장 ▲박준호 대상 팀장 ▲박천탁 현대제철 팀장 ▲박철환 LG유플러스 팀장 ▲박한성 상장사협의회 과장 ▲방영일 CJ ENM 부장 ▲서은옥 풀무원 홍보담당 ▲서희종 대우건설 상무 ▲성혜정 키움증권 팀장 ▲성환두 LG에너지솔루션 전무 ▲손수근 삼성물산 부장 ▲손현진 토스뱅크 매니저 ▲송경준 오리온 과장 ▲심문보 삼성물산 팀장 ▲안민구 한화생명 파트장 ▲안영 위메이드 팀장 ▲양성욱 SK온 팀장 ▲엄호천 미래에셋증권 팀장 ▲여승렬 NH농협은행 과장 ▲오승환 여신금융협회 부장 ▲오용진 컴투스 팀장 ▲오정은 카카오게임즈 실장 ▲유승민 NH투자증권 부부장 ▲유정재 우리금융그룹 부장 ▲윤성호 IBK기업은행 팀장 ▲윤숭상 다올투자증권 이사 ▲윤여진 CJ ENM 부장 ▲윤정하 토스 매니저 ▲이고은 한화자산운용 대리 ▲이기훈 현대자동차그룹 부장 ▲이남곤 이마트 팀장 ▲이남주 삼성자산운용 이사 ▲이달호 MG새마을금고중앙회 차장 ▲이동수 CJ대한통운 부장 ▲이병상 삼성중공업 부장 ▲이상규 GS건설 상무 ▲이상윤 전국경제인연합회 상무 ▲이석춘 신라면세점 차장 ▲이성욱 GS건설 팀장 ▲이수연 CJ그룹 부장 ▲이슬기 카카오 이사 ▲이승관 삼성전자 상무 ▲이승은 IBK기업은행 부장 ▲이슬기 카카오 이사▲이신철 이지스자산운용 과장 ▲이영호 현대건설 상무 ▲이우승 다이소 실장 ▲이운주 SBI저축은행 파트장 ▲이웅 NH농협금융그룹 차장 ▲이인호 SK하이닉스 TL ▲이웅재 교보생명 팀장 ▲이자호 부영 과장 ▲이정우 KT 상무 ▲이정운 JT저축은행 대리 ▲이정호 KT 팀장 ▲이준 DB손해보험 부장 ▲이준구 삼성화재 파트장 ▲이준우 한국조선해양 부장 ▲이지원 NH농협손해보험 과장 ▲이재영 신한카드 부부장 ▲이택근 한국인삼공사 팀장 ▲이행수 NH농협은행 팀장 ▲이형근 LG전자 팀장 ▲임규목 한국금융투자협회 이사 ▲임지영 코스콤 부서장 ▲임지현 카카오게임즈 부사장 ▲왕석균 우리은행 팀장 ▲원태홍 현대차증권 팀장 ▲장종환 NH농협금융그룹 본부장 ▲장혁 한화건설 팀장 ▲전동준 포스코건설 부장 ▲전순달 올리브영 팀장 ▲전수배 오비맥주 차장 ▲전인수 KB국민은행 부장 ▲정경열 SK에코플랜트 팀장 ▲조성현 하이투자증권 실장 ▲조용국 빙그레 부장 ▲조우경 현대산업개발 부장 ▲조은빛 콴텍투자일임 팀장 ▲조준섭 교보증권 실장 ▲조진우 반도건설 차장 ▲조제영 삼성증권 이사 ▲주혁규 KB국민은행 팀장 ▲주홍관 이마트24 파트너 ▲진현정 한국금융투자협회 팀장 ▲최대성 한국거래소 팀장 ▲최복래 삼성엔지니어링 그룹장 ▲최석환 우리카드 차장 ▲최원해 한화손해보험 차장 ▲최종복 SK텔레콤 팀장 ▲최혁순 IBK투자증권 팀장 ▲하석 SK그룹 부사장 ▲한승준 아워홈 팀장 ▲한병훈 아워홈 책임 ▲허준 에이피알 과장 ▲허재영 페퍼저축은행 차장 ▲홍성원 롯데칠성음료 대리 ▲홍종민 SK증권 팀장 ▲황대헌 대신증권 팀장 ▲황영훈 현대제뉴인 차장 ▲황태병 하나은행 팀장 ▲황현돈 넷마블 실장</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>금융위원장-은행장 첫 저녁만찬 회동…김주현 "금융개혁·내부통제 중요"</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001056328?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>김주현 금융위원장이 지난 7월 취임한 이후 처음으로 국내 15개 은행장들과 만찬 회동을 가졌다.김 위원장은 26일 은행장들과의 첫 만남에서 효과적인 금융개혁 협조와 함께 사고방지를 위한 내부통제제도를 강조했다.은행연합회는 이날 금융당국과의 소통을 강화하고 금융현안에 대한 이해의 폭을 넓히기 위해 금융위원장 초청 은행장 간담회를 개최했다고 밝혔다.김 위원장은 "최근 연이은 금융사고로 국민들의 불안과 불신이 고조되고 있는 상황에서, 감독당국은 내부통제제도 개선을 위한 방안을 검토중에 있지만, 중요한 것은 최고경영진들이 '사고발생 방지와 소비자 우선'의 조직 문화를 심어 놓는 것"이라고 밝혔다.이어 "사고발생 방지와 소비자 우선의 문화정착에 노력하고, 영업 현장에서 이런 문화가 정착돼 있는지 여부를 최고경영자가 직접 확인해달라"고 당부했다.김 위원장은 또 "금융개혁 과정에서 업계간 이해상충 문제, 새로운 업무수행에 따른 위험 관리 문제, 예컨대 은행이 어느 정도까지 새로운 업무를 할 수 있을지 등에 대한 많은 논란이 예상된다"며 "금융시장 불안으로 어려운 상황에서 이런 논란 소지에 잘 대응하지 않으면 개혁의 추진 동력이 상실될 우려가 있다"고 말했다.그러면서 "예상되는 주요 이슈들에 대해 소비자, 이해관계자, 국회, 언론 등에 잘 설명하고 이해를 구하는 작업을 업계와 연구소 등이 금융당국과 힘을 모아 같이 하게 되면 보다 속도감 있고 효과적인 금융개혁 추진이 가능할 것"이라고 밝혔다.이날 간담회에는 산업은행, 농협은행, 우리은행, 하나은행, 기업은행, 국민은행, 수출입은행 ,수협은행, 대구은행, 부산은행, 제주은행, 전북은행, 주택금융공사, 케이뱅크, 토스뱅크(은행연합회 사원은행 가입순) 등 15개 사원은행장들이 참석했다.한편 대우조선해양의 헐값 매각과 관련해선 김 위원장은 "구주매출(기존 주주의 주식을 양도양수하는 계약 방식)보다 2조원이 신규 자금으로 들어간다. 굉장히 좋은 방향"이라며 "그건(헐값 매각) 지금 논하는 게 적절치 않은 것 같다. 앞으로 주가가 어떻게 될지 모른다"고 답했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>티끌 모아 한주…"삼성전자 1000원어치만" 소수점 거래 시작</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004754215?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>소수점 거래, 미래에셋·NH·KB·키움·한화 등 5개사 시작증권사별로 최소주문금액, 거래 가능 종목 달라사진=게티이미지뱅크주식을 0.1주 단위로 쪼개서 거래 가능한 ‘소수점 단위’ 거래가 국내 증시에 도입됐다. 이달 5개 증권사부터 시작해 올해 내로 12개 증권사가 소수점 단위 거래를 지원할 계획이다. 내년 이후로도 참여 증권사들이 더 늘어날 방침이다.26일 한국예탁결제원은 미래에셋증권, KB증권, NH투자증권, 키움증권, 한화투자증권 5개 사에서 이날부터 소수점 단위 주식 거래를 시작한다고 밝혔다. 미래에셋증권을 제외한 4개사는 모바일트레이딩시스템(MTS)와 홈트레이딩시스템(HTS)에서 모두 소수 단위 거래를 지원한다. 미래에셋증권은 다음주부터 MTS에서 소수 단위 거래를 지원할 방침이다.소수 단위 거래는 신탁제도를 활용해 0.1주, 0.2주 등의 소수단위 주문이 가능하도록 한 제도다. 증권사는 투자자의 소수 단위 매수주문을 취합하고 부족분을 자기 재산으로 채워 해당 주식을 온주 단위로 취득한 뒤 예탁원에 신탁한다. 예탁원은 이 신탁받은 주식을 바탕으로 다수의 수익증권으로 분할 발행해 다시 투자자에게 돌아가는 구조다.소수 단위 거래는 그동안 해외주식에서만 가능했었다. 국내에서는 금융위원회가 올해 2월 국내주식 소수 단위 거래 서비스를 혁신금융서비스로 지정하면서 예탁원과 증권사들이 서비스를 도입하게 됐다.예탁원은 소수 단위 거래를 지원하는 증권사들이 올해 내로 12개사로 더욱 늘어날 것이라고 밝혔다. 다음달 4일 삼성증권과 신한금융투자가 소수점 거래를 시작할 방침이며, 다올투자증권, 대신증권, 상상인증권, 유안타증권, IBK투자증권은 올해 내로 서비스를 시작한다. 이외 하나증권, 한국투자증권, 카카오페이증권, 토스증권, 이베스트투자증권 등 12개 증권사는 내년 이후 서비스를 시작하기로 했다.소수 단위 거래를 원하는 투자자들은 증권사마다 주문 가능 종목 수, 주문 금액 단위 등이 달라 세부 내용을 확인해야 한다. NH투자증권은 760개, 한화투자증권은 720개의 종목을 지원한다. 미래에셋증권과 KB증권, 키움증권은 각각 350개 종목을 지원한다. NH투자증권의 경우 주문 금액단위를 100원으로 설정한 반면, 키움증권·KB증권 등은 1000원 단위로 주문이 가능하다.소수점 주식도 의결권 행사가 가능하지만, 증권사마다 실제 행사 여부는 달라질 수 있다. 예탁원은 개별 증권사가 고객 간 약관에 따라 소수 단위의 의결권을 취합해서 행사할 수 있도록 했다. 증권사는 의결권 행사, 미행사, 중립투표 중 하나를 선택해 서비스를 제공한다. 이날 서비스를 시작하는 5개사는 의결권을 행사하지 않기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>“잘못보낸 돈 돌려달라”...착오송금 반환률 고작 30%</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005322238?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>올해 신청액 158억 중 44억 돌려 받아KB국민·신한은행 순 착오송금 건수 많아[이데일리 전선형 이상원 기자] 계좌번호 오류 입력 등으로 타인의 통장으로 잘못 보낸 돈이 올해 158억원에 달하는 것으로 나타났다. 그러나 이중 실제 돌려받은 반환액은 44억원 밖에 되지 않았다. 착오송금 반환 지원제도가 시행되고 있지만, 낮은 반환 금액 기준과 홍보 부족 등으로 소비자의 속만 타고 있는 셈이다. 서울 시내에 은행 ATM 기계가 나란히 설치된 모습. (사진=뉴시스)21일 강병원 더불어민주당 의원이 예금보험공사로부터 받은 자료에 따르면 올해 7월 기준 착오송금으로 인해 반환을 신청한 금액은 약 158억원이었으나, 이중 실제 반환된 액수는 44억900만원 밖에 되지 않는 것으로 나타났다. 건수로는 전체 신청건수인 1만1698건 중 3588건(30%)만 돈을 돌려받았다. 반환 건수가 가장 많은 구간은 500만원 이상~1000만원 이상이 18억원으로, 40.9%를 차지했다. 생각보다 높은 금액의 돈을 잘못 보내고 있는 것이다. 뒤이어 10만원 이상~50만원 미만(1446건, 40.3%, 3억4200만원)이었다. 다음으론 50만원 이상~100만원 미만(620건, 17.3%, 4억5000만원), 100만원이상~200만원 미만(527건, 14.7%, 6억6200만원)순이었다. 착오송금이 가장 많이 발생한 은행은 KB국민은행으로 나타났다. 11개 은행 중(KB국민·신한·하나·우리·NH농협·SC·씨티은행, 카카오뱅크, 케이뱅크, 토스뱅크)의 지난 7월부터 올해 3월까지 집계된 착오송금 발생한 건수를 살펴보면 KB국민은행이 2만8889으로 가장 많았다. 금액으로도 841억원에 달했다. 이어 신한은행이 2만5848건으로 많았으며, 카카오뱅크가 2만3991건, 하나은행이 1만9938건, NH농협은행이 1만4876건이었다. 착오송금에 대한 불편이 계속되면서 정치권에서는 착오송금 반환제도에 대한 홍보 확대와 착오송금 반환 지원 제도의 반환금액 기준 상향 등이 필요하다는 목소리가 커지고 있다. 착오송금 반환지원제도는 송금인이 실수로 잘못 보낸 돈을 최소한의 비용으로 신속하게 반환받을 수 있도록 예보가 도와주는 제도다. 예금자보호법 개정에 따라 지난해 7월 6일부터 시행됐다. 하지만 반환지원 대상 금액 기준이 5만원 이상 1000만원 이하 수준이다. 해당 기준 이상의 금액은 소송을 통해 돌려받아야 한다. 강병원 의원은“착오송금이 발생하면 반환지원 사이트에 접속하거나 예보 본사 상담센터(서울시 중구 소재)에 직접 방문해야 한다. 비수도권 고령층 등 금융 취약계층의 접근이 어려운 구조”라며 “예보가 시중은행과 업무협약을 체결하고, 은행에서도 착오송금 반환신청이 가능하도록 하는 등 ‘적극 행정’ 실시 방안을 검토해야 한다”라고 했다. 강 의원은 이어서 “현재 1000만원 이상의 착오송금에 대해서는 예보가 홈페이지에 소송방법 등을 안내하고 있다. 제도의 본래 도입 취지가 ‘소송 등으로 인해 발생하는 불필요한 사회적 비용의 방지’였던 점을 고려할 때, 반환제 적용 금액을 상향해 지원대상을 넓힌다면 반환액이 홍보액보다 적은 일은 없을 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>온라인쇼핑 급증에 전자지급결제대행 서비스 하루 이용액 1조 돌파</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005150535?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>올해 상반기 온라인쇼핑 등이 급증한 데 힘입어 전자지급결제대행(PG) 서비스 하루 이용금액이 처음으로 1조원을 돌파했다. 코로나19 이후 비대면 거래가 활성화되면서 선불전자지급서비스 하루 이용금액도 8000억원을 넘어섰다.  21일 한국은행이 발표한 '2022년 상반기 중 전자지급서비스 이용 현황'에 따르면 전자금융업자와 금융회사가 제공하는 전자지급서비스 중 전자지급결제대행 서비스 이용실적은 2321만건, 1조209억원으로 전기 대비 각각 3.1%, 8.0% 증가했다.전자지급결제대행 서비스는 전자상거래에서 구매자로부터 대금을 수취해 판매자에게 최종적으로 지급될 수 있도록 지급결제정보를 송·수신하거나 그 대가를 정산 대행·매개하는 서비스다. 한은은 "통계청에 따르면 올해 상반기 온라인쇼핑 하루평균 거래액은 전기 대비 3.8% 증가했는데 코로나19 여파로 비대면 거래 이용이 급증하면서 온라인 쇼핑 등이 늘어난 데 따라 전자지급결제대행 서비스 이용실적도 증가했다"고 설명했다.   선불전자지급 서비스 일평균 이용실적 역시 2648만건, 8017억원으로 전기 대비 각각 4.4%, 13.5% 증가했다. 선불전자지급 서비스는 미리 충전한 선불금으로 교통요금, 상거래 대금을 지급하거나 송금할 수 있도록 선불금을 발행·관리하는 서비스다.특히 모바일 기기를 이용한 금융거래가 선호되면서 전자금융업자의 간편결제·송금 실적이 견조한 성장세를 지속했다.간편결제 서비스는 카카오페이 등 비밀번호, 지문 등 간편 인증수단을 이용한 결제 서비스로 올해 상반기 일평균 이용실적은 2317만건, 7232억원을 기록, 전기 대비 각각 8.3%, 10.7% 증가했다.토스 등 간편송금 서비스는 491만건, 6024억원으로 전기 대비 각각 6.9%, 14.3% 증가했다. 결제대금예치(에스크로) 서비스 일평균 이용실적은 319만건, 1569억원으로 이용건수가 전기 대비 소폭(-1.9%) 감소한 가운데 이용금액은 전기와 비슷한 수준을 유지했다. 결제대금예치 서비스는 전자상거래에서 구매자로부터 대금을 예치받고 물품수령 확인과정 등을 통해 거래가 적절히 이뤄졌는지 확인 후 구매대금을 판매자에게 지급하는 서비스다.아파트 관리비, 전기·가스 요금 등 고지서를 이메일·앱 등을 통해 전자적 방식으로 발행하고 대금을 직접 수수해 정산을 대행하는 전자고지결제 서비스의 일평균 이용실적은 24만건, 449억원으로 전기 대비 각각 5.1%, 15.0% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>토스뱅크, '사장님 대환대출' 사전 신청…최대 5.5% 고정금리</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011432854?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크는 최장 2년간 고정금리를 유지하는 '코로나 피해 사장님 대환대출(사장님 대환대출)' 사전 신청을 받는다고 22일 밝혔다.'사장님 대환대출'은 2년간 최대 연 5.5%의 고정금리를 적용하는 상품이다. 29일까지 토스뱅크에서 사전 신청하면 30일부터 순차적으로 대출이 신청된다. 10월 중부터는 5부제 방식으로 운영될 예정이다.대상은 코로나19로 피해를 입어 손실보전금 등 재난지원금, 손실보상금을 수령했거나 만기연장·상환유예를 받은 차주 가운데, 현재 정상적인 경영활동을 하고 있는 개인사업자다. 올해 5월31일까지 취급된 대출에 한해 대환이 가능하다.한도는 최소 1000만원, 최대 5000만원이다. 2년 거치 후 3년간 분할 상환한다. 2년이 지난 후 3~5년 차에는 은행채(AAA) 1년물에 2.0%포인트 가산한 협약금리가 상한선으로 적용된다. 여기에 신용보증기금 보증료 연 1.0%는 일시 납입해야 한다. 기존 대출 상환에 따른 수수료는 물론 신규 대출에 대한 중도상환수수료도 전액 면제된다. 신청은 토스앱 접속 후 토스뱅크 홈 화면 '상품찾기' '토스뱅크로 갈아타기'에서 '코로나 피해 사장님을 위한 대환대출 미리 예약하기'를 누르면 된다.인터넷전문은행 가운데 신용보증기금과 대환대출 서비스에 참여한 것은 토스뱅크가 처음이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.09.16.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>"청년이 주인공 되는 일주일"…서울시 '2022년 청년주간' 행사</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006337476?sid=102</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>청년정책 박람회·멘토링 등 다양한 행사 개최2020년 청년기본법 제정 후 처음 대면행사로서울시청 전경. 2022.9.1/뉴스1 ⓒ News1 박지혜 기자(서울=뉴스1) 윤다정 기자 = 서울시는 청년기본법에 따른 청년의 날을 맞아 17일부터 23일까지 '2022년 청년주간' 행사를 개최한다고 16일 밝혔다. 2020년 8월 청년기본법 제정 이후 처음으로 열리는 대면 행사다.광화문광장과 서울시청, 서울청년센터, 무중력지대 등에서 청년들이 취업 등 고민과 경험을 나누고, 자신에게 도움되는 정책과 정보를 얻어갈 수 있는 다양한 행사가 열린다.먼저 '청년정책 박람회는' 17~18일 광화문광장에서 정부와 지자체, 공공기관, 민간기업 등이 대거 참여한 가운데 열린다.서울시에서는 △나에게 맞는 '청년행복프로젝트' 정책 찾기 △퍼스널 컬러 진단 △청년 일자리 매칭강화 전담창구 상담사가 참여하는 현장 취업 상담실 △면접 메이크업 및 사진 촬영 △영테크 맛보기 재무상담 등 총 12개 부스를 운영한다. 각 부스에서는 정책을 직접 체험하고 알아갈 수 있는 다양한 프로그램이 진행될 예정이다. '글로벌 취업 멘토링 데이'는 19일 오후 6시 서울시청 다목적홀에서 열린다. 글로벌 기업 취업을 희망하는 청년 300여명이 테슬라, LG전자, SK하이닉스, 토스 등에 재직 중인 현직자 멘토와 만날 예정이다.'디지털 시대 글로벌 인재 기준과 혁신 분석'을 주제로 한 김형석 IBM 디지털 사업부 전무의 키노트 특강을 시작으로, 공개 모의면접, 현직자의 현장 Q&amp;A, 그룹별 멘토링이 진행된다. 그룹별 멘토링은 10~15명의 청년이 1개조가 돼 3회에 걸쳐 현직자 멘토에게 조언을 듣는 시간으로 꾸려진다. 멘토링에는 글로벌 기업에 재직 중인 40명의 멘토가 참여한다. 모의면접은 사전 신청한 청년 중 2명을 선정해 진행한다.현직자 Q&amp;A에는 나이키, 아마존, 아데코, 아모레퍼시픽 재직자 4명이 참여해 취업 관련 궁금증에 직접 답변한다. 본격적인 행사 시작에 앞서 오후 4시~5시40분까지 1인당 30분 이내의 일대일 취업 멘토링도 준비돼 있다.21일 오전 10시에는 시민청 활짝라운지에서 청년 토크콘서트 '오히려 좋아'가 열린다. 영테크, 희망두배 청년통장, 청년취업사관학교 등 서울시 청년정책에 참여했던 청년들이 자신의 경험을 나눈다.22일 오전 10시30분 페럼타워 페럼홀에서는 데이터로 본 서울 청년의 삶을 주제로 한 '서울 청년정책 컨퍼런스'가 열린다. 서울시 미래청년기획단 유튜브 채널에서 생중계되며, 희망하는 경우 현장 참석도 가능하다.이외에 서울청년센터(서초·강북·금천·강서·동대문·관악·광진·마포), 무중력지대(양천·성북·도봉) 등 서울시 청년공간에서도 청년의 날을 맞아 청년들이 참여할 수 있는 다양한 프로그램을 진행한다.오세훈 시장은 17일 올림픽공원에서 열리는 '제5회 청년친화헌정대상 시상식'에서 '종합대상'을 받는다. 서울시는 청년종합계획 '청년행복프로젝트' 수립, 지자체 최대 규모 청년정책 추진, 청년자율예산 운영 등 성과를 인정받아 청년친화 우수 광역자치단체로 선정된 바 있다.한편 올해 행사의 슬로건은 '청년의 [행복·꿈·희망+@]를 동행하다'이다. 민선8기 시정 핵심 키워드인 '동행'과, 오세훈 서울시장이 지난 3월 발표한 '청년행복프로젝트'의 핵심 콘셉트인 '행복'을 반영한 것이다.여기에 '플러스알파'(+@)를 남겨둬 미래, 내일 등 청년들이 서울시와 동행하고 싶은 각자의 키워드를 추가해 완성되는 참여형 슬로건이다.김철희 서울시 미래청년기획단장은 "청년들이 청년정책을 피부로 느끼고 활력을 되찾을 수 있는 프로그램을 마련했다"며 "청년의 날은 청년이 주인공인 만큼 청년의, 청년을 위한, 청년에 의한 특별한 한 주가 될 수 있도록 최선을 다해 준비하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>"주식으로 날리고 결국엔…" 2030 재유행하는 재테크 뭐길래</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004752776?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>'월 납입 한도 ↓·고금리 적금' 수요 몰려카드 현금성 지원 활용 '풍차 돌리기'도 각광"합리적 선택…과도한 카드 발급은 유의해야"사진=게티이미지뱅크지난해 목돈 2000여만원을 주식에 넣었다가 막대한 손실을 봤다는 30대 직장인 이모씨. 그는 주식시장 둔화로 큰 수익을 벌어들일 기회가 줄어든 데다 물가까지 천정부지로 치솟으면서 당장 믿을 건 금리밖에 없다는 생각이 들었다. 이후 이씨는 지난 7월부터 매달 12개월 만기 적금을 새로 가입하고 있다. 월 20만원씩 넣는 적금만 지금까지 3개를 두고 있는 그는 "당장 거금이 눈앞에 보이는 건 아니지만 용돈과 자투리 돈을 매달 모으는 '풍차 돌리기'를 이용해 5년 뒤 투자에 활용할 종잣돈(시드머니)을 마련하고자 한다"며 "20대 사회초년생 시절 했던 재테크를 다시 하니 감회가 새롭고 소소한 만족감도 느낄 수 있어 개인적으로 느끼는 보람이 크다"고 말했다.금리 인상기를 맞아 주식시장이 침체에 빠지면서 이른바 '풍차 돌리기' 재테크가 2030세대에서 다시 유행하고 있다. '적금 풍차 돌리기'는 과거 재테크의 기본으로 통했다. 매월 새로운 적금 상품에 가입한 뒤 만기 시점부터 차례로 원리금을 거두어 목돈을 마련하는 저축 방식을 뜻한다. 주식 투자에 비해 지루하지만 상대적으로 자금이 부족한 사회초년생에게 돈 불리는 재미를 느끼도록 한다는 면에서 효용성이 높은 편이다.22일 금융권에 따르면 최근 월 납입 한도는 작지만 상대적으로 금리가 높은 적금 상품이 잇따라 시장에 나오면서 풍차 돌리기족(族) 자금이 빠르게 이동하고 있다. 신한은행이 지난 2일 출시한 연 최고 11%의 금리를 적용하는 적금 상품(6개월제 자유적립식, 월 납입 한도 30만원)은 4영업일 만에 신규 계좌 수 5000좌를 돌파했다. 웰컴저축은행이 지난 6일 시장에 내놓은 연 최고 10% 금리를 제공하는 적금 상품(12개월 단일 약정, 월 납입 한도 20만원)은 출시 1주일 만에 1만좌 판매를 달성하면서 높은 수요를 입증했다.사진=게티이미지뱅크아예 풍차 돌리기족을 겨냥한 적금 상품도 쏟아지고 있다. 스마트저축은행은 지난 7일부터 연 최고 5% 금리를 적용하는 적금을 판매하고 있다. 이 적금은 월 최대 20만원까지 적립이 가능한 상품으로 우대조건 없이 최고 금리를 제공하는 것이 특징이다. 인터넷전문은행 케이뱅크는 다음 달 31일까지 코드K자유적금 가입 소비자에게 기본금리 연 3.8%에 임의로 최대 6.3%포인트 우대금리를 추가로 제공한다. 월 납입 한도는 30만원이다. 광주은행은 지난 6일부터 연 최고 13.2% 금리를 제공하는 적금을 판매 중이다. 1년 만기 상품으로 월 납입 한도는 50만원이다.적금뿐만 아니라 '신용카드 풍차 돌리기'에 대한 관심도 커지고 있다. 신용카드 풍차 돌리기란 카드사가 신규 발급자를 대상으로 제공하는 현금성 지원을 받은 뒤 카드를 해지하는 행위를 반복하면서 혜택을 극대화하는 재테크 방식을 의미한다. 국내 카드사들이 통상 신용카드 발급 직전 6개월에서 1년 사이 실적이 없는 소비자에게 현금성 지원 혜택을 제공한다는 점을 활용한 재태크로 카드 해지 일자와 발급 일자를 주기적으로 관리하면서 이익을 키우는 식이다.최근에는 신용카드 신규 발급 시 소비자에 제공되는 현금성 지원액이 큰 편인 만큼 가계 지출액을 줄이는 용도로 활용할 만하다. 이는 과거와 달리 카드 모집인의 역할을 빅테크 및 핀테크 플랫폼이 대체하면서 신규 모집에 드는 비용 일부가 소비자 현금성 지원 규모로 넘어간 데 따른 것이다. 실제로 이날 기준 토스에서는 총 13종 신용카드의 신규 발급 회원에게 최대 16만원까지 현금을 돌려주고 있다.강형구 금융소비자연맹 금융국장은 "2030세대의 경우 정보 습득 능력이 뛰어난 만큼 저축 방식에 있어서도 보다 합리적인 선택으로 개인의 이익을 키우려는 특성이 분명히 드러난다. 긍정적으로 평가할 수 있는 부분"이라면서 "단, 개인의 자금 상태와 소비 행태를 고려하지 않고 다수의 계좌 또는 신용카드를 연달아 만들거나 카드 해지 시점을 놓치는 등 관리가 소홀해진다면 자신의 전체 소비 규모를 제대로 파악하지 못하고 오히려 과소비하는 결과를 초래할 수 있다는 점은 유의해야 할 부분"이라고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>엔비티, 롯데카드와 '애디슨' 오퍼월 제휴</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011439198?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 김경택 기자 = 코스닥 상장사 엔비티는 자체 운영 중인 오퍼월 네트워크 '애디슨'이 롯데카드와 서비스 제휴 계약을 체결했다고 26일 밝혔다.회사 측에 따르면 이번 계약을 통해 엔비티는 롯데카드가 운영하는 앱 서비스 '디지로카(Digi LOCA)'에 애디슨 오퍼월 시스템을 구축, 운영하게 됐다. 롯데카드 디지로카 사용자들은 애디슨 오퍼월 시스템에서 다양한 미션을 수행할 수 있다. 이를 통해 플랫폼 내 '띵샵'에서 현금처럼 사용 가능한 포인트 '띵코인'을 무료로 적립할 수 있다.이번 롯데카드 제휴 계약을 통해 엔비티는 네이버페이, 토스, 페이북 등 국내 주요 핀테크, 금융 서비스를 중심으로 포인트 사업 경쟁력을 한층 강화하게 됐다. 회사 측은 금융 시장 외에도 국내 대형 플랫폼들을 중심으로 한 오퍼월 네트워크 제휴 수요가 지속 증가하고 있는 만큼 주력 부문인 포인트 사업의 스케일업과 함께 추후 견고한 실적 확대가 이어질 것으로 전망하고 있다.엔비티 관계자는 "애디슨 오퍼월 사업 부문의 경우 제휴 매체사 확장이 곧 실적 증대로 이어져 올해 최대 실적에 이어 내년까지 한층 더 좋은 실적이 기대되고 있다"며 "공격적인 서비스 제휴 전략을 이어갈 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.09.16.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>"미래에셋 베트남, MTS 최고 자부… 올해 화두는 디지털화"</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000852223?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>[머니S리포트-다시 뛰는 신남방, 'K금융' DNA 심는다⑨] 강문경 미래에셋증권 베트남법인 대표, 2007년 직원들과 베트남법인 설립… 자본금 150억원에서 5000억원 규모로 성장[편집자주]베트남은 인도와 싱가포르, 태국, 인도네시아 등 한국 정부가 경제협력을 강화하고 있는 신남방 11개국 중에서 가장 중요한 국가다. 한국 기업들은 2021년 기준 9895만명의 인구와 IMF(국제통화기금) 추정 경제성장률 6.6%를 기록한 베트남에 크게 공을 들이고 있다. 베트남은 중국, 미국에 이어 한국의 3위 교역국이기도 하다. 국내 금융사들도 금융 서비스 노하우를 무기로 현지 시장을 적극 공략하고 있다. 한국의 ICT(정보통신기술)를 바탕으로 휴대전화를 통한 금융거래, 결제 서비스도 현지인들에게 충분히 통할 것으로 보고 있다. K-금융은 베트남 경제수도인 호찌민을 조용히 물들이고 있다. 조만간 베트남 금융시장이 한복으로 갈아입을 것이란 기대감도 크다.강문경 미래에셋증권 베트남법인 대표가 머니S와 인터뷰를 마친 뒤 사진촬영을 하고 있다./사진=전민준 기자 ◆기사 게재 순서① "코리아뱅크 굿" 한국 은행들, 베트남 홀렸다② 베트남, 국민 중 절반만 은행 계좌 보유… 갈길 먼 디지털 금융③ "서류 내고 돌아서니 보험금 '뚝딱'… 베트남과 달라요"④ "주식이 뭐예요?"… 베트남 증권시장, 韓에 열려있다⑤ 예영해 삼성화재 베트남법인장 "베트남 기업보험 개척자… 로컬기업과 협업에 신규 채널 확보까지"⑥ 이의철 신한라이프 베트남법인장 "텔레마케팅, 안된다고?… 신한라이프 베트남, 차별화로 대박쳤다"⑦ 강규원 신한베트남은행 법인장 "3년 안에 베트남 12위권 은행으로… 2030년엔 톱10 안에"⑧ 박원상 한국투자증권 베트남법인장 "베트남 톱티어 증권사 될 것"… 글로벌 도전장⑨ 강문경 미래에셋증권 베트남법인 대표 "MTS 베트남 최고 수준이라 자부… 올해의 화두는 디지털화"⑩ 정희균 토스베트남 PO "젊고 빠른 성장세, 베트남의 매력""2007년 베트남법인을 직원들과 함께 설립했고 이후 2016년 다시 베트남법인 대표로 부임했습니다. 설립 당시 자본금 3000억동(약 150억원)이 이제는 분기이익 수준 정도가 됐다는 점을 상기할 때마다 회사의 성장세를 느끼곤 합니다."베트남 최초 외국계 종합증권사로 출범한 미래에셋증권이 디지털화(Digitalization) 전략을 중심으로 시장 공략에 더욱 박차를 가하고 있다. 우수한 거래 플랫폼 등을 강점으로 내세워 베트남 현지 고객들의 주거래 증권사로 도약하겠다는 전략이다.강문경 미래에셋증권 베트남법인 대표는 최근 머니S와의 인터뷰에서 "최근 베트남 증권시장이 개인 고객을 중심으로 급격하게 발전하고 있다"며 "소위 말하는 리테일 시장이 본격화 됨에 따라 리테일 고객을 유치하기 위한 다양한 전략을 모색하고 있다"고 말했다.미래에셋증권 베트남법인은 자본금 3000억동으로 베트남 시장에 첫 발을 내디뎠다. 설립 당시에는 증권사에 대한 외국인 지분한도가 49%로 제한됐기 때문에 미래에셋증권 홍콩법인이 지분 49%를 보유하고 나머지 51%는 현지 파트너가 투자한 합작회사 형태로 출범했다. 이후 베트남 정부가 외국계 증권사의 100% 지분 보유를 허용하면서 2016년 미래에셋증권 홍콩법인이 100% 지분을 보유하게 됐다. 강 대표는 "100% 지분 취득으로 베트남에서 본격적으로 활동할 수 있는 기반이 마련된 2016년을 '제2의 창업기'라고 표현할 수 있다"며 "2016년 4000억동(약 220억원) 증자를 시작으로 2017년부터 2021년까지 총 4차례 추가 증자를 실시해 올해 상반기 말 이익잉여금을 합한 자기자본은 약 9조동(약 5000억원)으로 증가했다"고 말했다.지난해에는 신종 코로나바이러스 감염증(코로나19) 팬데믹을 거치면서 사상 최대 실적을 기록했다. 한국과 마찬가지로 베트남 증권시장도 거래량이 급격하게 증가했기 때문이다. 현재 베트남 시장에서는 6~7개 증권사가 각 회사별 점유율 5% 이상을 가지고 치열하게 경쟁 중이다. 미래에셋증권은 자기자본 기준 5위 증권사로 브로커리지 시장 점유율도 5위 수준을 유지하고 있다. 강 대표는 "미래에셋증권 베트남법인은 10개 지점에서 약 500명 이상의 직원들이 양질의 금융서비스 제공을 위해 지속 노력하고 있다"며 "타 상위 증권사에 대비해 직원수가 많지는 않지만 디지털화(Digitalization) 전략을 중심으로 우수한 거래 플랫폼(Trading Platform) 등을 강점으로 베트남 시장을 공략하고 있다"고 설명했다. 미래에셋증권 베트남법인 호찌민점에서 직원들이 근무하고 있다./사진=전민준 기자 ━코로나 봉쇄기간 사고없이 마무리… 외국계 증권사 편견 해소 ing━지난해 베트남 시장의 화두는 역시 신종 코로나바이러스 감염증(코로나19)이었다. 증권 거래량이 증가하고 있는 상황 속에서 직원들의 출퇴근에 제약이 생기면서 비상이 걸렸지만 강 대표가 직접 회사에 출근해 상황을 지켜보며 위기에 대처했다. 강 대표는 "올해도 여전히 진행 중이긴 하지만 지난해 여름 베트남에서 확진자가 갑자기 급증하면서 한때 호치민시가 완전히 봉쇄되기도 했다"며 "재택근무를 원칙으로 하면서 일부 직원만 통행증을 받아 출퇴근이 가능했다"고 당시를 회상했다. 그는 "호치민에만 300명 이상 인원이 근무하는데 이 중 20명만 통행증 발급이 가능해 IT 부서 등 긴급상황에 대비해야 하는 일부 직원만 출근할 수 있었다"며 "이때 몇 명의 직원들과 사무실을 지키며 고객 관련 시스템 및 결제 등이 안전하게 처리되도록 노력했으며 이러한 결과로 아무런 사고 없이 봉쇄기간이 마무리된 것이 가장 기억에 남는다"고 말했다. 미래에셋증권이 외국계 증권사라는 편견에서 벗어나기 위해 부단하게 노력하고 있다. 외국계회사는 때가 되면 본국으로 돌아갈 것이라는 분위기가 은연중에 작용했기 때문이다. 강 대표는 "베트남 시장에 대한 투자 의지를 공식적으로 표명할 수 있도록 증자를 지속 단행했고 호치민 및 하노이를 비롯해 하이퐁, 다낭, 컨터, 붕따우 등 베트남 주요 도시에 거점을 마련했다"며 "이러한 메시지를 통해 미래에셋증권 베트남법인은 외국사가 아닌 현지 증권사의 하나로 베트남 자본시장 발전에 기여하겠다는 점을 계속 강조하고 있다"고 설명했다.그동안의 노력의 결실로 현재는 주요 현지 증권사와 경쟁할 수 있을 정도로 성장했다. 미래에셋증권 베트남법인 만의 차별화된 전략으로는 '디지털화를 통한 Mass(대량) 고객 선점'이 꼽힌다. 강 대표는 "우선 서류 없이 100% 온라인으로 증권계좌를 개설할 수 있는 시스템을 현지 증권사 최초로 도입했다는 점을 강조하고 싶다"며 "전자서명 발급 및 전산 시스템 개발 등 다각도로 노력해 올해 4월 성공적으로 론칭했다"고 말했다. 최근에는 온라인 컨텐츠 강화에 전사적인 노력을 기울이고 있다. 베트남 증권사 최초로 자체 방송 스튜디오를 제작했고 마스터 아카데미(Master Academy),마스톡(Mastalk) 등 다양한 콘텐츠를 제공하며 고객들을 끌어모으고 있다. 미래에셋증권 베트남법인 호찌민점 내부 전경./사진=전민준 기자 ━베트남 주요 종합증권사 목표… "베트남 자본시장 발전에 기여하고파"━강 대표는 올해의 화두로 "단연 디지털화(Digitalization)"라고 답했다. 그는 "최근 몇년간 베트남 증시가 상승장을 보임에 따라 증권사간 경쟁에서 신용공여 제공이 중요한 요인이었다"며 "즉 얼마나 많은 자금을 주식투자에 제공할 수 있느냐 하는 것이었다"고 말했다.하지만 시장이 하락세로 전환하면서 신용공여에 대한 수요가 자연스럽게 감소했고 반대로 고객의 거래 편의성 등을 위한 거래 시스템, 투자 콘텐츠 제공 등이 새로운 화두로 부각되고 있다는 설명이다. 강 대표는 미래에셋증권의 모바일트레이딩시스템(MTS)에 대해 베트남 최고 수준이라 자부했다. 그는 "이러한 측면에서 미래에셋증권 베트남법인은 홈트레이딩시스템(HTS) 웹트레이딩시스템(WTS) 및 모바일트레이딩시스템(MTS) 등 고객 채널을 모두 내부적으로 관리하고 있다"며 "특히 최근 주요 투자 플랫폼인 모발일 거래시스템은 자체 개발 및 관리를 통해 신속하게 고객 니즈를 반영하고 있다"고 말했다. 올해 안에 실시간 종목검색 기능도 도입할 예정이다. 중장기 목표는 베트남 주요 종합증권사로서 베트남 자본시장 발전에 기여하는 것이다. 미래에셋증권 베트남법인은 이미 브로커리지(위탁매매), 언더라이팅(총액인수), 파이낸셜 어드바이저리(재무 자문), 그리고 자기자본 투자가 가능한 종합증권사 라이선스를 보유하고 있다. 강 대표는 "기업금융을 중심으로 한 ECM(주식자본시장) 및 DCM(부채자본시장) 기능을 한층 강화하고 있다"며 "최근에는 한국의 프로젝트 파이낸싱(PF) 기능도 도입하기 위해 전문인력을 선제적으로 채용해 업무를 준비하고 있다"고 말했다. 자기자본 투자는 단순히 주식이나 채권 투자를 넘어 트레이딩이 가능해야 하는 만큼 관련 제도 변화를 주시하며 역량을 키워갈 계획이다. 그는 "이러한 기능이 자리를 잡을 때 종합증권사로서 다양한 금융상품을 제공함으써 고객 동맹이 가능한 주거래 증권사로 거듭날 것으로 기대된다"며 "이러한 목표를 갖고 오늘도 전 직원과 함께 최선을 다하겠다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>회사에서 회의 안하면 안되나? 구글·카카오 리더가 말하는 비법[긱스]</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004751777?sid=105</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.짜증나는 회의, 더 이상 안하면 안될까. '갑론을박'만 하다가 끝나는 회의의 최종 결론은 어떻게 낼까. 회사를 설득해 우리 팀 예산을 더 끌어올 수 있는 방법이 있을까. 나는 회사에서 어떤 강점을 내세워 커뮤니케이션 해야할까.  스타트업 뿐만 아니라 대다수 회사 직원들이 공통적으로 하는 고민일겁니다. 한경 긱스(Geeks)도 예외가 아닙니다. 알토스벤처스가 개최한 한 컨퍼런스에서 구글과 토스, 카카오 등 국내외 주요 빅테크의 인재, 조직관리 전문가들이 모여 협업과 조직문화에 대한 직원들의 고민을 듣고 답하는 시간을 가졌습니다. 그 현장을 한경 긱스(Geeks)가 다녀왔습니다. 벤처캐피털(VC) 알토스벤처스가 국내 스타트업 생태계 성장을 위해 커뮤니케이션 멘토들과 뭉쳤다. 지난 2일 서울 구글 스타트업 캠퍼스에서 '스타트업 멘토가 말하는, 일 잘하는 사람의 커뮤니케이션이란?'이라는 주제의 인사이트 컨퍼런스를 개최했다. 최근 스타트업 업계의 협업 방식과 건강한 조직문화 조성을 위한 지식을 공유한다는 취지에서다. 이번 컨퍼런스에는 알토스벤처스의 리처드 송(한국명 송경찬) 파트너, 윤예나 구글코리아 플랫폼&amp;에코시스템 마케팅팀 헤드(상무), 이연주 생활연구소 최고운영책임자(COO), 김성아 토스페이먼츠 프로덕트 오너(PO), 이유진 카카오스타일(지그재그) 채용팀 리더가 연사로 참여했다. 스타트업 업계 및 알토스벤처스가 투자한 포트폴리오사 관계자 150여명도 참석했다.연사들이 겪었던 커뮤니케이션 문제와 해법은 뭘까. 이날 컨퍼런스 패널토크에서 이들의 솔직한 생각들이 공유됐다. 패널토크는 현장에서 관객들의 질문을 받고 연사들이 즉석에서 답하는 방식으로 진행됐다. Q. 좋은 커뮤니케이션을 위해 각 회사에서 활용하는 구체적인 방법론이 았을까. 김성아 토스페이먼츠 PO 토스가 애플에서 참고해 도입해놓은 게 DRI 제도다. (*Directly Responsible Individual의 약자, 어떤 과제와 관련해 최종적으로 책임지는 사람을 의미) 모든 개인에 각자의 책임을 부여한다. '개발자의 웰빙을 위해선 이 사람을 찾아야 돼', '매출장부 관련해 최종 의사결정권자는 이 사람한테 있어' 이런 식으로 한명 한명에게 다 부여한다. 물론 일 못하면 축소될 수도 있고 반대로 확대될 수도 있다. 수평 조직의 문제가 갑론을박만 하다가 결론이 안난다는 것이다. 그 때 DRI가 중요하다. 여러 관점에서 논의하다가도 결론적으로는 DRI의 목소리를 따라야한다, 우리는 투표 안 한다. DRI를 따르기 때문에 명확하게 커뮤니케이션할 수 있다. 이유진 카카오스타일 리더 '싫은 회의란 무엇인가' '짜증나는 회의란 무엇인가' 이걸 최근에 생각해봤다. 싫은 회의를 안 만드는 가장 빠르고 확실한 방법은 매뉴얼화다. 예를 들어 회의가 시작될 때 노션 페이지 앞에 목차를 써놓는다거나 회의가 끝날 때 '결론적으로 뭘 도출했죠?' '액션 플랜은요?' '누가 맡아서 하실 거예요?' '다음 회의는 하나요?' 같은 질문에 답할 수 있도록 매뉴얼을 정해놓는 것이다. 리처드 송 알토스벤처스 파트너Q. 회사가 성장하면서 여러 변수가 계속 발생하는데 꾸준히 퍼포먼스를 높게 가져갈 수 있는 비결, 또 회사 내에서 커뮤니케이션을 위해 공유해줄 수 있는 팁이 있나.리처드 송 알토스벤처스 파트너 나는 일이 재미있었다. 쿠팡에서 최고재무책임자(CFO)로 일할 때도 내가 쿠팡 같은 회사에서 뭐를 만들 수 있다는 게 좋았고, 회사가 계속 발전하는 걸 보는 게 좋았다. 그렇다고 꼭 책상에 앉아있어야 하나? 내가 꼭 회사에 가있어하나? 하면 그건 아니었다. 가족들과 저녁 먹는 것도 중요했다. 주말엔 가족들과 보내면서 스트레스 관리하고 밤에 컴퓨터 켜고 이메일 읽고 이런 식으로 했다. 9시부터 5시까지 일하고 그 다음엔 일 안한다, 이게 아니라 목표 달성 위주로 일했다. 김성아 토스페이먼츠 PO 토스가 좀 무서운 사람들이 모여있을 것 같은 이미지가 있는다. 하하. 저 같은 사람도 있다. 전 되게 물렁하다. PO들도 각각 백그라운드 다양하고 성격도 다르고 MBTI 다 다르게 나온다. 숫자에 능한 PO도 있을 거고 비저닝 잘하는 분도 있고 강점이 다르다. 전 감성적이고 공감해주고 많이 경청해주는 PO 쪽으로 찾아갔던 것 같다. 팀원들과 나이 차이도 크게 안나서, 만만하지만 그만큼 내 말을 잘 들어주는 PO라는 캐릭터를 찾았다. 이유진 카카오스타일 리더Q. 채용할 때 '이사람과는 꼭 함께 일하고 싶다'라고 생각이 드는 사람의 특징이 있나. 어떤 조건과 인상을 가진 사람을 채용하는지 궁금하다. 이유진 카카오스타일 리더 조직이 유기체 같다는 말을 많이 한다. 1년 전에 뽑고 싶었던 분이 지금 상황에선 우리 팀에 적합한 분이 아닐 수도 있다. 1,2차 인터뷰에서 불합격하셨던 분을 1~2년 있다가 연락드리는 일도 많다. 조직은 변하고 필요한 사람도 변한다. 그 사실을 리더들이 알고 있어야 한다. 그래서 어떤 채용 상이 딱 정해져있진 않고, 리더와 팀원과 잘 맞을 수 있을까를 본다. 어떤 분이 광고팀으로 지원했는데 광고팀이랑 좀 잘 안맞을 수도 있다고 생각되면 다른 팀을 제안하기도 한다. 회사가 정해진 핵심가치 기준에 맞춰서 거기에 100% 맞아야 돼, 이 사람은 80% 부합이라 탈락이야, 이게 아니라 지금 상황에서 누가 제일 필요하지? 지금 상황에서 이 팀 전력으로 뛰어주실 분은 어떤 특징이 있지? 를 생각한다. 리처드 송 알토스벤처스 파트너 회사가 50명 500명 1000명일 때 필요한 사람이 바뀐다. 쿠팡이 직원 200명일 때는 대부분 영업 직원이었다. 젊은 친구들이 비오는 날에 뛰어다니면서 일했다. 그 분들 덕분에 쿠팡이 성장했는데 문제는 회사가 커지면서 이 직원들이 회사의 발전을 따라갈 수 있느냐를 보게 됐다. 인사 이슈라는게 없어질 수가 없는 게 회사가 발전하면 새롭게 필요한 사람이 있다. 성장할 수록 더 큰 사람이 필요하다. 개발직도 마찬가지다. CTO라고 해도 직원 100명일 때의 CTO와 5000명일 때의 CTO는 필요한 역량이 다르다. 회사가 만약 여기서 10배 더 커지면 인력을 어떻게 해야할지 계속 생각해야 한다. Q. 일하면서 뼈가 저릴 정도로 실패했던 기억이 있나. 거기서 무엇을 배웠는지도 궁금하다. 윤예나 구글코리아 상무 구글코리아에 크롬캐스트 담당자로 입사했다. 넷플 초창기 때 시대를 앞서 한국에 출시된 제품이다. 들어와서 세일즈 차트를 보니까 처참했다. 입사하고 뭔가 보여줘야할 것 같아서 삼성동 모델하우스를 빌려서 크롬캐스트 인플루언서 파티를 했다. 사진도 엄청 찍고 인스타 터지고 난리가 났다. '이제 됐다!' 했는데 매출로 전혀 연결이 안됐다. 오자마자 거창하게 벌인 일인데 제가 상당히 민망해졌다. 유저가 누군지 파악도 안하고, 테크 좋아하는 젊은 친구들은 파티 좋아하니까 파티를 해야지, 하는 굉장히 피상적인 로직에서 액션을 하니까 최악의 결과가 나왔다. 그때만 해도 우리나라는 OTT가 제대로 없었고 에듀케이션이 필요했는데 그게 없이 냅다 노래부터 트니까ㅎㅎㅎ 가장 큰 실패이자 가장 큰 배움이었다. Q. 마케팅은 회사 돈을 써야하는 일이라 커뮤니케이션이 더 필요하다. 어떻게 마케팅의 필요성과 중요성을 설득할 수 있을까. 윤예나 구글코리아 상무 퍼포먼스 마케팅은 매출과 직접적으로 연결되지만 브랜드 마케팅은 당위성을 설득하기가 어렵다. 전 늘 브랜드엔 서사가 중요하다는 얘기를 한다. 어느날 갑자기 나타나서 좋은 기업이라고 말한다고 좋은 기업이라고 말해줄 사람은 없다. 안녕? 나 누구야, 하고 유저들과 인터렉션 하는 게 브랜딩이다. 비용 절감이라는 단기적 목표 때문에 이 부분을 포기하면 중장기적 비전을 포기하는 것이라는 게 내 주장이다. 중장기적인 비전을 빌딩하는 게 중요하다. 퍼포먼스 마케팅도 브랜딩 캠페인과 같이 진행했을 때 결과가 다르다.이연주 생활연구소 COOQ. 회사 내부뿐만 아니라 외부를 향한 마케팅과 커뮤니케이션 노하우가 있으면 공유해달라. 이연주 생활연구소 COO 생활연구소는 고객이 양방향이다. 사용자분이 계시고 매니저분도 있는데, 늘 가설을 세우고 직접 해보면서 맞춰갔던 것 같다. 서비스 범위가 작았을 땐 강남에서 제일 잘 쓰는 앱이라고 사용자 대상으로 커뮤니케이션 했다. 또 매니저 쪽에선 매니저 교육이라는 허들이 있었는데, 그냥 교육이 너무 좋아요, 이걸 꼭 받으셔야 돼요 라고만 하면 그 허들 못 넘는 사람이 생긴다. 여러 가설을 세우고 시도하다보니 매니저들한테는 돈이 먹혔다. 그걸 알고 난 다음엔 그 쪽으로 커뮤니케이션했다. 우리 쪽으로 오면 교육이 허들이지만 돈은 더 잘 벌 수 있어요, 이렇게. 이유진 카카오스타일 리더 지그재그 언론 홍보를 하면서 어려웠던 건 여성들이 많이 쓰는 앱을 홍보해야 한다는 것이었다. 기자분들 중엔 남자가 많으니까 그 분들 입장에서 알아들을 수 있는 예가 뭔지를 고민하고 설명을 했다. 내가 직접 써봤는데 어땠다는 식의 유저로서의 편의성, 구체적 케이스를 쌓아가면서 비전을 설명했다. 그럼에도 이해를 어려워하시는 분들께는 알토스 투자를 받았다던지 하는 보편적으로 쓰는 수치들을 얘기하는 걸 거리낌 없이 했다. Q. 잘하는 커뮤니케이션과 못하는 커뮤니케이션이 뭔지 정의할 수 있을까. 커뮤니케이션 능력이 부족한 사람이 있다면 어떻게 가이드라인을 줄 수 있을지 궁금하다. 리처드 송 알토스벤처스 파트너 커뮤니케이션은 연습이다. 커뮤니케이션을 한 번 해선 안된다. 방법을 바꾸면서 열번, 백번 해야한다. 대표와 경영진한테 계속 얘기하고, 팀원에게도 설명하고. 화장실에도 이거저거 붙여놓고. 한번 했으니 잘했고 앞으론 안해도 된다? 절대 아니다. 한 번 잘했다 하더라도 시간 지나면 까먹는다. '이건 잘했지만 이건 못했다' 식의 커뮤니케이션도 계속 해줘야 한다. 커뮤니케이션엔 끝이 없다. 이연주 생활연구소 COO 회사가 늘 행복하지는 않다. 스트레스 받는 상황도 많은데 그 순간을 잘 이겨내고 끈끈하게 가는 건 유머로 풀어야지 가능하다. 동료 간의 신뢰도 중요하다. 회사를 잘되게 하려고 이 일을 한다는 믿음 같은 것. 그걸 기반으로 커뮤니케이션하면 오해가 덜 생긴다. 공유도 잘 해야 한다. 보통 리더 회의를 하면 회의에서 얘기 나왔던 게 100% 전달이 안 된다. 50%는 유실되고 나머지 50%가 가는데 전달받은 팀원이 다른 팀원한테 얘기하는 과정에서 또 유실돼서 마지막엔 30%가 남는다. 이 유실을 인지해야하고, 방어하는 방법은 반복이다. 반복해서 공유하고 확인해야 한다. 커뮤니케이션 멘토 5명은 누구리처드 송 알토스벤처스 파트너는 쿠팡 창업 초기부터 10여년간 최고재무책임자(CFO)로 일한 후 2020년 7월 알토스벤처스에 합류했다. 그는 "개발을 담당하는 분들도 고객과 만나야 한다고 생각한다"며 "쿠팡 재직 시절 단순히 컴퓨터 앞에서 재무 관리만 하지 않고, 주문, 물류센터, 배송, 고객서비스(CS) 등 거의 모든 업무 현장을 직접 경험했다"고 했다. 생활연구소의 이연주 COO는 생활연구소를 공동창업 후 기획자, 오퍼레이터, CS, 매니저 교육 등을 담당했다. B2C 스타트업이 겪는 유저와 개발자, 청소매니저 간의 상황을 이해하고 문제를 해결해오고 있다. 직접현장에 나가 청소 매니저들과의 소통·교육을 통해 서비스 개선을 연구했다. 생활연구소가 운영하는 청소연구소는 250만명이 다운로드하고, 6만5000명의 청소 매니저가 속한 국내 홈클리닝 앱 1위다. 구글코리아 마케팅 팀 윤예나 헤드는 구글코리아의 ‘창구 프로그램’을 어떻게 글로벌 본사에 설득해 진행하게 되었는지 사례를 공유했다. '창'업과 '구'글플레이의 앞자를 따온 '창구' 프로그램은 구글과 중소벤처기업부, 창업진흥원이 함께 국내 앱·게임 개발사의 콘텐츠 고도화와 해외 시장 진출을 지원하는 개발사 성장지원 프로그램이다. 2019년 출범한 이후 올해로 4회째를 맞으며 한국 스타트업 업계에 신선한 바람을 불어넣고 있다는 평가다.김성아 토스페이먼츠 PO는 2018년 토스에 합류해 2년간 내부 팀원들을 위한 서비스 개발 조직 '인터널 사일로'를 이끈 커뮤니케이션 멘토다. 데이터 사용 최적화, 사내 뉴스레터 연재를 통한 부서 간 이슈 공유, 업무 자동화 등 업무 효율을 높이기 위한 다양한 상품을 개발했다. 이유진 카카오스타일 리더는 2017년 전체 직원이 18명에 불과했던 지그재그에 합류했다. 카카오 인수합병에 350명 규모로 성장하기까지 모든 과정을 함께 했다. 그는 "회사의 성장을 위해 내가 하는 일이 무엇인지, 어떻게 도움이 되는지 명확하게 알아야 한다"고 했다. 고은이 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.09.27.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>"100원만 있어도 투자 OK"… 증권사, 국내 주식 소수점 거래 본격화</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000855314?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>증권사들이 지난 27일부터 국내 주식을 1주 미만 소수점 단위로 쪼개 사고 팔 수 있는 '소수점 거래' 서비스를 시작했다.  국내 주식을 1주 미만 소수점 단위로 쪼개 사고 팔 수 있는 '소수점 거래' 서비스가 본격적으로 도입됐다. 증권가에서는 주문금액 단위를 낮추고 수수료를 무료로 제공하는 등 차별화된 서비스와 이벤트로 고객잡기에 나서고 있다. 27일 금융투자업계에 따르면 한국예탁결제원과 미래에셋증권, 키움증권, 한화투자증권, NH투자증권, KB증권, 등 5개 증권사는 전일부터 투자자가 국내 상장주식을 소수 단위로 거래할 수 있도록 하는 '국내주식 소수단위 거래 서비스'를 시작했다.삼성증권과 신한금융투자는 다음달 4일부터 서비스를 선보일 예정이며 다올투자증권, 대신증권, 상상인증권, 유안타증권, IBK투자증권등도 올해 안에 서비스를 시작할 예정이다.이 밖에 교보증권, 메리츠증권, 신영증권, 유진투자증권, 이베스트투자증권, 카카오페이증권, 토스증권, 하나증권, 한국투자증권, 현대차증권, DB금융투자, SK증권 등 12개사도는 내년 서비스 개시를 준비 중이다. 앞서 금융위원회는 지난 2월 정례회의를 통해 국내 주식의 소수 단위 거래 서비스를 혁신금융서비스로 지정한 바 있다. 국내 주식 소수점 거래는 신탁제도를 활용해 1주를 여러 개의 수익증권으로 분할 발행해 국내 주식을 소수단위로 거래할 수 있도록 한 서비스다.투자자가 0.1% 등 소수 단위로 주식을 주문하면 증권사는 주문을 취합한 뒤 부족분을 채워 온주(1주)로 만들어 회사 명의로 한국거래소에 호가를 제출한다.이후 거래 체결로 취득한 주식을 예탁결제원에 신탁한다. 금융위는 이때 각 증권사가 자기 재산으로 취득하는 주식 수를 종목별로 5주 이내로 제한하고 의결권은 행사할 수 없도록 했다.국내 주식 소수점 거래 서비스를 이용하면 투자자들은 소액으로도 주당 가격이 높은 우량주를 살 수 있다. 예를 들어 26일 종가 기준으로 LG에너지솔루션 1주를 사려면 44만6500원이 필요하지만 소수점 거래 서비스를 이용하면 4만6500원을 투자해 0.1주를 사는 것이 가능하다.━증권사별 고객잡기 분주… 주문금액 단위 100원부터 수수료 무료 이벤트까지━ 증권사들은 국내 주식 소수점 거래 서비스 고객들을 잡기 위해 주문 금액 단위, 취합 주기, 주문 가능 종목, 수수료 무료 이벤트 등 차별화된 서비스를 선보이고 있다.NH투자증권의 경우 100원 단위로 투자할 수 있다는 점이 특징이다. 국내주식 소수점 매매 거래 가능 종목수는 760여개다. 예약주문을 통해 24시간 주문이 가능해 고객 편의성을 높였다. 장바구니 기능을 도입해 소수점 매매를 원하는 종목을 30개까지 담아둘 수 있으며 일괄 매수도 가능하다.KB증권은 약 350개 종목의 매매가 가능하며 영업일 오전 10시부터 오후 2시까지 총 5번 주문이 체결된다. KB증권은 연말까지 국내 거주 개인 고객이 2만원 이하 국내 소수점 주식을 매수할 경우 '수수료 0원' 이벤트를 진행한다. 또한 11월 말까지 서비스를 신청하면 선착순 5만계좌에 국내 주식 쿠폰 2000원을 지급하고 국내 주식 소수점 서비스 가입자 10만 계좌를 돌파하면 이벤트 내 신청한 모든 계좌에 국내 주식 쿠폰 5000원을 추가 지급한다. 이벤트 기간 1만원 이상 매수 체결된 고객 대상으로 추첨을 통해 유럽행 비즈니스 왕복 항공권 등 경품을 제공한다.한화투자증권은 고객이 종목을 선택해 1000원 단위로 금액과 기간을 설정하면 주기적으로 자동 구매해주는 '적립식 자동 투자 서비스'를 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>8월 기준 예대금리차, 한 달 전보다 더 커져…5대 은행 중 NH농협은행이 1위</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003302891?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>은행권의 과도한 ‘이자 장사’를 막겠다는 취지로 지난달 ‘예대금리차’(대출금리와 저축성 수신금리 차이) 공시 제도가 시행됐지만, 금리차는 오히려 더 커진 것으로 나타났다. 금리 인상으로 대출금리가 가파르게 오르는 가운데 예금금리의 상승 폭이 이를 따라가지 못한 것으로 보인다.다만 이달부터 은행권이 예금금리는 높이고 대출금리는 낮추는 등 금리 경쟁에 돌입한 만큼 시차를 두고 금리차가 축소될 것이라는 관측도 나온다.20일 은행연합회에 따르면 지난달 취급액 기준 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 예대금리차는 평균 1.45%포인트로 나타났다. 7월 취급액 기준 예대금리차와 비교하면 0.24%포인트 높아졌다. 가계대출금리와 저축성 수신금리의 차이인 가계 예대금리차도 평균 1.51%포인트로, 같은 기간 0.14%포인트 확대됐다.5대 시중은행 가운데 예대금리차가 가장 큰 곳은 NH농협은행이었다. 농협은행은 7월 취급액 기준으로 1.36%포인트의 예대금리차를 보인 데 이어 8월에도 1.78%포인트로 가장 높은 수준의 예대금리차를 기록했다.농협은행 관계자는 “가계대출과 기업대출 금리 모두 다른 은행과 비교해 낮고, 개인 예금도 최고 연 3.7% 금리의 상품이 있는 등 낮은 편이 아니다”며 “다만 지난달 정부정책 자금을 포함한 6개월 미만의 단기성 자금이 대거 유입된 영향”이라고 설명했다.가계 예대금리차 기준으로으로 농협은행(1.76%포인트)의 금리차가 가장 컸다. 햇살론 등 정책서민금융을 제외해도 금리차는 1.73%포인트로, 5대 시중은행 중 가장 컸다. 반면 금리차가 가장 낮은 곳은 하나은행(1.12%포인트)이었고, 신한은행은 1.65%포인트, 우리은행은 1.57%포인트, 국민은행은 1.43%포인트로 나타났다.전체 은행 중에서는 7월과 마찬가지로 전북은행의 가계 예대금리차가 5.66%포인트로 가장 컸다. 정책서민금융을 제외해도 4.80%포인트로 전체 은행 중 가장 금리차가 큰 것으로 나타났다. 인터넷은행 중에서는 토스뱅크의 가계 예대금리차가 4.76%포인트로, 두 달 연속 가장 높은 수준을 기록했다. 다만 전북은행과 토스뱅크의 가계 예대금리차는 7월보다는 축소된 것으로 나타났다.아울러 카카오뱅크도 예·적금 금리 인상 등의 영향으로 7월보다 금리차를 축소했다. 카카오뱅크의 가계 예대금리차는 지난달 1.96%포인트로, 한 달 전보다 0.37%포인트 줄었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>1만보 140원, 앱 클릭 100포인트… MZ세대 ‘디지털 폐지줍기’</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003451712?sid=105</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>고물가-고금리에 2030 ‘짠테크 바람’정보기술(IT) 회사에 다니는 하모 씨(38)는 매일 금융, 유통, 게임 애플리케이션(앱)을 돌아다니며 ‘디지털 폐지 줍기’에 나선다. 매일 앱 출석이나 광고 시청, 미션 수행 등으로 소소하게 현금이나 포인트를 모으는 것을 MZ세대(밀레니얼+Z세대)들은 이렇게 부른다. 하 씨는 매일 백화점 앱에 들어가 현금처럼 쓸 수 있는 100포인트를 챙기고 자기 전엔 은행 앱 이벤트에 참여한다. 금 현물 0.0001g으로 바꿀 수 있는 금도끼를 매일 추첨으로 받을 수 있는 이벤트다. 친구들이 간편결제 이벤트를 공유해주면 클릭해 몇십 원이라도 모은다. 하 씨는 “소액이지만 클릭만으로 돈이 생긴다는 재미에 습관이 됐다”며 “하루에 300∼400원씩, 한 달이면 1만 원을 벌 수 있다”고 했다. 물가가 뛰고 대출 금리가 치솟으면서 허리띠를 졸라매는 ‘짠테크’(짠돌이+재테크) 바람이 거세다. 특히 저금리 시대 ‘빚투’(빚내서 투자)로 한 방을 노렸던 20, 30대들이 금리 인상기를 맞아 디지털 폐지 줍기에 나서며 푼돈을 모으고 있다.  19일 금융권에 따르면 디지털 폐지 줍기 열풍을 겨냥한 금융 상품과 서비스가 잇달아 출시되고 있다. 카카오뱅크는 이달 초 ‘배달의민족과 26일저금’을 선보였다. 청소년이 매일 500∼2000원을 26일간 저금해 최대 5만2000원을 모으는 적금에 배달의민족 상품권 증정을 더한 상품이다. 웰컴저축은행은 계약 기간에 집계된 걸음 수에 따라 최고 연 8%포인트의 우대금리를 주는 적금 상품을 내놨다.  직장인 최모 씨(31)는 최근 ‘행운상자’를 받기 위해 인터넷전문은행 케이뱅크의 계좌를 개설했다. 친구에게 행운상자를 공유한 고객에게 20∼10만 원의 현금을 주는 이벤트에 참여하기 위해서다. 최 씨는 “신규 고객에게 행운상자를 100개나 준다고 해 계좌를 새로 만들었다. 상자를 열어보는 재미도 있고 당첨금도 꾸준히 모여 뿌듯하다”고 했다. 직장인 송모 씨(23)도 매일 출근하자마자 모바일 금융 플랫폼 ‘토스’에 접속해 ‘행운복권’을 긁는다. 클릭만으로 5∼1000원을 포인트로 주는 서비스다. 송 씨는 이 앱에서 하루 1만 보를 걸으면 최대 140원을 주는 만보기도 이용하고 있다.  토스 만보기가 400만 명이 이용할 정도로 인기를 끌자 다른 금융사들도 앱에 만보기 기능을 넣고 있다. KB국민은행 모바일뱅킹의 ‘KB매일걷기‘, 삼성 금융계열사 통합 앱(모니모)의 ‘걷기 챌린지’ 등이 대표적이다. 특히 계열사 간 앱을 통합한 ‘슈퍼 앱’(디지털 유니버설 뱅크) 경쟁이 치열해지자 전통 금융사들이 이용자를 늘리기 위해 이 같은 서비스를 확대하는 추세다. 지난달 기준으로 주요 금융 앱 가운데 월 활성 이용자(MAU)가 1000만 명을 넘은 곳은 토스, 카카오뱅크, KB스타뱅킹 등이다. 이성복 자본시장연구원 연구위원은 “빅테크가 이용자 규모를 키우기 위해 썼던 전략을 기존 금융사들이 따라가고 있다”며 “이렇게 유입된 소비자들에게 앞으로 얼마나 유의미한 금융 서비스를 제공할 수 있을지 등이 과제”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>엔비티-위메프, '애디슨 오퍼월' 제휴</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000698769?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>코스닥 상장사 엔비티는 메타커머스 플랫폼 위메프와 '애디슨 오퍼월' 서비스 제휴 계약을 체결했다고 22일 밝혔다.엔비티는 메타커머스 플랫폼 위메프와 '애디슨 오퍼월' 서비스 제휴 계약을 체결했다. 사진은 엔비티 CI. [사진=엔비티]이번 계약을 통해 엔비티는 위메프 플랫폼 내 오퍼월 시스템을 구축하고, 운영할 계획이다. 오퍼월 서비스는 제휴 플랫폼 사용자들이 다양한 미션 수행을 통해 현금처럼 사용할 수 있는 포인트를 무료로 적립할 수 있는 기회를 제공한다. 해당 서비스는 위메프 애플리케이션(앱) 서비스 내 '포인트' 탭에 새롭게 구축된다.위메프는 국내 대표 이커머스 플랫폼으로, 최근 메타커머스 체제 전환에 집중하며 플랫폼 고도화에 나서고 있다.애디슨 오퍼월은 이달에만 롯데카드에 이어 위메프 등 국내 다양한 업종에서 대형 플랫폼들을 중심으로 잇따른 제휴 성과를 기록했다. 애디슨은 기존 플랫폼 체제에 광고주와 연계할 수 있는 포인트 네트워크를 연계·구축하는 사업모델을 채택하고 있는 만큼, 사용자가 많은 플랫폼 제휴가 곧 실적 바로미터로 작용한다는 설명이다.회사 측은 애디슨이 최근까지 네이버페이, 토스, 카카오모빌리티 등 업종을 불문하고 국내 주요 플랫폼 제휴 성과를 이어오며 가파른 성장세를 이어가고 있다고 설명했다.박수근 엔비티 대표이사는 "하반기 들어 국내 업종별로 손꼽히는 대형 플랫폼들을 중심으로 한 오퍼월 네트워크 제휴 수요가 지속 증가하고 있는 만큼, 올해 역시 포인트 산업 부문은 견고한 실적 성장을 이어갈 수 있을 것"이라며 "무엇보다 지난해부터 공격적으로 이어가고 있는 제휴 업종 확대 성과가 가시화되고 있는 만큼, 지속적으로 국내 포인트 산업 수요를 확장해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.09.16.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>토스뱅크, '연 4.2%' 한투 발행어음 24시간 구매 가능</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000302906?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>토스뱅크는 오늘(16일) '내게 맞는 금융상품 찾기'를 통해 소개 중인 한국투자증권의 발행어음 구매 가능 시간을 24시간, 365일로 확대한다고 밝혔습니다.  토스뱅크에서 내일부터 만나볼 수 있는 한국투자증권 발행어음은 1년 만기 특판 상품으로 인당 최대 5000만원까지 가입할 수 있고, 연 4.2%의 이자(세전)를 제공합니다. 다만 특판 한도 소진 시 조기 종료될 수 있습니다.   토스뱅크는 기존 평일 오전 9시부터 오후 11시까지였던 한국투자증권 발행어음의 구매 시간을 24시간으로 확대하고, 구매 가능일도 평일에서 주말까지 확대합니다.한국투자증권의 전산 점검시간(23:10~00:12)은 제외됩니다.  발행어음은 자기자본이 4조원이 넘는 대형 금융기관이 금융당국의 허가를 받아 발행할 수 있는 만기 1년 이하의 단기금융상품입니다. 예금이나 적금과 같이 가입할 때 금리가 정해져 있는 확정 금리형 상품을 선호하는 안정적인 성향의 투자자들이 유용하게 활용할 수 있다는 설명입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.09.25.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>소상공인 대환대출 30일부터 신청접수</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005325178?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>한달간 사업자번호 끝자리 기준 5부제연 6.5% 금리...총 8조5000억원 공급[이데일리 서대웅 기자] 8조5000억원을 공급해 제2금융권의 고금리 개인사업자대출을 은행에서 연 6.5% 이하 금리로 대환해주는 프로그램이 14개 은행에서 오는 30일 시행한다.금융위원회는 오는 30일부터 자영업자를 대상으로 저금리 대환 프로그램을 신청받는다고 25일 밝혔다. 국민, 신한, 우리, 하나, 기업, 농협, 수협, 부산, 대구, 광주, 경남, 전북, 제주, 토스뱅크 등 14개 은행 앱과 창구에서 신청할 수 있다.다음달 28일까지는 사업자번호 끝자리를 기준으로 5부제로 시행된다. 공휴일인 10월3일(끝자리 1번)과 10일(끝자리 6번) 대상자는 그주 화요일(끝자리 1번)과 목요일(끝자리 6번)에 신청 가능하다. 신청 후 대환까지는 약 2주 정도 소요될 예정이다.온라인 대환 안내 시스템도 운영한다. 구비서류, 취급처 등 대환신청을 위한 세부사항을 안내받을 수 있다. 신청인이 입력한 정보 등을 토대로 본인이 대환 프로그램 지원 대상에 해당하는지, 대상 채무를 보유하고 있는지 등을 확인할 수 있다.안내 시스템은 26~29일 시범운영 후 30일 정식 가동한다. 26일과 28일엔 사업자번호 끝자리가 짝수인 사업자, 27일과 29일은 홀수인 사업자를 대상으로 서비스를 제공한다. 30일부턴 모두 이용할 수 있다.금융위는 정부, 공공기관 및 은행 등 금융기관을 사칭해 대출알선 등을 통해 전화상담을 유도하거나 유알엘(URL)을 클릭하도록 하는 보이스피싱(스팸) 문자가 무작위로 발생되고 있는 만큼 각별한 주의가 필요하다고 당부했다. 출처가 불분명한 URL주소는 누르지 말고 바로 삭제하는 게 좋다.대환 등 대출알선을 빙자한 자금이체 요청 및 개인정보 제공, 앱 설치 등은 무조건 거절해야 한다. 사기범과 통화하거나 답장문자를 보내 상담을 요청하지 말고 즉시 전화를 끊고 문자를 삭제해야 한다.이번 프로그램은 연 7% 이상 금리의 소상공인 대출을 6.5% 이하 금리의 보증부 대출로 전환하는 것이다. 2금융권에서 최고금리(연 20%)로 이용 중인 대출도 은행에서 6.5% 이하 금리로 갈아탈 수 있다.지원 대상은 코로나19 피해를 입었지만 현재 경영활동을 하고 있는 정상 차주다. 업종별 평균매출액이 10억~120억 이하인 소기업도 지원한다. 대환 한도는 소상공인 5000만원, 법인 1억원이다.대환한 대출은 2년 거치 3년 분할상환으로 갚게 된다. 2년차까지는 고정금리로 최고 6.5%가 책정되고, 3~5년차엔 은행채 1년물(AAA)에 최대 2%포인트를 가산한 금리로 변동금리가 적용된다. 3~5년차에 책정하는 금리 상한도 6.5%다. 시중금리가 내리면 3년차부턴 적용 금리가 인하되고, 시중금리가 크게 올라도 최고 6.5%까지만 인상되는 구조다. 2023년 말까지 총 8조5000억원을 공급할 계획이다.(자료=금융위원회)</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>토스, 300명 규모 채용…서류 합격자에 지원금 100만원 기회도</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005150961?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>토스 운영사 비바리퍼블리카가 대규모 채용을 실시한다고 22일 밝혔다.토스, 토스뱅크, 토스페이먼츠, 토스증권, 토스인슈어런스, 토스씨엑스, 토스글로벌, 토스플레이스 등 전 계열사 24개 직군에서 최대 300명을 채용할 예정이다.지난 2년간 토스커뮤니티 전체 임직원은 2020년 8월 650명에서 2022년 8월 현재 1800명으로 크게 늘었다.채용 과정은 서류전형, 직무 인터뷰, 문화 인터뷰 순으로 진행되며 직군에 따라 과제 또는 코딩 테스트 전형을 추가로 실시한다.두 차례의 인터뷰(직무 및 문화)는 모두 화상으로 진행된다. 서류 전형부터 최종 합격 발표까지 최대 3주 이내에 마무리된다. 지원 가능한 직군은 개발, 제품, 보안 등 총 24개다.이번 대규모 채용에는 최근 6개월 내 입사 지원 이력이 있던 사람도 재지원이 가능하다. 또 토스 채용 페이지 내 '합격 확률 높은 포지션 찾기' 기능을 통해 적합한 직무를 추천받을 수도 있다. 현재 이직 의사가 없는 경우라도 '인재풀'에 등록해 두면 추후 적합한 포지션이 생길 경우 토스 채용팀의 연락을 받을 수 있다.토스는 서류 합격자 중 총 400명을 추첨해 최종 합격 여부와 관계없이 '성장 지원금' 100만원을 지원한다. 이 외에도 지원자 중 추첨을 통해 총 400명에게 토스의 새로운 로고가 적용된 노트북 슬리브를 증정한다.채용 관련 자세한 내용은 토스 채용 공식 홈페이지를 통해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.09.19.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>'최대 반토막'…증권사, 상반기 지분투자 성적표는?</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000697836?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>KB·삼성, 지분투자 이익 절반 이상 감소…한화, 적자 기록올해 들어 대내외 악재로 증시 침체 국면이 이어지는 가운데 증권사들이 지난 상반기 부진한 지분 투자 성적표를 받아들였다.금융감독원 전자공시에 따르면 증권사들은 올 상반기 부진한 지분투자 이익을 기록했다. 사진은 서울 여의도 증권가. [사진=아이뉴스24 DB] 19일 금융감독원 전자공시에 따르면 한화투자증권은 올 상반기 지분법손실로 약 146억원을 기록했다. 지난해 같은 기간(-5억9천202만원)과 비교하면 손실 폭이 크게 확대됐다. 지분법 이익은 모회사가 관계기업의 지분율 만큼 순이익을 재무제표에 반영하는 것이다.한화투자증권 관계기업 가운데 토스뱅크가 상반기 큰 폭의 당기순손실을 기록하면서, 한화투자증권 지분법 손실에도 영향을 미친 것으로 풀이된다. 토스뱅크의 상반기 순손실은 1천235억원으로 집계됐다. 이는 지난해 같은 기간(-175억원)보다 손실 규모가 7배 이상 증가한 수준이다. 한화투자증권은 상반기 말 기준 토스뱅크의 지분 10%를 보유하고 있는데, 지난해 같은 기간(7.5%)보다도 2.5%포인트 늘었다.또 한화투자증권의 관계기업으로 분류되는 '서울글로벌바이오메디컬신성장동력투자펀드(지분 8.67%)'가 올 상반기 순손실로 약 25억원을 기록하며, 전년 동기 대비 적자전환했다. 이밖에도 '신한AIM인프라9호(-14억원)', '삼성한화신성장신기술조합제1호(-12억원)' 등 관계기업 대부분이 순손실을 기록한 것으로 나타났다.특히 한화투자증권은 지난해 상반기 기타포괄손익으로 2천158억원을 거뒀는데, 올 상반기에는 324억원의 적자를 기록했다. 가상자산 거래소 업비트 운영사인 두나무가 디지털 자산 시세 하락으로 당기순이익이 크게 쪼그라든 영향을 받은 것으로 보인다. 올해 한화투자증권이 취득한 두나무 보통주가 기타포괄손익으로 분류됐기 때문이다.한국투자증권도 올 상반기 지분법 이익으로 628억원을 기록했는데, 이는 지난해 같은 기간(961억원)보다 35.69% 감소한 수준이다. 같은 기간 카카오뱅크(지분 23.20% 보유)의 지분법 이익이 292억원에서 259억원으로 줄었다. 이밖에도 '상해방정한투주식투자파트너쉽기업(-35억원)', '경성(청두)지분투자펀드파트너십기업(-26억원)' 등이 적자전환했다. 중국이 신종 코로나바이러스 감염증(코로나19) 재확산을 막기 위해 단행한 고강도 도시 봉쇄 조치의 영향을 받은 것으로 풀이된다.KB증권도 올 상반기 지분법 이익으로 전년 동기보다 66.82% 감소한 19억원을 기록했다. 같은 기간 삼성증권의 지분투자 이익도 95억원에서 42억원으로 절반 이상 줄었다. 베트남 최대 자산운용사 드래곤캐피털의 이익 규모가 감소하면서다. 키움증권도 올 상반기 지분투자 이익으로 117억원을 올렸는데, 작년 같은 기간보다 48.39% 줄어든 수준이다. 지분투자 손실은 42억원에서 123억원으로 2배 이상 확대됐다.금융투자업계 관계자는 "펀드 형태로 어떤 종목에 어느 비율만큼을 투자했는지에 따라 다르겠지만, 지분 평가에서 손실이 발생한 것에는 최근 시장 상황이 좋지 못했던 부분이 영향을 줬을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>금리 더 오른다는데…내 돈 잠시 맡겨둘 곳 어디가 좋을까</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003225105?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>지금 내가 받는 금리가 최고일까. 장담할 수 없다. 기준금리 인상 등의 영향으로 예금 금리도 꾸준히 오르고 있어서다. 게다가 이번 주는 미국과 영국 등 주요국 중앙은행의 금리 결정 회의가 열리는 이른바 ‘수퍼 긴축 위크’다. 당장 미국 연방준비제도(Fed)가 20~21일(현지시간) 미 연방공개시장위원회(FOMC)에서 기준금리를 최소 0.75%포인트 인상할 것으로 예상된다.      한국은행 금융통화위원회의 금리 결정 회의도 10월과 11월, 올해 두 번 남았다. 적어도 연말까지 기준금리를 0.5%포인트 인상할 것이란 전망에 무게가 실린다. 이런 분위기 속 예금이나 적금에 섣불리 돈을 넣기엔 망설여진다. 이후 금리가 더 뛸 수 있는 만큼 만기가 짧은 상품에 돈을 넣어 놓고 기다리는 전략도 필요하단 이야기다. 이를 위해 잠시 돈을 맡길 수 있는 상품을 살펴봤다.      잠깐 돈을 맡기기에 최적화된 구조는 이른바 ‘파킹 통장(자유 수시입출금 통장)’이다. 만기 없이 아무 때나 돈을 넣었다가 뺄 수 있다.      그래픽=차준홍 기자 cha.junhong@joongang.co.kr            이때 하루만 맡겨도 이자가 붙는다. 금리가 낮은 게 단점이었지만, 최근 저축은행의 ‘파킹 통장’을 중심으로 ‘3% 금리 시대’가 열렸다.      현재 저축은행 파킹 통장 중 금리가 가장 높은 상품은 OK저축은행의 OK세컨드통장이다. 연 3.3% 이자를 준다. 기본금리는 연 3.0%인데, 시중은행과 증권사에 세컨드통장 오픈뱅킹 약정 시 다음날(익일)부터 우대금리 0.3%포인트가 붙는 구조다. 다만 한도가 적은 게 단점이다. 1000만원까지 최대 연 3.3% 이자를 지급하고, 초과분에 대해서는 연 1.0% 이자가 붙는다. 조건과 한도를 따져 보면 페퍼저축은행의 ‘페퍼스파킹통장’이 더 나은 선택일 수 있다. 연 3.2% 이자를 주는데, 최고 금리를 받기 위해 맞춰야 하는 별도 조건이 없다. 한도도 5000만원이다. 5000만원 초과분에는 연 1.0%의 이자만 지급된다.      편의성을 고려한다면 인터넷은행 상품도 선택지에 넣어볼 수 있다. 인터넷은행도 최근 금리를 올려 파킹 통장에 연 2%대 금리를 제공하고 있다. 인터넷 은행인 카카오뱅크의 세이프박스 금리는 연 2.2%로 한도는 1억원이다. 케이뱅크의 플러스박스는 연 2.3%를 주고, 한도는 3억원이다.      인터넷은행 ‘파킹 통장’의 원조격인 토스뱅크 통장은 최대 1억원에 대해 연 2.0% 금리를 준다. 토스뱅크의 경우 금리는 다른 은행보다 낮지만 ‘지금 이자받기’라는 기능이 있어 매력적이다. 안전성이 걱정된다면 국책은행의 비슷한 상품에 돈을 넣어두는 것도 방법이다. 산업은행의 KDB Hi 비대면 입출금 통장은 연 2.25% 금리를 제공한다. 한도는 없다.      IBK기업은행의 IBK D-DAY 통장(단기중금채)은 최소 30일부터 만기를 본인이 정할 수 있어 단기간 자금을 굴리기에 적합하다. 30일만 맡겨도 연 2.67%의 금리를 준다. 364일을 맡기면 금리가 연 3.91%까지 올라간다. 가입 한도는 2억원이다. 다만 이 상품은 채권을 사는 것이라 예금자보호법 대상이 아니다. IBK기업은행이 도산하지 않는 한 원금 보장은 된다. 주식 투자자들 사이에서 ‘파킹 통장’으로 여겨지는 KODEX KOFR금리액티브(합성)도 단기 자금을 굴리는 상품으로 활용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>금융위원장-시중은행장 만찬 간담회</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011441230?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 정병혁 기자 = 26일 서울 중구 은행회관에서 열린 금융위원장-시중은행장 만찬 간담회에서 참석자들이 기념촬영을 하고 있다. 앞줄 왼쪽부터 이재근 국민은행장, 권준학 농협은행장, 윤종원 기업은행장, 김광수 은행연합회 회장, 김주현 금융위원회 위원장, 강석훈 산업은행 회장, 박성호 하나은행장, 이원덕 우리은행장, 안감찬 부산은행장, 뒷줄 왼쪽부터 홍민택 토스뱅크 대표, 최준우 주택금융공사 사장, 윤희성 수출입은행장, 김진균 수협은행장, 서한국 전북은행장, 임성훈 대구은행장, 서호성 케이뱅크 은행장, 박우혁 제주은행장, 이호형 은행연합회 전무.(사진=은행연합회 제공) 2022.09.26. photo@newsis.com *재판매 및 DB 금지[사진 영상 제보받습니다] 공감언론 뉴시스가 독자 여러분의 소중한 제보를 기다립니다. 뉴스 가치나 화제성이 있다고 판단되는 사진 또는 영상을 뉴시스 사진영상부(n-photo@newsis.com)로 보내주시면 적극 반영하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.09.29.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>국내 M&amp;A 1년새 67% 감소…대기업·PEF 지갑 닫았다</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005023793?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>3분기 리그테이블 결산인수·합병 규모 7조1199억1조 이상 대규모 거래 2개뿐기관투자자 PEF 출자 소극적올해말까지 시장 침체 불가피금융 1위 로스차일드 깜짝 차지회계 1위 삼일, 법률 1위 김앤장◆ 레이더M ◆  3분기 국내 인수·합병(M&amp;A) 거래 규모가 7조원을 기록하며 전년 동기 대비 3분의 1로 줄었다. 잇단 금리 인상에 대기업과 사모투자펀드(PEF) 모두 지갑을 닫으며 시장이 대폭 위축된 것이다. 주요 투자자가 관망세를 이어 가면서 M&amp;A 시장 침체가 올해 말까지 지속될 수 있다는 전망이 나온다. 29일 매일경제 레이더M이 올해 3분기 리그테이블 기업경영권 M&amp;A(발표 기준·계열사 거래 제외·50억원 이상) 거래를 집계한 결과 총 7조1199억원으로, 전년 동기 21조4700억원에서 67% 상당이 줄어들었다. 1~3분기 누적 기준으로는 26조2700억여 원을 기록해 50조원을 돌파한 전년 동기 대비 절반에 머물렀다. 세부 거래를 들여다보면 1조원 이상 딜은 2개에 불과했다. SD바이오센서가 국내 PEF 운용사 SJL파트너스와 손잡고 미국 바이오 기업 메리디안바이오사이언스를 1조9931억원에 인수한 거래와 SK머티리얼즈에어플러스가 산업가스 설비를 캐나다 브룩필드에 1조원에 매각한 딜이 전부다. 이는 전년 동기 1조원 이상 거래가 6개에 달하며 활황세였던 것과 대조적이다. 당시에는 넷마블이 리어나도 인터랙티브를 2조5100억원에 인수하고, DTR오토모티브가 두산공작기계를 2조4000억원에 사들이는 등 국내 대기업과 중견기업, 중소기업 모두 M&amp;A에 '통 큰 베팅'을 이어 갔다. 투자은행(IB) 업계에서는 국내 M&amp;A 거래의 80% 상당을 담당하는 PEF 운용사가 투자에 소극적인 것을 시장 침체의 주요 원인으로 꼽는다. 박대준 삼일PwC 딜부문 대표는 "PEF는 최근 밸류에이션(실적 대비 가격 평가)이 좋은 물건을 발견해도 투자까지 이어 가기가 어려워졌다"며 "기관투자자가 좀처럼 프로젝트 PEF 출자에 나서지 않는 영향"이라고 말했다. 이어 "시장 불확실성에 대한 투자자들의 불안감이 높아 4분기까지 분위기가 크게 전환되기는 어려워 보인다"며 "내년 1분기부터는 시장이 서서히 회복될 것"이라고 덧붙였다. 시장 침체 속에 M&amp;A 금융 자문 분야 순위권에서는 외국계 IB가 두드러졌다. 국내 기업 간 M&amp;A가 대폭 축소된 와중에 한국 회사가 해외 우량 매물을 사들이는 거래가 수차례 체결된 영향으로 해석된다. 1위 로스차일드가 총 2조4283억원, 2위 파이퍼샌들러는 1조9931억원의 M&amp;A 금융 서비스를 제공했다. 두 회사는 국내 바이오 기업 SD바이오센서가 SJL파트너스와 손잡고 미국 메리디안바이오사이언스를 1조9931억원에 인수하는 거래에서 각각 매각 측과 인수 측을 도왔다.3위 CS증권은 총 1조7700억원의 실적을 올렸다. SK머티리얼즈에어플러스가 산업가스 생산 설비를 캐나다 브룩필드에 넘기는 거래에서 SK 측이 1조원 규모의 매각 대금을 받아내는 데 일조했다. 아울러 국내 PEF 운용사 IMM인베스트먼트가 폐기물 처리 업체 EMK(에코매니지먼트코리아홀딩스)를 싱가포르 케펠인프라스트럭처트러스트에 7700억원에 넘기는 거래에서는 IMM 측을 지원했다. CS증권은 총 2조원 규모의 대우조선 M&amp;A에서도 매각 측 금융 자문에 응대하고 있다. IB 업계에서는 해당 거래가 이르면 올해 안에 체결될 것으로 예측한다. 회계 자문 부문에선 삼일PwC가 상반기에 이어 1위를 기록했다. 총 3조4670억원의 실적을 쌓았다. 티맵모빌리티가 수천억 원 규모의 투자 유치를 하는 작업에서 회계 자문에 응대했다.  법률 자문 부문에선 김앤장이 도합 7조6674억원 규모의 거래에 참여하며 압도적 1위에 올랐다. 현대자동차그룹과 KT가 도합 7459억원 규모 지분을 맞교환하는 거래에 법률 자문사로 참여했다. 종합 금융 플랫폼 '토스'를 운영하는 비바리퍼블리카가 5250억원 규모 투자를 유치하는 거래에도 법률적 조언을 했다.  2위 세종은 자율주행 스타트업 포티투닷이 현대자동차에 4289억원에 팔릴 때 매각 측에 서서 법률 이슈를 검토했다. ■ &lt;용어 설명&gt;▷ 리그테이블 : 자본시장에서 인수·합병(M&amp;A)과 유상증자, 기업공개(IPO) 등 주식 발행(ECM), 회사채 등 채무증권 발행(DCM)을 주관(자문 응대)하는 시장 참가자 실적을 집계한 자료다. 매일경제신문은 매월 말일 시장 참가자 실적을 바탕으로 리그테이블 순위를 분기마다 발표한다. 리그테이블은 기업이 매각·인수 주관사를 선정하는 데 중요한 자료로 활용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>김주현 금융위원장, 은행장들과 취임 후 첫 저녁 만찬 회동</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000855290?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>김주현 금융위원장./사진=장동규 기자 김주현 금융위원장이 지난 7월 취임한 이후 처음으로 은행장들과 저녁 만찬 자리를 가졌다. 이 자리에서 김 위원장은 효과적인 금융개혁을 위한 협조를 당부했다.은행연합회는 금융당국과의 소통을 강화하고 금융 현안에 대한 이해의 폭을 넓히기 위해 26일 서울 중구 명동 은행회관에서 금융위원장 초청 은행장 간담회를 개최했다고 밝혔다.이번 저녁 만찬 자리에는 김주현 금융위원장, 김광수 은행연합회장, 14개 은행장 등이 참석했다. 참석 은행은 산업은행, 농협은행, 우리은행, 하나은행, 기업은행, 국민은행, 수출입은행, 수협은행, 대구은행, 부산은행, 제주은행, 전북은행, 케이뱅크, 토스뱅크 등이다. 최준우 주택금융공사 사장도 함께 했다.이날 간담회에서 김주현 금융위원장과 은행장들은 최근 은행권 현황에 대한 인식을 공유하고 경제 및 금융 현안에 대해 격의 없는 논의를 진행했다.금융개혁 과정에서 은행이 어느 정도까지 새로운 업무를 할 수 있을지 등에 대한 많은 논란이 예상되는 것과 관련해 김 위원장은 "업계간 이해상충 문제, 새로운 업무수행에 따른 위험 관리 문제 등 금융시장 불안으로 어려운 상황에서 이런 논란 소지에 잘 대응하지 않으면 개혁의 추진 동력이 상실될 우려가 있다"고 지적했다.이어 김 위원장은 "예상되는 주요 이슈들에 대해 소비자, 이해관계자, 국회, 언론 등에 잘 설명하고 이해를 구하는 작업을 업계와 연구소 등이 금융당국과 힘을 모아 같이 하게 되면 보다 속도감 있고 효과적인 금융개혁 추진이 가능할 것"이라고 강조했다.또 김 위원장은 사고 방지를 위한 충실한 내부통제제도 운영과 조직 문화 개선도 강조했다. 최근 연이은 금융사고로 국민들의 불안과 불신이 고조되고 있는 상황에서 감독당국은 내부통제제도 개선을 위한 방안을 검토하고 있다.김 위원 "중요한 것은 최고경영진들이 '사고발생 방지와 소비자 우선'의 조직 문화를 심어 놓는 것"이라며 "'사고발생 방지와 소비자 우선' 의 문화정착에 노력하고, 영업 현장에서 이런 문화가 정착되어 있는지 여부를 최고경영자가 직접 확인해달라"고 당부했다.이에 김광수 은행연합회장은 금융당국이 금융규제혁신 회의 등을 통해 금융산업 규제개선을 위해 적극 힘써오고 있는 점에 대해 사의를 표했다. 이어 김 회장은 "앞으로의 규제 개혁 추진 과정에서 은행권도 깊이 있는 논리를 개발하고 여러 이해관계자와 열린 자세로 소통하는 등 최선을 다해 적극적으로 지원하겠다"고 화답했다.이어 그는 "리스크관리 강화와 내부통제 제고 필요성에 대한 금융위원장의 당부에 대해서도 깊이 공감하고 있다"며 "특히 금융사고 예방을 위해 은행의 자체적인 내부통제 강화에심혈을 기울이겠다"고 밝혔다.마지막으로 김 회장은 "금리·물가·환율상승 등으로 서민경제에 부담이 커지고 있으므로 은행권은 새출발기금을 비롯한 정부 정책에 적극 협조할 뿐만아니라 은행별 특성에 맞는 자율적인 금융지원을 이어 나가겠다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>[사설] 더 벌어진 예대금리차 … 은행들 고통분담은 말뿐이었나</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002755164?sid=110</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>금융소비자의 이자 부담을 완화하기 위해 예대금리차 공시제도가 도입됐지만 오히려 격차가 더 벌어졌다. 21일 은행연합회에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 8월 평균 가계예대금리차는 1.51%포인트로, 전달 대비 0.12%포인트 더 커졌다. 이 가운데 가장 큰 폭의 예대금리차를 보인 은행은 1.76%포인트를 기록한 NH농협이었다. 이어 신한, 우리, KB국민, 하나 순으로 예대금리차가 큰 것으로 나타났다. 이렇게 예대금리차가 커진 것은 수신금리보다 대출금리가 더 올랐기 때문이다. 은행들은 억울하다는 입장이다. NH농협 관계자는 "지난달 정부정책 자금을 포함한 6개월 미만의 단기성 자금이 대거 유입된 영향"이라며 "단기성 수신자금 성격상 수신금리가 낮아 예대금리차가 일시적으로 확대됐다"고 해명했다.하지만 일부 지방은행과 인터넷은행에선 같은 기간 가계예대금리차가 축소된 것을 보면 시증은행들의 억울하다는 주장은 설득력이 떨어진다. 토스뱅크의 경우 가계예대금리차는 7월 5.60%포인트에서 4.76%포인트로 대폭 줄었다. 저축성수신금리가 1.00%에서 2.20%로 두배 넘게 뛰었기 때문이다. 그동안 은행들이 수신금리는 느리게 올리고 대출 금리는 빠르게 올리는 방식으로 과도한 '이자 장사'를 해왔다는 비난이 끊이지 않았다. 수익구조를 선진화하거나 글로벌 경쟁력을 높였다는 소식은 듣기 어려웠다. 이에 윤석열 정부는 지난달부터 전체 은행의 예대금리차를 비교 공시하고, 공시 주기도 1개월로 단축하라고 지시했다. 이를 통해 예대금리 격차가 줄어들 것으로 기대했었다. 하지만 예대금리차는 더 커졌다. '이자 장사'에 제동이 걸리지 않은 셈이다. 금리가 급등하면서 은행들은 사상최대 이익을 거둬들이고 있다. 반면 가계는 허리가 휘고 있다. 서민 고통은 아랑곳하지 않고 손쉬운 '이자 장사'로 떼돈을 버는 행태에 대한 비난이 쇄도하자 은행들은 고통분담을 약속했었다. 하지만 은행업계의 목소리는 더 벌어진 예대금리차로 공염불에 그치는 모양새다. 은행은 일종의 공공재다. 말로만 고통분담을 외치지 말고 적극적으로 이자부담 경감에 나서야 한다. 그렇지 않으면 다음 처방은 공적개입이 될 수밖에 없을 것이다. 현재 정치권에선 금리폭리방지법 입법을 논의중이다. 은행의 대출·가산 금리 산정 방식을 공개하도록 강제하는 법이다. 법으로 강제하기 전에 자발적으로 상생에 나서야 한다. 솔선수범을 통해 어려운 시기를 함께 넘어야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>엔비티, 위메프와 '애디슨 오퍼월' 제휴</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005322930?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>[이데일리 김응태 기자] 엔비티(236810)는 22일 메타커머스 플랫폼 위메프와 ‘애디슨 오퍼월’ 서비스 제휴 계약을 체결했다고 22일 밝혔다.이번 계약을 통해 엔비티는 위메프 플랫폼 내 오퍼월 시스템을 구축 및 운영을 담당한다. 애디슨 오퍼월 서비스는 제휴 플랫폼 사용자가 다양한 미션 수행을 통해 현금처럼 사용 가능한 포인트를 무료로 적립하는 기회를 제공한다. 해당 서비스는 위메프 애플리케이션 서비스 내 ‘포인트’ 탭에 마련된다.엔비티는 이달 대형 플랫폼들을 중심으로 잇따른 제휴를 체결하는 등 성과를 내고 있다. 최근까지 네이버페이, 토스, 카카오모빌리티 등 업종을 불문하고 국내 주요 플랫폼 제휴 성과를 이어오고 있다. 특히 기존 포인트 산업에서 강점을 보여왔던 금융 부문을 넘어 웹툰, 쇼핑, 게임, 모빌리티 등 비금융 부문으로 진출해 업종 장벽을 낮추고 있다는 설명이다. 아울러 애디슨은 기존 플랫폼 체제에 광고주와 연계할 수 있는 포인트 네트워크를 적용해, 사용자가 많은 플랫폼 제휴가 곧 실적 바로미터로 작용한다. 박수근 엔비티 대표이사는 “하반기 들어 업종별로 손꼽히는 대형 플랫폼들을 중심으로 오퍼월 네트워크 제휴 수요가 지속 증가하고 있다”며 “올해 포인트 산업부문은 견고한 실적 성장을 이어갈 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>[비즈톡] “2% 통장이란 브랜드를...” 토스뱅크의 핑계</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003717062?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표가 작년 10월 온라인으로 열린 토스뱅크 정식 출범 기자간담회에서 발언하고 있다. /토스뱅크 제공										한국은행의 기준금리 인상에 발맞춰 은행들의 예·적금 금리 인상 행렬이 이어지고 있지만, 유일하게 예외인 곳이 있습니다. 3호 인터넷전문은행 토스뱅크입니다. 작년 10월 출범하며 당시로서는 파격적으로 선보인 ‘연 2%’ 수시입출금식 예금(파킹통장) 금리가 1년 가까이 지난 지금도 그대로입니다.그사이 다른 인터넷전문은행들은 금리를 끌어올려 토스뱅크를 제쳤습니다. 케이뱅크의 파킹통장 ‘플러스박스’는 연 2.3%(예치한도 3억원), 카카오뱅크 파킹통장 ‘세이프박스’는 연 2.2%(한도 없음) 입니다. 고금리를 내세웠던 토스뱅크가 이제는 뒤처지게 됐습니다. 시중엔 3%대 단기 정기예금이 흔해졌고 저축은행에서는 최고 3.3% 파킹통장까지 나왔습니다.토스뱅크 측은 “금리 인상을 검토하고 있지만, ‘2%통장’이라는 브랜드를 포기해야 하는 문제가 있어 다각도로 논의 중”이라고 합니다. 소비자들에게 각인된 ‘2% 통장’이라는 토스뱅크의 대표적인 이미지를 지키고 싶다는 말입니다.물론 ‘토스뱅크’ 하면 많은 사람들이 ‘2% 통장’을 떠올릴 만큼 상징적인 것은 맞습니다. 하지만 불리할 때는 ‘2%’를 외면하다 기준금리가 뛸 때 예금 이자를 올리지 않는 이유로 삼는 것은 설득력이 떨어집니다. 토스뱅크는 하루만 맡겨도 조건 없이 연 2% 이자를 지급하겠다고 했던 약속을 출범 두 달 만에 깬 적이 있습니다. 작년 10월 가계대출 총량 규제로 출범 9일 만에 대출 영업이 중단된 와중에 2% 통장에 뭉칫돈이 몰리다보니 수익성 방어를 위해 ‘1억원까지만 연 2%를 주겠다’는 조건을 붙인 것이지요. 지난 1월부터는 토스뱅크 체크카드 캐시백 혜택도 줄였습니다. 소비자들은 토스뱅크가 혜택 축소는 발 빠르게 하면서 금리 인상기, 고객 혜택 확대에는 미적댄다는 인상을 받을 수 밖에 없습니다.올해 상반기 토스뱅크는 1243억원의 적자를 냈습니다. 수익성 관리가 필요한 상황이라는 점도 이해가 갑니다. 그렇더라도 고객을 중심에 둔 결정을 내려주길 바랍니다. 혁신을 통해 고객에게 더 큰 혜택을 돌려주겠다던 토스뱅크의 당찬 모습을 그리워하는 사람들이 많습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.09.19.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>서민 대상 '새희망홀씨 대출' 한도, 내달 최대 3500만원으로 상향</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005319856?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>종전 3000만 원에서 10월 중 500만 원 확대해 3500만 원으로상반기 약 1.2조 공급, 전년 比 31.9%↓…가계신용대출보다 감소폭 작아국민銀 2527억 원 최대…5대 은행 전체 취급 금액 79.9% 차지[이데일리 이연호 기자]금융당국이 서민 대출 상품의 한 종류인 새희망홀씨 대출 한도를 다음달 중 최대 3500만 원으로 상향한다. 금리 인상과 경기 위축 등으로 인한 서민층의 자금 애로를 덜기 위한 취지다.은행권 주요 서민금융상품 비교. 표=금융감독원.금융감독원은 금리 인상·경기 위축 등으로 인한 서민층의 자금 애로를 해결하기 위해 새희망홀씨 대출 한도를 종전 3000만 원에서 10월 중 500만 원을 확대해 최대 3500만 원으로 상향한다고 19일 밝혔다.이를 위해 금감원과 은행들은 내달까지 운용 규약 개정 절차, 은행 전산 개발을 진행할 계획이다. 이와 별개로 현재 각 은행별로 새희망홀씨 금리 인하, 핵심성과지표(KPI) 배점 상향 등 공급 확대 방안을 시행 중이라고 금감원은 설명했다.국내 14개 은행(산업·수출입·씨티 은행, 케이·카카오·토스 뱅크 제외)은 대표 자율 상품인 새희망홀씨를 통해 서민층에 올해 상반기 1조2209억 원(6만7730명)을 공급했다. 취급 금액이 전년 동기(1조8000억 원) 대비 31.9% 감소했고, 금년 목표치인 3조5000억 원 대비로도 34.4%에 불과한 수준이다. 다만 상반기 가계신용대출이 전년 동기 대비 55.8% 감소한 것을 감안하면 새희망홀씨 취급 금액 감소폭은 상대적으로 작은 편이다. 은행권이 비대면 마케팅 활성화 등을 통해 서민층에 대한 자금 공급 노력을 지속했기 때문이다. 또 은행권은 새희망홀씨 대출 외에도 인터넷전문은행 신설(작년 10월 토스뱅크) 등을 통한 중저신용자 대출 대폭 확대, 신규 정책서민금융상품 출시 등 다양한 경로를 통해 서민층에게 자금을 공급했다.이에 인터넷전문은행이 새희망홀씨와 동일한 고객군(연소득 3500만 원 이하 또는 연소득 4500만 원 이하이면서 개인신용평점 하위 20% 이하)에게 공급한 금액은 지난해 2조6000억 원에서 올해 상반기 3조4000억 원으로 오히려 증가했다.새희망홀씨 대출 상반기 평균 금리(신규 취급분)는 7.2%, 연체율은 1.4%로 기준금리 인상에도 불구하고 소득과 신용도가 낮아 한도·금리 면에서 불리한 차주들에게 상대적으로 저금리의 자금을 안정적으로 공급 중이다. 기준금리 인상에 따라 새희망홀씨 평균 금리는 전년 동기(5.7%) 대비 1.5%포인트(P) 상승했으나 동 기간 가계신용대출 평균 금리 상승폭인 2.1%P보다는 낮다. 한국은행에 따르면 올 2분기 기준 상호저축은행의 신용대출 신규 취급분 금리는 14.55%다.새희망홀씨 대출의 은행별 실적을 보면 국민은행이 2527억 원으로 가장 많았고, 농협(2392억 원)·하나(1899억 원)·신한(1508억 원)·우리(1433억 원) 은행이 뒤를 이었다. 이들 상위 5개 은행의 실적(9759억 원)이 전체 취급 금액의 79.9%를 차지했다.금감원 관계자는 “앞으로도 코로나19, 경기 위축, 금리 인상 등으로 인한 서민층의 자금 애로를 해결할 수 있도록 적극 노력할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>국내서도 'SaaS 大戰'…전문 스타트업들 "손잡아야 산다"</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004754260?sid=105</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>스마트워크 확산하며 각광재무관리·인사관리·협업툴 등특화 SaaS업체들 '합종연횡'서로 연동하거나 다른 업체 인수다양한 기능의 솔루션으로 진화"2030년 글로벌 10조달러 시장"새 유니콘기업 5곳 중 1곳 탄생지팬데믹을 기점으로 국내에도 서비스형소프트웨어(SaaS) 시대가 본격화하고 있다. 디지털 전환과 함께 스마트워크가 확산하며 별도의 구축·설치 없이 인터넷 접속만 가능하면 언제 어디서든 일할 수 있는 업무용 SaaS가 보편화하는 추세다.하지만 그만큼 SaaS 업체 간 경쟁도 치열해졌다. 그렇다 보니 협업, 인적자원(HR), 전자결재, 재무관리 등 각 분야 버티컬(특화) SaaS 스타트업이 서로 서비스를 연동하거나 다른 업체를 인수하는 등 합종연횡이 활발하다, 구글 등 빅테크와 한글과컴퓨터, 티맥스 등 기존 중견 소프트웨어(SW) 업체들도 국내 클라우드·SaaS 분야 스타트업과 손잡는 식으로 서비스 강화를 모색하고 있다. ○손잡는 SaaS 기업들작년 하반기 세계 최대 SaaS 기업 세일즈포스가 협업툴 슬랙을 인수한 사례처럼 SaaS 업체 간 합종연횡이 국내에서도 잇따르고 있다.기업 재무관리 솔루션을 제공하는 비즈니스온은 지난 2월 인력관리 SaaS를 제공하는 스타트업 시프티와 전략적 인수합병(M&amp;A)을 맺은 데 이어 7월 자회사 글로싸인을 흡수 합병했다. 그에 앞서 플랜잇(데이터 분석·시각화), 넛지(재무솔루션) 등을 잇달아 인수하기도 했다.통합인력관리 솔루션 시프티는 채용 솔루션 그리팅(두들린)과 서비스를 연동한다. 시프티는 휴가 관리, 출퇴근 기록, 근태 정산을 비롯해 전자계약 및 전자서명, 급여명세서 발송 등 인력관리 전반의 기능을 제공하고 있다. 이를 통해 카카오, 쿠팡, 토스, 배달의민족 등 주요 빅테크 기업과 SK네트웍스, 미래에셋 등 15만 개 기업을 고객사로 확보했다.그리팅은 전체 채용 과정을 통합 지원하는 채용관리 플랫폼이다. 여러 채용 플랫폼에서 들어온 이력서를 한 번에 열람하고 각 기업의 특성에 맞는 채용사이트를 자체적으로 만들 수 있다. 시프티 관계자는 “시프티와 그리팅은 HR SaaS라는 분야에서 각각 인력관리와 채용관리라는 자기만의 뚜렷한 영역이 있다”며 “해외의 슬랙과 노션처럼 국내에도 각 분야 버티컬 스타트업 간 연동이 활발해지는 추세”라고 설명했다.HR테크 기업 원티드랩도 HR솔루션 ‘원티드스페이스’를 통해 SaaS 사업을 본격화하고 있다. 원티드스페이스는 근태관리, 전자결재, 조직관리 등 인사관리 전반에 필요한 기능을 제공한다. 원티드스페이스도 2월 글로벌 협업 플랫폼 업체 드롭박스와 기술 제휴를 위한 파트너십을 체결하고 전자서명 서비스 헬로사인 등을 연동했다. ○빅테크, 중견기업도 러브콜오피스SW의 중심축도 빠르게 SaaS로 옮겨가고 있다. 동시 접속을 지원해 협업 기능도 가능하고, 정기 구독 모델로 비용을 감축할 수 있다는 것이 장점으로 꼽힌다.이제는 단순한 웹버전 문서 툴 수준에서 나아가 다양한 기능이 붙은 협업 솔루션으로 진화하는 추세다. 구글 워크스페이스와 협력하는 국내 지식관리 솔루션 ‘타입드’도 이런 흐름에 가세했다. 구글은 국내 스타트업 타입드를 주력 파트너사로 선정했다. 타입드의 핵심 솔루션을 토대로 경쟁사 서비스인 마이크로소프트(MS) 오피스365를 넘어서겠다는 취지다.타입드는 문서 작성과 동시에 별도 애플리케이션 없이 그간 작성한 문서, 저장해둔 사이트 등을 한 번에 자료 조회할 수 있으며 웹에서 원하는 URL을 곧바로 타입드 라이브러리 안에 저장하는 방식으로 간편하게 자료를 수집하는 기능도 포함된다. 최근까지 150여 개국에서 유료 고객사 500여 곳을 확보했다. 국내의 폴라리스오피스와도 웹 오피스 사업 확대를 위한 업무협약(MOU)을 맺었다.국내 대표 오피스 SW 기업인 한글과컴퓨터도 SaaS 기업으로 도약하겠다는 각오다. 이를 위해 작년 8월 NHN 자회사 두레이의 독점 영업권을 확보했다. 협업툴 두레이는 메신저, 화상회의, 메일, 캘린더, 드라이브를 비롯해 스마트워크에 필요한 서비스를 갖췄다. 두레이에 ‘한컴오피스 웹’을 적용해 시너지 효과를 창출하겠다는 취지다.한컴은 이 외에 글로벌 SaaS 기업이자 한컴에서 지분인수 추진 중인 케이단모바일(KDAN)을 통해, 협업툴 ‘잔디’의 운영사인 ‘토스랩’에 15억원을 투자하기도 했다. 이르면 이달 말 한컴의 핵심 서비스인 한컴오피스를 클라우드 기반 SaaS로 개발한 구독형 서비스 ‘한컴독스’도 선보일 예정이다. ○해외는 이미 레드오션해외에서는 이미 SaaS 시장이 치열한 격전지가 되고 있다. 2021년 글로벌 유니콘 기업(기업 가치 1조원 이상 스타트업)에 진입한 507곳 중 110여 곳이 SaaS 관련 기업이다. 작년 1월 퀄트릭스를 시작으로 1년 동안 총 27곳이 미국 증시에 상장하는 등 SaaS 기업들의 자본시장 데뷔가 두드러졌다.시장조사업체 마켓워치에 따르면 전 세계 협업 SW 시장은 2018년 87억9000만달러(약 12억1100만원) 규모에서 연평균 10% 이상 성장해 2028년 230억5000만달러(약31조7500억원)에 달할 전망이다. 지난 7월 글로벌 컨설팅기업 맥킨지는 “SaaS 시장이 이미 3조달러(약 4127조원) 규모를 형성했고, 2030년까지 10조달러(약 1경3755조원)에 이를 것”이라고 내다보기도 했다.국내에서도 이 같은 흐름이 본격화하고 있다. 과학기술정보통신부가 발표한 ‘클라우드산업실태조사’(2020년)에 따르면 국내 SaaS 기업은 2017년 336개에서 지난해 561개로 두 배 가까이 늘어났다. 매출도 2017년 5000억원 규모에서 지난해 1조원대로 3년 새 두 배로 커졌다.올해 초부터 공공부문의 민간 SaaS 도입을 늘리기 위한 업계의 움직임도 분주하다. 한국소프트웨어산업협회는 지난해 6월부터 ‘SaaS추진협의회’를 출범하고 올해부터 본격적으로 클라우드 기반 SaaS 생태계 활성화에 나서고 있다. 회원사는 초창기 35곳에서 현재 105곳에 이른다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.09.18.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>디지털 전환 성공의 키, 오픈소스…거버넌스 및 커뮤니티 활용 방안은?</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002132786?sid=004</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 오픈소스, 공개SW는 저작권자가 소스코드를 공개, 저작권자가 허락한 공개 SW 라이선스에 따라서 복제, 수정, 재배포 등이 가능한 SW를 지칭한다. 개발기간·비용단축, 신기술 도입 활성화, 벤더 종속성 탈피, 고급 개발자 확보, 시장확대 등에 기여해 SW산업 발전을 유도하고 있다.  실제 SW 생태계에서 공개SW 영향력이 급증하고 있으며, 차세대 산업분야의 SW경쟁력 확보를 위해 공개SW가 전방위적으로 활용되고 있다. 특히 최근 금융권 등 오픈소스에 보수적이었던 산업군에서도 클라우드 인프라의 활성화, SaaS 서비스 도입 체계 마련 등에 힘입어 공개SW에 대한 접근이 빨라지고 있다. 국내 시장 측면에서 공개SW는 외산SW 등 특정 SW 종속 극복의 핵심 수단으로, 신기술 주도권 확보 및 시장 경쟁력 유지를 위해 가치가 중요시되고 있기도 하다. 이미 글로벌 선도 기업 및 상용 SW 기업들은 신속한 제품 출시, 시장 선점을 위해 독자적 개발보다 공개 SW에 기능을 추가하는 방식의 개발 사례도 증가하고 있다, 실제 시놉시스( Synopsys 2020년) 조사에 따르면 상용 SW개발 시, 공개 SW를 활용하는 기업의 비율은 약 90%에 달한다. 국내에서도 기업의 SW 생산방식은 자체 인력으로 개발하는 폐쇄적(Closed) 혁신에서 OSS 커뮤니티 등을 통한 개방형(Open) 혁신으로 전환하고 있기도 하다. 이처럼 오픈소스SW는 상용SW 개발을 위한 핵심자산으로 이미 해외에선 96%, 국내에서도 95%의 기업이 SW제품이나 서비스 개발 시 오픈소스 SW를 활용하고 있다. 하지만 중소·중견 기업의 오픈소스SW 라이선스 인식부족 및 전담 인력 부재로 오픈소스SW 라이선스 관련 위험도 상존하고 있다. 오픈소스는 누구나 활용할 수 있는 공개 소스코드지만 라이선스 규약을 지키지 않거나 취약점을 점검하지 않을 경우 법적 이슈와 보안 문제가 발생할 수 있다. 이에 따라 기업 및 공공분야에선 오픈소스 SW에 대한 라이선스 관리 등 저작권 관리에 대한 리스크 대응에 나서고 있는 상황이다. 삼성SDS는 지난 7월 국내 IT서비스 기업 최초로 ‘오픈체인(OpenChain) 프로젝트’가 부여하는 오픈소스 국제 표준 인증(ISO/IEC 5230:2020)을 획득했다. 삼성SDS는 이번 심사를 통해 오픈소스 활용 정책과 프로세스 수립, 전문 인력 확보, 구성원 교육 등 오픈소스 준수 체계 모든 항목에서 글로벌 역량을 인정받았다. 카카오뱅크도 오픈소스 거버넌스를 위한 정책 및 시스템을 구축, 운영하고 있다. 카카오뱅크는 국내 금융사 최초로 오픈소스 관련 국제 표준 인증을 획득하며, 오픈소스 활용 역량을 국제적으로 인정받았다. 카카오뱅크는 국제표준화기구(ISO)의 '오픈체인(Open Chain) 프로젝트'의 표준 준수 기업으로 오픈소스 컴플라이언스 인증(ISO/IEC 5230:2020)을 획득했다. 한국저작권위원회도 오픈소스SW라이선스 종합정보시스템 기능개선 사업을 진행 중이다. 오픈소스SW 라이선스 종합정보시스템 기능개선을 통해 사용자 참여(나무위키, 위키피디아) 형식의 오픈소스SW 라이선스 정보업데이트 시스템 구축과 오픈소스SW 라이선스 검사도구(CodeEye) 기능 고도화에 나선다.  한편 기업의 성공적인 오픈소스 도입을 위한 관리 방향과 운영, 라이선스 정책 등에 대한 정보 공유의 장도 개최된다. 과학기술정보통신부가 주최하고, 정보통신산업진흥원과 디지털데일리가 공동 주관하는 오픈 테크넷 서밋(Open Technet Summit) 2022 버추얼 컨퍼런스가 9월 20일 오후 2시부터 3일간 개최된다. 이번 [오픈 테크넷 서밋 2022]에서는 “성공적 디지털 전환, 오픈소스 생태계에서 찾는다”를 주제로 오픈소스 활용과 엔터프라이즈 규모의 플랫폼 도입 및 운영에 대한 인사이트를 제시해 볼 계획이다. 이번 행사에서는 과학기술정보통신부의 오픈소스 관련 정책 소개를 시작으로 삼성전자, 카카오뱅크, 토스, KT 등 기업의 오픈소스 활용은 물론 빔소프트웨어, 엘라스틱코리아, 클루커스, 더 리눅스 파운데이션, 몽고DB, 맨텍, 큐브리드, 래블업, LG CNS, OSC코리아, 오픈소스컨설팅, 인베슘 등 오픈소스 전문 벤더 및 커뮤니티의 발표가 이어진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.09.28.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>[르포] KB부터 토스까지, 곳곳서 환호… VR송금에 배달로봇 전시</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000855995?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>코리아 핀테크 위크 2022 현장, 100여개 기업 참가KB금융그룹이 선보인 'VR브랜치'를 체험 중인 기자./사진=강한빛 기자 "이건 시작일 뿐입니다. 미래 금융서비스는 또 어떤 모습으로 달라질지 모릅니다"28일 서울 롯데호텔(소공동) 크리스탈볼룸은 이른 오전부터 '코리아 핀테크 위크 2022'를 방문한 이들로 북적였다.올해로 4회째를 맞은 박람회는 신종 코로나바이러스 감염증(코로나19) 이후 3년 만에 공개 행사로 진행됐다. 참가 업체들은 그동안 갈고닦은 서비스를 선보였고 부스 곳곳에선 연신 환호성이 터져 나왔다.행사에는 KB·신한·우리·하나·농협금융 외에도 카카오뱅크, 네이버파이낸셜, 토스 등 빅테크기업과 핀다, 윙크스톤파트너스 등 100개 기업이 참가, 61개의 부스를 마련해 방문객의 눈길을 사로잡았다.김주현 금융위원장은 이날 축사를 통해 "이제 핀테크는 '있으면 편한 것'이 아닌 '없으면 안되는 것'이 됐다"며 "코리아 핀테크 위크는 '혁신 DNA'를 다시 깨우는 서막이 될 것"이라고 강조했다. ━가상공간에서 '쓱'하니 송금… "상상 못한 미래 온다"━네이버파이낸셜이 선보인 로봇 '루키./사진=강한빛 기자 각 기업들은 부스를 마련해 핵심 서비스를 선보였다. 이들이 공개한 미래 금융 서비스는 시간과 공간의 제약이 사라지고 혁신과 편리함으로 무장한 모습이었다.가장 시선을 끈 건 KB금융그룹의 '가상 지점'이다. KB국민은행은 VR(가상현실) 전문기업 '쉐어박스'와 협업해 구축한 'VR 브랜치'를 선보였다. VR 브랜치에서는 송금도 가능하다.가상은행으로 발을 디뎠다. 기자가 VR기기를 쓰니 눈앞에 VR 브랜치가 펼쳐졌다. 기기를 쓴 채 시선을 돌리니 KB국민은행의 모델 걸그룹 '에스파'의 영상이 벽 한면을 채우고 있었고 원/달러 환율 수치도 확인할 수 있었다.VR기기를 손에 쥔 뒤 주거래 은행을 선택, 계좌와 금액을 기입하고 송금을 누르니 즉각 '송금 완료'가 적힌 창이 눈 앞에 펼쳐졌다.방기석 KB국민은행 KB인사이트 지점장은 "VR 브랜치는 이제  첫 발을 뗀 단계지만 무궁무진한 가능성을 품고 있다"며 "VR디바이스가 대중화되고 관련 기술이 더욱 발전되면 상상도 못한 서비스가 나올 수 있다"고 말했다. 향후 가상공간에서 송금 외에도 카드 발급 등이 가능할 것이라는 게 방 지점장의 설명이다.네이버파이낸셜은 '스마트스토어 사업자 대출' 서비스와 스마트워치를 활용한 간편결제 서비스를 선보였다. 특히 부스에는 네이버페이를 활용한 결제 서비스가 연계된 네이버랩스의 자율주행 배달 로봇 '루키'가 전시됐다. 김주현 위원장은 네이버파이낸셜 부스를 직접 방문해 '스마트스토어 사업자 대출'의 신청부터 한도조회까지의 전 과정을 체험하기도 했다.NH농협금융은 'NH손하나로 서비스'를 선보였다. 바이오(손바닥 정맥) 정보로 본인 인증이 가능한 서비스로 손바닥만 대면 은행 서비스 이용은 물론 공항에서 신분증 확인 없이 생체정보로 탑승 수속을 밟을 수 있다. 부스를 방문한 관람객들은 설치된 기기 위에 손바닥을 올리거나 사진을 찍으며 한층 더 진보된 금융 서비스를 체험했다.한편 '코리아 핀테크 위크'는 이날부터 오는 30일까지 사흘 동안 온·오프라인으로 진행된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>"예대금리차 공시와 달라…내 대출금리 한눈에 비교했으면"</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005150861?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>금융 소비자, 예대금리차 공시에 관심 많지만, 공시만 봐선 알 수 없어 "내가 은행에서 실제로 받는 대출금리와 예금금리와 달라" "전 금융권 대출금리, 예금금리 비교 사이트 필요"미국 중앙은행인 연방준비제도(Fed·연준)가 추가 금리 인상을 시사한 가운데 오는 25일로 예정된 한국은행 금융통화위원회의 금리 인상 여부에 관심이 높아지고 있다. 사진은 19일 서울 시내 시중은행 대출창구 모습./김현민 기자 kimhyun81@"전세 자금을 대출받아야 해서 지난달 예대금리차 공시를 보고 대출금리가 낮은 은행에 찾아갔는데, 오히려 공시에선 대출금리가 높았던 은행이 저한테는 더 싼 이자를 제시하더라고요.""정기예금에 가입하려고 공시를 보니 마침 주거래은행 예금금리가 가장 높아서 다행이다 싶었어요. 근데 좀 더 알아보니 다른 은행은 첫 거래 고객한테 우대금리를 줘서 거기에 가입했죠."금리 상승기에 지난달부터 은행연합회가 공시하는 19개 은행의 예대금리차(예금금리와 대출금리의 차이)가 온라인 재테크 커뮤니티 등에서 화제가 되고 있지만 "은행별로 전체 금리 수준을 비교할 수 있을 뿐, 실제로 내가 받을 수 있는 대출이나 예금금리와는 거리가 멀다"는 목소리가 속속 나오고 있다. 우대금리 적용 여부, 그간 거래실적, 신용등급 변화는 물론 맞춤형 상품까지 선택할 수 있는 게 요즘 금융 생활이다. 한 달 동안 은행이 취급한 대출·예금상품의 금리를 보여주는 공시 정보와 개인의 금리는 차이가 날 수밖에 없다.회사원 이명훈(36)씨는 "예대금리차 정보를 바탕으로 내가 거래할 은행을 결정하는 건 무리"라며 "결국 은행별로 찾아가 알아보는 게 최선인데, 내 정보를 바탕으로 국내 은행들의 대출과 예금금리를 비교할 수 있는 시스템이 필요하다"고 했다.김주현 금융위원회 위원장이 2일 오전 서울 종로구 정부서울청사에서 열린 정책금융기관장 간담회에서 모두발언을 하고 있다./김현민 기자 kimhyun81@예금금리 비교 서비스는 비교적 순조롭다. 금융위원회가 지난 7월 혁신금융서비스 지정 의지를 밝힌 이후 네이버파이낸셜에 이어 카카오페이가 이달 초 시범 서비스를 오픈했다. 카드사들도 뛰어들 준비를 하는 중이다. 빠르면 12월부터 국내 예·적금 상품을 추천·중계해주는 서비스가 등장할 것이다. 한발짝도 안 움직이는 쪽은 대출금리 비교 서비스다. 토스·카카오페이·핀다 등 선두업체가 있지만 정작 사람들이 가장 많이 찾는 5대 은행(KB국민·신한·하나·우리·NH농협) 상품은 다 빠져 있다고 해도 과언이 아니다. 현재(22일 기준) 토스와 카카오페이에는 신한·우리·하나은행 상품이 있긴 하다. 하지만 상품 개수로만 따지면 토스 4개(신용대출 3개, 주택담보대출 1개), 카카오페이 7개(신용대출 6개, 전·월세 대출 1개)가 전부다. 핀다는 지난 4월부터 하나은행의 신용대출 상품 3개만 취급한다. 업계 관계자는 "현재 대출금리 비교 서비스에서 취급하는 건 저축은행과 지방은행, 카드, 캐피탈, 보험, P2P(개인 간 금융) 상품이 대부분"이라며 "5대 은행 문을 아무리 두드려봤자 열릴 기미가 안 보인다"고 했다."국민이 은행 방문 없이 대출 이동이 가능하고, 전체 금융기관의 금리를 비교하는 인프라를 구축해서 이자 부담을 덜어줄 현명한 방법을 찾아야 한다."(권성동 국민의힘 원내대표) 한 달 전 여당 지도부까지 나서 금융당국을 향해 대출금리 비교 사이트를 만들라고 주문했지만 순탄치 않을 전망이다. 은행 입장에선 생존이 걸린 문제라서다. 은행은 대출이자로 수익 창출을 한다. 그런데 금리 비교와 갈아타기가 가능해지면 금리 출혈 경쟁이 벌어지게 된다. 대출금리를 비교해 주는 빅테크나 핀테크에 고객들이 몰리면 은행은 상품제공자 신세로 전락하고 거기에 종속될 수밖에 없다. 작년에도 금융위원회가 금융결제원과 함께 국민들의 신용정보와 연계해 전체 금융권의 대출금리를 비교하고 갈아타기까지 가능한 대환대출 플랫폼을 만들려고 했었지만, 은행들의 반대로 무산된 이후 진척이 없는 상황이다. 금융위 관계자는 "현재 대환대출 플랫폼 관련해 논의가 진행 중이긴 하나 업권별로 의견 차이가 커 쉽지 않다"고 했다.금융권 관계자는 "대출금리 비교 사이트는 정치권의 관심 사안이라 10월 국정감사에서 이슈가 되면 논의가 급물살을 탈 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>온라인 쇼핑 늘자…전자지급결제 1兆 돌파 ‘사상 최대’</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000842005?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>상반기 온라인 결제금액 1조209억원…8% 증가  한은 “온라인 쇼핑 늘어난 영향”         올해 상반기 신용카드·계좌이체 등을 통한 온라인 결제를 의미하는 ‘전자지급결제’ 규모가 1조원을 넘어서면서 사상 최대를 기록했다. 코로나 이후 온라인 거래가 전반적으로 늘어난 가운데 올 상반기 소비가 회복되면서 온라인 쇼핑이 증가한 결과로 풀이된다. 카카오페이, 네이버페이, 삼성페이 등으로 대변되는 간편결제 이용금액도 하루 평균 7000억원을 돌파했다. 이 역시 역대 최대 규모다.한국은행이 21일 발표한 ‘2022년 상반기중 전자지급서비스 이용 현황’에 따르면 올해 상반기 전자지급결제대행서비스(PG) 이용건수는 일평균 2321만건으로 전기대비 3.1% 늘었다. 이용금액은 1조209억원으로 8% 증가했다. 이용건수와 금액 모두 사상 최대를 기록했다.간편결제        전자지급결제대행서비스(PG)는 전자상거래 시 구매자로부터 대금을 받아 판매자에게 최종적으로 지급할 수 있도록 대행하는 서비스다.올 들어 소비가 살아나면서 온라인 쇼핑을 중심으로 온라인 거래가 확대된 영향이라고 한국은행은 설명했다. 통계청에 따르면 올 상반기 일평균 온라인 쇼핑 거래액은 전기 대비 3.8% 늘었다.미리 선불금을 충전해 사용하는 선불전자지급서비스의 이용건수는 4.4% 증가한 2648만건으로 집계됐다. 이용금액은 8017억원으로 13.5% 늘었다. 간편결제·송금이 견조한 성장세를 지속했기 때문이라고 한국은행은 설명했다.이 가운데 선불교통카드 이용건수는 상반기 중 959만7000건으로 전기(931만1000건)보다 3.1% 증가했다.은행, 카드사의 선불전자지급서비스 이용실적은 2648만건, 이용금액은 435억원으로 각각 4.4%, 13.5%씩 늘었다. 이는 전자금융업자가 제공하는 간편결제·송금 서비스 이용이 증가한 데 기인한다.간편결제서비스도 증가세를 이어갔다. 간편결제서비스 이용건수는 2317만건, 이용금액은 7232억원으로 각각 전기 대비 8.3%, 10.7% 늘었다. 이 역시 사상 최대치다. 공인인증서 없이 비밀번호 등을 이용하는 간편결제 서비스 업체에는 삼성페이, 카카오페이 등이 포함된다.카카오페이, 토스 등 간편송금서비스 이용실적도 늘었다. 상반기 이용건수는 하루 491만건, 이용금액은 6024억원으로 각각 6.9%, 14.3% 늘었다.이밖에 전자상거래시 구매자로부터 대금을 예치받고 거래를 확인한 뒤 구매대급을 판매자에게 지급하는 결제대금예치서비스(에스크로)의 경우 일평균 이용건수가 1.9% 감소한 319만건으로 나타났다. 이용금액도 전기와 비슷한 수준인 1569억원을 유지했다.아파트 관리비, 전기·가스 요금 등의 전자고지결제서비스의 경우 이용건수와 금액이 각각 5.1% 늘어난 24만건, 15% 증가한 449억원을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.09.25.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>출범 1주년 토뱅, 수신잔액 26조·고객수 440만 성장</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002755768?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>파킹통장·사장님대출 인기 주도상반기 1243억 적자 해소는 숙제토스뱅크가 내달 5일 출범 1년을 앞두고 있다. 인터넷 전문은행 3호로 호기롭게 문을 열었지만 금융당국 규제로 대출 중단을 겪어야 했으며, 올들어선 연 2% 금리의 파킹통장과 '사장님대출'로 가파른 성장세를 보였다.25일 금융권에 따르면 토스뱅크는 연내 모임통장·주택담보대출 상품을 출시할 전망이다. 파킹통장으로 끌어모은 수신고로 대출 포트폴리오를 확대하기 위해 신용평가시스템 고도화 등에 힘을 쏟고 있다.지난해 10월 출범한 토스뱅크는 11개월간 매달 약 40만명의 신규 고객을 확보해 고객수 440만명을 돌파했다. 핀테크 앱 '토스' 안에서 모든 기능을 수행하는 '슈퍼앱' 전략으로 월간활성이용자수(MAU)는 지난 6월 기준 1427만명으로 금융플랫폼 부문 1위를 유지하고 있다. 지난 8월말 기준 총수신잔액은 약 26조4000억원, 여신 잔액은 6조4000억원으로 집계됐다. 예금 대비 대출 비율은 24%로 꾸준히 대출을 확대해오고 있다.이제 막 걸음마를 시작한 토스뱅크는 존재감으로나 성장성으로도 다른 두 인터넷 전문은행에 뒤쳐지지 않고 있다는 평가를 받는다. 특히 순이자마진(NIM) 성과가 눈에 띈다. 지난 5월 예대마진이 흑자로 돌아서 올 상반기 전체 NIM이 0.12%를 기록했다. 2분기 NIM은 0.31%로 1분기 -0.21%보다 0.52%포인트 상승한 것이다.토스뱅크의 올해 상반기 순손실은 1243억원이다. 2분기 기준으로는 589억원으로 1분기 순손실 654억원보다 적자 폭이 65억원 줄었다. 상반기 당기순손실의 주요 요인으로는 대손충당금과 판관비가 꼽힌다. 은행업 특성상 여신잔액이 고속 성장하면 자연스레 충당금 전입액도 늘어난다. 토스뱅크의 상반기 충당금 전입액은 673억원으로 손익의 절반이 넘는 비중을 차지한다. 또 사업 성장을 위한 지속적인 인력 확충으로 판관비 역시 492억원의 비용이 발생했다는 설명이다.토스뱅크 관계자는 "영업 초기 성장 단계에 있는 은행의 통과의례에 해당하는 것으로 향후 더욱 큰 도약을 위한 디딤돌로 작용할 가능성이 높다"고 말했다.토스뱅크는 향후 3년 후를 흑자 전환 시점으로 보고 있다. 카카오뱅크와 케이뱅크는 각각 3년차, 5년차에 흑자 전환에 성공한 바 있다. 다만 최근 기준금리 인상 등 시장 변동성이 확대되면서 리스크 관리에 주의를 기울여야 한다는 평가가 나온다. 8월말 기준 토스뱅크의 고정이하여신비율은 0.13%, 총대출재권기준 연체율은 0.15% 수준이다. 이제 막 대출을 확대해나가는 상황인지라 단기 지표만으로는 확실한 재정 건전성 상황을 판단할 수 없지만 내년부터 대출 상환 시기가 도래하면서 윤곽이 드러날 것이란 관측이 나온다.특히 토스뱅크의 경우 중저신용자비출 대중이 36%로 인터넷은행 가운데 가장 많은 중신용자를 포용하고 있는 만큼 시장의 관심이 쏠린다. 토스뱅크는 중저신용자 대출 비중을 올해 말 42%, 내년말 44%까지 확대할 계획이다.토스뱅크는 최근 출시한 '사장님 대환대출'을 시작으로 연말 주택담보대출과 모임통장 등 신상품 출시로 성장성을 확대해나가겠다는 계획이다. 곧 출시 예정인 '모임통장'의 차별화 전략도 관심사다. 토스뱅크는 지난 7월 '토스뱅크 모임카드'에 대한 상표권 출원을 신청한 것으로 알려져 기대를 모으고 있다. 홍민택 대표는 이와 관련, "기존 은행 상품과 비교해서 다양한 부분의 차별성을 가질 것이며, 고객의 경험을 새롭게 확장시켜 줄 것으로 기대한다"고 말했다.토스뱅크가 출범 1년을 앞두고 대출 성장세에 박차를 가하고 있다. 토스뱅크 홍민택 대표 토스뱅크 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>금융위원장 초청 은행장 간담회</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013464092?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 26일 서울 중구 은행회관에서 열린 금융위원장 초청 은행장 간담회에서 참석자들이 기념 촬영하고 있다. 앞줄 왼쪽부터 이재근 국민은행장, 권준학 농협은행장, 윤종원 기업은행장, 김광수 은행연합회 회장, 김주현 금융위원회 위원장, 강석훈 산업은행 회장, 박성호 하나은행장, 이원덕 우리은행장, 안감찬 부산은행장, 뒷줄 왼쪽부터 홍민택 토스뱅크 대표, 최준우 주택금융공사 사장, 윤희성 수출입은행장, 김진균 수협은행장, 서한국 전북은행장, 임성훈 대구은행장, 서호성 케이뱅크 은행장, 박우혁 제주은행장, 이호형 은행연합회 전무. 2022.9.26 [은행연합회 제공. 재판매 및 DB 금지]    photo@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.09.30.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>적금금리 10% 시대...은행으로 '역머니무브' 가속화</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000077505?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>고금리 시대에 맞춰 은행과 저축은행들이 높은 이자를 주는 예·적금 상품을 잇달아 선보이고 있다. 연 10%대 금리를 제공하는 적금이  (매경DB) 등장하자 주식 등에 몰렸던 뭉칫돈이 은행 예·적금으로 돌아오는 '역(逆) 머니무브' 현상에 속도가 붙는게 아니냐는 분석이 나오고 있다.현재 최고 금리는 광주은행의 최고 연 13.2% 금리를 주는 '행운적금'이다. 로또 복권처럼 적금 가입 고객에게 매주 월요일 행운번호 6개를 배정하고, 금요일에 추첨해 당첨된 계좌에 연 10%포인트의 우대금리를 제공한다. 기본금리 연 3.2%(1년제 정액 적립식)에 행운번호에 당첨되는 경우 이벤트 우대금리 연 10%포인트를 더해 최고 13.2%의 금리를 받을 수 있다. 12개월간 월 50만 원 이내에서 저축할 수 있다.신한은행은 연 11% 금리를 제공하는 '신한 플랫폼 적금(야쿠르트)'를 2일 선보였다. 적금 만기 5영업일 전까지 한국야쿠르트의 온라인 쇼핑몰 '프레딧'에서 20만 원 이상 결제하면 8%포인트의 우대 금리를 제공한다. 6개월간 월 30만원까지 납입할 수 있다.케이뱅크의 '코드K자유적금'은 신규고객을 대상으로 최고우대금리가 연 10%에 달한다. '룰렛'을 통해 연 5%~10% 네가지 종류의 금리에 당첨되는 방식이다.은행권의 정기 예금 금리도 연 4% 진입 초읽기에 들어갔다. 우리은행의 'WON플러스예금' 금리는 연 3.82%까지 올랐다. 하나은행의 '하나의정기예금'(연 3.8%), IBK기업은행의 '1석7조통장'(연 3.73%) 등 대부분의 은행 예금 금리는 연 3%대 후반까지 오른 상태다.인터넷은행들의 파킹통장 경쟁도 치열하다. 케이뱅크의 파킹통장 '플러스박스'는 최대 3억 원까지 조건 없이 연 2.3% 금리를 준다. 카카오뱅크의 '세이프박스'는 1억 원까지 연 2.2%, 토스뱅크의 '토스뱅크통장'은 1억 원까지 연 2% 금리를 제공한다.은행의 금리인상 기조에 따라 주식시장으로 쏠렸던 투자금이 예·적금으로 이동하는 역머니무브가 이어지고 있다. KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 정기 예·적금 잔액은 28일 기준 총 793조2353억원으로 집계됐다. 지난달 말 768조5434억원으로, 한 달 새 17조9776억원이 불었다. 지난해 말(690조366억원)과 비교하면 8개월간 78조5068억원이 은행으로 몰린 셈이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.09.19.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>핀테크 업계 "한 달 버틸 돈만 남아"…토스마저 단기차입금 쓴다</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004751518?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>촉망받던 '금융의 미래' 핀테크…혹한기 오나투자유치 끊긴 핀테크 업계"채용은커녕 감원해야 할 판"직원 복지·출장 모두 줄여비바리퍼블리카 등 초대형사도사모사채·저축銀서 고금리 대출"거품 빠지면서 옥석 가려질 것"사진=연합뉴스핀테크산업은 코로나19 팬데믹 시대의 최대 수혜주로 꼽혔다. 막대하게 풀린 유동성은 스타트업 투자에 몰렸고, 그중에서도 폭발적으로 늘어난 비대면 금융 수요와 겹쳐 ‘글로벌 핀테크 붐’을 일으켰다. 투자 풍년에 핀테크 스타트업의 몸값도 천정부지로 치솟았다. CB인사이츠에 따르면 지난해 신생 핀테크 유니콘 기업(기업가치 10억달러 이상인 스타트업)은 163개에 달했다. 어펌 업스타트 코인베이스 등 미국 증시에 상장한 핀테크 기업은 2020년 이후 30곳이 넘는다.올 들어 상황은 급변했다. 인플레이션 쇼크로 금리가 급등하고 투자 시장이 얼어붙으며 핀테크업계도 직격탄을 맞았다. 화려하게 상장했던 핀테크 기업들의 주가는 급락했고, 거액의 투자를 받아 몸값을 높이고 아낌없이 ‘돈을 태워가며’ 사용자를 끌어모았던 비상장 업체들은 자금난에 빠졌다.한 핀테크 업체 대표는 “벤처캐피털업계에선 이미 내년 상반기까지 신규 스타트업에 대한 투자 집행은 사실상 문을 닫았다는 소리마저 나온다”며 “기업 가치가 어느 정도 되고 투자 규모가 큰 핀테크일수록 자금 유치가 더 어렵다”고 전했다. 대형 투자자들이 지갑을 닫으면서 소액 엔젤 투자라도 받아 급한 불을 끄려는 사례도 늘었다. 올 2분기 글로벌 핀테크 투자 가운데 엔젤 투자 비중은 15%로 최근 4년 내 가장 높았다. 허리띠 졸라매고 고금리 대출도창업 10년 차를 바라보는 한 핀테크 업체 B사 대표는 얼마 전부터 가까운 임직원에게 “이제 한 달 남았다”는 말을 자주 한다. 몇 달째 투자 유치 작업이 난항을 겪으면서 운영자금이 점점 바닥을 드러내고 있어서다. 이 회사는 올초까지만 해도 직원들이 새로운 기술을 연구하고 업계 동향을 발 빠르게 파악할 수 있도록 회삿돈을 지원해 자유롭게 어디로든 출장을 다니도록 했지만 얼마 전부터 이마저 끊었다. 정말 필요한 출장에 대해서만 비용을 지급하고 직원의 자기계발을 지원하는 각종 복지 비용도 대폭 줄였다. 비용 지출을 최소화하기 위한 궁여지책이다.‘찬바람’은 유니콘 기업도 비껴가지 않았다. 모바일 금융 서비스 토스를 운영하는 비바리퍼블리카는 지난달 마무리한 시리즈G 라운드가 애초 기대금액(1조원)의 절반 수준인 5300억원으로 끝났다. 이처럼 투자심리가 얼어붙을 것을 감안해 지난 3월 대출을 받아 운영 자금을 마련해둔 상태다. 토스의 차입금은 작년 말 3333억원에서 올 2분기 6136억원으로 크게 늘었다.특히 만기가 1년 이하인 단기차입금이 같은 기간 968억원에서 3162억원으로 증가액의 대부분을 차지했다. 은행으로부터 받은 2173억원가량의 신규 차입금은 연 4~5%의 변동금리 대출이어서 추후 금리 상승에 따라 부담이 늘어날 전망이다. SBI저축은행(연 6%)이나 KB증권(연 5.5%), DGB캐피탈(연 5.8%), 사모사채(연 6.5~7.5%) 등 비교적 금리가 높은 2금융권으로부터 대출을 받은 점도 눈에 띈다. 토스 관계자는 “금리 인상에 따라 부담이 더 늘어날 것에 대비해 상대적으로 낮은 금리로 자금을 조달하려는 목적”이라고 말했다. “핀테크 몸값 오버슈팅 바로잡히는 과정”투자업계에선 ‘올 게 왔다’는 분위기도 감지된다. 그동안 핀테크업계에 돈이 지나치게 많이 몰리면서 기업 가치가 과도하게 치솟는 ‘오버슈팅’이 바로잡힐 때가 됐다는 것이다. 지난해만 해도 몸값이 456억달러(약 63조5400억원)에 달했던 스웨덴의 후불결제 핀테크 기업 클라르나가 최근 투자받기 위해 기업 가치를 67억달러(약 9조3400억원)로 낮춘 것은 핀테크업계 현실을 가장 잘 보여주는 사건으로 꼽힌다.한 벤처캐피털 관계자는 “기존 핀테크 스타트업의 밸류에이션(가치 평가)이 지나치게 부풀려졌다는 목소리가 많은 게 사실”이라며 “이제 스타트업도 성장 가능성만 강조하기보단 경영을 효율화하고 당장 성과를 보여줄 수 있는 능력을 입증해야 한다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>카카오모빌리티까지 우군으로…현대차 ‘자율주행 동맹’ 무한질주</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003224816?sid=105</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>지난 6월 현대오토에버 사옥에서 열린 자율주행차 ‘로보라이드’ 시승 행사. 현대차는 로보라이드를 활용한 ‘자율주행 택시’ 상용화를 위해 카카오모빌리티와 MOU를 맺었다. [연합뉴스]           카카오·KT·쏘카·네이버·웨이브…. 현대자동차는 ‘모두의 친구’인가.      19일 카카오모빌리티와 현대차가 자율주행 택시 상용화를 위한 업무협약(MOU)를 체결했다고 밝혔다. 현대차의 자율주행 서비스 ‘로보라이드’를 일반 소비자가 카카오T 앱으로 불러 원하는 목적지까지 타는 ‘자율주행 택시’를 연내 선보이겠다는 것. 앞서 지난 6월 현대차는 레벨4 단계 자율주행이 적용된 차량 아이오닉5로 서울 강남·서초 지역에서 로보라이드 시범 운영을 시작했다. 레벨4는 비상시에도 운전자나 승객의 개입 없이 차량 스스로 대처할 수 있는 수준의 자율주행 기술이다.      두 회사의 협업은 업계에 파장을 가져올 것이란 전망이다. 국내 1위 자동차 제조사의 자율주행 서비스를 국내 1위 택시호출 앱을 통해 일반 대중에 서비스하겠다는 것이기 때문이다.      국내 공공 도로에 자율주행 차량이 처음 등장한 것은 지난 2016년 3월이다. 이후 현대차뿐 아니라 SK텔레콤·KT·삼성전자·LG전자 등 다양한 기업들이 자율주행 임시운행 허가를 받았다. 서울 상암동, 성남 판교, 제주 등 국내 14곳에 시범운행 지구도 생겼다. 그러나 국토교통부 허가를 받은 국내 자율주행 차량은 누적 250여대에 불과할 정도로, 대중과는 멀었다.      현재 운영 중인 현대차 로보라이드는 아이오닉5 1대로, 미리 정해진 승객(연구진 등)만 태우고 있다. 하지만 이번 카카오T와 협업을 통해 앞으로는 ‘누구나’ 호출해 ‘허가 지역 내 어디든’ 가는 보통의 택시로 만들겠다는 의미다. 장웅준 현대차 자율주행사업부 전무는 “카카오모빌리티의 플랫폼을 통해 고객들이 일상에서 로보라이드를 손쉽게 이용할 수 있게 하겠다”고 말했다.      현대차는 자율주행과 관련해 빠르게 영토를 넓혀가고 있다. 올해 들어 현대차는 쏘카와 커넥티드 카 운영체제(OS) 연계를 위한 MOU를 체결하고(3월), 자율주행 기술 스타트업 포티투닷을 인수했으며(8월), KT와 7500억원 어치 지분을 교환하는 한편(8월), 웨이브와는 차량용 OTT 콘텐트 제휴 MOU를 맺었다(9월). 현대차는 앞서 네이버(2020년)와 MOU를 맺었고, 미국에서는 자율주행 업체 앱티브와 합작해 모셔널을 세우고(2019년), 로봇 기업 보스턴 다이내믹스를 인수했다(2021년 완료).      이는 미래 모빌리티의 핵심인 자율주행이 완성되려면 ①차세대 통신망(대용량 데이터를 빠르게 전송) ②서비스 플랫폼(고객과의 접점) ③인공지능 및 소프트웨어(주행 환경 파악과 상황 판단) ④인포테인먼트·커넥티드카(이동 경험 차별화) 분야에서 고른 발전이 필요하기 때문이다. 현대차 측은 “자동차가 곧 생활 환경이고 오피스가 되므로 다양한 분야 협력이 필요해졌다”고 설명했다.      업계에선 미래형 모빌리티의 핵심 주도권을 둘러싼 진짜 경쟁이 시작되고 있는 것으로 본다. 현대차 외에도 모빌리티 업계에서는 강점을 가진 기업끼리 맺을 수 있는 협력은 다 맺은 상태다. LG전자와 카카오모빌리티가 기술협력 MOU를 맺고, KB는 SK계열 T맵에 투자하며, 토스가 타다(운영사 VCNC)를 인수했다. 바꾸어 말하면, 이 분야 독보적 강자는 아직 정해지지 않았다는 얘기다. 신흥 모빌리티 업계 핵심 인력 중 현대차 출신이 많다는 것도 주목할 점이다. 국내 최다 자율주행 허가 차량을 확보한(25대) 스타트업 오토노머스에이투지 한지형 대표가 현대차 출신이다. 장성욱 카카오모빌리티 부사장 역시 현대차를 거쳤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>토스, 내달까지 전 계열사 24개 직군 최대 300명 채용</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013454795?sid=102</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>토스커뮤니티 대규모 채용[비바리퍼블리카 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 조승한 기자 = 모바일 금융 서비스 토스를 운영하는 비바리퍼블리카는 전 계열사에서 다음 달 31일까지 개발, 제품, 보안 등 총 24개 직군에서 최대 300명 규모를 채용한다고 22일 밝혔다.    채용 과정은 ▲ 서류전형 ▲ 직무 인터뷰 ▲ 문화 인터뷰 순으로 진행되며, 직군에 따라 과제나 코딩 테스트 전형이 추가된다. 인터뷰는 화상으로 진행하고 서류 전형부터 합격 발표는 3주 내 마무리된다.    최근 6개월 내 입사 지원 시 재지원을 제한하던 조치도 이번 채용에서는 시행하지 않는다.    채용 홈페이지에서 '합격 확률 높은 포지션 찾기' 기능을 통해 적합 직무를 추천받을 수 있고, '인재풀'에 등록해두면 추후 채용팀의 연락을 받을 수 있다고 토스는 설명했다.    토스는 서류 합격자 중 400명을 추첨해 최종 합격과 관계없이 성장지원금 100만 원을 지원한다. 또 지원자 중 추첨을 통해 400명에게 토스 로고가 적용된 노트북 슬리브를 준다.    채용 관련 자세한 내용은 홈페이지(https://toss.im/career)에서 보면 된다.    토스 채용팀 관계자는 "토스커뮤니티에 합류를 원하는 분들의 모든 여정이 성장의 발판이 될 수 있도록 다양한 측면에서 심혈을 기울였다"며 "사람들의 삶을 바꾸었고, 앞으로도 바꿔나갈 토스의 혁신 여정에 함께할 동료를 기다린다"고 말했다.    shjo@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>생활맥주 - 청정원, ‘바삭 비벼볼만두’ 출시</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002286401?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>◆…생활맥주가 대상 청정원의 간편식 브랜드 호밍스와 콜라보을 통해 출시한 ‘바삭 비벼볼만두’  사진-생활맥주 제공      수제맥주 프랜차이즈 생활맥주가 대상 청정원의 간편식 브랜드 호밍스와 콜라보레이션을 통해 ‘바삭 비벼볼만두’를 출시했다고 22일 밝혔다.   ‘바삭 비벼볼만두’는 생활맥주의 인기 메뉴인 비빔면에 호밍스의 ‘바삭만두’가 만나 최고의 조합을 자랑한다. 매콤새콤한 특제소스로 비빈 꼬들꼬들한 비빔면에 갓 튀긴 바삭한 식감의 고기, 고추 2종의 바삭 만두를 더해 조화로운 맛과 식감까지 잡았다.   또한 한끼 식사로도 제격이라 출시와 동시에 생활맥주를 찾는 소비자들에게 긍정적인 반응이 쏟아지고 있다.   바삭 비벼볼만두는 지난 15일부터 생활맥주 전국매장에서 판매를 시작했으며 10월까지 한정판매 될 예정이다. 출시를 기념해 메뉴 주문자에 한하여 선착순 스크래치 쿠폰 이벤트를 진행하고 있다.   바삭 비벼볼만두와 페어링 좋은 맥주는 레드 라거 스타일의 ‘생활맥주’다. 카라멜 몰트의 단맛이 비빔소스의 매콤한 맛을 중화시켜 부담 없이 먹을 수 있고, 라거의 청량감이 만두의 바삭한 식감과 잘 어우러진다.   생활맥주 관계자는 ‘생활맥주를 찾아 주시는 고객분들께 다양한 안주를 선보이기 위해 청정원 호밍스와 콜라보 메뉴를 출시하게 되었다”며 “선선해지는 날씨 생활맥주와 함께 즐거운 시간 보내실 수 있도록 맛있는 안주와 수제맥주 개발에 더욱 힘쓰겠다’고 말했다.   생활맥주는 모바일 금융서비스 ‘토스’, 코스메틱 브랜드 ‘더 라퓨즈’등 업종을 가리지 않는 활발한 브랜드 제휴 프로모션을 이어가고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>이번엔 농협이 예대금리차 최대…'줄 세우기 논란' 계속</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004100972?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>8월 1.76%P 달해서민금융 제외해도 1위새희망홀씨 늘린 KB 2위[서울경제] 지난달 5대 시중은행 중에서 가계 예대금리차(대출금리-예금금리)가 가장 큰 곳은 NH농협은행으로 조사됐다. 이번 조사에는 ‘통계 착시’라는 비판에 정책서민금융 상품을 제외한 예대금리차와 포함한 예대금리차 두 종류를 모두 내놓았다. 공시제도 시행 한 달 만에 기준이 추가됐으나 ‘줄 세우기’에 그친다는 비판의 목소리는 계속되고 있다.20일 은행연합회에 공시된 ‘8월 예대금리차 비교’ 통계에 따르면 KB국민·신한·하나·우리·농협은행 등 5대 시중은행 중 농협은행의 가계 예대금리차가 1.76%포인트로 가장 높았다. 7월 기준 예대금리차가 가장 높았던 신한은행은 1.65%포인트로 농협은행의 뒤를 이었다. 우리은행(1.57%포인트), 국민은행(1.43%포인트), 하나은행(1.12%포인트) 순이었다.전체 19개 은행 중 8월 예대금리차가 가장 큰 곳은 지난달에 이어 전북은행(5.66%포인트)이 차지했다. 중금리의 중·저신용자 대출 비중이 높은 인터넷전문은행 중에서는 토스뱅크(4.76%포인트), 케이뱅크(3.13%포인트), 카카오뱅크(1.96%포인트) 순으로 나타났다.이번 공시에 첫 도입된 정책서민금융 상품 제외 예대금리차도 농협은행(1.73%포인트)이 가장 컸다. 농협은행 측은 “정부정책 자금을 취급하는 특수성 탓에 지난달 6개월 미만의 단기성 수신 자금이 대거 유입돼 예대금리차가 확대됐다”며 “대출금리만 놓고 보면 타 은행과 비교해 최저 수준”이라고 설명했다. 가계 예대금리차에서 2위를 차지했던 신한은행은 정책서민금융 상품을 제외한 가계 예대금리차에서 1.36%포인트로 4위로 내려갔다.은행권에서는 예대금리차 공시제도의 기준이 추가된 것을 놓고 환영하면서도 여전히 불만이 거센 분위기다. 정책자금 대출 취급에 따른 통계 착시를 해소하기 위해 새 기준이 추가됐으나 여전히 사각지대는 존재한다. 정책서민금융 상품을 제외한 가계 예대금리차에서 농협은행에 이어 2위로 올라선 국민은행 측은 “은행권에서 대출을 받기 어려운 금융 소외 계층을 위해 ‘새희망홀씨대출’을 8월에 다른 은행보다 두 배 이상 확대 취급했다”며 “이번 공시부터 햇살론 등은 예대금리차 계산 대상에서 빠졌지만 새희망홀씨대출은 그대로 포함돼 대출금리가 다소 높아졌다”고 해명했다. 이번 공시에서 가계 예대금리차에서 정책서민금융 상품은 햇살론뱅크·햇살론15·안전망대출Ⅱ 등 보증료를 은행이 분납 후취하는 상품으로 제한됐다. 은행권의 한 관계자는 “금리 인상에 대한 금융 소비자의 불만을 예대금리차 공시로 해결하려고 한 것부터 적절하지 않았다”며 “공시할 때마다 은행과 금융 소비자 모두 불만이 계속 나올 수밖에 없다”고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>토스 금융 모의해킹해주면 최대 3000만원 포상금 준다</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002132977?sid=105</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 모바일 금융플랫폼 ‘토스’를 운영하는 비바리퍼블리카(이하 토스)가 보안 취약점 신고포상제인 ‘토스 버그바운티 챌린지(Toss Bugbounty Challenge)’를 처음으로 실시한다.  버그바운티란 서비스 내 보안 취약점을 찾아낸 참가자에게 리워드를 지급하는 제도다. 국내 IT기업은 물론 금융사 중에서도 자체 버그바운티를 운영하는 경우는 드물다. 국내 금융권에서는 금융보안원이 2019년부터 버그바운티 행사를 주최하고 있다 이번 프로그램에는 토스를 비롯해 토스뱅크, 토스증권, 토스페이먼츠 등 주요 금융 계열사가 참여한다.  취약점 신고 대상은 토스 애플리케이션 내 주요 서비스는 물론, 계열사 공식 홈페이지도 포함되며 자세한 내용은 관련 홈페이지를 통해 확인할 수 있다. 접수된 리포트는 토스 내부 검증과 평가를 거쳐 건당 최대 3000만원까지 포상금을 지급 받게 된다.    이번 버그바운티는 보안에 관심있는 국내 토스 가입자면 누구나 참여할 수 있다. 단, 이날부터 오는 30일 오후 6시까지 공식 홈페이지를 통해 사전 신청한 사람에 한해 다음 달 개최되는 프로그램에 참여 자격이 주어진다. 신청자에게는 버그바운티에 참여할 수 있는 별도 환경을 제공하며 해당 환경에서 모의해킹이 진행된다.   토스 보안기술팀 이종호 리더는 “토스는 해커의 관점에서 보안을 구축하며 자체 보안 프로그램을 만드는 등 보안에 많은 투자를 해왔다”며 “외부 전문가의 관점에서 객관적으로 취약점을 점검해 보고, 국내 금융분야 보안연구 활성화에도 기여할 수 있는 계기가 되길 바란다“고 말했다.  토스는 2018년부터 금융권 최초로 KISA(한국인터넷진흥원) ‘정보보호공시’에 자율적으로 참여하며, 보안투자 현황을 공개하고 있다.  이와 함께, 토스는 화이트해커인 이종호 리더를 시작으로 9명 전원이 화이트해커로 구성된 ‘보안기술팀'을 꾸릴 정도로 보안 인프라에 투자하고 있다. 이 팀은 블랙해커가 침입하기 전 공격자적 관점에서 보안 취약점을 찾고 보안을 강화하는 역할을 하는 팀이다.  사용자의 휴대폰에 피싱앱이 깔렸을 경우 경고 메시지와 함께 해당앱을 삭제할 수 있는 ‘악성앱 탐지 시스템'을 포함한 이상거래 시스템 탐지 등 보안 환경을 구축하는 ‘토스가드'를 운영 중에 있다. 토스가드는 토스앱 실행시 자동 실행되며 올해 출시한 ‘악성앱 탐지 시스템’은 약 5개월간 50만건 이상의 피싱 피해를 막은 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.09.29.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>[ET테크리더스포럼]장지호 닥터나우 대표 "비대면 진료, 의료 혁신의 시작"</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003047860?sid=102</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>“금융, 교통, 쇼핑하면 떠오르는 앱이 있지만 아플 때는 떠오르는 게 119밖에 없었습니다. 비대면 진료와 약배달 서비스를 통해 의료 분야에서 첫 모바일 경험을 제공하고 건강관리, 의료보험, 심리상담 등 모든 의료 생활을 영위할 수 있는 슈퍼앱으로 의료 서비스를 혁신할 것입니다.”장지호 닥터나우 대표는 28일 전자신문이 서울 그랜드인터컨티넨털 서울 파르나스 호텔에서 주최한 ET테크리더스포럼에서 비대면 진료를 시작으로 의료 서비스 혁신이 가속화될 것이라는 점을 강조했다.장지호 대표는 한양대 의대 재학 중이던 2019년 12월 닥터나우를 창업했다. 창업 3개월 만에 코로나19 팬데믹이 발생하고 국내에서 비대면 진료가 한시적 허용되면서 빠르게 성장할 수 있는 토대가 만들어졌다.장 대표는 “지난 2년 반 동안 전국에서 3000만건의 비대면 진료가 이뤄졌으며 플랫폼을 활용한 비대면 진료 중 70%를 닥터나우가 차지하고 있다”면서 “국내에서 가장 많은 1700여개 이상 의료기관과 협력하고 있으며 가장 많은 누적 이용 환자 수를 바탕으로 빠르게 성장하고 있다”고 성과를 설명했다.우리나라는 OECD 국가 중 유일하게 원격진료가 금지되어 있는 나라다. 한시적 비대면 진료가 허용되며 약 40개 비대면 진료 플랫폼이 시장에 등장했다. 업계에서는 코로나19 이후 비대면 진료의 지속가능성을 고민하고 있다.장 대표는 “우리나라도 병의 중증화를 예방해 국민 총 의료비 상승과 건강보험 재정 누수를 막아야 하는 과제가 있는 만큼 비대면 진료 제도화는 피할 수 없는 과제”라면서 “새 정부에서도 제도화를 공약했고 의·약사단체와 사회적 논의를 진행하는 과정에 있다고 생각한다”고 말했다.닥터나우는 비대면 진료와 약배달을 시작으로 다양한 분야에서 의료 서비스 혁신을 고민하고 있다. 파트너 의사와 간호사를 통해 의료 관련 고민에 대해 5분 이내로 답변해 주는 실시간 의료 상담 서비스, 10년 치 건강검진 내역과 진료 내역 등을 조회할 수 있는 마이데이터 서비스, 기업용 비대면 진료 서비스 등이다.장 대표는 “우리나라 국민은 병원에서 평균 20.8분을 대기에 쓰고 평일 밤 9시 이후에는 문 여는 약국이 3%가 되지 않는 데다 원격진료와 약배달도 이용할 수 없는 불편을 겪고 있다”면서 “비대면으로 3분 내 진료를 보고 30분 내로 약배달을 받을 수 있는 서비스를 통해 전체 프로세스 90% 이상을 단축시키는 혁신이 이뤄졌다”고 말했다.그는 “대한민국에서 데카콘(기업가치 100억달러 이상 스타트업)이 나올 수 있는 마지막 분야는 헬스케어라고 생각한다”면서 “토스가 모바일 송금 서비스를 시작으로 대출, 보험, 주식, 은행 등 다양한 금융 분야로 서비스 경험을 확산시키고 배달의민족이 음식배달을 시작으로 레스토랑 배달, 라이브커머스, 퀵머스 등으로 확산한 것처럼 원격진료는 의료 디지털 전환의 시작점이 될 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.09.16.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>취업 멘토링·영화제..서울시, '청년의 날' 맞아 다양한 행사 마련</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004795311?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>[청년정책 박람회·글로벌 취업 멘토링·토크 콘서트 등 서울 곳곳에서 열려]오세훈 서울시장이 지난달 24일 서울시청 앞 서울광장에서 제로서울 프렌즈 출범식에서 청년들에게 인사를 하고 있다 /사진=뉴스1 서울시가 매년 9월 셋째주 토요일 '청년의 날'을 맞아 일주일간 '2022년 청년주간' 행사를 개최한다. 취업 멘토링, 토크콘서트, 젊은 감독들의 영화를 상영하는 청년 영화제 등 서울의 청년들을 위한 다양한 행사가 열린다. 서울시는 오는 17일부터 23일까지 광화문광장, 서울시청 등에서 '청년의 날'을 맞아 청년들을 대상으로 한 프로그램을 마련했다고 16일 밝혔다. '청년의 날'은 9월 셋째 주 토요일로, 청년 문제에 관심을 높이기 위해 2020년 8월 시행된 청년기본법과 시행령에 따라 국가기념일로 지정됐다. 이에 맞춰 시는 첫 대면 행사를 개최하기로 했다. 우선 오는 17~18일 광화문광장에서는 정부와 지자체, 공공기관, 민간기업 등이 참여하는 '청년정책 박람회'가 열린다. 시에서는 △퍼스널 컬러 진단 △면접 메이크업 및 사진촬영 △현장 취업 상담실 등 12개 부스를 운영한다. 오는 19일 서울시청에선 청년수당 참여자 등 구직 준비 청년을 대상으로 한 '글로벌 취업 멘토링 데이'가 열린다. 글로벌 기업에 취업을 희망하는 청년들은 테슬라, LG전자, SK하이닉스, 토스 등에 재직 중인 현직자 멘토와 만나 상담을 받을 수 있다. 이밖에도 서울시 청년 재무상담 프로그램인 서울 영테크, 희망두배 청년통장, 청년취업사관학교 등 시 청년정책에 참여했던 청년들이 자신의 경험을 나누는 토크콘서트가 오는 21일 시민청 활짝라운지에서 열린다. 22일엔 데이터로 본 서울 청년들의 삶을 주제로 한 컨퍼런스도 준비돼 있다. 아울러 서울청년센터, 무중력지대 등 서울 곳곳에 위치한 청년공간에서도 청년의 날을 맞아 다양한 프로그램이 열린다. 무중력지대 양천에서는 16~17일 목동 메가박스에서 '무중력영화제'를 진행한다. 영화제에서는 청년들이 기획하고 감독을 맡은 영화를 볼 수 있다. 또 서울청년센터 동대문에서는 19~30일 자기소개서 컨설팅, 면접 특강 등을 받을 수 있다.  김철희 시 미래청년기획단장은 "올해 청년주간은 서울시가 '청년의 날'을 기념해 처음으로 개최하는 대면 행사"라며 "청년들이 청년정책을 피부로 느끼고 활력을 되찾을 수 있는 프로그램을 마련했다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.09.18.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>하루만 맡겨도 이자…파킹통장 경쟁 갈수록 치열</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004750936?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크케이뱅크 '플러스박스'금리 年 0.2%P 인상최대 3억까지 이자OK저축은행 年 3.3%OK세컨드통장 인기산은·SC제일은행도고객 유치 팔 걷어하루만 돈을 넣어둬도 이자를 주는 이른바 ‘파킹통장’ 경쟁이 갈수록 뜨거워지고 있다. 저축은행과 인터넷전문은행들은 0.1%포인트라도 더 높은 금리를 앞세워 금융소비자들을 유혹하고 있다. 다만 최고 금리를 받을 수 있는 상한액 등 조건이 다르기 때문에 자신에게 맞는 상품을 잘 따져봐야 한다.케이뱅크는 지난 14일 파킹통장 상품인 ‘플러스박스’의 금리를 연 2.3%로 0.2%포인트 인상했다. 저축은행 파킹통장 상품들과 비교해 금리가 1%포인트 안팎 차이 나지만 1금융권에선 최고 수준이다. 한동안 ‘파킹통장 최강자’로 불렸던 토스뱅크의 ‘토스뱅크 통장’보다 금리가 0.3%포인트 높다. 이 상품은 연 2.3% 금리를 최대 3억원까지 제공한다. 3억원을 한 달간 이 상품에 넣어두면 약 48만원의 이자를 받을 수 있다.OK저축은행은 13일 금리 연 3.3%의 ‘OK세컨드통장’이라는 새로운 파킹통장 상품을 출시했다. OK저축은행의 기존 파킹통장 상품이었던 ‘OK읏통장’ 금리도 금융권 최고 수준인 연 3.2%지만, 기존 상품의 신규 판매를 중단하고 새 상품으로 단장하면서 금리를 0.1%포인트 인상했다. 다만 기본 금리는 연 3.0%로, 시중은행이나 증권사 앱의 오픈뱅킹 서비스에 OK세컨드통장을 등록해야만 0.3%포인트의 우대금리를 받을 수 있다. 또 최고금리를 받을 수 있는 금액 상한선이 1000만원으로 비교적 낮은 편이다. 1000만원 초과분에 대해선 금리가 연 1.0%로 뚝 떨어진다.이달 들어 가열된 저축은행들의 파킹통장 금리 경쟁은 페퍼저축은행이 먼저 쏘아 올렸다. 페퍼저축은행은 5일 ‘페퍼스파킹통장’ 금리를 최고 연 3.2%로 인상했다. 현재 OK저축은행 신규 상품과 비교해 금리가 0.1%포인트 낮지만 최고 금리를 받을 수 있는 금액 상한선은 5000만원으로 훨씬 높다. 5000만원이 넘으면 마찬가지로 금리가 연 1.0%로 떨어진다. 최고 금리를 받기 위한 우대금리 조건이 아예 없다는 것도 큰 장점이다.산업은행의 파킹통장 상품인 ‘KDB 하이 비대면 입출금통장’도 여전히 인기다. 이 상품의 금리는 연 2.25%로 케이뱅크 플러스박스보다 0.05%포인트 낮지만 다른 경쟁 상품들과 달리 최고 금리를 받기 위한 조건이나 금액 한도가 전혀 없어 매력적이다.시중은행들도 파킹통장 경쟁에 뛰어들고 있다. SC제일은행은 오는 29일까지 일복리저축예금(MMDA)에 1억~20억원을 예치하면 최고 연 2.4%의 특별금리를 제공하는 이벤트를 하고 있다. 특별금리를 받기 위해선 29일까지 SC제일은행의 오프라인 영업점에서 일복리저축예금에 가입해야 한다. 단 SC제일은행에서 처음 거래하는 금융소비자가 대상이며 특별금리는 최장 60일까지 지급된다. 1000억원의 총 모집한도가 소진되면 이벤트가 조기 종료될 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>서민 지원 ‘새희망홀씨 대출’ 한도 500만원 더 늘린다</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003716934?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>내달 3000만원서 3500만원으로상반기에 평균 금리는 연 7.2%서울 여의도에 있는 금융감독원 전경. 										금융감독원은 서민 정책금융상품인 새희망홀씨 대출 한도를 기존 3000만원에서 3500만원으로 500만원 확대한다고 19일 밝혔다. 은행 전산 작업이 끝나는 10월 중 시행될 예정이다. 금리 인상과 경기 위축 등으로 경제적 어려움을 겪는 서민층을 지원하기 위한 조치다.‘새희망홀씨’는 은행권의 대표 서민금융상품이다. 산업·수출입·씨티·케이뱅크·카카오뱅크·토스뱅크를 제외한 14개 은행이 취급하고 있다. ‘연소득 3500만원 이하’이거나 ‘연소득 4500만원 이하이면서 신용평점 하위 20%인 서민’이 대상인데, 금리 상한이 연 10.5%다. 올해 상반기 새희망홀씨 대출자(신규)들의 평균금리는 연 7.2%였다. 기준금리 인상의 여파로 대출 평균금리가 전년 동기(5.7%) 대비 1.5%포인트 상승했다.새희망홀씨 대출의 금리는 저축은행 신용대출 평균 금리(연 14.55%)에 비하면 훨씬 낮은 수준이다. 소득과 신용도가 낮아 대출 조건이 불리한 서민 차주들에게 안정적으로 자금을 공급하는 통로 역할을 하고 있다고 금감원은 밝혔다.다만 금리 인상 등의 여파로 올해 상반기 새희망홀씨 대출액(1조2209억원)은 전년 동기 대비 31.9% 줄었다. 같은 기간 가계대출 감소 폭(-55.8%)에 비하면 덜하지만, 정부의 올해 새희망홀씨 목표치(3조5000억원)의 34.4%를 채우는 데 그쳤다.취급액이 가장 많은 곳은 KB국민은행(2527억원)이었고 이어 NH농협은행(2392억원), 하나은행(1899억원), 신한은행(1508억원), 우리은행(1433억원) 순이었다. 금감원은 “코로나와 경기 위축, 금리 인상 등으로 인한 서민층의 자금 애로를 해결할 수 있도록 적극 노력하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.09.28.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>환율 1,440원 찍었는데 1,298원에 환전…토스증권 해프닝(종합2보)</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013470297?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>SC제일은행 "토스증권 연동 환율시스템 업그레이드 과정에서 16분간 오류"환율[촬영 이충원](서울=연합뉴스) 채새롬 오주현 기자 = 원/달러 환율이 장중 1,440원을 넘기며 연고점을 경신한 28일 오후 한때 SC제일은행과 제휴를 맺고 토스증권이 제공하는 환전 서비스에서 1천200원대 환율이 적용되는 일이 발생했다.    SC제일은행에 따르면 이날 오후 1시 51분부터 2시 7분까지 약 16분간 SC제일은행에서 토스증권에 제공하는 달러 구매 환율 정보가 1,298원으로 장중 환율보다 낮게 제공되는 오류가 발생했다.    SC제일은행은 "토스증권에 제공하는 환율 시스템을 업그레이드하는 과정에서 문제가 나타났다"며 "해당 사실을 확인한 직후 정상 정보로 수정했다"고 밝혔다.    온라인 커뮤니티에서는 실제보다 낮은 환율로 달러를 구매한 뒤 바로 되팔아 환차익을 봤다는 투자자들이 인증 글을 올리기도 했다.    한 구매자는 "30만원으로 먼저 해당 환율에 달러가 구매되는 것을 확인하고 바로 300만원을 환전해 35만원의 이익을 얻었다"고 설명했다.    토스증권 측은 "환전 서비스는 제휴 은행인 SC제일은행의 환율을 연동해 제공한다"며 "실제로 저 시간대에 SC제일은행에서 낮은 환율로 거래가 이뤄졌고, 고객들의 차익을 회수할 계획이 없다"고 밝혔다.     SC제일은행 관계자는 "토스증권 연계 환전 서비스에서만 오류가 발생했다"며 "은행이 운영하는 다른 거래 환율 적용에는 전혀 영향을 미치지 않았다"고 설명했다.    SC제일은행 관계자는 "향후 환율 시스템 변경 시 교차 검증하는 절차를 더욱 강화해 재발 방지에 만전을 기하겠다"고 밝혔다.    이날 서울 외환시장에서 달러 대비 원화 환율은 전날 종가보다 18.4원 오른 달러당 1,439.9원에 거래를 마쳤다. 장중 한때 1,442.2원까지 올라 2009년 3월 16일(고가 기준 1,488.0원) 이후 13년 6개월여 만에 1,440원을 돌파했다.    srchae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>"전북·광주銀 `이자장사` 겁나게 잘하네"… 소비자들의 따가운 눈총</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002755120?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>서민금융 제외 예대금리차 최고전북 4.8%P… 이달에도 불명예광주은행 이달 4.39%P까지 올라인뱅 평균 예대금리차보다 높아두 번째로 공개된 은행들의 예대차금리(대출금리와 예금금리 간 차이) 공시에서 지방은행들이 더욱 적극적인 '이자 장사'에 나서고 있는 것으로 나타났다. 특히 JB금융지주 소속인 전북은행과 광주은행의 예대금리차는 모든 은행들 가운데 가장 높은 수준을 보이면서 따가운 눈총을 받고 있다.21일 은행연합회에 따르면 8월 19개 은행 가운데 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 제외한 가계 예대금리차가 가장 큰 곳은 전북은행(4.80%포인트)이었다. 전북은행은 첫 공시가 이뤄진 지난달에도 예대금리차가 가장 큰 은행으로 꼽혔는데 이번 달에도 불명예를 이어가게 됐다. 예대금리차가 크다는 것은 대출과 예금 금리 차이에 따른 수익이 높다는 것을 의미한다. 은행 입장에서는 이자 장사를 잘한 것이지만 대출자 입장에선 이자 부담이 상대적으로 더 컸다는 의미다.전북은행은 지난달 공시에서도 가계 예대금리차가 6.33%포인트로 모든 은행들 가운데 가장 높았다. 전북은행은 서민금융진흥원 연계대출인 햇살론뱅크·햇살론유스 비중이 높아 예대금리차가 확대됐다고 해명했다. 금리가 높은 서민금융상품을 많이 취급하면 상대적으로 예대금리차가 높아진다. 금융당국은 이를 보완하기 위해 이번달부터 정책서민금융을 제외한 예대금리차를 별도로 공시토록 했다. 하지만 이같은 조치에도 전북은행의 예대금리차는 여전히 가장 높았다.광주은행의 가계 예대금리차는 지난달 3.39%포인트에서 이번달 4.39%포인트로 오히려 크게 높아졌다. 정책서민금융을 제외한 가계 예대금리차도 4.10%포인트로, 인터넷 전문은행을 제외하면 전북은행에 이어 두 번째로 높았다.이밖에 토스뱅크(4.76%포인트), 케이뱅크(3.13%포인트), DGB대구은행(2.22%포인트), 제주은행(2.00%포인트) 등도 정책서민금융을 제외한 가계 예대금리차가 2%포인트대를 기록했다. 나머지 은행 대부분은 1%포인트대였고, 기업은행은 0.96%로 가장 낮은 수준을 기록했다. 지방은행과 인터넷전문은행의 예대금리차가 비교적 높은 수치를 보이고 있는 것이다.특히 전북은행과 광주은행은 다른 지방은행들과 비교해도 지나치게 높은 수준이라는 지적이다. BNK금융그룹 소속인 부산은행(1.10%포인트)과 경남은행(1.24%포인트)의 예대금리차는 시중은행과 비교해도 낮은 편이다.공교롭게도 전북은행과 광주은행 모두 JB금융지주 소속이다. JB금융지주가 그룹 차원에서 이자 장사에 몰두했다는 비판도 제기된다. 실제로 JB금융지주는 올해 상반기 당기순이익(지배지분)은 3200억원으로 사상 최대 규모를 기록하기도 했다. 예대차금리를 신경쓰지 않고 이자 장사에 몰두하는 JB금융이 정부 정책에도 역행하고 있다는 지적도 나온다. 금융당국의 예대금리차 공시 추진이 금융소비자의 부담을 완화시키는 것에 목적이 있기 때문이다.금융권 관계자는 "중저신용자 대상 중금리 대출이 많으면 예대금리차가 높아질 수밖에 없다"면서도 "예대금리차가 높다는 이유로 은행들을 비판하는 것은 지나친 면이 있지만 '이자 장사를 잘했다'는 비판을 피하기는 어려워 보인다"고 말했다.한편 JB금융지주는 지난 6월 말 기준 삼양그룹이 14.61%의 지분을 보유한 최대주주이며, 얼라인파트너스자산운용이 14.04%로 2대주주다. 또 OK저축은행도 11.4%의 지분을 보유하면서 경영권을 가진 삼양그룹을 긴장시키고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.09.30.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>'네카라쿠배'라는 '꿈의 직장'으로 가는 법</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/308/0000031524?sid=102</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>‘서연고’로 대표되는 학벌주의만큼이나 편협한 계급주의가 IT 업계에도 등장했다. ‘네카라쿠배’ 입사를 위한 부트캠프가 운영된다. 윤석열 정부는 이를 대학 과정에 도입하겠다고 밝혔다.‘네카라쿠배(네이버, 카카오, 라인, 쿠팡, 배달의민족)’ 등 IT 기업이 취업시장의 선두에 섰다. ©시사IN 조남진2021년 IT 업계의 화두는 단연 채용이었다. 개발자 채용 전쟁, 연봉 대란, 개발자 모시기 경쟁…. 언론 기사에는 억대 연봉과 스톡옵션, 풍요로운 복리후생 등 경쟁하듯 내붙인 입사 조건들도 다수 포함됐다. 화려한 근무조건 때문일까. ‘서연고(서울대·연세대·고려대)’ ‘서성한(서강대·성균관대·한양대)’처럼 대입을 준비할 때 대학교의 앞 글자를 묶어서 부르던 관행이 IT 업계에도 등장했다. 시작은 ‘네카라쿠배(네이버, 카카오, 라인, 쿠팡, 배달의민족)’였지만, 이후 ‘당토직야(당근마켓, 토스, 직방, 야놀자)’가 추가됐다. 저마다 ‘유니콘 기업’ 반열에 오르거나 연봉이 높기로 소문난 기업이다.올해 IT 업계 채용시장이 나빠지기는 했지만, 여전히 이 기업들은 IT 업계 입사를 희망하는 구직자들에게 ‘꿈의 직장’이다. 대신 그만큼 문턱이 높다. 특히 IT 기업의 개발자 채용은 여타 업계와 다소 다른 방식으로 치러진다. 대다수 기업에서 진행하는 1차 서류심사 대신 코딩 테스트가 치러지기 때문이다. 2000년대 후반까지만 해도 IT 기업 역시 일반적인 ‘서류전형’ 과정을 고수해왔다. 최근엔 이런 과정을 거의 찾아볼 수 없다. 대표적인 사례가 ‘2020 토스 NEXT 개발자 채용’이다. 모바일 금융 애플리케이션 ‘토스’를 운영하는 비바리퍼블리카는 2020년 7월 개발자들의 개발 역량만을 우선시해 채용하겠다며 서류 평가 절차를 없앴다. 대신 모든 지원자에게 코딩 테스트를 치르게 했다.코딩 테스트는 지원자가 어느 정도의 프로그래밍을 할 수 있는지 개발 역량을 확인하는 시험이다. 이전에는 현장에서 이뤄지기도 했으나 지금은 온라인에서 주로 수행된다. 코딩 테스트를 치를 수 있는 링크가 발송되면, 지원자들이 여기 접속해 제한 시간 내에 프로그램을 완성하는 방식이다. 작성한 코드를 제출하면 검수 기능이 실행되어 지원자의 코드가 적절한 값을 반환하는지 체크하고 점수가 자동으로 매겨진다.IT 기업들은 변화한 채용 문화에 대해 ‘우리는 학력도, 이력도 일절 보지 않고 오로지 실력만을 본다’고 설명한다. 이러한 취지 아래 지원자들은 이력서 대신 포트폴리오(지금까지 수행해온 프로젝트의 목록과 내용, 신규 입사자도 제출해야 한다)를 제출하고, 서류 심사 대신 코딩 테스트를 치른다. 신입 개발자에게 ‘실력이 요구된다’는 건 어딘가 이상하다. 과거 우스갯소리로 통용되었던 ‘경력 있는 신입’도 어불성설이었는데, 프로젝트 수행 경력이 하나도 없는 신입 개발자가 ‘실력’을 갖춰야 한다는 것이다. 출신 학교 등을 보지 않는다는 건 분명 긍정적인 변화다. 그러나 아직 회사에 취업하지 못한 신입 개발자들은 어디에서 ‘실력’을 쌓아야 한단 말인가?대학입시 학원 닮아가는 부트캠프그래서 이들이 향하는 곳은 ‘부트캠프’다. 부트캠프는 천차만별이지만 짧으면 3개월, 길면 1년 사이에 개발 교육을 제공하는 개발자 육성 프로그램이다. 이 기간 교육생들은 하루에 열두 시간 이상 개발을 학습하고 팀으로 프로젝트를 수행한다. 프로젝트 과정에서는 교육생들끼리 협업해서 하나의 웹/앱 서비스를 시범 개발한다. 기본적으로 부트캠프는 기초적인 코딩 교육을 제공할 뿐만 아니라 채용 과정에 활용할 수 있는 포트폴리오를 만들어준다. 팀으로 진행하는 협업 프로젝트가 곧 포트폴리오이기 때문이다. 이러한 프로그램 가운데에는 국비 지원이 가능한 곳도 있지만, 그렇지 않고 프로그램에 따라 수백만 원에서 1000만원 규모의 등록비를 지불해야 하는 경우도 있다.여기까지만 보았을 땐 부트캠프가 긍정적 역할을 수행하는 것 같지만, 몇 년 전부터 부트캠프는 흡사 취업 전문학원같이 변모하고 있다. 개발 실력을 키우는 것보다 ‘네카라쿠배’ 등 이름난 IT 기업 취업을 겨냥한 전문 프로그램이 운영되고 있기 때문이다. 이 프로그램들은 대학입시 전문학원과 유사하다. 기업에 따른 코딩 테스트, 면접 기출문제를 풀이해줄 뿐만 아니라 취업 성공 요소를 분석해 알려주고, 나아가 면접에서 어떻게 답변해야 하는지 모범답안을 가르쳐준다. 아예 프로그램의 이름을 ‘네카라쿠배 스쿨’이라고 짓기도 했다. 그 외에도 많은 업체가 부트캠프를 수료하고 나면 무조건 대형 IT 기업에 취업할 수 있을 것처럼 광고한다. 저마다 ‘네카라쿠배’ 합격자와 커뮤니티를 만들어 운영하고, 해당 기업의 재직자를 멘토로 내세워 유료 스터디 모임을 진행하기도 한다.8월22일 교육부 관계자가 ‘디지털 인재 양성 종합방안’을 브리핑하고 있다. ©연합뉴스‘네카라쿠배’ 취업 프로그램을 운영하는 한 업체의 FAQ에는 “본 과정은 초기부터 네카라쿠배 취직에 맞춰 서류 및 면접을 준비”하며, “개발 강의와 더불어 헤드헌터 출신 커리어 매니저를 매칭”해준다고 밝히고 있다. 학교를 줄 세웠던 학벌주의만큼이나 편협한 계급주의로 회사를 줄 세우며, 개발 역량 강화가 아니라 사회적 성공의 사다리로써 프로그램을 운영하는 것이다.“몇 년 전이랑 지금은 취준(취업 준비) 분위기가 너무 달라졌어요. 경쟁도 훨씬 치열해졌고요. 구직자 입장에선 실력을 쌓았더라도 증명할 방법이 마땅치 않아서 부트캠프 수료라도 해야 하나 싶은 것 같아요. 비전공자든 전공자든 일단 과정을 수료하면 ‘네카라쿠배’에 입사할 수 있는 것처럼 광고하는 부트캠프들이 많이 생겨나서… 선택의 폭은 넓어졌지만 실질적 도움이 되는 걸 찾는 데는 어려움이 있고. 그래서 진짜 실속 있는 스터디를 한다기보다 포트폴리오로 보여주기 좋은 프로젝트만 계속하게 되는 것 같아요(여성, 백엔드 개발자 5년 차).”구직자들은 저마다 불안감 때문에 부트캠프에 등록한다. 컴퓨터공학을 전공한 사람들도 마찬가지다. 이미 다 알고 있는 내용을 학습한다 하더라도, 일단 부트캠프에 들어가 취업 관련 팁을 얻고자 시간과 돈을 소비한다. 이러한 상황 속에서 상대적으로 학습 시간이 더 오래 투여되는 전문지식 습득 등은 되레 후순위로 밀린다. 실제로 이 과정을 수료하여 원하는 기업에 입사할 수 있다면 그나마 다행이지만, 모두 그럴 수 있는 건 당연히 아니다.8월22일 윤석열 정부는 부트캠프를 대학 교육과정에 도입하겠다고 발표했다. ‘디지털 인재 100만명 양성’을 달성하기 위해서다. 정작 부트캠프가 어떤 방향으로 흐르는지, 취업에 정말로 도움이 되는지 실효성 검증은 부재한 상태다. 초·중등에서 정보 교육도 더 확대될 전망이라고 한다. 컴퓨터의 작동 원리를 이해하고 프로그래밍을 학습하는 교육은 필요하지만, 이 교육이 어떤 방향성과 가치를 지녀야 하는지는 아직 충분히 논의되지 못했다. 이런 현실에서 부트캠프는 매우 낯익은 방향으로 먼저 발걸음을 떼고 있다. ‘서연고’ 대신 ‘네카라쿠배’라고 이름만 바꿔 건 채.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.09.25.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>네카오 인증서, 통신3사 '패스' 따라잡았다</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004102690?sid=105</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>플랫폼 힘···이용자 1년새 2배 ↑업계 최다 규모 3500만명 돌파편의성 중점 유치 경쟁 가속화접근성 측면서 '패스' 불리할듯네이버(왼쪽)와 카카오 인증서 사용 모습. /사진 제공=각 사[서울경제] SK텔레콤(SKT)·KT·LG유플러스(LGU+) 등 이동통신 3사가 장악했던 민간인증서 시장에서 후발주자 네이버와 카카오가 빠르게 추격하며 선두를 넘보고 있다. 최근 1년 통신 3사의 이용자 규모가 정체될 동안 네이버와 카카오는 플랫폼 파워를 앞세워 급성장해 통신 3사와 맞먹는 수준이 됐다.25일 정보기술(IT) 업계에 따르면 네이버와 카카오의 인증서 이용자(발급자) 수는 약 1년 간 2배 내외로 성장했다. 네이버 인증서는 지난해 8월 1600만 명에서 올해 6월 3800만 명으로, 카카오 인증서는 지난해 8월 2000만 명에서 이달 3500만 명으로 늘었다.양사는 통신 3사 ‘패스(PASS)’의 이용자 규모를 따라잡는 데 성공했다. 통신 3사가 공개한 이용자(가입자) 수는 지난해 8월 업계 최다인 3500만 명을 달성한 후 같은 해 말까지 별다른 변화가 없었다. 최근 이용자 수는 아예 공개하지 않고 있지만 역시 정체를 이어가는 것으로 전해졌다. 통신업계 관계자는 “패스 가입자 수가 생산연령 인구인 3575만 명(지난해 통계청 인구주택총조사 기준)에 육박하는 만큼 더 늘기는 어려울 것”이라고 말했다.업계 관계자는 “이제 주요 사업자들이 이용자 3000만 명대에 진입했다”며 “제휴처, 편의성 등 서비스 우위로 이용자를 어떻게 묶어두느냐가 중요해졌다”라고 말했다. 네이버와 카카오는 각자 포털과 메신저 연동을 통한 편의성을 장점으로 내세운다. 네이버 인증서의 제휴처 수는 556개로 업계 최다 수준으로 알려졌다. 토스(2400만 명), KB국민은행(1100만 명)을 포함한 금융사들도 금융 서비스와의 시너지로 추격 중이다.18개 전자서명인증사업자의 민간인증서는 2020년 공인인증서가 폐지된 후 연말정산 등 공공 서비스 이용을 위한 인증을 대신하고 있다. 무인매장 이용이나 네이버 대학생 전용 멤버십(네이버플러스 멤버십 스튜던트) 가입 등에 필요한 신분확인처럼 민간 서비스로 활용 범위가 넓어지고 있다. 패스와 일부 금융사 앱은 금융·결제 인증도 지원한다. 이를 통해 이용자 편의성을 높여 자사 플랫폼의 록인(묶어두기) 효과를 키울 수 있다.PASS 앱.경쟁 과열에 패스의 시장 점유율 분산도 불가피할 것으로 보인다. 일부 지표상으로는 그런 징후가 나타나고 있다. 모바일인덱스에 따르면 패스 앱의 통신 3사 합산 8월 월간활성이용자수(MAU·한 달에 1번 이상 이용한 사람 수)는 1671만 명이었다. 2020년 12월(1630만 명) 이후 가장 적은 수치다. MAU는 지난해 12월 역대 최다인 2026만명까지 늘었다가 올해 들어 내리 감소했다.서지용 상명대 경영학과 교수는 “앞으로는 서비스 표준화를 두고 업체 간 이용자 유치 경쟁이 더 치열해질 것”이라며 “접근성 측면에서 인증 서비스를 위해 별도 앱으로 접속해야 하는 패스보다는 기존 포털, 메신저 플랫폼을 기반으로 하는 네이버, 카카오가 더 유리해 보인다”고 말했다.패스는 전자서명인증사업자 외 본인확인기관으로서 금융·결제 인증 서비스를 확대해나갈 계획이다. 본인확인기관은 온라인에서 주민등록번호를 받지 않고 인증서나 휴대전화, 신용카드 등으로 이용자 신분을 확인해주는 기관이다. 네이버·카카오는 자격을 획득하지 못해 플랫폼 내 쇼핑과 간편결제를 제공할 때 패스 등 외부의 본인확인을 거치고 있다. 이 시장 역시 지난해 토스에 이어 최근 카카오뱅크와 은행들이 사업 자격을 얻었고 네이버·카카오도 도전 중이라 경쟁이 심해질 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.09.16.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>[단독] 고액현금 거래내역, 국세청 전달돼도 몰라…'온라인 통보'로 바뀐다</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001054464?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>고액현금거래 정보 제공 방식이 연내 등기우편에서 온라인 통보로 바뀐다.고액현금보고란 하루에 1천만원 이상의 현금을 입금하거나 출금할 때 금융사가 거래자 신원과 거래 일시 등을 전산으로 금융위원회 산하 금융정보분석원(이하 FIU)에 자동 보고하는 제도를 말한다.FIU는 조세탈루 혐의를 확인하거나 조세체납자 징수업무에 필요하다는 이유로 국세청·관세청이 요청하면 이 정보를 넘겨주는데, 세무당국에 정보를 제공한 날로부터 열흘 이내에 해당 사실을 거래 당사자에게도 통보해야 한다.세무당국이 당사자 모르게 현금거래 내역을 들여다보는 데 따른 사생활 침해 논란을 막기 위해서다.이때 지금까지는 등기우편을 통해 거래당사자에게 정보제공 사실을 전달해 왔지만, 연내 통보방식이 온라인으로 바뀔 예정이다.국회 관계자는 "현재 행안부와 협의를 거쳐 국민비서 서비스 활용을 추진 중이며, 연내 온라인 통보를 개시할 예정"이라고 전했다.네이버나 카카오톡, 토스 등을 통해 금융 거래내역 정보 제공사실을 통보한 후, 미확인 대상자만 따로 추려서 등기우편을 발송하는 형식이다.온라인 방식으로 변경되면 등기우편 반송률 개선 및 비용 절감을 기대할 수 있을 것으로 전망된다.국회 관계자에 따르면, 등기우편 발송에 매년 1억여원이 소요되고 있지만 반송률이 약 30%에 이르는 것으로 나타났다.10명 중 3명은 세무당국이 본인의 현금거래내역을 살펴봤음에도 해당 사실을 인지하지 못했다는 의미다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.09.16~2022.09.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.09.16~2022.09.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.09.30.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>[취재수첩] 국내 대표 핀테크 토스의 무책임한 처신</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004756342?sid=110</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>세금 지원받은 행사 텅빈 부스다른 스타트업 기회 빼앗은 셈빈난새 금융부 기자지난 28일부터 서울 소공동 롯데호텔에선 핀테크 축제가 열리고 있다. 30일까지 진행되는 ‘코리아 핀테크 위크 2022’는 금융위원회가 2019년부터 매년 주최하는 글로벌 핀테크 박람회다. 국내외 핀테크 기업과 해외 투자기관, 예비 창업자와 취업준비생까지 한데 모여 ‘축제’란 표현이 어색하지 않다.코로나19 사태 이후 3년 만에 오프라인으로 열린 올해 행사는 최근 ‘핀테크 빙하기’ 분위기를 느끼기 어려울 만큼 많은 관람객으로 북적였다. 참여 기업만 약 120곳, 사전에 관람을 신청한 사람은 1700명을 넘어서 역대 최대 규모를 기록했다. 직접 현장을 찾은 김주현 금융위원장도 핀테크 기업들의 전시 부스를 둘러보며 업계와의 접점을 넓히려는 모습을 보였다.행사장에 실물 부스를 차린 기업은 총 59곳. 5대 금융지주와 대형 금융회사 10곳을 제외하고 엄격한 ‘커트라인’을 통과한 핀테크 업체는 49곳이다. 중소 핀테크 기업들은 부스를 설치하기 위해 몇 달 전부터 치열한 선발전을 거쳤다. 금융위가 개최하는 행사여서 선발만 되면 별도 비용 부담도 없다. 금융당국은 물론 수많은 투자자와 소비자에게 확실한 눈도장을 찍을 기회인 만큼 홍보에 목마른 스타트업들에 귀한 자리일 수밖에 없다.그러나 전시장 내 가장 널찍한 자리를 확보한 토스(회사명: 비바리퍼블리카)의 부스는 휑했다. 익숙한 토스 로고를 보고 다가왔던 관람객들은 텅 빈 부스를 두리번거리다 의아한 표정으로 떠나갔다. 토스를 애용한다는 30대 관람객 최모씨는 “토스 앱 소개 화면이 띄워진 작은 모니터 뒤에서 직원 한 명이 스마트폰만 보고 앉아 있어 그냥 발길을 돌렸다”고 말했다. 네이버파이낸셜, 농협은행 등 주요 체험관을 돌며 서비스를 직접 체험해 본 김 위원장조차 토스 부스를 피해 돌아갔다는 후문이다.부스를 배정받지 못한 스타트업들은 토스에 아쉬움과 분노를 나타내고 있다. 이번 행사를 위해 3주 동안 전시를 준비했다는 한 스타트업 대표는 “세금으로 지원하는 행사에 아무런 준비 없이 부스를 비워둔 것은 다른 기업이 나올 기회를 빼앗은 셈”이라며 “토스 같은 ‘국가대표 핀테크’가 이래도 되느냐”고 분통을 터뜨렸다. 토스 관계자는 “행사 초반에 다소 준비가 미흡했던 게 사실”이라며 “남은 기간이라도 부스가 정상 운영될 수 있도록 최선을 다할 것”이라고 했다.토스와 달리 한 중견 핀테크 기업은 금융위로부터 전시관을 차려보라는 권유를 받았지만 “다른 작은 스타트업에 기회를 주라”며 양보했다. 토스의 모습에 뒷맛이 더 씁쓸한 이유다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>토스뱅크, 숫자로 돌아본 1년…성장·포용 '모두의 은행'</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002640886?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>원앱 선구자…2% 파킹통장 '히트'5차례 유상증자…12BP '님의 화답'50대 이상 19%…440만 고객 '든든'서울 강남구에 위치한 토스뱅크의 모습.ⓒ뉴시스[데일리안 = 부광우 기자] 토스뱅크가 공식 출범 1주년을 앞두고 있다. 국내 3대 인터넷전문은행 중 막내로 태어났지만 벌써 400만명이 넘는 고객을 모으며 가파른 성장세를 이어가고 있다. 수익성과 포용 금융이라는 두 마리 토끼를 동시에 잡으며 새로운 도약을 꿈꾸고 있는 토스뱅크의 지난 한 해를 숫자로 돌아봤다.21일 금융권에 따르면 토스뱅크는 다음 달 출범 1년째를 맞는다. 금융플랫폼 토스를 히트시키며 핀테크 시장의 선두 주자로 떠올랐던 비바리퍼블리카는 공식 금융사로서의 입지를 확보하기 위해 2019년 1월 인터넷은행 사업 준비에 착수했다. 같은 해 12월 금융위원회로부터 인터넷은행 예비인가를 받았고, 이듬해 10월 5일 토스뱅크로서 공식 출항했다.◆1토스뱅크의 약진에는 모기업인 비바리퍼블리카의 모바일 원(1)앱 전략이 자리하고 있다. 기존 금융사들이 계열사·서비스별로 별도 앱을 설치하도록 유도하던 방식과 달리, 토스는 하나의 앱에서 은행과 증권, 간편결제 등 다양한 업무를 한꺼번에 처리할 수 있도록 했다. 덕분에 토스는 국내에서 가장 많이 사용되는 뱅킹 앱으로 자리 잡았다. 모바일 빅데이터 분석 기업인 아이지에이웍스에 따르면 올해 상반기 토스의 월간활성사용자수는 1427만명으로 은행·뱅킹 서비스 부문 1위를 차지했다.◆2토스뱅크는 은행권에 2%대 금리의 파킹통장 시대를 열며 주목을 받았다. 은행 오픈 직후 '하루만 맡겨도 2% 이자'라는 슬로건을 내걸고 고금리 수시입출금 통장을 내놓으며 돌풍을 일으켰다. 특히 당시 기준금리가 제로 수준까지 추락하며 은행 수신 상품이 고전을 면치 못하던 와중 새로운 은행의 새로운 시도라는 점에서 주목을 받았다.◆3토스뱅크가 닻을 올린 후 실질적인 대출 영업에 돌입하기까진 3개월의 시간이 걸렸다. 올해 1월 1일 오전 11시 신용대출을 개시하기 전까지 토스뱅크의 대출 영업은 사실상 개점휴업 상태였다. 금융당국의 고강도 가계부채 규제 영향으로 출범 열흘 만에 한도 5000억원을 소진했기 때문이었다. 금융 혁신의 아이콘인 인터넷은행이 금융 규제에 가로막혔던 아이러니였다.◆5토스뱅크는 지금까지 총 5차례의 유상증자를 단행했다. 이로써 출범 당시 2500억원이었던 자본금은 지난 달 말 1조3500억원까지 불어났다. 토스뱅크는 당초 5년 동안 1조원의 추가 증자 계획을 갖고 있었다. 그런데 1년도 안 돼 이를 넘어 1조1000억원의 자본금을 추가 확보한 것이다. 토스뱅크의 성장세와 그에 대한 투자자들의 관심을 읽을 수 있는 대목이다.숫자로 돌아본 토스뱅크 1년.ⓒ데일리안 부광우 기자◆12토스뱅크는 올해 상반기 12베이시스포인트(bp·1bp=0.01%p)의 순이자마진(NIM)을 기록했다. 출범 이후 첫 플러스 성적이다. NIM은 예금과 대출의 이자율 차이에서 발생하는 이익을 중심으로 한 은행의 수익력을 나타내는 지표다. 토스뱅크의 NIM은 아직 다른 은행에 비해 낮은 편이지만, 적자가 불가피한 사업 초기부터 흑자 전환에 성공하면서 이목을 끌고 있다.◆19토스뱅크의 올해 상반기 말 기준 50대 이상 고객의 비중은 19%다. 인터넷은행이 모바일에 친숙한 젊은 층의 전유물이 될 것이란 우려를 뒤집는 결과다. 60대 가입자 비율이 5%로 10대(6%)와 맞먹는 현실은 토스의 원앱이 그 만큼 편리하다는 방증이다. 인터넷은행이 모두의 은행이 될 것이란 기대가 커지는 이유다.◆36토스뱅크의 신용대출을 이용하는 고객 가운데 36%는 신용평점이 하위 50%에 속하는 이른바 중·저신용자다. 이는 인터넷은행 3사 중 가장 높은 비중이다. 토스뱅크는 해당 수치를 올해 말 42%, 내년 말 44%까지 확대할 계획이다. 국내 은행권 막내임에도 불구하고, 금융시장에서 소외된 취약 차주를 지원하겠다는 인터넷은행의 취지를 가장 잘 살리고 있는 셈이다.◆440토스뱅크 고객은 올해 8월 말 440만명까지 늘었다. 출범 후 매달 40만명 꼴로 새로운 소비자가 토스뱅크에 가입하고 있다는 얘기다. 이들이 토스뱅크에 맡긴 돈은 26조4000억원, 빌려간 돈은 6조4000억원에 이른다. 토스뱅크는 이미 제1금융권 은행으로서 뿌리를 내린 모습이다.토스뱅크 관계자는 "출범 1년이 채 되지 않은 신생 은행임에도 주주사의 적극적인 지원은 물론 고객들의 성원에 힘입어 빠른 성장세를 보이고 있다"며 "앞으로 고객들에게 보다 더 혁신적인 상품과 서비스를 제공하는 것은 물론 건전한 중·저신용자를 포용하는 등 고객 중심의 혁신 금융을 선도해 갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>[Live 중소기업] "금융기관 62곳 꼼꼼히 비교…최저금리 대출로 갈아타세요"</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005019259?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>대출중개 플랫폼 '핀다' 이혜민 대표 인터뷰금리인상기 대환 수요 급증회원수 150만명…2배 늘어175억 유치…내년 상장 준비고객에 가장 유리한 대출 제시대출 승인율 평균 72% 달해2금융권서 16.9%로 빌린 고객1금융권 4%대로 갈아타기도입지분석 플랫폼 '오픈업' 인수창업 상권분석 데이터 제공해대출중개 사업과 시너지 기대 지금 이 순간 대한민국 사람들을 가장 짓누르는 말은 '대출'이라는 두 글자가 아닐까. 자산 상승기 때 매혹적인 투자 수단이었던 레버리지(대출)가 투자 혹한기에 '부메랑'으로 돌변했다. 1년 새 2배 가까이 오른 시중 대출금리는 영끌족들의 밤잠을 앗아가며 공포심리를 자극한다. "돈이 다리미라고. 돈이 주름살을 쫘악 펴줘." 영화 '기생충'의 대사가 서민들의 가슴팍을 파고든다. 주름진 대출인생에서 꼭 필요한 앱이 있다. 대출금리 비교·중개 플랫폼이다. 토스, 카카오페이, 핀다가 삼국지를 형성하고 있는 이 시장에서 오로지 대출중개라는 한 우물만 깊게 파고 있는 핀다의 이혜민 대표(38)를 만났다. 앳된 모습의 비(非)금융인 출신은 어떻게 보수적인 시장에 혁신을 불어넣고 있을까. ―금리 인상이 대출 시장에 어떤 변화를 가져오고 있는가.▷대출을 받는 목적과 행태에 변화가 있다. 올해는 대환 목적이 참 많다. 이자부담이 가중되다 보니 갈아타기 수요가 높아졌다. 이전에는 대출 규모가 굉장히 큰 것도 있고, 아주 작은 것도 있고 편차가 컸는데, 지금은 큰 규모의 대출은 아주 많지 않다.―기존 비즈니스 모델에는 어떤 영향이 있나.▷상쇄되는 영향이 계속 있다. 매출의 경우 대출이 발생할 때 금융기관으로부터 받는 수수료가 중요하다. 하지만 고객이 한 번 대출을 받는 것보다 얼마나 자주 핀다 앱을 이용하는지도 중요하다. 대출 중개금융도 중요하지만 대출 중개건수도 중요하다. 데이터를 중개하는 회사기 때문이다. 고객이 조건이나 기관을 변경할 때마다 데이터가 생성되고 연동된다. ―사용자는 얼마나 되나.▷앱 누적 회원은 150만명이다. 전년에 비해 2배 이상 늘었다.―제휴 금융기관이 62곳이라던데 전체의 어느 정도 비중인가.▷국내 여신 금융기관이 340개 정도 된다. 증권·대부업도 포함된 수치다. 우리는 비대면으로 대출할 수 있는 금융기관 위주로 보유 중이다. 지방은행은 모두 들어와 있다. 4대 시중은행 중 하나은행이 들어와 있고 나머지 3개 중 하나는 지금 오픈을 준비하고 있다. 지방은행들이 상품 경쟁력이 굉장히 좋다.―대출 중개를 할 때 가장 중점을 두는 것은.▷고객을 기만해서는 안 된다는 것이다. 대출과 관련해 일반 광고를 받지 않는다. 고객에게 가장 유리하면서 가장 정확한 조건을 주려 한다. 대출조건이 좋지 않으면 핀다라는 플랫폼을 쓸 필요가 없다. 우리는 대출중개만 하지만 경쟁사인 토스와 카카오페이는 사용자들에게 더 많은 서비스를 제공하기 때문이다.―핀다를 이용하면 대출 조건이 좋아지나.▷이용자가 대출 조건을 검색하면 62곳 금융기관이 한꺼번에 돌아간다. 신용대출을 신청하면 6분 만에 대출금이 통장에 꽂힌다. 개인이 발품을 팔면 승인율이 18%밖에 안 나온다. 우리 서비스는 대출 승인율이 72% 정도 나온다. 금융기관과 상품을 모아주기만 했는데도 대출 승인율이 굉장히 올라가는 것이다. 그만큼 정보의 비대칭성이 심하기 때문이다. ―비금융인 출신인데 어떻게 핀테크 회사를 설립하게 됐나.▷고객 관점에서 페인 포인트(pain point·문제점)를 분석하면서 시장을 정의하는 건 자신 있었다. 핀다가 네 번째 창업이다 보니, 앞의 회사를 하면서 고객이 좋아하는 상품을 정의하고 만들어가는 것에 대해 자신감이 있었다. 금융기관을 상대하긴 하지만 기본적으로 금융기관을 설립하는 게 아니다 보니까 문제 정의를 사용자 중심으로 할 수 있었다. 또 잘하는 파트너들과 함께 만들어낼 때의 시너지 효과를 기대했다. 플랫폼이기 때문에 어차피 혼자는 힘들다.―대출시장의 페인 포인트는 뭐였나.▷개인이 아무리 발품을 팔아도 대출이 승인되는 확률은 20%밖에 안 됐다. 접근할 수 있는 금융기관이 적었기 때문이다. 고신용자도 필요한 만큼 대출을 승인받지 못하는 경우가 많다. 금융기관 역시 지점에 고객이 방문해서 서류를 최종적으로 제출해야만 고객이 어떤 사람인지 파악하고 평가할 수 있다. 그 전까지는 계속 비용이 발생한다. 양쪽 다 정보의 비대칭성을 갖고 있다.―어느 연령층이 가장 많이 이용하고 있나.▷30·40대가 가장 많고 50대 이상도 30%나 차지한다. 앱이 간단명료해서 어르신들도 많이 쓴다. 고객 중 한 분은 2금융권에서 전화 영업을 통해 16.9%의 금리로 3000만원을 빌렸는데, 핀다로 대출을 조회해본 뒤 1금융권의 4%대 동일 금액으로 갈아탔다.  ―가장 유리하게 대출을 받는 노하우가 있나.▷핀다는 신용점수, 재직정보, 소득정보 외에도 비금융데이터를 활용해 더 우량한 고객이라는 것을 금융기관에 제공하고 이와 관련한 상품들을 만들고 있다. 주행거리 데이터를 활용한 핀다 전용상품인 현대차·기아 오토론이 대표적이다. 월별 대환 진단 등을 꾸준히 해보고 더 나은 조건의 대출이 있다면 중도상환수수료 등을 계산해본 후 갈아타기를 권한다. ―최근 상가 입지를 분석해주는 스타트업 '오픈업'을 인수했다. 활용 계획은.▷오픈업은 B2B로 상권을 분석하는 데이터 회사다. 취급 데이터 중 유동인구뿐만 아니라 여러 가지 데이터를 기반으로 매출을 추정해준다. 건물주에게 어떤 업종의 브랜드가 유치되면 수익성이 좋을지를 분석해준다. 이 데이터를 B2C로 전부 무료로 푸는 게 목표다. 우리나라는 자영업 비율이 높고, 폐업률도 높다. 창업을 하는 데 필요한 매출 데이터, 상권 분석 데이터를 제공할 계획이다. 결국 매출에 대한 분석 지표들이 자영업자나 사업자들을 위한 더 좋은 대출 조건을 만드는 데 활용될 수 있을 것이다.―플랫폼에 대한 여론이 옛날만큼 긍정적이지 않다.▷서비스가 나빠지면 결국 시장논리기 때문에 아무리 이용자를 많이 가지고 있어도 버티기 힘들다. 이용자는 생각보다 서비스를 잘 갈아탄다. 또 새로운 스타트업이 그 안에서 나오기가 굉장히 좋다. 생각보다 이용자는 똑똑하다. 핀다 서비스가 조금만 좋지 않으면 고객이 찾지 않을 것이다. 그게 가장 두렵다. ―핀다 경영철학은 무엇인가.▷핵심 가치 1번이 '생큐 핀다'다. 무엇을 만들고, 선택을 할 때 고객이 우리에게 고맙다고 할 만한 게 아니면 의사결정을 하지 않는다. 수수료를 많이 받고 한도를 많이 내줘야 우리 쪽에 유리한 것 아니냐는 의견에 따라 금리가 높아도 한도를 많이 받으라고 광고할 수 있겠는데, 고객 입장에서 봤을 때는 기만했다고 볼 수 있기 때문에 그런 선택은 하지 않는다. 고객에게 고맙다는 메시지를 듣지 않는다면 핀다의 존재 이유가 없다고 생각한다.―스타트업 투자환경이 나빠졌는데, 향후 자금 조달 계획은.▷지금까지 누적으로 175억원의 투자금을 받았고 시리즈C를 유치하는 단계다. 연초에는 인수를 더 공격적으로 하려고 대규모 투자를 받으려고 했는데 '오픈업'만 인수했다. 상장 준비는 내년부터 하려고 한다.▶▶ 이혜민 대표는… △1984년 서울 출생 △2007년 고려대 서어서문학과 졸업 △2007~2011년 (주)STX 전략사업기획실 △2011~2012년 로켓인터넷·글로시박스 공동창업 △2012~2013년 피플앤코 공동창업 △2012~2015년 눔코리아 공동창업 △2015년~현재 (주)핀다 공동대표</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>토스, 보안 취약점 신고포상제 '버그바운티' 개최</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002640955?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>토스 버그바운티 포스터. ⓒ토스[데일리안 = 김효숙 기자] 토스는 보안 취약점 신고포상제인 '토스 버그바운티 챌린지'를 처음으로 실시한다고 21일 밝혔다.버그바운티란 서비스 내 보안 취약점을 찾아낸 참가자에게 리워드를 지급하는 제도다.구글과 애플 등 글로벌 IT기업들은 관련 활동을 적극적으로 나서며 자사의 보안 체계 강화는 물론 보안 연구 커뮤니티 전체에 기여하는 기회로 삼고 있다. 국내서는 금융보안원이 2019년부터 버그바운티 행사를 주최하고 있다.이번 프로그램에는 토스를 비롯해 토스뱅크, 토스증권, 토스페이먼츠 등 주요 금융 계열사가 참여한다.취약점 신고 대상은 토스 애플리케이션 내 주요 서비스는 물론, 계열사 공식 홈페이지도 포함되며 자세한 내용은 관련 홈페이지를 통해 확인할 수 있다. 접수된 리포트는 토스 내부 검증과 평가를 거쳐 건당 최대 3000만원까지 포상금을 지급 받게 된다.이번 버그바운티는 보안에 관심있는 국내 토스 가입자면 누구나 참여할 수 있다. 단, 이날부터 오는 30일 오후 6시까지 공식 홈페이지를 통해 사전 신청한 사람에 한해 다음 달 개최되는 프로그램에 참여 자격이 주어진다. 신청자에게는 버그바운티에 참여할 수 있는 별도 환경을 제공하며 해당 환경에서 모의해킹이 진행된다.이종호 토스 보안기술팀 리더는 "토스는 해커의 관점에서 보안을 구축하며 자체 보안 프로그램을 만드는 등 보안에 많은 투자를 해왔다"며 "외부 전문가의 관점에서 객관적으로 취약점을 점검해 보고, 국내 금융분야 보안연구 활성화에도 기여할 수 있는 계기가 되길 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.09.25.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>자영업자·소상공인 대환 프로그램 Q&amp;A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002286600?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Q; 법인기업 소기업 요건은?  A; 소기업 여부는 최근년도 평균 매출액을 업종별 기준금액과 비교해 판단한다. 세부 사항은 신용보증기금에서 운영하는 온라인 안내 시스템의 ‘지원대상 알아보기’에서 확인 가능하다.   Q; 다른 대환제돌ㄹ 이용하고 있어도 신청할 수 있나?  A; 가능하다. 다만 소상공인시장진흥공단에서 지원받은 ‘소상공인 대환대출’금액은 이번 프로그램 대출 한도에서 차감된다.   Q; 대환 가능한 고금리 대출은 어떻게 확인할 수 있나?  A; 신용보증기금의 온라인 안내시스템 또는 대출대출 취급기관의 온·오프라인 창구에서 확인 가능하다. 대환대출 취급기관은 국민 신한 우리 하나 기업 농협 수협 부산 대구 광주 경남 전북 제주은행과 토스뱅크 등이며 SC제일은행과 K뱅크는 시스템 구축 중이다.   Q; 어떤 대출을 대환 신청할 수 있나?  A; 올해 5월31일까지 취급된 대출로 대환 신청시점에 금리가 7% 이상인 사업자대출이 대상이다. 다만 사업목적 대출임이 확인되는 상용차 구입 대출(할부 포함)은 최초 취급시 개인대출이었더라도 사업자대출로 간주돼 예외적으로 신청 가능하다. 반면 리스나 한도대출 등 성격상 대환 취급이 어려운 대출과 대부업체 대출은 제외된다.   Q; 현재 거래 중인 금융기관에서만 신청할 수 있나?  A; 대환대출 취급기관이면 어디서든 신청가능하다.   Q; 여러 건의 기존 대출을 합산해 신청할 수 있나?  A; 가능하다. 예를들어 2000만원과 1000만원의 고금리 대출이 있다면 각각 대환신청하거나 합쳐서 3000만원 1건으로 신청할 수 있다.   Q; 고금리 대출 중 일부 금액만의 대환대출도 가능한가?  A; 가능하다. 가령 고금리대출 7000만원이 있는 경우 대환대출로 5000만원을 상환할 수 있다.   Q; 대환 프로그램은 한 번만 이용할 수 있나?  A; 한도 내에서 추가 이용이 가능하다.   Q; 사업체가 여럿인 경우 사업체별로 지원받을 수 있나?  A; 가능하다. 다만 사업체 별로 합산해 개인은 5000만원, 법인은 1억원이 한도다. 가령 신청자가 개인기업 A.B와 법인기업 C, D를 운영하는 경우 A,B 두 곳을 합쳐 5000만원, C,D 두곳을 합쳐 1억원을 신청할 수 있다.   Q; 법인기업의 경우 지분관계나 경영권 요건이 있나?  A; 법인기업의 경우 실제 경영자가 본인 지분 기준으로 최대주주이거나 대표이사로 등재돼 있어야 한다.   Q; 어떤 서류를 준비해야 하나?  A; 아래 서류를 준비해야 하며 취급기관에 따라 준비서류와 제출방법이 다를 수 있다.      ◆…자료=금융위원회 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.09.19.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>새희망홀씨 대출 한도 3500만원으로 상향</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004900236?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]   금융당국이 서민층의 자금애로를 해결하기 위해 새희망홀씨 대출한도를 3000만원에서 3500만원으로 상향한다고 19일 밝혔다. 운용규약 개정절차, 은행 전산개발을 거쳐 10월 중 시행 예정이다.   은행권은 대표 자율상품인 새희망홀씨를 통해 서민층에게 올 상반기 1조 2209억원을 6만7730명에게 공급했다.   상반기 중 금리인상 및 경기위축 등으로 인해 가계신용대출 수요와 새희망홀씨 대출 수요가 모두 감소한 가운데, 은행권은 비대면 마케팅 활성화 등을 통해 서민층에 대한 자금공급 노력을 지속해 가계신용대출 대비 새희망홀씨 감소폭이 완만했다는 분석이다.   은행권은 인터넷전문은행 신설(2021년 10월 토스뱅크) 등을 통한 중저신용자대출 대폭 확대, 신규 정책서민금융상품 출시 등 다양한 경로를 통해 서민층에게 자금을 공급하고 있다.   상반기 평균금리(신규취급분)는 7.2%이며 연체율은 1.4%로 기준금리 인상에도 불구하고 소득과 신용도가 낮아 한도·금리 면에서 불리한 차주들에게 상대적으로 저금리의 자금을 안정적으로 공급했다는 평가다.   은행별 실적은 국민(2527억원), 농협(2392억원), 하나(1899억원), 신한(1508억원), 우리(1433억원) 순으로 상위 5개 은행(9759억원)이 대부분이었다.   금감원측은 "은행별로도 새희망홀씨 금리인하, 핵심성과지표(KPI) 배점 상향 등 공급확대 방안을 시행 중"이라며 "앞으로도 코로나19·경기위축·금리인상 등으로 인한 서민층의 자금애로를 해결할 수 있도록 적극 노력할 예정"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.09.18.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>[DD주간브리핑] 美, '자이언트 vs 울트라' 스텝 갈림길…‘오픈테크넷서밋’ 20일부터</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002132787?sid=105</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>- 美 연준, 20일·21일 FOMC 개최…금리 인상 범위 관건  - 英, 19일 엘리자베스 2세 여왕 국장…윤석열 대통령·이재용 부회장 참석  - ‘오픈테크넷서밋’, 20일부터 22일까지 개최…참가 ‘무료’  - 화웨이커넥트2022, 3년 만에 태국으로…DX 전략 공개  - 22일 ‘제13회 디스플레이의 날’, DP 지원 필요성 환기   [디지털데일리 윤상호 기자] 원달러 환율이 1400원에 육박했다. 지난 16일 장중 1399.0원을 찍었다. 2009년 3월 이후 최대다. 한국이 수출 중심 경제 구도라도 과도한 원화 가치 하락은 부담이다. 특히 인플레이션 압력을 키운다. 에너지 가격 등 비용이 상승해 수출에도 결국 악영향이다. 자본 시장도 불안감이 증폭했다.   중국 리잔수 전국인민대표대회 상무위원장이 15일부터 17일까지 우리나라를 찾았다. 리 위원장은 중국 권력 서열 3위다. 윤석열 대통령에게 중국의 불만을 전달했다. 그는 “예민한 문제가 양측 관계에 걸림돌이 되지 않도록 잘 관리해나갈 필요가 있다”라며 안보와 경제에서 우리나라의 선택에 대한 경고를 보냈다. 정부와 기업 고민이 깊어진다.   러시아의 우크라이나 침공은 7개월 째다. 우크라이나가 일부 영토 수복에 성공했다. 러시아가 공세종말점에 도달했다는 관측이다. 블라디미르 푸틴 러시아 대통령은 16일 중국 인도 튀르키에 정상과 가진 회담에서 전쟁 지지를 이끄는데 실패했다. 각국 정상은 전쟁을 빨리 끝내라고 권했다. 시진핑 중국 국가주석도 우려를 표했다. 그러나 푸틴 대통령이 조속한 시일 안에 전쟁 중단을 선택할 가능성은 낮다. 성과 없이 전쟁을 마칠 경우 권력 기반이 흔들릴 수 있기 때문이다.   이번 주(18일~24일)는 세계 정치경제적으로 중요한 한 주다.   우선 미국 미국 연방준비제도(Fed, 연준)의 연방공개시장위원회(FOMC)가 최우선이다. 20일과 21일(현지시각) FOMC 결과에 따라 세계 자본 시장이 출렁인다. 금리 인상은 피할 수 없다. 자이언트 스텝(0.75%포인트 인상)인지 울트라 스텝(1.00%포인트 인상)인지가 관건이다. 현재 한국과 미국 기준 금리는 2.50%로 같다. 금리 역전은 환율과 자본 시장에 악재다.   19일(현지시각) 영국 엘리자베스 2세 여왕 국장은 국제 외교의 격전지다. 20일부터 26일까지(현지시각) 미국 뉴욕에서는 제77차 유엔(UN)총회를 연다. 윤석열 대통령도 두 곳을 찾기 위해 18일 출국했다. 미국 일본 캐나다 등 정상과 만난다. 이재용 삼성전자 부회장도 엘리자베스 2세 여왕 장례식 참석이 유력하다. 이 부회장의 영국행이 알려지며 엘리자베스 2세 여왕과 고 이건희 삼성전자 회장의 인연에 주목을 받기도 했다. 엘리자베스 2세 여왕과 이건희 회장은 1995년 영국 삼성전자 복합단지 준공식에서 자리를 같이 한 바 있다.   과학기술정보통신부가 주최하고 정보통신산업진흥원(NIPA) 디지털데일리가 주관하는 ‘오픈 테크넷 서밋 2022’도 이번 주다. 20일부터 22일까지 디지털데일리 웨비나 플랫폼 ‘DD튜브’에서 시청할 수 있다. 등록은 무료다. 디지털전환(DX) 과정에서 필요한 ▲오픈소스 ▲플랫폼 ▲클라우드 전략 등을 공유한다.   중국 정보통신기술(ICT)을 선도한 화웨이도 부활 조짐이다. 3년 만에 화웨이 최신 기술과 전략을 선보이는 ‘화웨이커넥트2022’를 개최한다. 19일부터 21일까지(현지시각) 태국에서 진행한다. 화웨이는 미국의 제재로 사세가 꺾인 상태다. 이번 행사에서 반전의 실마리를 제시할 수 있을지 언론이 주목 중이다. 1995년 10월13일 영국 윈야드 삼성전자 복합단지 준공식에 참석한 고 엘리자베스 2세 영국 여왕과 고 이건희 회장의 모습  다음은 이번 주 주요 일정이다.   ◆‘화웨이커넥트2022’ 19일부터 21일까지…DX 공략 본격화=화웨이는 19일부터 21일까지(현지시각) 태국 방콕에서 화웨이커넥트2022를 연다. 아랍에미리트 프랑스 중국 등 4개국에서 순차 진행한다.   오프라인 행사는 3년 만이다. 화웨이는 미국 제재 이후 디바이스 중심에서 솔루션 중심으로 무게를 옮기는 중이다. DX 솔루션 등을 선보이고 있다. 올해는 DX를 통한 사업 모델과 기술 등을 공유할 전망이다.   ◆‘오픈테크넷서밋2022’ 20일부터 22일까지…오픈소스·클라우드 전략 공유=과기정통부 주최 ▲NIPA ▲디지털데일리 주관 오픈테크넷서밋2022는 20일부터 22일까지 온라인 진행한다. 웨비나 청취는 무료다.   올해 주제는 ‘성공적 디지털 전환, 오픈소스 생태계에서 찾는다’이다. 1일차는 ▲과기정통부 ▲빔소프트웨어코리아 ▲엘라스틱코리아 ▲클루커스 ▲리눅스파운데이션 ▲몽고DB ▲카카오뱅크가 발표한다. 2일차는 ▲삼성전자 ▲맨텍 ▲큐브리드 ▲래블업 ▲LG CNS가 맡았다. 3일차는 ▲KT ▲OSC코리아 ▲오픈소스컨설팅 ▲인베슘 ▲토스페이먼츠가 나선다.   ◆과방위 ‘망무임승차방지법 공청회’ 20일 개최=국회 과학기술정보방송통신위원회는 20일 ‘망무임승차방지법(전기통신사업법 개정안) 공청회’를 갖는다. 대형 콘텐츠제공사업자(CP)가 네트워크 투자비 일부를 부담토록 하는 법이다. 넷플릭스와 SK브로드밴드의 소송 등 법제화 필요성이 높아졌다. 여야가 각각 관련 법을 발의하는 등 법에 대한 국회 차원 이견은 없다. 그러나 과방위 자체를 둘러싼 여야의 갈등이 심각해 공청회을 정상적으로 열 수 있을지 불투명하다. 국내 CP 일부도 넷플릭스와 뜻을 같이하고 있다.   ◆SNE리서치, ‘KABC2022’ 20일부터 21일까지 진행=시장조사기관 SNE리서치는 20일부터 21일까지 서울 강남구 과학기술회관 ‘제13회 코리아 어드밴스드 배터리 컨퍼런스(KABC) 2022’를 개최한다. 배터리 산업 현황과 전략 등을 소개한다. ▲LG에너지솔루션 ▲삼성SDI ▲CATL ▲현대자동차 등이 발표한다.   ◆인기협, 21일 ‘플랫폼 자율규제 세미나’ 열어=한국인터넷기업협회 디지털경제연구소는 21일 서울 영등포구 전경련회관에서 ‘플랫폼 자율규제의 답을 찾다’를 주제로 세미나를 연다. 현 정부는 플랫폼 규제를 업계 자율에 맡기려고 하고 있다. 이번 세미나는 학계와 업계 차원 플랫폼 자율규제 첫 단추를 꿰는 자리다. 네이버TV로 생중계한다.   ◆22일 ‘제13회 디스플레이의 날’=한국디스플레이산업협회는 22일 서울 서초구 JW메리어트서울 호텔에서 ‘제13회 디스플레이의 날’을 연다. 국내 디스플레이 산업 치하와 유공자 표창의 자리다. 올해 자리에서는 디스플레이 산업 국가전략기술 지정 요구가 높을 것으로 보인다.   ◆나이언틱, 23일부터 25일까지 일산호수공원에서 ‘포켓몬고 축제’=나이언틱은 23일부터 25일까지 경기 고양시 일산호수공원에서 ‘사파리존‘ 이벤트를 연다. 증강현실(AR) 게임 포켓몬고 부대 행사다. 나이언틱이 전 세계 이용자가 참가할 수 있는 오프라인 이벤트를 국내에서 갖는 것은 이번이 처음이다. 이곳에서만 잡을 수 있는 희귀 포켓몬 등을 만날 수 있다. 참가는 유료다. 게임 안에서 입장 티켓을 구매해야 즐길 수 있다.   ◆애플, 24일 한국 애플스토어 4호점 오픈=애플은 24일 한국 애플스토어 4호점 ’애플 잠실‘을 개소한다. 서울 송파구 롯데월드몰에 위치했다. 애플은 지난주 ’아이폰14 시리즈‘ 등 스마트폰과 스마트시계 신제품을 공개했다. 국내 판매는 아직이다. 한국 판매가는 기존 가격 정책과 달리 인상했다. 애플은 미국과 중국 외 국가 대부분에서 아이폰14 시리즈 가격을 올렸다. 애플스토어 4호점이 가격 인상에도 불구 신제품 흥행 첨병 역할을 할 수 있을지 관건이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.09.19.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>토스뱅크, 당국 지침에 3개월 만에 적금 혜택 축소</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004100130?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>'미리빼기' 최대 6회→2회로파격 혜택에 한은 제동 걸어토스뱅크 '키워봐요 적금' 상품 설명. 사진 제공=토스뱅크 홈페이지 화면 캡쳐[서울경제] 토스뱅크가 10월부터 적금 상품 혜택을 축소한다. 6월 중순 적금 상품을 처음 출시하고 3개월여 만이다. 토스뱅크 관계자는 “한국은행 가이드라인에 따라 인출 횟수를 축소하게 됐다”고 설명했다.18일 금융권에 따르면 토스뱅크는 최근 ‘키워봐요 적금’ 특약을 개정하고 다음 달 1일부터 적금 긴급 출금 기능인 ‘미리 빼기’ 횟수를 기존 최대 6회에서 2회로 줄이기로 했다. 10월 신규 가입 고객부터 적용되며 기존 가입 고객에게는 소급되지 않는다.앞서 토스뱅크는 6월 14일 만기 6개월짜리 ‘키워봐요 적금’을 출범한 후 첫 적금 상품으로 내놓으면서 ‘파격 혜택’으로 눈길을 끌었다. 목돈이 필요할 경우 적금을 깨지 않고도 6번이나 적립액을 인출할 수 있게 한 것이다. 기존에 은행이 제공해온 적금 긴급 출금 가능 횟수는 통상 0~2회 수준이었다. 이에 ‘키워봐요 적금’에는 출시 사흘 만에 10만 명이 몰리기도 했다.토스뱅크가 ‘키워봐요 적금’의 인출 횟수를 줄이게 된 것은 금융 당국이 제동을 걸었기 때문이다. 한국은행은 토스뱅크가 상품을 출시하고 일주일 뒤인 6월 20일 전 은행권에 정기적금 만기 분할 해지 횟수를 최대 3회로 제한하는 내용의 가이드라인을 만들어 보낸 것으로 파악됐다. 토스뱅크 관계자는 “정기예금 만기 분할 횟수에 대해서는 2009년부터 가이드라인에 따른 제한이 있었지만 적금의 경우에는 ‘키워봐요 적금’ 출시 전까지 그런 제한이 없었다”며 “예금과 똑같은 규제를 받는 건 맞지 않다고 이야기했지만 어쨌든 가이드라인에 맞춰 혜택을 축소할 수밖에 없었다”고 설명했다.한국은행은 한 달에 한 번꼴로 적금 납입액을 인출할 수 있게 한 건 형평성과 안정성에 어긋난다는 입장이다. 한국은행 관계자는 “정기 예·적금에 대해서는 지급준비율 2%를 부과하고 기타 예금에 대해서는 7%를 부과하는데 만기를 포함해 해지 횟수가 7회가 되면 사실상 수시입출금식 예금과 다를 바가 없어진다”며 “그 경우 2%를 부과하는 게 맞는가 하는 의문이 든다”고 설명했다. 이어 “2009년 정기예금 가이드라인 이후 적금에 대해서는 명시적으로 공문을 보낸 적이 없었고 은행권에서도 관련된 상품이 문제된 바 없었는데, 토스뱅크에서 상품이 출시되고 난 뒤 인지를 하게 됐다”고 덧붙였다.한편 토스뱅크는 앞서 체크카드 혜택도 출시 3개월 만에 축소한 바 있다. 토스뱅크는 최대 1500원을 돌려주는 ‘조건 없는 캐시백’ 체크카드를 통해 고객을 끌어 모았으나 올해 1월과 7월 두 번에 걸쳐 혜택을 크게 축소했다. 이에 금융위원회는 체크카드·페이 등이 혜택을 변경할 경우 고지 및 유지 기한 의무를 강화한 금융소비자법 시행령 개정안을 내놓기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.09.25.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>K-핀테크, 싱가포르서도 반짝반짝…KB둥지서 글로벌 '비상'</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004798537?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[[연중기획 : 진격의 K-스타트업, 세계로! ]KB글로벌핀테크랩(싱가포르) 가보니]KB금융 임직원들과 'KB스타터스 싱가포르'에 선정된 4개사 임직원들이 KB글로벌핀테크랩이 위치한 싱가포르 위워크 회의실에서 이야기를 나누고 있다. /사진=김유경 기자KB이노베이션허브의 첫 글로벌 지점인 'KB글로벌핀테크랩'이 싱가포르의 금융중심가에 자리를 잡았다. HSBC은행이 쓰던 건물을 공유오피스 위워크가 리모델링해 쓰고 있는데 이곳 3층에 5~6인실 규모의 오피스 4곳을 확보해 국내 스타트업의 글로벌진출 교두보로 마련했다.고창영 KB이노베이션허브 센터장은 "KB이노베이션허브 강남센터가 위워크를 임대해 조성했기 때문에 연장선상에서 KB글로벌핀테크랩도 위워크에 마련했다"면서 "입주한 4개사뿐 아니라 우리가 지원하는 177개 스타트업들이 강남은 물론 싱가포르에서도 위워크 사무실을 편하게 이용할 수 있게 됐다"고 설명했다.싱가포르강이 흐르는 이곳은 랜드마크인 마리나베이샌즈 호텔이 마주보이고 지하철역이 가까운 지리적 잇점도 있지만 올해 1월 개점한 KB국민은행 싱가포르지점이 도보로 5분 거리에 있다는 게 가장 큰 강점이다. KB금융은 싱가포르지점을 중장기적으로 동남아시아 허브로 키울 계획이다. 이를 위해 홍콩 심사역 2명도 곧 싱가포르 지점에 합류할 예정이다.글로벌 스타트업 육성 거점을 싱가포르로 결정하고 준비한 건 조영서 전무(KB금융지주 디지털플랫폼총괄)다. 유니콘기업을 빠르게 배출하려면 스타트업의 해외시장 진출과 해외자금 유치가 가능한 싱가포르에 거점을 두고 베트남과 인도네시아를 연계한 네트워크 기반을 확보하는 게 유리하다는 생각에서다. 실제 싱가포르는 스타트업이 창업하고 활동하기에 최적의 환경으로 평가받는다. 싱가포르 정부는 싱가포르통화청(MAS)을 주축으로 국가 주도 핀테크 육성 정책을 적극 추진하고 있다. 특히 각종 투자지원 제도와 외국계 자본에 대한 인센티브로 글로벌 자금이 유입되는 시장이다. 동남아시아 전체 투자의 40% 이상이 싱가포르에서 유치되기 때문에 동남아시아 진출을 추진하는 스타트업들은 싱가포르에서 먼저 신규서비스를 선보인 후 다른 나라로 확장하는 전략을 쓰고 있다.'KB스타터스 싱가포르'로 처음 선정돼 지난 22일 이곳에 새둥지를 튼 고미코퍼레이션, 센스톤, 웨이브릿지, 호라이존테크놀로지 등 4개사도 싱가포르가 동남아시아 진출에 있어 가장 적합한 곳이라고 입을 모았다.글로벌 이커머스 플랫폼을 베트남과 태국, 인도 등 해외에서 먼저 구축한 고미코퍼레이션은 싱가포르를 동남아시아의 전략적 거점으로 활용할 계획이다. 고미코퍼레이션은 현재 해외에 제품을 판매하고자 하는 국내기업을 대상으로 수출과 현지화 등 풀필먼트 솔루션을 제공하고 있다. 이상곤 고미코퍼레이션 대표는 "싱가포르는 B2C 시장이 크지 않지만 동남아시아 시장 규모를 확대하는 허브로 활용할 수 있다"면서 "OTT(온라인동영상서비스)와 커머스를 결합한 신사업을 싱가포르에서 먼저 선보이고 베트남 등 다른 시장으로 진출할 계획"이라고 밝혔다.센스톤은 토스뱅크와 카카오뱅크에 자체 개발한 인증보안 솔루션을 제공하는 스타트업이다. 네트워크 연결없이 사용자 기기에 생성된 인증코드만 입력하면 사용자를 식별하는 'OTAC'를 개발했다. 2018년 설립한 자회사 영국법인 스위치는 영국정부의 R&amp;D사업을 받을 정도로 기술을 인정받고 있다. 정태균 센스톤 이사(CSO)는 "2019년 인도네시아에도 공급했고 현재 MAS(싱가포르통화청)에서 진행하는 프로그램에도 선정되는 등 인증기술을 검증해가고 있다"면서 "싱가포르도 OTP 관련 사고들을 경험했기에 우리 솔루션으로 보안성도 높이고 불편도 없앨수 있을 것으로 기대한다"고 말했다. 양종희 KB금융지주 부회장(앞줄 가운데)을 비롯한 KB금융 임직원들과 KB스타터스 싱가포르 4개사 임직원들이 KB글로벌핀테크랩 싱가포르(위워크)에서 화이팅을 외치고 있다. /사진=김유경 기자핀테크 업체 웨이브릿지는 현재 기관 전용 디지털자산관리 솔루션 '돌핀'을 개발 중이다. 지난 3월 미국에 자산운용사를 설립해 ETF(상장지수펀드) 금융상품 3개를 상장시킨 동시에 싱가포르에도 법인을 세웠다. 싱가포르는 상대적으로 블록체인과 디지털 자산에 대한 규제가 덜하고 관련 사업의 성장을 장려하는 기조가 있어 테스트하기에 적합하다는 판단에서다. 오종욱 웨이브릿지 대표는 "금융의 허브 싱가포르에서 디지털 자산의 제도권화를 꿈꾸고 있다"면서 "미국과 싱가포르에서 성과를 만들어 역으로 국내에 적용하는 것을 목표로 하고 있다"고 밝혔다.기업가치 분석 전문업체인 호라이존테크놀로지는 상장기업 주가의 적정가치를 인공지능(AI)으로 자동 분석해 투자정보를 제공하는 '퀀트랙' 서비스를 제공한다. 호라이존테크놀로지는 동남아 상장업체들을 분석해 33개국 주식투자자들에게 리포트를 제공하는 것을 목표로 하고 있다. 박일 호라이존테크놀로지 공동창업자(투자전략이사)는 "4년간의 재무제표만 있으면 적정주가를 AI로 산출할 수 있다"면서 "유료화를 위해선 투자자문사 라이센스를 획득해야하는데 1년반의 시간이 걸린다. 장기적으로 로보어드바이저를 개발할 예정인데 싱가포르에서 협업할 업체를 찾고 싶다"고 했다. KB금융그룹은 스타트업에게 위워크의 독립 사무공간과 편의시설을 제공하는 한편 현지 VC 네트워크 연계, 동남아시아 내 KB네트워크 비즈니스 연계 등의 지원 프로그램을 제공할 예정이다. 이를 위해 글로벌 핀테크랩 운영을 전담할 주재원 1명을 파견했으며 현지 직원도 채용할 예정이다. 양종희 KB금융지주 부회장은 현장에서 KB금융 계열사들이 협업할 수 있는 방안을 제시하고 연계해주는 등 직접 가교역할에 나서기도 했다.차지영 KB글로벌핀테크랩장은 "이번에 선정된 스타트업들이 싱가포르에 잘 정착할 수 있도록 지원하는 것은 물론 K-스타트업센터(KSC)와 협약한 것처럼 현지 VC, AC, 기관과의 네트워크 확대를 중점적으로 추진할 것"이라며 "아울러 현지 유망 스타트업을 발굴해 국내 진출하는 것도 도울 것"이라고 밝혔다. [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>김주현, 15개 은행 수장 만나 "속도감 있는 금융개혁 추진"</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004799059?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>["최고경영자가 직접 현장 내부통제 작동 현황 점검해야"]김주현 금융위원장/사진=뉴스1김주현 금융위원장이 국내 은행장을 만나 금융개혁 관련 은행권의 협조를 당부했다. 이상 해외송금 등 최근 은행권을 중심으로 금융사고가 이어지고 있는 만큼 내부통제 제도 개선에도 만전을 기해달라고 주문했다. 특히 최고경영자가 현장 중심 점검에 나설 필요가 있다고 강조했다.은행연합회는 26일 오후 금융위원장 초청 은행장 간담회를 개최했다. 김광수 은행연합회장과 산업은행, 농협은행, 우리은행, 하나은행, 기업은행, 국민은행, 수출입은행,수협은행, 대구은행, 부산은행, 제주은행, 전북은행, 주택금융공사, 케이뱅크, 토스뱅크 등 15개 은행의 은행장이 참석했다.김 위원장은 은행장들에게 효과적인 금융개혁을 위한 협조를 요청했다. 그는 "금융시장 불안이 지속되는 상황이라 금융개혁 관련 업계 사이 이해상충 문제, 새로운 업무수행에 따른 위험관리 문제 등 여러 논란이 예상된다"며 "주요 이슈에 대해 소비자나 국회 등에 이해를 구하는 작업을 업계와 금융당국이 함께 하면 속도감 있는 금융개혁 추진이 가능하다"고 말했다.금융안전 또한 당부했다. 김 위원장은 "연이은 금융사고로 국민의 불안과 불신이 고조되는 상황에서 감독당국이 내부통제 제도 개선을 위한 방안을 검토 중에 있지만 중요한 건 (은행) 최고경영진이 '사고발생 방지와 소비자 우선'의 조직 문화를 심는 것"이라며 "영업 현장에서 이같은 문화가 정착돼 있는지 여부를 최고경영자가 직접 확인해 주길 바란다"고 말했다.김광수 은행연합회장은 "규제 개혁 추진 과정에서 은행권도 깊이 있는 논리를 개발하고, 여러 이해관계자와 열린 자세로 소통하는 등 최선을 다해 지원하겠다"며 "금융사고 예방을 위한 은행의 자체적인 내부통제 강화에도 심혈을 기울이겠다"고 말했다. 그는 또 "금리·물가·환율 상승으로 서민 경제에 부담이 커지고 있다"며 "새출발기금 등 정책에 협조하고, 은행별로 자율적 금융지원도 이어 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>원티드랩, 파이썬 개발자 축제 `파이콘 한국 2022` 참여</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002755247?sid=105</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>원티드랩이 파이썬(Python) 개발자들의 축제 '파이콘 한국 2022'에 공식 후원사로 참여한다고 22일 밝혔다. IT인력 매칭에 특화된 '원티드'를 통해, 이직을 고민하는 개발자와 채용에 어려움을 겪는 기업을 돕겠다는 계획이다. '파이콘 한국'은 '파이썬 프로그래밍 언어 커뮤니티'가 주관하는 개발자 컨퍼런스로, 파이썬 저변 확대와 커뮤니티 활성화를 목적으로 한다. 올해 컨퍼런스는 10월 1~2일 양일간 온라인으로 진행되며, 채용 부스 등 일부 오프라인 행사는 서울 중구 명동 커뮤니티 하우스 마실에서 열린다.원티드랩은 파이콘 한국 개최에 맞춰 국내 유수 IT 기업의 파이썬 개발자 채용 공고를 한번에 볼 수 있는 '파이썬 개발자 채용 페이지'를 10월 2일까지 운영한다. 파이썬을 기본 기술로 채택한 기업 또는 해당 기술을 메인으로 활용하는 공고만 선별했다. 비바리퍼블리카(토스), 무신사, 두나무 등 50여 개사가 채용 중이다.파이썬 개발자라면 누구나 참여할 수 있는 '원티드 럭키드로우 이벤트'도 진행한다. 럭키드로우 이벤트 응모 후 원티드랩 자사 공고에 지원한 개발자에게는 서류전형 면제 혜택을 제공한다. 10월 2일 열리는 '열린공간' 세션에서 파이썬 개발자를 위한 이력서 코칭, 면접 팁 등을 공유하고, 원티드랩의 데브렐 활동도 소개한다. 황리건 원티드랩 개발총괄이사는 "파이썬 개발자만을 위한 별도 채용 페이지를 마련하는 등 이직을 고민하는 분들을 위한 여러 프로그램을 준비했다"며 "앞으로 다양한 활동을 통해 개발자들이 커리어 고민을 믿고 맡길 수 있는 든든한 커리어 파트너가 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.09.16.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>한국투자증권 베트남 "현지 톱티어 증권사 될 것"… 글로벌 도전장</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000852221?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[머니S리포트-다시 뛰는 신남방, 'K금융' DNA 심는다⑧] 박원상 법인장, '베트남 종합증권사'로서 입지 굳힌다[편집자주]베트남은 인도와 싱가포르, 태국, 인도네시아 등 한국 정부가 경제협력을 강화하고 있는 신남방 11개국 중에서 가장 중요한 국가다. 한국 기업들은 2021년 기준 9895만명의 인구와 IMF(국제통화기금) 추정 경제성장률 6.6%를 기록한 베트남에 크게 공을 들이고 있다. 베트남은 중국, 미국에 이어 한국의 3위 교역국이기도 하다. 국내 금융사들도 금융 서비스 노하우를 무기로 현지 시장을 적극 공략하고 있다. 한국의 ICT(정보통신기술)를 바탕으로 휴대전화를 통한 금융거래, 결제 서비스도 현지인들에게 충분히 통할 것으로 보고 있다. K-금융은 베트남 경제수도인 호찌민을 조용히 물들이고 있다. 조만간 베트남 금융시장이 한복으로 갈아입을 것이란 기대감도 크다.박원상 한국투자증권 베트남법인장./사진=호찌민(베트남)=전민준 기자 ◆기사 게재 순서① "코리아뱅크 굿" 한국 은행들, 베트남 홀렸다② 베트남, 국민 중 절반만 은행 계좌 보유… 갈길 먼 디지털 금융③ "서류 내고 돌아서니 보험금 '뚝딱'… 베트남과 달라요"④ "주식이 뭐예요?"… 베트남 증권시장, 韓에 열려있다⑤ 예영해 삼성화재 베트남법인장 "베트남 기업보험 개척자… 로컬기업과 협업에 신규 채널 확보까지"⑥ 이의철 신한라이프 베트남법인장 "텔레마케팅, 안된다고?… 신한라이프 베트남, 차별화로 대박쳤다"⑦ 강규원 신한베트남은행 법인장 "3년 안에 베트남 12위권 은행으로… 2030년엔 톱10 안에"⑧ 박원상 한국투자증권 베트남법인장 "베트남 톱티어 증권사 될 것"… 글로벌 도전장⑨ 강문경 미래에셋증권 베트남법인 대표 "MTS 베트남 최고 수준이라 자부… 올해의 화두는 디지털화"⑩ 정희균 토스베트남 PO "젊고 빠른 성장세, 베트남의 매력""외국계 증권사로 신사업에 선제적으로 발을 들여놓았지만 아직 갈 길이 멉니다. 금융산업에서 가장 중요한 경쟁 우위 요인은 사람입니다. KIS 베트남이 나아가야 할 방향은 플랫폼 비즈니스와 분야별 우수인력 영입 및 육성입니다."지난 8월23일 오후에 만난 박원상 한국투자증권 베트남법인장은 KIS 베트남이 '베트남 종합증권사'로 입지를 구축하기 위해 나아가야 할 방향에 대해 다음과 같이 설명했다. 각 부문별로 인력 공급이 부족한 시장환경에서 인재를 채용하고 교육을 진행하는 데 상당한 시간과 노력이 필요하다고 설명하는 그의 눈빛에서 베트남법인에 대한 애정이 드러났다.박 법인장과 베트남의 인연은 2010년부터다. 지난 2006년 한국투자증권에 처음 몸을 담은 그는 2010년 한국투자증권이 베트남 진출 당시 실무책임자였다. 이후 그는 리테일(소매금융)·브로커리지(위탁매매), 신사업 진출 등 무한 성장에 대비해 본사의 기획 및 전략을 담당했던 경험을 현지 법인에 녹여내라는 미션을 받고, 2017년 베트남법인 사령탑으로 부임하게 됐다.━지난 2010년 베트남시장 '깃발'… 글로벌 영토 확장━베트남법인의 모습./사진=호찌민(베트남)=전민준 기자 한국투자증권이 베트남시장에 첫발을 뗀 건 지난 2010년이다. 한국투자증권은 당시 업계 50위권이던 현지 증권사 EPS증권을 인수하며 베트남시장에 깃발을 꽂았다. 이후 사명을 'KIS 베트남(KIS Vietnam)'으로 바꿔 달고 철저한 현지화 전략, 한국형 HTS(홈트레이딩시스템) 등을 통해 대형 증권사로 성장했다.그결과 베트남 현지에서 한국투자증권 KIS 베트남의 위상도 남다르다. KIS 베트남의 자기자본 규모는 2011년 86억원에서 지난해 말 기준 2452억원으로 28배 증가했다. 브로커리지 MS(누적 시장 점유율)는 2011년 0.6%에서 올해 상반기 기준 3.08%로 5배 성장했으며 호치민 거래소에서는 MS 9위의 실적을 기록하는 등의 저력을 과시하고 있다.아울러 2019년 론칭한 커버드 워런트(CW·Coverd Warrant) 시장에서는 유일한 외국계 증권사이자 업계 1위의 실적을 기록하며 선두 자리를 굳건히 지키고 있다. ETF(상장지수펀드) AP(지정참가회사)·LP(유동성공급자) 분야 역시 외국계 증권사로는 유일하게 참여하며 외국계 투자자에게 ETF(상장지수펀드) 전문 브로커로서의 입지를 공고히 하며 수익원 다변화를 도모하고 있다.박 법인장은 "2010년 베트남 진출 이후 KIS 베트남은 한국금융지주와 한국투자증권의 든든한 인적·물적 지원을 바탕으로 성장해왔다"며 "향후 현지 증권사와의 경쟁체제에서 우위를 점하기 위해 고객기반 확대, IT시스템의 지속적 업그레이드, 리서치 전문성 강화, IB(기업금융)업무 확장 등을 더욱 보완할 계획"이라고 말했다.특히 한국투자증권은 올해 베트남시장 공략에 그 어느 때보다 집중하고 있다. 브로커리지와 파생상품시장뿐 아니라 IB까지 영역을 넓혀 명실상부한 베트남 종합증권사로 거듭나겠다는 계획이다.베트남시장에 거는 기대감이 갈수록 커지는 가운데 정일문 한국투자증권 사장도 올해 첫 출장지로 베트남을 선택했다. 정 사장이 직접 베트남을 방문한 것은 '기회의 땅'으로 급부상한 베트남의 성장가능성이 높은 데다 실제 현지 법인인 KIS 베트남이 꾸준히 성과를 내고 있기 때문이다.정 사장은 최근 베트남 최대 자산운용사인 드래곤캐피탈자산운용과 ETF 관련 MOU(업무협약)를 맺었다. 이번 MOU를 통해 KIS 베트남과 드래곤캐피탈자산운용은 ETF부터 주식, 채권까지 다양한 부문에서 협력할 예정이다.박 법인장은 "글로벌 생산기지로 부상하고 있고 코로나 속에서도 상대적으로 견고한 성장을 보여준 베트남에서 한국투자증권과 KIS 베트남의 영향력 확대를 지원하고 현지 기업 및 기관들과 장기적인 협력 관계를 유지하기 위해 정일문 사장님이 팬데믹 이후 첫 해외 출장지로 베트남을 선택한 것으로 보인다"며 "이번 출장을 통해 한국투자증권과 KIS 베트남은 베트남의 중장기발전에 동반자로서 협력 관계를 지속해서 유지하고 발전시킬 수 있는 계기를 마련했다고 생각한다"고 설명했다.━베트남 CW(커버스 워런트) 시장 선두자리 '굳건'━현재 베트남에 진출한 한국계 증권사는 미래에셋증권, 한국투자증권, KB증권, NH투자증권, 신한금융투자, 삼성증권, 하나증권, 한화투자증권 등 총 8개다. 이들 모두 베트남 현지에 법인을 설립하거나 현지 기업을 인수하는 형태로 해외 시장에 진출해왔다. 베트남이 '기회의 땅'으로 떠오른 만큼 경쟁사도 적지 않은 셈이다. 이 때문에 차별화 전략을 어떻게 설계하고 실제 성과를 얼마나 내는지가 관건이다.박 법인장은 경쟁사와의 차별점으로 CW 시장으로의 성공적인 진입 및 위상 강화를 꼽았다. CW란 국내 주식워런트증권(ELW) 상품에 해당하는 상품이다. 증권사가 발행하고 투자자는 만기 이전에 미리 정해진 가격으로 기초자산을 매수 또는 매도할 수 있는 권리를 갖는다. 일반 개별 기업이 발행하는 신주인수권(BW·Bond with Warrant)과 달리 해당 기초자산을 근거로 증권사나 은행 등 금융기관이 발행한다.박 법인장은 "베트남에 진출한 증권사 저마다 고유의 발전 모델을 바탕으로 존재감을 드러내고 있는데 기본적으로 지난해 베트남 법인들은 자본금을 바탕으로 한 주식중개 관련 신용공여 서비스에서 큰 폭의 수익성 개선을 이뤄냈다"며 "KIS 베트남의 차별점은 기존의 주식중개 관련 신용공여 서비스 외에도 CW 시장으로의 성공적 진입을 포함해 다양한 사업 분야 진출과 신규 사업 부문의 수익성 제고에 힘쓰고 있다는 점"이라고 분석했다.한국투자증권은 IB 부문에서도 선도적인 딜을 진행하는 등 트렉레코드를 쌓아나가고 있다. 지난해 7월에는 동남아시아 최대 플라스틱 제품 생산 그룹인 '안 팟 홀딩스'(An Phat Holdings·)의 130억원 규모 교환사채(EB·Exchangeable Bonds)를 발행하며 대표 주관 업무를 수행했다. 올해 3월에는 안 팟 홀딩스의 225억원 규모 채권 발행, 5월 베트남 물류 회사 ASG의 3000억동(150억원) 규모 회사채 발행, 6월 ASG IB 협력사로서 자금 조달 관련 협약 체결 등의 성과도 내고 있다.올해 가장 기억에 남는 딜로는 베트남 대표 물류 기업의 회사채 발행을 외국계 증권사 최초로 진행하게 된 점을 꼽았다.그는 "베트남의 자본 시장은 은행 대출 중심의 시장으로 IB 부문 역시 회사채 중심의 초기 단계에 머물러 있는 것이 현실"이라며 "베트남 산업 구조도 여전히 부동산 개발 및 글로벌 제조기업의 생산기지 역할을 중심으로 이뤄지고 있으며 IB 부문에서도 대부분 부동산 기업 및 금융권 중심의 딜이 많은 부분을 차지하고 있다. 이같은 점에 집중해 부동산 및 제조업체의 발행을 진행해왔는데 외국계 증권사 최초로 베트남 대표 물류 기업의 회사채 발행을 맡게 돼 의미가 남달랐다"고 회상했다.최근에는 기존 리테일 위주의 영업을 캐시카우로 발판 삼아 전반적인 사업 방향과 범위를 한 단계 성장시키는데 집중하고 있다. 자본 확충과 차입 등을 통해 유입된 자금은 CW, ETF, IB, 법인영업 등 전 부문에 효율적으로 투입해 생산성을 확대하는 것은 물론 IT 시스템과 분야별 우수인력 확보 등 인프라 강화에도 중점을 둔다는 계획이다.특히 그는 플랫폼 비즈니스에 집중할 것이라고 강조했다. 기존의 사고와 관습의 틀에서 벗어나 플랫폼을 다양한 영역으로 확장하는 것, 그리고 분야를 가리지 않고 고객기반을 확대할 수 있는 플랫폼을 구축해 나가는 것이 그의 최종 목표다.박 법인장은 "플랫폼을 통해 많은 고객에게 새로운 경험을 느끼게 하고 또 다른 투자 환경을 서비스해 나가는 것을 고민하고 있다"며 "이를 위해 본사와 함께 베트남에서 국내 상장설명회를 개최하는 등 국내 대기업 현지 법인과 베트남 국영기업을 중심으로 꾸준히 상장 유치 활동을 진행할 예정"이라고 설명했다.이어 "WM(자산관리) 분야에서는 국내로 상품을 공급하기 위해 지속해서 기회를 모색 중인데 신흥 시장인 베트남의 성장 기회를 이용한 다양한 상품을 본사와 협업해 제공하는 역할도 KIS 베트남에게 부여된 미션 중 하나"라고 강조했다.마지막으로 그는 "베트남은 2019년 미·중 무역분쟁 영향으로 중국을 대체할 수 있는 유력한 대안으로 부상한 곳으로 아직 기회가 많은 매력적인 시장"이라며 "단기적인 관점이 아니라 장기적으로 사업을 이해하고 계열사 간 시너지를 만들어 베트남시장에서 탑티어(세계 일류) 증권사로 거듭나기 위해 노력할 것"이라고 포부를 드러냈다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.09.29.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>한화, 보험대리점 피플라이프 인수…거래가 2000억대 예상</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004755897?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>이 기사는 09월 29일 14:21 마켓인사이트에 게재된 기사입니다.한화그룹 금융계열사인 한화생명이 4000여명의 설계사를 보유한 국내 독립계 보험판매대리점(GA) 피플라이프 인수를 눈앞에 뒀다. 한화생명은 오프라인 영업망에 강점을 갖춘 피플라이프를 인수해 압도적 점유율과 설계사 수를 확보한 후, 토스와 카카오 등 온라인플랫폼과의 전면전에 대비하겠다는 전략이다. 한화그룹이 대우조선해양 인수에 이어 금융부문에서도 잇단 빅딜로 몸집 불리기에 나섰다는 평가가 나온다.29일 투자은행(IB)업계에 따르면 한화생명은 피플라이프의 경영권 인수를 결정하고 이르면 내달 중순 주식매매계약(SPA)을 체결할 예정이다. 매각 주관사는 도이치뱅크가 맡았다. 거래가는 2000억원대 중후반 수준에서 형성될 전망이다.피플라이프의 지분 구성은 삼성생명 출신 창업자인 현학진 회장 및 특수관계인이 62.9%의 지분을 보유하고 있다. 재무적투자자(FI)인 코스톤아시아가 32.2%, 푸본현대생명이 4.9%를 갖고 있다. 현 회장과 FI 지분을 포함한 100% 지분이 매각 대상이다.피플라이프는 지난해 매출 3031억원, 영업이익 121억원을 기록했다. 피플라이프는 국내 최대규모인 전국 189곳의 오프라인 지점을 보유해 코로나19로 인한 실적 악화가 컸다. 다만 최악의 실적을 기록한 2020년 영업이익(26억원) 대비 이익을 회복하면서 최종 매각에 성공했다.한화생명은 이번 인수로 GA 부문에서 압도적인 선두 지위를 유지할 전망이다. 한화생명의 GA 계열사인 한화생명금융서비스는 올해 초 기준 소속 설계사 1만8000여명을 보유해 지난해 4월 출범 직후 업계 1위로 올라섰다. 최근 토스(비바리퍼블리카)도 자회사 토스인슈어런스 등을 통해 GA 영업망을 늘리고 있고 카카오페이도 이 시장에 뛰어드는 등 온라인플랫폼사들도 경쟁사로 부상하고 있다. 하지만 한화생명 내부에선 온라인서비스가 규제 등 문제로 단기간 내 오프라인 GA 영업망을 대체하기 어렵다 판단해 오프라인 분야에서 규모의 경제를 구축하는 전략을 세운 것으로 전해진다.보험업계 관계자는 "온라인 GA 업체들이 자동차 보험 등에선 강점을 보일 수 있지만 생명보험 혹은 종신보험 등 주력 장기계약 상품의 경우 아직까지 고객들이 대면 상담을 통해 보수적으로 의사결정하는 기조가 짙다"며 "한화는 오프라인 강화를 통해 수익성 위주의 계약을 강화하는 전략을 편 것 같다"고 말했다.    최근 독립계 GA회사들이 잇따라 상장이나 M&amp;A에 성공하는 기조도 이어졌다. JC파트너스는 약 1900억원을 투입해 리치앤코의 최대주주에 올랐고, 인카금융서비스는 연초 코스닥시장 상장에 성공했다.피플라이프는 현 회장이 2003년 설립한 국내 최대 규모의 독립계 GA로 조인성·현빈 등 유명 배우를 모델로 기용하는 등 공격적인 영업으로 사세를 키웠다. 업계 최초로 설계사를 전원 정규직으로 채용해 화제가 되기도 했다. 2019년 PEF인 코스톤아시아로부터 조달한 투자금으로 오프라인 점포를 500곳까지 확대한다는 청사진을 세웠지만 코로나 위기로 달성하진 못했다. 한화생명은 "피플라이프 인수를 검토 중이지만 아직 확정된 바 없다"는 입장이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>토스·핀크 후불결제엔 ‘퇴짜’… 네이버는 ‘OK’</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001554453?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>혁신서비스 지정 형평성도 논란혁신금융서비스 제도는 혁신성을 갖춘 금융 서비스에 ‘규제 특례’ 혜택을 한시적으로 주는 것이다. 따라서 지정 심사는 공정하고 신속하게 이뤄져야 한다. 하지만 업계에서는 이런 원칙이 제대로 지켜지지 않고 있다는 불만의 목소리가 크다.대표적인 사례는 후불결제(BNPL) 서비스를 둘러싼 형평성 문제다. 이 서비스는 신용카드를 발급받지 않은 사람들이 상품을 먼저 구매하고 나중에 결제대금을 납부할 수 있도록 하는 것이다. 토스와 핀크는 2019년 업계에서 가장 먼저 후불결제 서비스에 대한 혁신금융서비스 지정을 신청했지만 받아들여지지 않았다. 카카오페이도 2020년 탈락했다. 반면 2020년 후불결제를 혁신금융으로 신청한 네이버파이낸셜은 2021년 2월 혁신금융서비스 지정을 받았다. 이 서비스 출시 후 8개월간 330억원의 거래 실적을 올렸다. 네이버파이낸셜 측은 “후불결제 혁신금융 신청·지정까지 1년이 넘는 준비 기간이 있었기에 신속하게 서비스를 출시할 수 있었던 것”이라고 밝혔다.증권업계에서는 ‘주식 구매 상품권’ 경쟁 과정에서 불공정 논란이 불거졌다. 주식 상품권은 액면가만큼 주식을 매수할 수 있는 일종의 유가증권이다. 한국투자증권, KB증권, 신한금융투자는 혁신금융서비스 지정을 받은 후 온라인에서 구매 가능한 주식 상품권을 출시해 ‘MZ세대’의 호응을 이끌어냈다. 하지만 같은 서비스를 신청한 키움증권 등 다른 증권사는 혁신금융서비스 지정이 수 개월 지연되는 탓에 경쟁 타이밍을 놓쳤다.정부 부처 간 불협화음 탓에 신속하게 출시되지 못한 서비스도 있다. 통신3사(SKT·KT·LGU+)와 나이스평가정보가 2020년 혁신금융서비스로 지정받은 보이스피싱 방지 서비스가 대표적이다. 이 기술은 로밍 여부와 휴대전화 개통주소지 정보 등을 토대로 보이스피싱 여부를 판별한다. 하지만 금융위, 과학기술정보통신부, 방송통신위원회 등에서 각각 규제샌드박스 허가를 받는 과정을 거치느라 서비스 출시가 늦어졌다.금융위는 국내 주식 소수점 거래 서비스를 이달 출시하겠다고 예고했지만 세금을 어떻게 매길지 논의하느라 시간이 지체됐다. 금융위, 금투업계, 국세청 등 유관기관들 간 논의가 빠르게 진행되지 못한 탓이었다. 정부가 최근 소득세법상 과세 대상이 아니라는 결론을 내렸지만 최근 증시 부진을 고려하면 출시 후에도 주목받기 어려울 것이라는 관측도 나온다.금융권 관계자는 21일 “허가 기준을 명확하게 하고 동일하거나 유사한 서비스에 대해서는 최대한 신속하게 판단해주는 절차가 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문]“정부 개입 약발 없다···통화스와프 되살려야”</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005321542?sid=102</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>[이데일리 강민구 기자] 다음은 21일자 이데일리 신문 주요 뉴스다.△1면-“정부 개입 약발 없다···통화스와프 되살려야”-韓주식 ‘소수점 거래’ 열렸지만 주당 50만원 넘는 종목 7개뿐-尹정부 ‘원전=녹색에너지’ 공식화-중개상품 불량·사고 쿠팡도 책임진다-[사설]건전 재정과 거꾸로 가는 이재명식 포퓰리즘 입법-[사설]OECD도 권고한 연금개혁, 미룰 여유·명분 없다△종합-文정부 성과 지우기에···지원 끊기는 청년·中企-영국 간 이재용 삼성전자 부회장, ARM 인수 시나리오 할까···시나리오 셋△주식 소수점거래 카운트다운-대학생·사회초년생에 고가株 문턱 낮췄지만-실시간 거래 어래워 투자매력 떨어질 듯-소수점주식 투자, 배당·양도세 없어···온전한 1株에만 세금-토스 수수료 제일 낮고, 삼성은 24시간 주문 가능△종합-‘예대금리차 공개’도 무색···은행 19곳 중 15곳 금리차 더 벌어졌다-12년 만에···‘1박 2일 과기부 국감’ 벼르는 巨野-美 역대급 ‘금리발작’···구겐하임 “연준 긴축, 피눈물로 끝날 것” 경고-글로벌 에너지사 77곳 한국기업은 3곳 불과△경제학자가 고환율 긴급진단-“한은, 금리인상 속도·폭 높여 미국과 금리 격차 줄여야”-“환율 급등, 경제위기 전조증상으로 보긴 어려워”-“정부 대비 않는다면 원·달러 환율 내년 1600원 갈 수도”△정치-“조문 취소는 외교참사” vs “정쟁 이용 말라”-“신당역 참사 미리 막을 수 있었다” 여야 ‘반의사불벌죄 폐지’ 한목소리-‘텃밭 당심 잡아라’···與 당권 주자들 영남 적극 구애-한남동 공관 내준 외교부, 호텔 빌려 외빈행사 논란···野 “떴다방”-때아닌 군장볍 ‘팬티 공방’ 눈살△경제-새 원전 건설 길 열렸지만···고준위방폐물 특별법 진통 불가피-배추 한포기에 1만원 육박 “이번주 정점 후 하향 안정”-“쌀 초과생산 정부매입 의무화 땐 식량안보 되레 저해”-이창양 산업부 장관 미국행···국산 전기차 보조금 차별문제 논의△금융-사업 목적인 척 서류 조작···페퍼저축銀, 100억대 불법 대출-DSR 완화 효과···‘40년 만기 주담대’ 쏟아진다-카드사 제외한 여전사 상반기 순익 2조···1년새 3.7% 증가-신한카드앱 MAU 1000만명 넘었다△Global-바이든 “팬데믹 끝났다”에···美 백신주 시총 14조원 증발-“인플레·공급망 불안에 포드 1.4조원 추가 비용”-멕시코에 규모 7.6 강진, 해안 지역에 쓰나미 경보-일본, 8월 물가 2.8% 상승···31년 만에 최고치-경제지표 회복·위안화 약세에 中 ‘실질 기준금리’ LPR 동결△제6회 글로벌 제약바이오 콘퍼런스-혁신기술·플랫폼으로 무장한 K바이오···블루오션 시장 개척하라-최윤섭 디지털헬스케어파트너스 대표 “의료 인공지능 시장 주목하라”-이도영 비엘 연구개발본부장 “범용 폐질환 치료제 개발로 승부수”-서범석 루닛 대표 “AI로 암 정복하는 시대 온다”-유재현 큐라클 대표 “황반변성 치료 알약, 상업화 가능성 높다”-김훈택 티움바이오 대표 “혈우병치료제 후보물질 기술이전 기대”-이영미 한미약품 글로벌 R&amp;D 혁신 총괄 “약효 지속시간 연장 플랫폼, FDA도 인정△글로벌 대체투자 컨퍼런스 내일 개막-금리 급등에 투자환경 급변···대체투자는 ‘선택 아닌 필수’-‘한국판 구글벤처스’ 노하우를 찾다△산업-인플레 감축법의 역설···북미 주지사·완성차업계 ‘K-배터리 러브콜’ 쇄도-전기차용 배터리 가격 내년 정점-삼성전기·LG이노텍 ‘차세대 반도체 패키지 기술’ 선봬-세계 최대 상용차 박람회 ‘IAA Transportation 2022’에 가보니△ICT-화웨이 ”디지털 토털 솔루션으로 美 제재 돌파“-애플 인앱결제 1200원→1500원 ‘인상’-넷플 망 무임승차 막을 방법 안 찾고···산으로 간 공청회-갈등 장기화 ‘우마무스메’···”카겜 소통방식 바꿔야“△소비자생활-‘플랫폼 분쟁 1위’ 쿠팡, 오명 벗기 나섰다-고물가속 알뜰족, 편의점 앱 찾는다-탈 많은 유통업계···올해도 CEO 국감 출석 줄잇나-‘이젠 공원서도 배민 배달로봇이 찾아가요’△증권-5개 기업 도전, IPO슈퍼위크 증시 한파 뚫어낼 수 있을까-美 FOMC 앞두고 코스피 초긴장 거래량 ‘뚝뚝’···하루 4억건 위태-모바일 거래로 편하게, 삼성證 해외채권 서비스 일주일만에 60억 판매-디지털전환 SW 강자···생보·카드사 10곳 중 6곳이 고객-물타기할 수 밖에···5만전자의 늪 빠진 개미들△부동산-더 오를 집만 팔린다, 천장 뚫는 강남아파트-국토부-산업부 지산 두고 신경전, 왜-거품 걷힌다···인덕원·시흥 뚝뚝-현대건설, 2200억원 규모 쿠웨이트 항만 공사 수주△엔터테인먼트-팬덤·대중성 다 잡은 걸그룹···기획사 ‘대표 선수’로 우뚝-클립영상·명대사 패러디 속속···조우진, ‘수리남’서도 미친 존재감△‘DX코리아 2022’ 개막 -진격의 K방산, 세계로 미래로···-첨단 무인·지원체계 갖춘 차세대 전투차량 5종 선보여-지상·공중·우주까지···첨단방산 이끌 미래기술 총집합-수리온 이어 두번째 독자개발한 소형무장헬기 공개-첨단 방호체계 적용한 ‘K2전차·차륜형장갑차’ 앞세워-‘드론탑재 공대지 유도탄’ 첫 공개···전자전 장비도 전시-첨단 신형 총기 총망라···국산 방산제품 기술력 뽐낸다△Book-달에 관한 모든 것-‘문화충돌’이 낳은 이민자 가족의 비극-17년 전 게임 속···‘팬데믹 예고편’ 있었다-200자 책꽂이△오피니언-‘노란봉투법’에 더 기울어지는 운동장-한은, ‘샤우실의 바보’가 되지 말라-김희경 ‘블룸 220405’-태풍에 침수된 철강산업, 노사 이기심에 또 위기△피플-시각장애인 마음까지 어루만져주는 안내견 믿어주세요-”클라우드처럼 블록체인 활용 일반화될 것“-전세계에 리니어 모터 공급 확대···후진양성에도 힘쓸 터”-김기남 공학한림원 이사장, 英공학한림원 외국회원 선출-심규하 한예종 교수, 英왕립예술학회 종신 석학회원 선정△사회-판사 성향따라 ‘고무줄 영장’···“영장항고제 도입 필요”-인력 부족·사법권 남발 우려에···역무원 안전 무방비 노출-“더는 고인의 명예 훼손·이용하지 마라”-에펠탑·루브르서 마스크 쓴 사람은 코리안뿐-10만 장애아 지도할 특수교사가 없다-한미 정상 통화 누설 강효상 전 의원 1심 집행유예</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>광주은행, 두달 연속 가계예대금리차 국내 은행 중 3위…이자장사 '비판'</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003689266?sid=102</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>광주은행 "중·저 신용자를 위한 중금리 대출과 서민금융상품 취급 비중 높아 착시현상"광주은행 제공                          국내 19개 은행 중 광주은행이 지난 7월에 이어 8월에도 금리가 높은 정책서민금융을 제외한 가계예대금리차에서 전북은행과 토스뱅크에 이어 3위를 차지하면서 '이자 장사'를 한다는 비판을 받고 있다.이에 대해 광주은행은 중·저 신용자를 위한 중금리 대출과 서민금융 정책상품의 취급 비중이 높아 예대금리차 착시현상이 있을 수 있다"고 밝혔다.26일 전국은행연합회 소비자포털의 '예대금리차 비교' 공시에 따르면 8월 광주은행의 정책서민금융을 제외한 가계예대금리차(대출 금리와 예금 금리 차이)는 4.10%p로, 전북은행 4.80%p, 토스뱅크 4.76%p에 이어 19개 은행 중 3위를 기록했다.이는 지난 7월 가계예대금리차에서 광주은행(3.28%p)이 전북은행(5.73%p)과 토스뱅크(5.60%p)에 이어 3위를 기록한 것과 유사한 상황이다.특히 가계예대금리차에서 1위와 2위를 기록한 전북은행과 토스뱅크가 8월에는 가계예대금리차가 줄어든 반면 광주은행은 오히려 커졌다는 점이 눈에 띈다.가계예대금리차는 가계대출금리에서 저축성수신금리를 뺀 것으로, 예대금리차가 크면 일반적으로 은행이 이른바 '이자 장사'를 한 것으로 받아들여진다.8월 광주은행의 가계대출금리(정책서민금융 제외)와 저축성수신금리는 각각 6.88%와 2.78%로 격차가 4.10%p를 기록하면서 가계예대금리차가 가장 낮은 기업은행의 0.96%p와 비교하면 3.14%p나 차이가 났다.지방은행들과 비교해도 부산은행 1.10%p, 경남은행 1.24%p, 제주은행 2.00p%와 비교해 광주은행의 예대금리차가 큰 것으로 분석됐다.이에 따라 광주전남 지방은행을 표방하는 광주은행이 지역민들을  대상으로 이자 장사를 했다는 비판이 제기된다.이에 대해 광주은행은 "예대금리차가 다른 은행에 비해 높게 나타난 것은 중·저 신용자를 위한 중금리 대출과 서민금융 정책상품의 취급 비중이 높아 착시현상이 있을 수 있다"고 해명했다.이어 "가계예대금리차에서 서민금융과 중금리 대출 등을 제외하면 광주은행의 예대금리차가 지방은애 평균 수준"이라고 덧붙였다.한편 7월에 예대금리차가 처음 공개된 이후 저소득 저신용 서민 대상 정책금융을 많이 취급할수록 예대금리차가 커지는 왜곡현상이 나타난다는 지적에 따라 정책서민금융을 제외한 예대금리차가 별도로 공개됐다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.09.29.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>모두가 잘못 알고 있던 두 청년의 죽음</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/308/0000031521?sid=102</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>두 청년의 잇따른 사망에 대통령은 “자립준비청년에게 기회의 평등을 보장하겠다”라고 말했다. 그러나 진실은 달랐다. 두 청년은 ‘자립준비청년’조차 되지 못했다.9월13일 윤석열 대통령이 자립준비청년과의 간담회를 가졌다. ©대통령실통신사진기자단9월13일 윤석열 대통령은 추석 연휴 이후 첫 공개 행보로 충남 아산시에 위치한 충남자립지원전담기관을 방문했다. 8월18일과 24일 광주광역시에서 아동양육시설(보육원) 출신 청년 두 명이 잇달아 스스로 생을 마감한 데 따른 것이었다. 자립준비청년(보호종료아동)과의 간담회에서 윤 대통령은 “자립준비청년들에게 기회의 평등을 보장하는 게 국가의 역할이자 책임”이라고 강조했다.두 청년의 죽음 이후에 한 대통령의 발언이었는데, 사실관계는 조금 달랐다. 〈시사IN〉이 확인한 결과, 두 청년은 대통령이 책임지겠다고 말한 ‘자립준비청년’이 아니었다. 두 청년은 광주자립지원전담기관이 담당하는 대상자 명단에도 올라가 있지 않았다. 그렇다면 이들은 왜 스스로 생을 마감하게 됐을까. 두 청년의 삶과 죽음을 자세히 들여다보았다.8월24일 사망한 A씨(19)가 2020년까지 머물렀던 보육원에 입소한 시기는 2015년이었다. A씨의 가정이 위치한 지역 행정복지센터는 A씨의 아버지가 양육을 책임질 수 없다고 판단해 A씨와 동생을 광주 광산구의 한 보육원에 입소하도록 했다. 군 생활 이후 트라우마 장애를 앓아온 A씨의 아버지가 자녀 두 명을 홀로 양육하기 어렵다고 판단한 것이었다.공적제도를 통해 더 나은 양육 환경을 제공받았지만 A씨는 보육원에서의 생활에 잘 적응하지 못했다. 보육원 관계자에 따르면, A씨는 꾸준히 원가정으로 복귀하기를 희망했다. 외출 제한 등 통제가 이루어지는 보육원 환경에 답답함을 느꼈고, 홀로 있는 아버지를 돌봐야 한다는 생각을 했다.시간이 지나며 A씨는 우울 증세를 보이고 시설 규칙을 어기기도 했다. 그러나 보육원에는 아동들을 면밀히 보살필 만한 인력이 충분치 않았다. A씨가 머물렀던 보육원에선 현재 아동 50명가량이 생활하고 있지만 심리 상담을 담당하는 임상심리상담사는 단 한 명이다. 보육원 관계자는 “아동이 70~80명이었을 때도 임상심리상담사가 한 명뿐이었다. 한 명이 그 많은 아동을 담당하는데, 세세한 케어가 어렵다”라고 말했다.A씨의 우울증과 문제 행동이 나아지지 않자 보육원은 통고제도를 통해 A씨를 아동보호치료시설로 전원시키기로 결정했다. 통고제도는 아동복지시설장 등이 법원에 아동에 대한 보호처분을 요청하는 절차를 말한다. 법원은 A씨에게 양육을 넘어선 치료가 필요하다고 인정했다. 그렇게 2020년 2월 A씨는 6호 처분(6개월 처분)을 받고 보육원을 떠나 전북 고창군의 한 아동보호치료시설로 떠나게 됐다.통고처분 1회 연장을 포함해 1년간의 생활이 끝난 2021년 2월 중순, A씨를 보호하던 복지시스템에 허점이 생기기 시작했다. 개선된 아동복지 정책의 실현이 A씨의 퇴소 시점보다 한 발짝 늦게 이루어지면서다. 시작은 A씨의 퇴소 결정이었다. 퇴소 시점이 가까워오자 보호치료시설은 A씨가 있던 보육원에 다시금 A씨를 보호할 수 있는지 문의했다. 그러나 보육원은 A씨를 복귀시키지 않고 원가정으로 돌려보내는 결정을 내렸다. 3월 초가 생일인 A씨가 만 18세가 되기까지 보름밖에 남지 않았기 때문이다. 올해 6월부로 시행된 아동복지법은 특별한 사유가 없어도 만 24세까지 보호기간 연장이 가능하도록 하고 있지만, (A씨가 아동보호치료시설에서 나올) 당시에는 학업 등의 사유가 없다면 보호 연장이 불가능했다. 이미 고등학교를 졸업했고 대학 진학은 포기했던 당시의 A씨는 보호 연장을 할 수 없었다. 결국 보육원은 추가적인 보호의 실익이 없다고 판단해 A씨를 원가정으로 돌려보냈다.원가정으로 복귀할 당시, A씨는 퇴소 조치가 옳은지 공적으로 검토받지 못했다. 2021년 6월30일부터 시행된 아동복지법 시행령에 따르면 보호조치가 종료되는 모든 아동은 각 시군구 사례결정위원회의 심의를 받아야 한다. 이를 통해 ‘아동의 복리에 반하지 않는다고 인정’되어야만 만 18세가 되지 않은 보호대상 아동이 원가정으로 복귀할 수 있다. 그러나 A씨가 퇴소하던 2021년 2월은 사례결정위원회 제도가 시행되기 이전이었다. 따라서 아동에게 무엇이 최선일지 공적 판단 없이, 자신의 희망에 따라 A씨는 집으로 돌아가게 됐다. 원가정이 A씨가 머무르기에 적합한지는 검토되지 않았다.보름 차이로 자립 지원 대상에서 제외돼불과 보름 차이였지만 이 결정이 A씨의 삶에 미치는 영향은 지대했다. A씨가 ‘중간 보호종료아동’으로 분류돼 모든 자립 지원정책으로부터 제외됐기 때문이다. 자립준비청년으로서 자립정착금과 자립수당 등 혜택을 받기 위해선 만 18세가 넘은 이후에 보호가 종료돼야 한다. 만 17년 11개월이던 A씨에게 주어지는 혜택은 없었다. A씨는 자신과 아버지에게 주어지는 기초생활수급 및 장애수당 등을 합친 110만여 원으로 생활을 꾸려 나가야 하는 처지가 됐다.사후관리를 통해 퇴소 아동이 보이는 위험 징후를 알아챌 수 있는 기회 역시 A씨에게는 주어지지 않았다. 보건복지부의 ‘2021 아동분야 사업안내’는 시군구에서는 보호조치가 종료된 아동에 대해 1년간 4회 사후관리를 실시하고, 위험요인이 발견될 시 사후관리를 연장하도록 규정했다. 그러나 A씨는 어떠한 공공기관으로부터도 사후관리를 받지 못했다. A씨가 퇴소하던 2021년 2월 당시 보호치료시설이 위치한 고창군에 사후관리를 위한 인력과 시스템이 마련되지 않았기 때문이다. 고창군 관계자에 따르면 2021년 7월이 되어서야 고창군은 본격적으로 사후관리를 시작했다. 2016년 아동복지법 개정으로 사후관리 조항이 만들어진 지 5년 만이었다.A씨의 원가정이 위치한 광산구청은 A씨의 원가정 복귀보다 빠른 2020년 10월부터 전담인력을 두고 있었지만 A씨에 대한 사후관리를 하지 못했다. 시스템이 갖춰지지 않았던 고창군이 광산구청에 사후관리를 요청하지 않았기 때문이다. 그렇게 A씨가 보인 위험신호를 감지할 수 있었던 추가적인 기회는 허무하게 날아갔다. 그러던 중 친하게 지내던 친구가 세상을 떠나는 불행이 A씨를 덮쳤고, 며칠 뒤 A씨는 “내가 살아온 삶이 고달프다. 가족들에게 미안하다”라는 유서를 남기고 세상을 등졌다.8월18일 사망한 B씨(19)는 사망 직전까지 위험 징후를 전혀 드러내지 않았다. B씨는 지난해 11월부로 만 18세가 됐지만 보육원을 떠나지 않은 ‘연장 보호아동’이었다. 특별한 사유 없이 보호기간을 연장할 수 있는 아동복지법 개정안이 시행되기 전이었지만, B씨는 보육원에 계속 남아 있을 수 있었다. 고등학교를 졸업하고 바로 광주 소재 대학에 진학해 보호 연장 사유를 충족했기 때문이다.대학에 진학하며 B씨는 자립 의사를 꾸준히 밝혀왔다. 그러나 보육원 측은 B씨에게 연장 보호를 권유했다. 경기도에서 광주광역시에 있는 보육원으로 옮긴 지 2년밖에 안 되어 B씨가 광주에 이렇다 할 연고가 없었기 때문이다. 그럼에도 B씨가 계속 자립을 원하자 보육원 관계자는 일단 “독립적인 생활을 체험해보자”라고 권유했다. 보육원 소속으로 남아 있는 대신 기숙사 생활을 하며 자립을 준비해보자는 것이었다.아직 자립 전 단계였기 때문에 B씨에게 별도의 자립정착금이나 자립수당이 주어지지 않았다. 다만 B씨에게는 자신 명의로 된 통장에 들어 있는 후원금 700만원이 있었다. 시설 후원금과 분리해 각 아동 명의의 통장에 기부자들이 후원해준 금액이었다. 보육원에서 이 통장을 B씨에게 준 것은 아니었지만, B씨가 이 돈을 사용하는 데는 아무런 문제가 없었다. 간편 송금 서비스인 토스(toss)를 통해 이 돈을 옮길 수 있었기 때문이다. B씨는 2학기 기숙사비 100여만 원을 직접 내고, 10만~30만원씩 여러 번에 걸쳐 후원금을 사용했다. 두 달이 안 되어 B씨에게 남은 금액은 90여만 원뿐이었다.©김흥구‘연장 보호아동’이 겪는 중압감B씨는 후원금 계좌에서 자신 명의의 다른 통장으로 돈을 이체해 사용했다. 따라서 보육원이 보유한 통장에는 이체 기록만이 남아 있을 뿐 B씨가 어디에 후원금을 사용했는지 알지 못한다. 경찰 역시 범죄 혐의점이 없어서 B씨 계좌 사용 내역을 따로 조회하진 않았다고 밝혔다. B씨는 사망 이틀 전 보육원 관계자와 함께 만난 자리에서 “이렇게 쓴 것에 대해 후회는 없다”라고 말하기도 했다.B씨가 추후 자립을 한다면, 자립정착금 1000만원과 디딤씨앗통장에 있는 1100여만 원을 받을 수 있었다(한정애 더불어민주당 의원실 발표). 자립 5년 차까지 자립수당 35만원이 다달이 제공되고, 기초생활수급비 50여만 원을 받을 수 있었다. B씨가 생활고로 인해 처지를 비관했다고 쉽사리 넘겨짚기 어려운 이유다.연장 보호아동을 대상으로 연구를 진행한 바 있는 한국사회보장정보원 김지선 부연구위원은 B씨의 사망에 대해 “결국 사람이 없었던 것 아닌가 싶다”라고 말했다. 김 부연구위원이 연구를 진행하며 만나본 연장 보호아동들이 자주 반복하던 말은 “혼자 해야 한다”였다. 여전히 보육원에 소속돼 있음에도 불구하고, 사회에 막 발을 내디딘 청년들은 혼자 난관을 헤쳐 나가야 한다는 중압감에 사로잡혀 있는 경우가 많다는 것이다.실태조사 결과에서도 연장 보호종료아동의 불안감은 여실히 드러난다. 2019년 보건복지부와 한국보건사회연구원이 실시한 조사 결과에 따르면 연장보호 상태인 아동 중 44.9%에 달하는 아동이 ‘죽고 싶다고 생각해본 적이 있다’고 답했다. 그러나 죽고 싶다는 생각이 들었을 때 시설 선생님과 대화를 통해 대처했다는 응답은 3.2%에 불과했다. 평균 11.8년간 아동복지시설에서 보호를 받고, 여전히 시설에 소속돼 있음에도 시설 선생님은 아동이 의지할 수 있는 마지막 버팀목이 되어주지 못하고 있는 것이다. B씨는 주변 어른에게 의지하지 못하고, 친구들에게도 힘든 티를 내지 못했고, 따로 떨어져 살았던 부모와도 소원했다.‘이렇게 했으면 살았을까’ 하는 질문은 언제나 죽음 앞에서 무기력하다. 이제 와 무엇을 바꾼다고 한들 죽음은 되돌릴 수 없다. 그러나 그 죽음이 무의미해지지 않기 위해선 그 죽음을 사회가 한 발자국 나아가는 계기로 만들어야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>김주현 금융위원장 “은행CEO가 리스크관리 직접 나서야”</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005326576?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>금융위원장 초청 은행장 간담회 개최“경영진이 ‘사고방지, 소비자우선’ 조직문화 심어야”[이데일리 정두리 기자] 김주현 금융위원장이 은행 경영진을 대상으로  금융사고 예방을 위한 충실한 내부통제제도 운영과 조직 문화 개선에 적극적으로 나서달라고 주문했다.은행연합회는 26일 금융위원장 초청 은행장 간담회를 개최하고, 최근 은행권 현황에 대한 인식을 공유하는 등 경제 및 금융 현안에 대해 논의하는 시간을 가졌다. 간담회에 앞서 참석자들이 기념촬영을 하고 있다. (아랫줄 왼쪽부터)이재근 국민은행장, 권준학 농협은행장, 윤종원 기업은행장, 김광수 은행연합회 회장, 김주현 금융위원회 위원장, 강석훈 산업은행 회장, 박성호 하나은행장, 이원덕 우리은행장, 안감찬 부산은행장. (윗줄 왼쪽부터)홍민택 토스뱅크 대표, 최준우 주택금융공사 사장, 윤희성 수출입은행장, 김진균 수협은행장, 서한국 전북은행장, 임성훈 대구은행장, 서호성 케이뱅크 은행장, 박우혁 제주은행장, 이호형 은행연합회 전무.은행연합회는 금융당국과의 소통을 강화하고 금융현안에 대한 이해의 폭을 넓히기 위해  26일 ‘금융위원장 초청 은행장 간담회’를 개최했다고 밝혔다.이날 간담회에서 김주현 금융위원장과 김광수 은행연합회장, 15개 사원은행장(산업은행·농협은행·우리은행·하나은행·기업은행·국민은행·수출입은행·수협은행·대구은행·부산은행·제주은행·전북은행·주택금융공사·케이뱅크·토스뱅크)들이 참석했다. 이들은 최근 은행권 현황에 대한 인식을 공유하고, 경제 및 금융 현안에 대하여 격의 없는 논의를 진행했다.특히 김 위원장은 금융사고 방지를 위한 충실한 내부통제제도 운영과 조직 문화 개선을 강조했다. 최근 연이은 금융사고로 국민들의 불안과 불신이 고조되고 있는 상황에서 감독당국은 내부통제제도 개선을 위한 방안을 검토중에 있다. 김 위원장은 “이보다 중요한 것은 최고경영진들이 ‘사고발생 방지와 소비자 우선’의 조직 문화를 심어 놓는 것”이라면서 “‘사고발생 방지와 소비자 우선’의 문화정착에 노력하고, 영업 현장에서 이런 문화가 정착돼 있는지 여부를 최고경영자가 직접 확인해 주길 바란다”고 당부했다.또한 김 위원장은 효과적인 금융개혁을 위한 협조도 당부했다. 김 위원장은 “금융개혁 과정에서 업계간 이해상충 문제, 새로운 업무수행에 따른 위험 관리 문제, 예컨대 은행이 어느 정도까지 새로운 업무를 할 수 있을지 등에 대한 많은 논란이 예상되는데, 금융시장 불안으로 어려운 상황에서 이런 논란 소지에 잘 대응하지 않으면 개혁의 추진 동력이 상실될 우려가 있다”면서 “예상되는 주요 이슈들에 대해 소비자, 이해관계자, 국회, 언론 등에 잘 설명하고 이해를 구하는 작업을 업계와 연구소 등이 금융당국과 힘을 모아 같이 하게 되면 보다 속도감 있고 효과적인 금융개혁 추진이 가능할 것”라고 밝혔다.김광수 은행연합회장은 금융당국이 금융규제혁신회의 등을 통해 금융산업 규제개선을 위해 적극 힘써오고 있는 점에 대해 감사함을 표하며 “앞으로의 규제 개혁 추진 과정에서 은행권도 깊이 있는 논리를 개발하고 여러 이해관계자와 열린 자세로 소통하는 등 최선을 다해 적극 지원하겠다”고 화답했다. 그러면서 김 회장은 “리스크관리 강화와 내부통제 제고 필요성에 대한 금융위원장의 당부에 대해서도 깊이 공감하고 있으며, 특히 금융사고 예방을 위해 은행의 자체적인 내부통제 강화에 심혈을 기울이겠다”고 밝혔다.아울러 김 회장은 “금리·물가·환율상승 등으로 서민경제에 부담이 커지고 있는 상황이므로, 은행권은 새출발기금을 비롯한 정부 정책에 적극 협조할 뿐만 아니라 은행별 특성에 맞는 자율적인 금융지원을 이어나가겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.09.28.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>10년만에 자산 2배 키워 자산 133조…"부동산 PF 부실우려 씻는다"</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004104236?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>■50주년 맞은 저축은행총여신·수신 각각 100조 돌파부실 꼬리표 떼고 성장궤도로핀테크와 협업 등 디지털화 가속내부통제강화로 리스크 관리도올 당기순익 2조 달성 무난할 듯22일 저축은행중앙회가 서울 중구 은행회관에서 개최한 서민금융포럼에서 토론 참가자들이 발언하고 있다. 사진 제공=저축은행중앙회[서울경제] 올해 50주년을 맞은 저축은행이 부실 금융사 이미지를 떨쳐내고 성장 궤도에 올랐다. 최근 저축은행들의 부동산 프로젝트파이낸싱(PF) 부실 우려가 지적되고 있지만 그동안 저축은행들이 포트폴리오를 재정비하고 건전성 개선을 이어온 만큼 과거와는 다를 것으로 보인다.28일 저축은행 업계에 따르면 올 상반기 기준 국내 저축은행 79개의 총자산은 133조 3832억 원을 기록했다. 2011년 12월 총자산 60조 1646억 원 규모에서 2배 이상 증가하며 외연이 크게 확대된 것이다. 총여신과 총수신은 각각 114조 5331억 원, 116조 4664억 원으로 모두 100조 원을 넘었다. 건전성 수치도 꾸준히 좋아지고 있다. 저축은행의 대출금 연체율은 2011년 12월 20.05%였으나 올 상반기 2.6%로 개선됐다.저축은행은 1972년 상호신용금융법 제정을 계기로 상호신용금고로 영업을 시작한 후 위기 속에서도 발전을 거듭해왔다. 2011년 부동산 PF 부실 대출 사태인 소위 ‘저축은행 사태’로 소비자 신뢰가 무너지는 쓰디쓴 경험이 있었다. 당시 저축은행 당기순이익은 -963억 원을 기록했고, 2013년 -3828억 원으로 적자 폭이 확대됐다. 하지만 이후 PF를 줄이고 안전성이 높은 중신용자 대상 중금리 대출을 확대하는 등 체질 개선으로 저축은행들은 성장 궤도에 올랐다. 지난해 저축은행 당기순이익은 1조 9500억 원으로 2조 원에 육박하기도 했다. 올해 상반기 당기순이익은 9007억 원으로 감소세를 보였지만 장기적으로는 성장을 이어나갈 것으로 보인다.저축은행들은 디지털화를 통한 영업 채널 다변화에도 적극적으로 나서고 있다. 자체 애플리케이션을 만들거나 토스·카카오페이·핀다 등 핀테크와의 협업을 통해 2030세대도 유입했다. 대형사들은 자체 앱을 만드는 경우가 많지만 저축은행중앙회 차원에서도 공용 앱인 ‘SB톡톡플러스’를 운영하고 있다. ‘SB톡톡플러스’에서는 현재 79개의 저축은행 상품에 가입할 수 있으며 로그인 한 번으로 통합 계좌 확인과 관리, 예·적금 계좌 개설, 대출 신청, 체크카드 발급 신청이 가능하다. 편리성 등에 힘입어 최근 ‘SB톡톡플러스’의 정기예금 가입 규모가 최초로 10조 원을 돌파하기도 했다.다만 현재 저축은행업권을 둘러싼 상황은 좋지 않다. 금리 인상기인 만큼 예대금리차가 축소되면서 수익성 악화가 불가피하다. 저축은행 예금 상품 금리가 시중은행과 비슷해지면서 자금 조달 방법이 한정적인 저축은행들은 수신금리를 더 올릴 수밖에 없다. 여기에 금융 당국은 저축은행들의 부동산 PF 부실화 우려를 지적하며 심사와 사후 관리를 강화하라고 지적하는 등 여전히 좋지 않은 인식들도 발목을 잡고 있다.하지만 지금은 그때와는 상황이 다르다. 그동안 저축은행이 체질을 개선하고 건전성도 높인 만큼 충분히 대응할 수 있다는 평가다. 과거에는 저축은행들이 부동산 PF에 대한 리스크를 인지하지 못했지만 이제는 충분히 위험성을 알고, 그 규모도 과거 수준으로 크지 않다. 저축은행 업계는 법규 준수, 내부 통제 시스템 강화를 통한 사고 예방에도 집중하고 있다.업계는 자체 노력도 중요하지만 규제 환경 개선도 필요하다고 보고 있다. 저축은행 간 규모, 영업 행태 등을 고려한 차등화된 규제 적용 및 금융 환경 변화에 부적합한 규제 개선이 필요하다는 것이다. 저축은행 업계 관계자는 “저축은행 규모 및 영업 행태 등이 다양하지만 대부분 규제는 일률적으로 적용되며 저축은행별 특성이 고려되지 않고 있다”며 “특성에 맞는 규제 적용을 통해 다양한 성장 지원할 필요가 있다”고 지적했다. 저축은행의 영업 구역 관련 규제는 최근 비대면 대출 증가 등 금융 환경 변화를 반영하지 못하고 있는 만큼 이에 대한 개선 방안도 필요한 상황이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>'페이깡'에 현금화까지…무법지대 된 'OO페이'</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003230723?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   후불결제로 '페이깡'을 시도하는 게시글    후불결제(BNPL)가 간편결제 서비스 'OO페이'를 제공하는 빅테크를 통해 활성화되면서 신용카드사에서 발생하는 불법 '카드깡' 대신 '페이깡'이 문제로 떠오르고 있다. 또 페이사에서 적립해주는 '포인트'를 사고파는 일도 공공연히 이뤄지고 있는 것으로 파악됐다. 하지만 이를 막을 법적 근거가 전무한 상태다.     21일 금융업계에 따르면 최근 커뮤니티에서 후불결제 금액을 거래하는 '페이깡'을 어렵지 않게 찾을 수 있다. '네이버페이 후불' '토스 후불' 등을 검색하면 75%, 85%, 90% 등으로 판매하는 게시글이 나온다.     '페이깡'이란 현재 30만원 수준에서 우선 결제하고 나중에 입금하는 소액후불결제를 이용해 국내 페이사에서 발생하는 '불법 현금융통(깡)'이다.       예를 들어 A가 '90%로 네이버페이 후불결제 판매한다'고 가정하자. 이를 B가 구매한다면, A는 B가 원하는 30만원 어치의 상품을 후불결제로 대신 결제해 B의 주소로 배송해주고 B에게 30만원의 90%인 27만원을 현금으로 받는 식이다.         토스 후불    이런 수법으로 네이버페이·쿠팡·토스 등에서 제공하는 후불결제 서비스를 악용하는 사례가 늘고 있다.     페이깡은 당장 몇 만원의 손해를 보더라도 급히 현금융통이 필요한 씬파일러(금융 이력 부족 고객) 사이에 일어날 가능성이 높다. 당초 후불결제 서비스 자체도 씬파일러의 금융 편의를 위해 도입된 것이기도 하다.     업계는 이 문제에 대해 충분히 인지하고 있다. 네이버페이와 쿠팡·토스에서는 후불결제를 악용한 현금화 거래를 금지하는 조항을 두고 있다.     네이버페이는 '제6조 서비스 이용정지'에 대한 규정에서 '후불결제 서비스를 이용해 상품구매 또는 서비스 이용 등을 위장한 현금융통 기타 부당한 행위를 한 경우'를 특정해 후불결제를 이용할 수 없도록 했다.     네이버페이 관계자는 "이런 문제를 모니터링하는 부서가 있고, 관련해 내부에서도 인지하고 있다"고 말했다.     쿠팡은 '나중결제' 서비스 관련 질의응답 카테고리를 통해 "고객이 타인의 상품을 대리 구매하고 금전을 받는 등 본래의 취지와 달리 악용하는 행위는 부정행위"라며 적발 시 민·형사상 법적 조치 등 불이익이 발생할 수 있다는 점을 분명히 고지해놨다. 쿠팡은 오는 10월부터 '나중결제' 서비스를 중지한다.       토스 역시 "후불결제는 구매를 가장한 현금융통이 금지된다"고 규정했다.     페이깡 외에도 적립 포인트를 사고파는 문제도 벌어지고 있다.       네이버페이에서는 네이버쇼핑 이용을 통해 적립된 네이버페이 포인트를 사고파는 일이 빈번하게 발생하고 있었다. 네이버페이 '충전 포인트'가 아닌 쇼핑을 통해 일정 비율을 적립해주는 포인트는 네이버가 현금화할 수 없도록 막아놨다.     하지만 이를 네이버페이의 '포인트 선물' 기능을 통해 원하는 고객에게 보내주고, 이를 현금으로 받는 방식으로 현금화를 하는 것이다.    업계는 이런 문제를 막을 명확한 처벌 규정이 없다고 입을 모은다. 비슷한 방식의 '카드깡'은 여신전문금융업법 제70조에 따라 3년 이하의 징역이나 2000만원 이하의 벌금을, 이용 고객은 7년간 금융거래상의 제한을 받을 수 있는 규정이 있다.     반면 혁신금융서비스인 '소액후불결제'는 법안 마련이 길어지고 있다. 지난해 이주환 의원이 '페이깡 근절법'을 담은 전자금융거래법 개정안을 대표 발의한 상황이다. 개정안에는 카드깡과 동일한 법적 제재를 받도록 하는 내용이 담겨있다.       업계 관계자는 "후불결제를 제공하는 곳이 늘어나는 상황에서 이 문제를 막을 법적 근거가 필요하다는 데 모두가 공감할 것"이라고 말했다.     후불결제 서비스는 지난해 네이버페이가, 올해 2월 토스가, 이어 페이코가 연내 도입한다. 이어 카드사 가운데서도 현대카드가 진출한 데 이어 KB국민카드와 신한카드 등도 준비 중인 것으로 알려졌다.     법무법인 창과방패 관계자는 "소액후불결제 업체가 더 많아질 것으로 예상되면서 페이를 통해 돌려막기를 하는 사람들이 생길까 우려되는 상황"이라며 "현실적으로 처벌 근거가 모호해 피해를 입었을 때 적절한 법적 조치를 취하기 힘들다"고 말했다.     그러면서 그는 "깡 관련 처벌법과 함께 소액후불결제 사업자에게도 적절한 대손충당금 적립요건을 마련하는 등 조치로 소비자가 보호받을 수 있도록 해야 한다"고 강조했다.    권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>철저한 보안에 나서는 인터넷금융업계</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000884198?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>[스포츠서울 | 홍성효기자] 인터넷금융업계에서 보안을 한층 강화해 나가고 있다.카카오페이는 사용자들이 해킹 피해를 예방할 수 있도록 카카오페이앱에 악성 앱 탐지 솔루션을 탑재했다. 이는 사용자가 카카오페이앱을 열었을 때 모바일에 악성 앱이 발견되면 즉시 안내 메시지가 나타난다. 사용자는 악성 앱의 종류를 확인하고 바로 삭제까지 할 수 있다. 금융 경험이 많지 않은 사용자들도 카카오페이앱으로 송금 서비스를 이용할 경우, 자동으로 악성 앱의 유무를 확인할 수 있어 금융범죄 피해를 입지 않을 수 있다. 탐지 솔루션은 사용자들이 악성 앱을 바로 삭제하지 않아도 카카오페이앱을 쓸 때마다 반복적으로 경고를 전달한다. 솔루션은 안드로이드 스마트폰에 적용된다.이밖에 카카오페이는 금융취약계층의 보호와 금융거래 편의성을 제고하기 위해 강화된 ‘금융취약계층 응대 매뉴얼’도 적용해왔다. 금융취약계층 응대 매뉴얼은 △고령자, 장애인에 대한 부당한 차별 금지 △금융 서비스의 명확한 이해와 적정한 금융거래 이용 보장 △금융취약계층의 금융거래 시 중요사항 설명의무 강화 △금융취약계층 맞춤 서비스 및 전자금융 거래 이용 편의성 제공 △금융소비자보호법 상위 법령 준수 등의 원칙을 포함하고 있다. 여기에 회사의 임직원이 금융취약계층 응대 시 고려해야 할 사항 등을 구체적으로 담아 금융취약계층의 카카오페이 서비스 이용에 차질이 발생하지 않도록 구성됐다.카카오페이는 “악성 앱 탐지 솔루션과 강화된 금융취약계층 매뉴얼 적용은 회사 내 금융취약계층 및 사용자 보호 정책을 보다 견고히 하려는 취지”라며 “앞으로도 금융소비자보호와 서비스 이용 경험 증진을 위한 다양한 방안으로 고려하고 시행하겠다”고 말했다.사진|토스모바일 금융플랫폼 ‘토스’를 운영하는 비바리퍼블리카(이하 토스)는 보안 취약점 신고포상제인 ‘토스 버그바운티 챌린지(Toss Bugbounty Challenge)’를 처음으로 실시한다. 버그바운티란 서비스 내 보안 취약점을 찾아낸 참가자에게 리워드를 지급하는 제도다.이번 프로그램에는 토스를 비롯해 토스뱅크, 토스증권, 토스페이먼츠 등 주요 금융 계열사가 참여한다. 취약점 신고 대상은 토스 애플리케이션 내 주요 서비스는 물론, 계열사 공식 홈페이지도 포함되며 자세한 내용은 관련 홈페이지를 통해 확인할 수 있다. 접수된 리포트는 토스 내부 검증과 평가를 거쳐 건당 최대 3000만원까지 포상금을 지급 받게 된다.이번 버그바운티는 보안에 관심있는 국내 토스 가입자면 누구나 참여할 수 있다. 단 오는 30일 오후 6시까지 공식 홈페이지를 통해 사전 신청한 사람에 한해 다음 달 개최되는 프로그램에 참여 자격이 주어진다. 신청자에게는 버그바운티에 참여할 수 있는 별도 환경을 제공하며 해당 환경에서 모의해킹이 진행된다.이종호 토스 보안기술팀 리더는 “토스는 해커의 관점에서 보안을 구축하며 자체 보안 프로그램을 만드는 등 보안에 많은 투자를 해왔다”며 “외부 전문가의 관점에서 객관적으로 취약점을 점검해 보고, 국내 금융분야 보안연구 활성화에도 기여할 수 있는 계기가 되길 바란다“고 말했다.최근 금융사고들이 발생하며 고객들의 불안을 가중시키고 있지만, 인터넷금융업계에서는 금융사고를 사전에 차단해 고객의 안심을 이끌어낸다는 계획이다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.09.18.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>택배·배달·건강까지… 은행 vs 핀테크 `무한경쟁`</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002754523?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>핀테크와 은행권이 디지털금융 전환에 대응해 모바일 앱 사용자수를 늘리기 위한 '비금융 서비스' 경쟁을 벌이고 있다. 이체·예금 등 금융업무 뿐 아니라 택배·배달까지 가능해지면서 본격적인 플랫폼화가 진행되고 있다는 평가다.18일 금융권에 따르면 최근 핀테크와 은행이 제공하는 비금융 서비스를 비교해 이용하는 금융소비자들이 늘고 있다. 비바리퍼블리카가 운영하는 토스 앱의 주민센터 탭에선 '증명서 떼기' 서비스를 제공하고 있다. 정부가 운영하는 전자증명서 온라인 채널인 '정부24'에서와 같은 증명서다. 토스 주민센터 전자증명서는 행정안전부 전자문서지갑 사업을 통해 이뤄진다. 주민등록등·초본, 건강보험자격득실확인서, 납세증명서, 대학교 졸업증명서, 코로나 예방접종증명서 등 다양한 증명서를 발급받을 수 있다. 또 한꺼번에 많은 증명서가 필요할 땐 '증명서 모아받기'를 이용하면 된다. 신용대출·전세자금대출·코로나 생활지원비 등 여러 가지 유형에 따라 필요한 증명서를 안내하고 있다.'숨은 정부지원금 찾기'에선 미처 몰랐던 지원금을 확인할 수 있다. 자신의 직업·주소·가구·소득 등을 입력하면 현재 받을 수 있는 지원금 목록이 나타난다. '정치후원금 보내기' 서비스에선 지지하는 정당이나 국회의원을 선택하면 바로 후원금을 보낼 수 있다.카카오페이에선 택배 예약과 결제를 한꺼번에 할 수 있다. 방문 택배와 편의점 택배 모두 가능하며, 편의점 픽업도 된다. 세븐일레븐, GS25, CU 세 편의점에서 이용할 수 있다. 편의점 픽업은 GS25에서만 할 수 있고, 반값 배송으로 저렴하다.네이버페이에선 원하는 음식점에 음식을 미리 포장할 수 있도록 '주문' 기능이 추가됐다. 가게와 음식 메뉴를 고르면 결제하고 매장에서 수령하면 된다. 매장에서 식사하더라도 미리 비대면으로 주문하고 결제할 수 있도록 했다.핀테크들은 고객이 온·오프라인을 넘나들며 서비스를 이용하고, 앱을 오랫동안 이용할 수 있도록 한다는 전략이다. 또 비금융 서비스를 통해 확보한 데이터는 신용평가모델 고도화에 활용할 계획이다.은행권도 반격에 나서고 있다. 은행권 최초로 신한은행이 내놓은 배달앱 '땡겨요'는 지난주 출시 8개월만에 회원 수 100만명을 돌파하는 기염을 토했다. 배달의민족, 요기요 등 기존 배달 플랫폼 점유율이 압도적인 배달 시장에서 존재감을 드러내고 있다. 별도 앱에서 이용은 물론 신한은행 모바일 앱 '신한 쏠(SOL)'에서도 접근이 가능하다.비금융 서비스는 헬스케어 영역까지 확대되는 추세다. 핀테크에서 널리 제공되고 있는 '걷기' 관련 상품이 은행권에서도 나오고 있다. 웰컴저축은행은 충청남도체육회가 운영하는 만보기 앱 '걷쥬'와 제휴했다. 뱅킹앱 '웰뱅'의 라이프 탭에서 일정 수준 걸을때마다 10원씩 리워드를 준다. 매일 1만보씩 걸으면 매달 3000원을 획득할 수 있다.카카오페이 만보기 서비스 '걷기왕 춘식이'는 스마트폰을 통해 측정된 걸음 수로 카카오톡 친구와 일종의 '내기'를 할 수 있다. 대결금액을 설정하면 최대 7일까지 걸음 수를 산정해 승부에서 진 친구가 이긴 친구에서 약속한 금액을 송금하는 방식이다. 이처럼 금융권에서 연이어 비금융 서비스를 출시하면서 하나의 앱에서 다양한 서비스가 가능한 '슈퍼앱' 경쟁이 뜨거워질 전망이다.  최근 핀테크와 은행권에서 비금융 서비스를 속속 내놓으면서 고객 확보 경쟁이 벌어지고 있다. 각사 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>예금금리 더 오른다...연말까지 내 돈 맡겨둘 최고의 통장은?</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003225026?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>셔터스톡       지금 내가 받는 금리가 최고일까. 장담할 수 없다. 기준금리 인상 등의 영향으로 예금 금리도 꾸준히 오르고 있어서다. 게다가 이번 주는 미국과 영국 등 주요국 중앙은행의 금리 결정 회의가 열리는 이른바 '수퍼 긴축 위크'다. 당장 미국 연방준비제도(Fed)가 20~21일(현지시간) 미 연방공개시장위원회(FOMC)에서 기준금리를 최소 0.75%포인트 인상할 것으로 예상된다.       한국은행 금융통화위원회의 금리 결정 회의도 10월과 11월, 올해 두 번 남았다. 적어도 연말까지 기준금리를 0.5%포인트 인상할 것이란 전망에 무게가 실린다. 이런 분위기 속 예금이나 적금에 섣불리 돈을 넣기엔 망설여진다. 이후 금리가 더 뛸 수 있는 만큼 만기가 짧은 상품에 돈을 넣어 놓고 기다리는 전략도 필요하단 이야기다. 이를 위해 잠시 돈을 맡길 수 있는 상품을 살펴봤다.     ━   저축은행 파킹통장 금리 3% 시대     그래픽=차준홍 기자 cha.junhong@joongang.co.kr           잠깐 돈을 맡기기에 최적화된 구조는 이른바 ‘파킹 통장(자유 수시입출금 통장)’이다. 만기 없이 아무 때나 돈을 넣었다가 뺄 수 있다. 이때 하루만 맡겨도 이자가 붙는다. 금리가 낮은 게 단점이었지만, 최근 저축은행의 '파킹 통장'을 중심으로 ‘3% 금리 시대’가 열렸다.       현재 저축은행 파킹 통장 중 금리가 가장 높은 상품은 OK저축은행의 OK세컨드통장이다. 연 3.3% 이자를 준다. 기본금리는 연 3.0%인데, 시중은행과 증권사에 세컨드통장 오픈뱅킹 약정 시 다음날(익일)부터 우대금리 0.3%포인트가 붙는 구조다. 다만 한도가 적은 게 단점이다. 1000만원까지 최대 연 3.3% 이자를 지급하고, 초과분에 대해서는 연 1.0% 이자가 붙는다.        조건과 한도를 따져 보면 페퍼저축은행의 '페퍼스파킹통장'이 더 나은 선택일 수 있다. 연 3.2% 이자를 주는데, 최고 금리를 받기 위해 맞춰야 하는 별도 조건이 없다. 한도도 5000만원이다. 5000만원 초과분에는 연 1.0%의 이자만 지급된다.금리 매력은 상대적으로 떨어지만 편의성을 고려한다면 인터넷은행 상품도 선택지에 넣어볼 수 있다. 인터넷은행도 최근 금리를 올려 파킹 통장에 연 2%대 금리를 제공하고 있다. 인터넷은행 중에서는 카카오뱅크의 세이프박스의 금리가 연 2.2%다. 한도는 1억원이다. 케이뱅크의 플러스박스는 연 2.3%를 주고, 한도는 3억원이다.        인터넷은행 ‘파킹 통장’의 원조격인 토스뱅크 통장은 최대 1억원에 대해 연 2.0% 금리를 준다. 토스뱅크의 경우 금리는 다른 은행보다 낮지만 ‘지금 이자받기’라는 기능이 있어 매력적이다. 당장 이자를 손에 쥐는 만족감도 있고, 쌓인 이자에 이자가 붙는 일 복리 구조도 가능하다. OK세컨드통장과 카카오세이프박스, 케이뱅크 플러스박스 등 대부분 파킹통장은 월 단위로, 페퍼스파킹통장은 분기별로 이자를 지급한다.        ━   국책은행 상품 안전하고 이율도 높아져 매력       파킹 통장도 예금자보호법 대상이다. 원금과 이자를 포함해 5000만원까지 국가가 보장해준다. 그럼에도 저축은행과 인터넷은행의 안전성이 걱정된다면 국책은행의 비슷한 상품에 돈을 넣어두는 것도 방법이다. 산업은행의 KDB Hi 비대면 입출금 통장은 연 2.25% 금리를 제공한다. 한도는 없다.         IBK기업은행의 IBK D-DAY 통장(단기중금채)은 최소 30일부터 만기를 본인이 정할 수 있어 단기간 자금을 굴리기에 적합하다. 30 일만 맡겨도 연 2.67%의 금리를 준다. 364일을 맡기면 금리가 연 3.91%까지 올라간다. 가입 한도는 2억원이다. 다만 이 상품은 채권을 사는 것이라 예금자보호법 대상이 아니다. IBK기업은행이 도산하지 않는 한 원금 보장은 된다.      ━   ETF계에도 '파킹통장'이 있다?      주식 투자자들 사이에서 ‘파킹 통장’으로 여겨지는 KODEX KOFR금리액티브(합성)도 단기 자금을 굴리는 상품으로 활용할 수 있다. 이 상품은 손실위험이 0에 가까운 무위험지표금리(KOFR) 지수의 수익률을 추종하는 국내 유일 상장지수펀드(ETF)다. 매 영업일 기준으로 이자수익이 확정되고 누적되는 상품이다.       삼성자산운용 측은 “KOFR금리가 지난 19일 기준 연 2.481%인데 하루분의 KOFR 금리만큼 매일 수익을 올릴 수 있다"며 “한은이 마이너스 금리로 돈을 빌려주지 않는 한 손실이 나지 않는 ETF”라고 설명했다. 투자 금액 한도가 없고 개인종합자산관리계좌(ISA)나 연금계좌로 투자하면 절세도 할 수 있다는 게 장점이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>“티끌 모아 왕티끌…십원벌이 유목민 됐습니다”</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005323061?sid=102</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>고물가에 ‘소확쩐’…“하루 만보 걸어 300원 번다”“예전이면 10원짜리 줍지도 않았는데 변해”“운동도 하고 돈의 소중함 느껴”개인정보 유출 주의해야[이데일리 황병서 기자] 토스뱅크 37원, 캐시워크 51원, 모니모 24원. 직장인 김모(41)씨는 22일 오후 4시께 금융·유통 애플리케이션(앱)을 돌며 ‘중간 수금’을 했다. 출근과 점심시간 가벼운 산책 등으로 5300보 정도 걸은 김씨는 걸음수 등에 따라 돈을 받을 수 있는 앱들에서 수십 원을 벌었다. 그는 “하루 두세 번 정도 앱을 돌면서 출석체크하고 광고 보고 미션수행하면서 돈을 받는다”며 “예전 같으면 길거리에 10원짜리 동전도 안 주웠는데, 이젠 푼돈 모아 편의점에서 간식 사먹을 때 뿌듯하다”고 했다.(자료=이미지투데이)김씨처럼 ‘십원벌이’에 뛰어드는 이들이 늘고 있다. 통계청에 따르면 지난달 소비자물가지수는 108.62로 작년 같은 달보다 5.7% 올랐고 외식비 상승률은 8.8%로 1992년 10월 이후 30년 만에 최고치를 기록하는 등 벌이는 빠듯한데 물가는 고공행진하자 소소하게라도 돈을 더 벌 방법을 찾아나선 이들이다. ‘소확쩐(소소하지만 확실한 쩐 모으기)’이나 ‘짠테크(짠내 재테크)’ 등의 신조어 유행도 이를 방증한다. 직장인 이모(31)씨는 출근길 버스 안에서 하나은행 앱 ‘하나멤버스’를 켜고 ‘머니사다리’ 이벤트에 참여한다. 영상 광고를 보고 난 후 사다리 타기를 통해 최소 1머니에서 5만머니까지 얻을 수 있다. 직장인 최모(35)씨는 출퇴근 길에 지하철 한 정거장씩을 더 걷는다고 했다. 최씨는 “토스뱅크에선 특정 장소를 가면 하루 100원을 주는데 하루 만보 걸으면 최소 140원을 번다”며 “만보 걸으면 서너 군데서 300~400원 벌 수 있어 습관이 됐다”고 했다.이밖에 상점 영수증을 찍어 등록하면 건당 30원에서 50원까지 주는 앱, 인터넷 쇼핑을 통해 구매한 물건의 사용 후기를 작성해 올리면 건당 250원을 받을 수 있는 앱 등을 쓰는 이들도 있다. 직장인 문모(35)씨는 “매장 영수증을 하루에 최대 5건 찍어 올려 250원을 벌 수 있다”며 “매장에서 종이 영수증을 달라고 요구하는 습관이 생겼다”고 말했다.페트병 반납 후 현금처럼 쓰는 포인트를 받고 있는 주부 김모(53)씨는 “인근 오피스텔에 생수 페트병이 상당한데 이걸 모아서 토요일에 한번씩 넣는데 줄이 무척 길다”며 “이렇게 해서 50만원 이상을 현금화한 사람도 있다더라”고 했다.예전이라면 ‘궁상’으로 여겨질 법도 한 이러한 푼돈벌이엔 긍정적인 측면도 상당하다. 특히 걸음수에 따라 현금을 포인트로 얻을 수 있는 앱 프로그램 이용자들은 운동에도 도움이 된다고 입을 모았다. 다른 긍정적 효과는 ‘돈의 소중함’에 대한 깨달음이다. 이씨는 “별로 안 필요한 물건을 충동구매할 때도 있고 했는데 10원, 20원씩 벌다보니 진짜 돈을 절약해야겠단 생각이 강해졌다”고 했다. 그러면서 “폐지 줍는 할머니, 할아버지들이 하루 10시간 넘게 걷고 한 시간에 돈 천 원 번다는 뉴스를 봤는데, 이 분들이 이런 앱을 쓰면 좋을텐데 아쉽다”고 했다.그러나 주의도 필요하다. 광고시청, 퀴즈풀기, 미션참여 등을 유도하면서 이용자의 이름과 전화번호 등 개인정보를 요구하는 앱들도 적지 않다. 이 개인정보들은 원치 않는 광고업체로 넘어갈 가능성이 있다. 최경진 가천대학교 법대 교수(개인정보보호법학회 회장)는 “개인정보 동의 여부를 묻긴 하지만 기만하는 행태들도 많이 있어 소비자들이 주의해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>원티드랩, 파이썬 개발자들 축제 파이콘 공식 후원사 참여</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002133081?sid=105</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>[디지털데일리 박세아 기자] 원티드랩이 파이썬(Python) 개발자들 축제 파이콘 한국 2022(이하 파이콘 한국)에 공식 후원사로 참여한다고 22일 밝혔다.    올해로 9회째 맞이하는 파이콘 한국은 파이썬 프로그래밍 언어 커뮤니티가 주관하는 개발자 컨퍼런스다. 파이썬 저변 확대와 커뮤니티 활성화를 목적으로 한다. 올해 컨퍼런스는 오는 10월 1~2일 양일간 온라인으로 진행되며, 채용 부스 등 일부 오프라인 행사는 서울 중구 명동 커뮤니티 하우스 마실에서 열린다.   원티드랩은 파이콘 한국 개최에 국내 IT 기업 파이썬 개발자 채용 공고를 한번에 볼 수 있는 파이썬 개발자 채용 페이지를 2일까지 운영한다. 파이썬을 기본 기술로 채택한 기업 또는 해당 기술을 메인으로 활용하는 포지션의 공고만 선별했다. 비바리퍼블리카(토스), 무신사, 두나무 등 50여 개사가 채용 중이다.   원티드랩 황리건 개발총괄이사는 “파이썬 개발자만을 위한 별도 채용 페이지를 마련하는 등 이직을 고민하는 분들을 위한 여러 프로그램을 준비했다”라며 “다양한 활동을 통해 개발자들이 커리어 고민을 믿고 맡길 수 있는 든든한 커리어 파트너가 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>금융사 앱 통해 걷기 분석해보니…가장 많이 걷는 연령대는?</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004102897?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>삼성화재 다이렉트 착!한 생활시리즈 착!한 걷기 분석60대 일평균 걸음수 8567보로 가장 높아연령대 높아질수록 건강에 대한 관심 높아지는 모습금융사들의 '걷기' 앱 관심 증가앱 이용자 수 늘리고 건강관리 앞장사진 제공=이미지투데이[서울경제] 금융사들이 ‘걷기’에 빠졌다. 걸을 때마다 포인트를 주는 등 고객이 건강을 지키면서 혜택을 얻을 수 있는 기능들이 금융사 앱에 속속 등장하고 있다. 이를 통해 사용자들이 금융사 앱에 매일 접속하고 앱에 머무는 시간이 늘어나는 효과가 있다. 특히 보험사들은 고객들의 건강 관리에 적극 나설 수 있어 관심이 더욱 높은 모습이다. 삼성화재는 지난 4월 다이렉트를 통해 착한 생활 시리즈를 선보이며 착한 걷기, 착한 드라이브 등 기능으로 주목받고 있다.26일 삼성화재에 따르면 삼성화재 다이렉트 착!한 걷기 출시 후 현재 9만 여명을 기록하고 있으며 이용자들의 누적 걸음수는 200억보 이상이다. 특히 연령대가 증가할수록 일평균 걸음수가 증가하는 것으로 나타났다. 60대의 일평균 걸음수는 8576보를 기록하며 전 연령대 중 가장 높았다. 일평균 걸음수는 50대 이상의 고객이 20~30대 비해 최대 32% 높았다. 이는 연령이 증가할수록 건강에 대한 관심이 높아지기 때문으로 풀이된다. 연령대에 따라 요일별 평균 걸음수에도 차이가 있었다. 60~70대 이상의 요일별 일평균 걸음수의 분산이 가장 낮은 것으로 나타났고, 모든 요일에 많이 걷는 모습을 보였다. 삼성화재 관계자는 “건강 관리를 위해 요일과 상관없이 지속적으로 걷거나 은퇴 이후, 생계를 위한 직업 활동이 없어 주중과 주말의 활동량이 유사하기 때문으로 보인다”고 설명했다. 성별로 구분하면 남자(일평균 10083보)가 여자(일평균 6358보)에 비해 1.6배 높았다. 요일별 일평균 걸음수는 금요일이 가장 많고, 일요일이 가장 적었다. 착!한 걷기에서 걸음수가 높아질수록 착!한드라이브에서 일평균주행거리가 감소하는 경향을 보였는데, 많이 걸을수록 적게 운전하기 때문으로 풀이된다.삼성화재의 착!한 생활 시리즈는 착!한 드라이브, 착!한 걷기, 착!한 건강관리 3가지 서비스가 있다. 착!한 걷기의 경우 하루 6000보 달성 시 30포인트가 적립된다. 월 기준으로 10만보당 100포인트가 추가 지급된다. 매월 최대 1500포인트까지 적립 가능하다. 걸음수에 따라 삼성화재 자동차보험 가입 시 보험료의 3%를 추가로 할인하는 제도도 운영하고 있다.이외에도 금융사들의 다양한 걷기 서비스가 쏟아지고 있다. 토스 만보기가 사용자 400만 명을 돌파하며 인기를 끌자 KB국민은행 모바일뱅킹은 ‘KB매일걷기‘, 삼성 금융계열사 통합 앱(모니모)은 ‘걷기 챌린지’ 등을 선보였다. 최근 카카오페이도 신규 서비스인 만보기 기능을 도입했다. 카카오페이 만보기 서비스 ‘걷기왕 춘식이’는 스마트폰을 통해 측정된 걸음 수로 카카오톡 친구와 경쟁할 수 있는 서비스다.많이 걸을 수록 금리 혜택을 받을 수도 있다. 웰컴저축은행은 충청남도체육회가 운영하는 만보기 앱 ‘걷쥬’와 제휴, 많이 걸을 수록 최대 연 10% 금리 혜택을 제공하는 적금상품을 선보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>예대금리차 가장 큰 '토스뱅크'...중저신용자 대출 확대 영향</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005150134?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>인터넷 뱅크 3사 중 토스뱅크의 예대금리차 4.79%P로 가장 커"금리 높은 중저신용자 대출 비중 가장 큰 영향"은행의 지나친 ‘이자 장사’를 막자는 취지로 지난달 22일부터 은행별 예대금리차(대출금리-예금금리)를 공개한 가운데, 3개 인터넷은행 가운데에서는 토스뱅크의 가계 예대금리차가 가장 큰 것으로 나타났다.20일 은행연합회 예대금리차 비교 통계에 따르면 지난 8월 토스뱅크는 3개 인터넷 은행 가운데 가계예대금리차(4.76%P)가 가장 컸다. 케이뱅크가 3.13%P, 카카오뱅크가 1.96%P를 기록했다.토스뱅크는 정책서민금융상품을 제외한 가계예대금리차도 가장 높은 4.76%P를 기록했다. 이어 케이뱅크가 3.13%P, 카카오뱅크가 1.86%P를 기록했다.예대금리차란 예금금리와 대출금리의 차이를 의미한다. 은행이 이자마진을 과도하게 남기는 것은 아닌지 들여다보기 위한 지표다. 현재 예대금리차는 은행의 평균대출금리와 저축성수신금리차이가 공시된다.정책서민금융을 제외한 예대금리차는 이달부터 추가 공시에 포함된 것으로 정부 정책에 포함했다. 가계대출 중 고금리 서민정책상품을 많이 취급할 수록 예대금리차가 크게 나오는 착시 현상을 해소하기 위한 취지였다.토스뱅크의 경우 3개 인터넷은행 가운데 중저신용자 대출 비중이 상대적으로 가장 큰 영향이 있었다는 설명이다. 은행연합회 공시에 따르면 6월말 기준 중·저신용자 대상 신용대출 비중(중금리대출)은 토스뱅크가 36.3%, 카카오뱅크가 22.2%, 케이뱅크 24.0%다.토스뱅크 관계자는 “토스뱅크는 상대적으로 대출 금리가 높은 중저신용자고객을 중점적으로 포용하고 있다. 토스뱅크 대출 고객 중 중저신용자 비율은 약 38%로(7월말 기준) 모든 은행 중 가장 높고, 6월말 공시 기준 타 인터넷전문은행과 비교해도 1.5배 이상 높다. 이로 인해 예대금리차가 높게 나타나는 점이 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>오히려 더 커진 예대금리차… 5대 은행 중 농협, 인뱅은 토스 최대</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003302990?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>두 번째 예대금리차 공시 빅5 평균 1.51%P… 0.14%P 올라전북은행 5.66%P 전체 가장 커농협 “대출금리 타행보다 낮아정책자금 등 대거 유입된 영향”“금리 경쟁 돌입… 시차 두고 줄 것”은행권의 과도한 ‘이자장사’를 막겠다는 취지로 지난달 예대금리차(대출금리와 저축성 수신금리 차이) 공시제도가 시행됐지만 금리차는 오히려 더 커진 것으로 나타났다. 금리 인상으로 대출금리가 가파르게 오르는 가운데 예금금리 상승폭이 이를 따라가지 못한 것이다. 다만 이달부터 은행권이 예금금리는 높이고 대출금리는 낮추는 등 금리 경쟁에 돌입한 만큼 시차를 두고 금리차가 축소될 것이라는 관측도 나온다.20일 은행연합회에 따르면 지난달 취급액 기준 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 예대금리차는 평균 1.45% 포인트로 나타났다. 7월 취급액 기준 예대금리차와 비교하면 0.24% 포인트 높아졌다. 가계대출금리와 저축성 수신금리의 차이인 가계 예대금리차도 평균 1.51% 포인트로, 같은 기간 0.14% 포인트 확대됐다.가계 예대금리차를 보면 농협은행이 1.76% 포인트로 5대 시중은행 가운데 가장 컸다. 햇살론 등 정책서민금융을 제외한 가계 예대금리차(1.73%)도 농협은행이 가장 높았다. 가계 예대금리차가 가장 낮은 곳은 하나은행(1.12% 포인트)이었고 신한은행은 1.65% 포인트, 우리은행은 1.57% 포인트, 국민은행은 1.43% 포인트로 나타났다.농협은행 관계자는 “가계대출과 기업대출 금리 모두 다른 은행과 비교해 낮고 개인예금은 최고 연 3.7% 금리의 상품이 있는 등 결코 낮지 않다”며 “다만 지난달 정부정책 자금을 포함한 6개월 미만의 단기성 자금이 대거 유입된 영향”이라고 설명했다.전체 은행 중에서는 7월과 마찬가지로 전북은행의 가계 예대금리차가 5.66% 포인트로 가장 컸다. 인터넷은행 중에서는 토스뱅크의 가계 예대금리차가 4.76% 포인트로, 두 달 연속 가장 높은 수준을 기록했다. 전북은행과 토스뱅크의 가계 예대금리차는 다른 은행과 비교해 여전히 높은 수준이었지만 7월보다는 금리차가 축소된 것으로 나타났다.카카오뱅크도 예·적금 금리 인상 등의 영향으로 7월보다 금리차가 축소됐다. 카카오뱅크의 가계 예대금리차는 지난달 1.96% 포인트로, 한 달 전보다 0.37% 포인트 줄었다.은행권에서는 지난달 공시제도 시행 후 예금금리는 높이고 대출금리는 낮추는 등 금리 경쟁에 돌입한 만큼 앞으로 금리차가 줄어들 것으로 보고 있다. 시중은행 관계자는 “실제 조정된 금리가 적용되는 예금과 대출의 취급이 늘어나고, 예대금리차 공시까지 반영되려면 시간이 좀 걸릴 것”이라며 “지속적으로 금리 경쟁을 벌이고 있어서 금리차가 더 크게 벌어지지는 않을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.09.25.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>"30일부터 7% 넘는 고금리, 저금리로 갈아타세요"</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000698703?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>14개 은행 앱과 전국 창구서 신청한 달간 사업자번호 끝자리 5부제게티이미지뱅크코로나19 피해 자영업자·소상공인은 연 7%가 넘는 고금리 대출을 저금리로 전환할 수 있는 길이 30일부터 열린다.  금융위원회는 25일 자영업자·소상공인의 금융 부담을 낮추기 위한 대환 프로그램을 30일부터 시행한다고 밝혔다. 지원 대상은 코로나19 피해를 본 정상 차주로, 개인사업자 또는 법인 소기업이다. 신청은 14개 은행의 모바일 애플리케이션과 은행 창구를 통해 가능하다. 국민·신한·우리·하나·기업·농협·수협·부산·대구·광주·경남·전북·제주·토스 등이다. 시행 초기 동시 접속으로 인한 불편을 방지하고자 30일부터 한 달간은 사업자번호 끝자리를 기준으로 5부제를 실시한다. 신청 전 온라인 홈페이지(저금리로.kr)를 통해 지원 대상 여부를 확인할 수 있다. 신청 시점에 금리가 7% 이상인 사업자 대출의 경우 지원이 가능하다. 부동산·차량 구입 대출, 올해 6월 이후 취급된 대출 등은 지원 대상에서 제외된다. 적용 금리는 최대 6.5%로, 최종 금리는 차주 신용도에 따라 차등 결정될 예정이다. 대환 한도는 개인사업자와 법인 소기업 각각 5,000만 원과 1억 원이다. 중도상환수수료는 면제된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.09.25.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>30일부터 소상공인 고금리 대출 저금리로 전환 신청</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005152322?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>최대 금리 6.5% 적용코로나19로 피해를 입은 정상차주로 개인사업자 또는 법인 소기업이 지원 대상개인 5000만원, 법인 소기업 1억원 한도오는 30일부터 코로나19로 피해를 본 자영업자·소상공인의 금융부담을 낮추기 위해 연 7% 이상 고금리 사업자대출을 저금리로 전환하는 8조5000억원 규모의 대환 프로그램이 시행된다.25일 금융위원회는 오는 30일부터 국민, 신한, 우리, 하나, 기업, 농협, 수협, 부산, 대구, 광주, 경남, 전북, 제주, 토스 등 14개 은행의 모바일 앱과 은행 창구를 통해 저금리 대환 프로그램을 신청·접수할 수 있다고 밝혔다.저금리 대환 지원 대상은이번 고금리 대출의 저금리 대환 프로그램의 지원 대상은 코로나19로 피해를 입은 정상차주로 개인사업자 또는 법인 소기업이다. 손실보전금 등 재난지원금(방역지원금 포함), 손실보상금을 수령했거나, 금융권에서 만기연장·상환유예를 받은 사실이 있는 차주로, 현재 정상적인 경영활동을 영위하고 있어 저금리 대환자금을 상환할 수 있는 개인사업자 또는 법인 소기업이 신청할 수 있다.다만 휴·폐업, 국세·지방세 체납, 금융기관 연체 및 기타 부실우려차주(신용평점 하위 차주) 등 대환 이후 대출 상환능력 등을 고려할 때 정상차주로 보기 어려운 경우에는 다음 달부터 시행되는 채무조정 프로그램 새출발기금을 통해 지원할 예정이다.코로나 피해로 보기 어려운 도박·사행성 관련 업종, 유흥주점, 부동산 임대·매매, 금융, 법무, 회계, 세무, 보건 등 소상공인 정책자금 제외 업종은 기존과 동일하게 지원 대상에서 제외된다.지원 대상 채무는 지원 대상자가 금융권으로부터 받은 설비·운전자금 등 사업자 대출(사업자등록증을 보유한 개인사업자 또는 법인사업자를 대상으로 취급하는 기업여신)로, 대환신청 시점에 금리가 7% 이상인 경우 지원한다. 금융권 대출은 은행 및 저축은행, 여전사(카드, 캐피탈), 상호금융(신협, 농협, 수협, 산림조합, 새마을금고), 보험사에서 취급한 사업자 신용·담보 대출로, 코로나19 피해를 입은 업체를 지원하는 사업취지 등을 감안해 올해 5월 말까지 취급된 대출까지 지원 대상에 포함된다. 올해 5월 말 이전에 받은 대출로 6월 이후 갱신된 경우도 지원 대상에 해당된다.이번 프로그램은 사업목적 대출의 부담경감을 위해 추진하는 사업인 만큼 사업자 대출로 보기 어렵거나 대출 성격상 대환 처리가 적절하지 않은 대출은 대환 대상에서 제외된다. 주거 또는 임대목적 부동산 대출, 개인용도 자동차 구입, 스탁론, 마이너스 통장은 지원받을 수 없다. 다만 화물차·건설장비 구입 등 상용차와 관련한 대출(할부 포함)은 사업목적 대출로 명확히 확인할 수 있다는 점에서 최초 취급 시점의 대출 성격과 상관없이 사업자대출로 보고 대환 대상에 포함된다.어떤 지원 받나대환 프로그램은 내년 말까지 총 8조5000억원 규모로 공급된다. 대환 한도는 사업자별로 개인사업자는 5000만원, 법인 소기업은 1억원이며 한도 내에서는 여러 건의 고금리 대출을 대환할 수 있다.대환 프로그램을 이용하는 자영업자·소상공인이 부담하는 금리와 보증료는 최대 6.5%로 실제로 적용받는 금리는 차주 신용도에 따라 차등적으로 결정된다. 금리는 1~2년 차의 경우 최대 5.5%로, 최초 취급 시점의 금리를 기준으로 2년간 고정금리를 적용하며 3~5년 차는 협약금리(은행채 AAA 1년물+2.0%포인트)를 금리 상한선으로 적용한다. 보증료는 연 1%(고정)다.이번 대환 프로그램에 의해 상환되는 기존 대출과 기존 대출 상환을 위해 취급된 신규 대출은 금융권 협의 등을 거쳐 모두 중도상환수수료는 전액 면제된다.총 5년간 2년 거치 후 3년간 분할 상환하는 구조로, 중도상환수수료가 전액 면제되는 만큼 차주는 개별상황에 맞춰 추가 금융부담 없이 조기에 원리금 상환도 가능하다.신청은 어떻게지원 대상자에 해당하는 자영업자·소상공인은 30일부터 14개 은행을 통해 비대면(은행 모바일 앱) 또는 대면(영업점 내방) 방식으로 대환 프로그램을 신청할 수 있다. 다만 법인 소기업 또는 대표자가 2인 이상인 경우 등에는 비대면 신청이 어려운 만큼 예외적으로 직접 은행 영업점을 방문해야 한다.시행 초기 동시접속에 따른 신청상 어려움 등 고객 불편을 최소화하기 위해 제도 시행일인 30일부터 다음 달 28일까지 한 달간 사업자번호 끝자리를 기준으로 5부제를 실시한다. 10월 3일, 10일은 공휴일로 보다 원활한 대환신청을 위해 신청 대상 사업자번호 끝자리인 1, 6번인 자영업자·소상공인은 각각 그 주 화요일(1번), 목요일(6번)에 신청 가능하다.신청 접수 후 대환대출이 실행되기 위해서는 신청 은행의 보증심사, 신청 은행과 기존 대출기관 간 자료 확인, 송금 등의 절차가 이뤄져야 하는 만큼 약 2주 정도 소요된다. 다만 실제 기관별 대환 신청 접수 규모, 고객의 필요서류 구비 정도 등에 따라 실제 처리 기간은 상이할 수 있다.보다 원활히 저금리 대환을 신청할 수 있도록 온라인 대환 안내 시스템도 운영한다. 구비서류, 취급처 등 대환신청을 위한 세부 사항을 안내받을 수 있으며 신청인이 입력한 정보 등을 토대로 본인이 대환 프로그램의 지원 대상에 해당하는지 대상 채무를 보유하고 있는지 등을 미리 확인할 수 있다.이 시스템은 대환 프로그램이 시행되는 30일부터 정식 운영되며 사전 안내 등을 위해 26일부터 시범 운영된다. 시범운영 기간(26~29일) 중 지원 대상 및 대상 채무정보 조회는 안정적인 서비스 제공을 위해 2부제로 운영(26, 28일에는 사업자번호 끝자리 기준 짝수, 27, 29일에는 사업자번호 끝자리 기준 홀수)되며 30일부터는 별도 제한 없이 조회 가능하다. 다만 온라인 안내 시스템을 통해 제공되는 지원 대상 정보는 대환신청 준비를 위해 제공되는 참고자료로, 실제 대환 가능 여부는 은행 심사 등을 거쳐 최종 결정된다.금융위 관계자는 "정부, 공공기관 및 은행 등 금융기관을 사칭해 대출 알선 등을 통해 전화상담을 유도하거나 유알엘(URL)을 클릭하도록 하는 보이스피싱(스팸) 문자가 무작위로 발생되고 있는 만큼 각별한 주의가 필요하다"고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>핀테크 ‘사다리’ 탄 중소 저축은행… “인지도 높이고 마케팅 비용 줄여”</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000841802?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>최근 전세 연장 계약을 앞둔 30대 김씨는 돈이 급하게 필요해 주거래 은행과 유명 시중은행을 찾아갔지만, 모두 대출을 거절 당했다. 신용등급점수가 낮아 이들 은행의 대출 조건에 부합하지 않았기 때문이다. 김씨는 급하게 몇몇 대형 저축은행을 찾아가 상담을 받았지만, 역시 대출을 받을 수 없었다고 한다. 전세 만기일이 가까워지면서 애를 태우던 김씨는 대출 중개 플랫폼인 핀다를 통해 한 소규모 저축은행에서 2300만원의 신용 대출을 받고 나서야 비로소 한숨을 돌리게 됐다. 그는 “1금융권 시중은행에 비해 저축은행은 업체 수도 많고, 정보가 부족해 제대로 이용하기 어려웠다”며 “핀테크 업체를 통해 대출 조건과 가능 여부 등 각종 정보를 간편하게 얻을 수 있었다”고 말했다.1금융권 시중은행, 대형 저축은행 등과의 경쟁에서 어려움을 겪어 온 중소형 저축은행들이 최근 핀테크 업체들과 협업해 대출 상품 판매에 나서고 있다. 상대적으로 인지도가 낮고 정보기술(IT) 인프라가 취약한 소규모 저축은행들은 핀테크 업체를 활용해 소비자들의 접점을 넓히고 있는 것이다.그래픽=손민균        20일 저축은행과 핀테크 업계에 따르면 올 상반기에 핀테크 업체인 토스와 핀다, 카카오페이 등 3개 업체를 통해 이뤄진 저축은행 대출은 약 6조원 수준에 이르는 것으로 집계됐다.핀테크 업체에서 실행된 대출 중 절반 이상은 중소형 대출은행들의 몫이었다. 핀다의 경우 전체 저축은행 대출 가운데 상위 5대 은행을 제외한 중소형 은행들이 차지하는 비중은 71%에 달했다. 토스는 중소형 저축은행의 비중이 66%인 것으로 집계됐다.중소 저축은행들은 자산 규모가 작고 영업과 홍보·마케팅에 투입하는 비용이 한정돼 있어 그동안 대형 저축은행들과의 경쟁에 어려움을 겪었다. 그러나 핀테크 업체들이 특정 조건 등을 기록하면 대출을 비교해 주는 서비스를 선보이면서, 소규모 저축은행들은 적은 마케팅 비용으로 개인 고객들에게 인지도를 높이는 효과를 톡톡히 거두고 있다.핀다와 제휴한 중소 저축은행 22곳은 올 들어 대출 금액이 전년 동기 대비 약 2.6배 증가했다. 특히 HB저축은행, 동원제일저축은행 등이 핀다의 플랫폼을 통해 대출 규모를 눈에 띄게 늘린 것으로 알려졌다.토스 역시 자사의 대출 비교 서비스에서 중소 저축은행의 점유율이 증가하고 있다고 전했다. 올 들어 지난달 말까지 토스 플랫폼을 통한 저축은행 대출 누적액을 보면, 상위 5대 저축은행(SBI·OK·웰컴·페퍼·한국투자)을 제외한 나머지 은행들의 점유율은 66%를 기록했다. 토스에 따르면 중소 저축은행의 대출 실행 건수는 전년 대비 102% 급증했고, 금액 역시 68% 늘었다.동원제일저축은행 관계자는 “핀테크의 대출 비교 대상에 포함이 되자, 자연스럽게 신규 고객 유입이 늘었다”며 “마케팅과 대면 영업 비용 부담이 줄어 상품 설계 등에 대한 투자를 늘리고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.09.18.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>은행권 취업 시장 봄바람 불어 온다</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001174779?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>우리금융 하반기 800명 채용신한·국민·하나 등 공채 예정부산일보DB코로나19와 온라인 금융 강화로 신규 채용을 주저했던 은행권 취업 시장에 활기가 돌기 시작했다. 주요 은행들이 청년 일자리 창출 등을 위해 ‘대규모 공채’에 잇따라 나서고 있기 때문이다. 사회적 책임을 다하기 위한 은행권의 노력에 긍정적 평가가 나온다.18일 금융권에 따르면 우리금융그룹은 코로나19 사태 이후 최대 규모의 채용을 진행한다. 올 하반기 신입직원 360명 공채를 포함해 경력직, 퇴직자 재채용 등 총 800명 규모를 채용한다는 방침이다.우리은행, 우리카드, 우리금융캐피탈, 우리에프아이에스 등 각 사의 인력 운영 계획에 따라 채용이 진행된다. 특히 우리은행은 다음 달 하순 이후 채용공고에 나선다. 손태승 우리금융 회장은 “정부의 규제 완화를 통한 금융산업 일자리 창출에 무거운 책임감을 갖고 더 좋은 일자리를 만드는 데 앞장서 나갈 것”이라고 강조했다.신한은행도 지난 5일부터 일반직 신입행원 공개채용을 포함해 5개 전형에서 400명을 선발할 계획이다. 경력직, 전문인력 채용 등을 포함할 경우 하반기에만 총 700명을 채용할 예정이다.IBK기업은행도 지난 7일부터 신입행원 160명 공개 채용을 시작했다. 이는 지난 상반기 신입공채 인원보다 소폭 증가한 규모다.KB국민은행과 하나은행도 조만간 하반기 신입 행원 공채를 실시할 예정이다. 하나은행의 채용 규모는 약 300여명 수준으로 알려졌다. 인터넷전문은행 토스뱅크도 올 하반기 채용에 나설 것으로 알려졌다. 올 하반기 주요 은행들의 채용 규모 확대는 금융의 공적 책임과 기능을 요구하는 사회적 목소리에 화답하기 위한 목적으로 풀이된다. 특히 윤석열 새 정부의 핵심 과제인 청년 일자리 창출에 적극 부응하기 위한 것으로도 해석된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>이번 주부터 쏟아지는 소상공인 지원책…고금리 부담 덜까</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005152563?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>그동안 정부가 준비해온 소상공인·자영업자를 위한 금융지원책이 이번 주부터 잇달아 시행에 들어가면서 치솟는 금리에 누적된 소상공인·자영업자의 부담을 어느 정도 해소해 줄 수 있을 것으로 기대된다.26일 금융위원회에 따르면 자영업자·소상공인을 위한 저금리 대환 프로그램이 오는 30일부터 본격 시행되는 가운데 이날부터 신용보증기금 내 온라인 대환 안내 시스템이 시범 운영된다.이번 고금리 대출의 저금리 대환 프로그램의 지원 대상은 코로나19로 피해를 본 정상차주로 개인사업자 또는 법인 소기업이다. 대환신청 시점에 금리가 7% 이상인 사업자 대출을 지원한다. 대환 한도는 개인사업자는 5000만원, 법인 소기업은 1억원이며 한도 내에서는 여러 건의 고금리 대출을 대환할 수 있다. 대환 프로그램을 이용하는 자영업자·소상공인의 금리와 보증료는 최대 6.5%로, 실제로 적용받는 금리는 차주 신용도에 따라 차등적으로 결정된다. 금리는 1~2년차의 경우 최대 5.5%로, 최초 취급 시점의 금리를 기준으로 2년간 고정금리를 적용하며 3~5년차는 협약금리(은행채 AAA 1년물+2.0%포인트)를 금리 상한선으로 적용한다. 보증료는 연 1%(고정)다. 이번 대환 프로그램에 의해 상환되는 기존 대출과 기존 대출 상환을 위해 취급된 신규 대출의 중도상환수수료는 전액 면제된다. 총 5년간 2년 거치 후 3년간 분할 상환하는 구조로, 내년 말까지 총 8조5000억원 규모로 공급된다. 오는 30일부터 국민, 신한, 우리, 하나, 기업, 농협, 수협, 부산, 대구, 광주, 경남, 전북, 제주, 토스 등 14개 은행의 모바일 앱과 은행 창구를 통해 신청·접수를 받는다. 이날부터 운영되는 온라인 대환 안내 시스템을 통해 대환 신청을 위한 세부 사항을 안내받을 수 있으며 대환 프로그램 지원 대상에 해당하는지 확인할 수 있다.다음 달 4일 본격 출범하는 자영업자·소상공인의 채무조정 프로그램 새출발기금은 27일부터 온라인 플랫폼을 통해 사전 신청을 받는다. 새출발기금은 코로나 피해를 입은 개인사업자 또는 소상공인으로, 부실(연체 3개월 이상 차주) 또는 부실우려차주(연체 3개월 미만 차주)는 새출발기금을 통해 채무조정을 신청할 수 있다. '새출발기금 협약'에 가입한 협약금융회사가 보유한 모든 대출(사업자나 가계의 담보·보증·신용 무관)이 대상이며 부실차주의 보증·신용채무는 원금 조정, 그 외 부실우려차주의 담보·보증·신용채무 및 부실차주의 담보 채무의 경우 금리 및 상환기간이 조정된다. 부실차주는 엄격한 심사 절차를 거쳐 보유한 재산을 초과하는 부채금액에 한해 60~80%의 감면율 적용받게 된다. 조정한도는 담보 10억원, 무담보 5억원으로 총 15억원이다. 신청기간 중 1회만 신청할 수 있다.금융당국은 이번 주에 이달 만료되는 소상공인 만기연장·상환유예의 재연장 방안에 대해서도 발표할 예정이다. 상환유예는 1년, 만기연장은 새출발기금과 맞물려 운영돼 최장 3년간 연장될 것으로 알려졌다.자영업자·소상공인을 위한 금융지원책이 잇달아 시행에 들어가면서 고금리에 시달리고 있는 자영업자·소상공인의 숨통이 어느 정도 트일 것으로 기대된다. 올해 이어진 기준금리 상승의 여파로 개인사업자 대출 금리가 가파르게 오른 것으로 나타났다. 국회 기획재정위원회 소속 진선미 더불어민주당 의원이 금융감독원으로부터 제출받은 '대출 잔액 이자율별 현황' 자료에 따르면, 지난해 말 46.8%였던 2%대 금리의 대출 잔액의 비중은 올해 6월 말에는 18.7%로 줄어든 반면 3%대 대출 금리로 빌린 대출 잔액은 39.9%에서 55.7%로, 4%대 금리의 대출 잔액은 3.9%에서 17.6%로 늘었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.09.21.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 중저신용자 대출 연말 목표 채울까</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000173608?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>연말 목표 25% 달성 예상…부실채권·연체율 관리 등이 변수올해 상반기 말 기준 카카오뱅크의 중저신용자 대상 신용대출 비중은 22.2%로 나타났다. 사진은 카카오뱅크 서울 오피스의 모습. /카카오뱅크 제공카카오뱅크가 중저신용자 대출 비중을 늘리는데 박차를 가하고 있다. 25%인 연말 목표까지 3%가량 남은 가운데 목표치를 달성할 수 있을지 주목된다.21일 금융권에 따르면 카카오뱅크는 중저신용자 대출 비중을 늘리는데 열을 올리고 있다. 중저신용자대출 비중은 각 인터넷은행의 전체 가계 신용대출에서 개인신용평가회사 KCB 기준 신용평점 하위 50%(KCB 850점 이하) 대출자에 대한 대출이 차지하는 비중을 의미한다.은행연합회 공시에 따르면 올해 상반기 말 기준 카카오뱅크의 중저신용자 대상 신용대출 비중은 22.2%다. 지난 3월 말과 비교하면 3개월 사이 2.3%포인트 늘었다.카카오뱅크가 연말까지 달성해야 할 중저신용자 대출 비중 목표는 25%로, 무난히 목표 달성을 할 수 있으리라는 것이 업계의 중론이다.다만 일각에서는 케이뱅크, 토스뱅크 등에 비해 카카오뱅크의 중저신용자 대출 비중 확대가 더딘 편인데다 인터넷전문 가운데서도 카카오뱅크의 대출 금리가 높은 편이라 목표 달성이 쉽지만은 않을 것이란 전망도 나온다.실제로 카카오뱅크가 2.3%포인트 중저신용자 대출 비중을 늘렸을 때 같은 기간 케이뱅크와 토스뱅크는 각각 3.8%포인트, 4.9%포인트의 비중을 늘렸다.여기에 대출 금리도 카카오뱅크가 인터넷은행 3사 중에서는 가장 높은 것으로 나타나 매력도가 떨어진다는 분석이다.은행연합회 공시에 따르면 카카오뱅크의 지난 7월말 신규대출 기준 신용점수 850점 이하 대출자의 평균 대출금리는 9.43%다. 이는 인터넷은행 중에 가장 높은 수준이다. 같은 기간 케이뱅크는 7.97%, 토스뱅크는 8.75%를 기록했다.카카오뱅크가 연말까지 달성해야 할 중저신용자 대출 비중 목표는 25%로, 무난히 목표 달성을 할 수 있으리라는 것이 업계의 중론이다. 사진은 각종 은행 및 핀테크 앱이 설치된 스마트폰 화면. /더팩트 DB또한 가계대출 부실이 늘고 있는 점도 카카오뱅크가 중저신용자 대출 비중을 확대하는 데 걸림돌이 될 전망이다.상반기 카카오뱅크의 무수익(고정 이하) 여신 잔액은 전년 동기(501억 원)보다 210억 원 늘어난 711억 원을 기록했다. 무수익여신비율(무수익여신을 총여신으로 나눈값)은 0.27%로 전년 동기(0.22%)보다 0.05%포인트 높아졌다.무수익여신은 부실채권을 나타내는 지표로, 은행이 돈을 빌려주고 제때 원리금을 회수하지 못하는 채권을 의미한다. 원리금이 3개월 이상 연체된 부실채권 등이 여기에 포함된다.한 은행권 관계자는 "중저신용자에 대한 대출 규모를 늘리면 자연히 부실채권도 함께 늘어날 수밖에 없다"라며 "이러한 점은 대출을 공격적으로 늘리는데 제동을 줄 수 있다"라고 말했다.이와 관련 카카오뱅크 관계자는 "코로나19 등으로 인해 전체 금융권에서 연체율이 상승하는 경향이 있었다"라며 "지난해 하반기부터 중저신용자 비중을 대폭 늘리면서 연체율이 소폭 상승하긴 했지만, 평균 수준에서 벗어난 수준은 아니고, 충분히 관리를 할 수 있는 정도로 보고 있다"라고 설명했다. 이어 "연체율·리스크 관리는 중요한 부분으로, 앞으로도 더욱 관심을 기울일 것"이라고 덧붙였다.또한 "최근 전월세 대출 금리를 0.20%포인트 인하하고, 중저신용자 대출 이자 지원 이벤트를 진행하기도 했다"라며 "연말 목표치인 중저신용자 대출 비중 25% 달성을 위해 노력하고 있다"라고 강조했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>공시에도 예대금리차 더 커졌다…농협은행 두달째 1위</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000561443?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>[앵커] 지난달 5대 시중은행의 대출과 예금 간 금리 차이, 예대금리차가 한 달 전보다 더 커졌습니다. 첫 공시 뒤, 눈치 보기를 하는 듯 했지만, 뚜껑을 열어보니 대출금리가 더 크게 오른 겁니다.NH농협은행은 두 달째 5대 은행 중 예대금리차 1위였습니다. 김동욱 기자입니다.[기자] 첫 예대금리차 공시 뒤 은행들은 경쟁적으로 대출 금리 인하와 예금 금리 인상에 나서는 모습을 보였습니다.하지만 실제 대출금리는 더 올랐습니다.주요 시중은행 중 두 달 연속 1위를 한 NH농협은행의 지난달 예대금리차는 1.78%포인트. 첫 공시 때의 1.36%포인트보다 0.42%포인트나 더 벌어졌습니다.저축성 예금금리가 2.45%로 0.1%포인트 가까이 낮아진 반면, 대출금리는 3.9%에서 4.23%로 오른 탓입니다.농협은행은 "단기성 정부정책 자금이 대거 유입된 탓"이라며 "가계와 기업대출 금리는 다른 은행보다 낮다"고 해명했습니다.요란한 금리 조정 발표에도 예대금리차가 더 벌어지기는 다른 은행들도 대부분 마찬가지였습니다.8월 가계대출 예대금리차는 농협은행이 1.76%포인트, 신한은행이 1.65%포인트, 우리은행이 1.57%포인트 순이었는데 모두 7월보다 커졌습니다.하지만 예대금리차 공시의 효과도 일부 나타나기 시작했습니다.정책서민금융을 뺀 가계예대 금리차 공시도 처음 이뤄졌는데 5대 시중은행 중엔 신한은행이 유일하게 축소됐고, 가계대출금리를 내린 전북은행과 저축성 수신금리를 높인 카카오뱅크, 토스뱅크도 축소됐습니다.은행 관계자들은 지난달 금리 조정에도, 이전 기준으로 신청된 대출들이 실행된 점을 예대금리차 확대 원인으로 꼽으며 예대금리차는 점차 줄어들 것이라고 전망했습니다.연합뉴스TV 김동욱입니다. (dk1@yna.co.kr)#예대금리차 #대출금리 #NH농협은행 #이자장사 연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>"개발자 직접 키운다"…달라진 IT인재 채용 시장</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011432572?sid=105</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>기사내용 요약'개발자 품귀' 영입 어렵고 높은 몸값 부담스타트업~대기업 직접 개발자 양성하고 채용개발자 교육 프로그램 운영…채용형 인턴십 확대[서울=뉴시스] 조수정 기자 = 2022 하반기 서울대학교 채용박람회가 열린 6일 서울 관악구 서울대학교 체육관에서 취업 희망자들이 입사지원용 증명사진 촬영, 퍼스널 컬러 상담, 취업상담 등을 받고 있다. 2022.09.06. chocrystal@newsis.com[서울=뉴시스] 오동현 기자 = "뽑고 싶어도 개발자가 없어요."최근 산업계에 불어닥친 투자 시장 혹한기 분위기에도, 핵심 개발 인재를 확보하기 위한 IT(정보기술) 기업들의 움직임은 분주하다.  다만 스타트업 입장에선 낮은 인지도로 인해 이미 실력을 인정받은 개발자들은 영입하기 어려운 상황이며, 높은 몸값도 부담이다. 이는 비교적 재정이 탄탄한 대기업도 마찬가지. 이로 인해 스타트업부터 대기업까지 직접 개발자를 양성해 채용하는 사례가 확산하고 있다.22일 IT 업계에 따르면 KT, LG CNS, 넥슨컴퍼니, 우아한형제들 등 IT 기술력을 기반으로 성장해온 기업들이 신입사원은 물론, 인턴사원들까지 맞춤형 교육 프로그램에 참여할 수 있도록 지원을 아끼지 않고 있다. 인턴사원의 경우 일정기간 교육 과정을 거쳐 정직원이 될 수 있는 기회를 확대하고 있다. IT 업계 관계자는 "신규 스타트업의 경우, 현업에 바로 투입될 수 있는 실전 프로젝트 경험이 풍부한 개발자 채용을 적극 진행하는 추세"라며 "다만 소규모 스타트업의 경우, 낮은 인지도로 개발직 지원자를 찾기 어려울 뿐더러 채용 과정에도 어려움을 겪는다"고 전했다. 이에 개발자 채용 시장은 다양한 방식으로 수요와 공급을 맞춰 나가고 있다. 바로 실무에 투입해도 무리가 없도록 개발자들의 역량을 강화해주는 서비스, 기업과 개발자에게 맞춤형 채용을 연계해주는 플랫폼, 직접 개발 인재를 양성하는 유수의 스타트업까지 등장하고 있다.[부산=뉴시스] 하경민 기자 = '2022년 해양수산 취업박람회'가 열린 16일 부산 해운대구 벡스코 제2전시장을 찾은 구직자들이 채용공고 게시판을 살펴보고 있다. 통계청이 발표한 '2022년 8월 고용동향'에 따르면 지난달 취업자 수는 2841만 명으로, 전년에 비해 80만7000명(2.9%) 늘었다. 이는 2000년(84만8000명) 이후 22년 만에 최대 증가폭을 기록한 것이다. 2022.09.16. yulnetphoto@newsis.com우아한형제들, 개발자 저변 확대…SK이노베이션 '우아한테크코스' 수료자 우대</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>햇살론 빼고 계산하니…예대금리차, NH농협이 제일 높아</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003717077?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>20일 은행연합회 공시에 따르면, 5대 은행 중 8월 예대금리차는 NH농협은행이 가장 컸다. /NH농협은행										국내 19개 은행 중 금리가 높은 정책금융상품을 제외한 가계 대출 평균 금리가 가장 낮은 곳은 KDB산업은행(연 2.95%)인 것으로 나타났다. 예금 금리가 가장 낮은 은행은 7월에 이어 8월도 토스뱅크(2.20%)였다.20일 은행연합회가 홈페이지에 공시한 8월 은행권 예대금리 차 현황에 따르면, 정책서민금융을 제외한 가계 대출 평균 금리가 낮은 은행은 KDB산업은행에 이어 한국씨티은행(3.96%), IBK기업은행(4.13%), NH농협은행·BNK부산은행·BNK경남은행(4.18%) 등 순이었다.예금금리는 토스뱅크에 이어 NH농협은행(2.45%), 광주은행(2.78%), DGB대구은행·케이뱅크·카카오뱅크(2.80%) 순으로 낮았다. 반면 예금금리가 가장 높은 곳은 KDB산업은행(3.33%)이었고, SH수협은행(3.24%), 하나은행(3.21%), IBK기업은행(3.17%), 제주은행(3.12%) 등이 뒤를 이었다.전북은행, 두 달 연속 예대금리 차 가장 커							대출금리와 예금금리 차이를 뜻하는 예대금리 차(정책서민금융 제외 가계 기준)는 전북은행이 7월(5.73%포인트)에 이어 8월(4.80%포인트)에도 가장 높았다. 예금금리(3.0%)는 은행권 10위로 중간 수준이었지만 서민 대상 중금리 대출 비중이 높아 대출금리(7.80%)가 가장 높았기 때문이다.										이어 토스뱅크(4.76%포인트), 광주은행(4.10%포인트), 케이뱅크(3.13%포인트), DGB대구은행(2.22%포인트) 등 순으로 예대금리 차가 컸다. 신용 등급이 높은 우량 고객을 상대하는 대형 은행들과 달리 중금리 대출 비중이 높은 인터넷전문은행이나 지방은행이 상위권을 차지한 것이다.KB국민·신한·하나·우리·NH농협 등 5대 은행 중에선 NH농협은행(1.73%포인트)의 가계 예대금리 차이(정책서민금융 제외)가 가장 컸다. 이어 KB국민은행(1.40%포인트), 우리은행(1.37%포인트), 신한은행(1.36%포인트), 하나은행(1.09%포인트) 순이었다.정책서민금융 뺀 예대금리 차 보니 순위 변동							가계 예대금리 차이가 처음 공시된 지난 7월에는 5대 은행 중 신한은행의 예대금리 차(1.46%포인트)가 가장 컸다. NH농협은행(1.40%포인트), KB국민은행(1.36%포인트), 우리은행(1.33%포인트), 하나은행(1.03%포인트) 순이었다.7월 가계 예대금리 차가 가장 컸던 신한은행만 8월에 예대금리 차가 0.1%포인트 좁혀졌고, 나머지 4개 은행은 그 격차가 전달보다 더 벌어졌다. NH농협은행 관계자는 “가계 대출 평균 금리는 NH농협이 낮은 편이다”라면서 “만기가 짧은 1, 3개월짜리 단기성 정책자금을 취급해 예금금리가 타행보다 낮아진 점이 예대금리 차에 반영됐다”고 설명했다.이번 달부터는 은행별로 햇살론 등 정책서민금융 상품을 제외한 예대금리 차가 별도로 공개됐다. 지난달 은행권 예대금리 차가 처음 공시된 뒤 “저소득·저신용 서민 대상 정책금융상품의 금리가 높아 이를 많이 취급할수록 예대금리 차가 커지는 왜곡 현상이 나타난다”는 지적이 제기된 데 따른 것이다.실제로 이날 공시에서 정책서민금융을 포함한 가계 예대금리 차를 비교하면 신한은행(1.65%포인트)이 4대 시중은행 중 1위였지만, 정책서민금융을 빼면 3위(1.36%포인트)로 떨어졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>[오픈테크넷2022] 과기정통부, '깃허브' 보완재, '케이코드' 플랫폼 구축 한다</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002132945?sid=105</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>과기정통부 SW정책관 허원석 국장[디지털데일리 이상일기자] 과학기술정보통신부(이하 과기정통부)가 국내 오픈소스 SW 생태계 확장을 위해 오픈소스 플랫폼인 ‘케이코드(K-Code)’ 구축에 나섰다.  과기정통부는 케이코드 플랫폼을  ‘깃허브’ 등 글로벌 오픈소스 플랫폼을 대체하는 것이 아닌 국내 기업 개발자들이 국내 오픈소스 프로젝트를 찾기 쉽고 보다 쉽게 교류할 수 있도록 지원하기 위한 ‘보완적인 플랫폼’으로 만들어나간다는 계획이다. 20일 진행된 정보통신산업진흥원과 디지털데일리가 공동 주관하는 ‘오픈 테크넷 서밋(Open Technet Summit) 2022’ 버추얼 컨퍼런스에서 과기정통부 SW정책관 허원석 국장은 “국내 오픈소스 생태계를 개선하고 소프트웨어 산업의 경쟁력을 질적으로 높이기 위해 소프트웨어 산업 내 다양한 주체들이 오픈소스에 적극 참여할 수 있는 환경을 조성해야 한다”며 “과기정통부는 소프트웨어 산업이 오픈소스 생태계에 적극 기여할 수 있도록 하기 위해서 ‘케이 코드(K-Code)’ 플랫폼을 구축하고 플랫폼에 등록된 프로젝트를 대상으로 사업화 전략, 라이선스 검증 및 컨설팅을 제공하고자 한다”고 밝혔다. 오픈소스는 인공지능, 빅데이터, 클라우드 등 디지털 핵심 기술의 발전을 선도함으로써 소프트웨어 산업 혁신의 수단으로 주목받고 있다. 실제 글로벌 선도 기업들은 오픈소스에 적극 기여함으로써 기업 내외부의 다양한 개발자들이 참여하는 생태계를 조성하고 이를 통해 신기술이 적용된 새로운 서비스를 내놓는 등 주도권을 확보하고 있다. 실제 대표적인 글로벌 오픈소스 플랫폼인 깃허브 사용자수는 2015년 1210만명, 2021년 7300만명으로 6배 수준으로 증가하는 등 오픈소스 생태계는 지속적으로 성장하고 있으며 오픈소스 개발에 참여하는 개발자의 70%는 기업 소속으로 이미 기업이 오픈소스 생태계 안으로 빠르게 진입하고 있는 상황이다. 하지만 국내의 경우는 얘기가 다르다. 글로벌 100대 오픈소스 기여 기업 중 국내 기업은 삼성과 LG 뿐이며 오픈소스 생태계에 적극 뛰어들고 있는 곳도 일부 대기업을 비롯해 큐브리드, 와탭랩스 등 일부 중소기업이 전부인 상황이다.  허 국장은 “다수의 소프트웨어 기업들은 기술 유출에 대한 우려로 오픈소스 생태계에 적극적으로 참여하지 못하고 있다. 이로 인해 소프트웨어 산업의 기술 변화에 신속히 대응하지 못하고 있는 것이 현실”이라고 지적했다.이에 과기정통부는 ▲케이코드 플랫폼을 통한 커뮤니티 활성화 ▲커뮤니티 리더 양성 ▲국내 대표 오픈소스 프로젝트 육성에 초점을 맞추고 있다. 커뮤니티 리더들은 외부 개발자들의 기여에 대해서 수용 여부를 결정하고 오픈소스 프로젝트의 방향을 설정하는 등 오픈소스 생태계에서 지속적인 역할을 수행하게 된다. 국내 대표 오픈소스 프로젝트 육성을 위해선 멀티 클라우드 플랫폼 기술인 ‘클라우드 바리스타’ 과제와 같은 우수 오픈소스 프로젝트를 발굴하고 ▲해당 프로젝트와 관련된 커뮤니티의 지속적인 운영 ▲관심있는 SW기업들의 사업화 지원 ▲프로젝트에서 활동할 수 있도록 개발자 교육 등 글로벌 시장에서도 자랑할 만한 대표 프로젝트로 성장할 수 있도록 지원한다는 계획이다.   한편 과학기술정보통신부가 주최하고, 정보통신산업진흥원과 디지털데일리가 공동 주관하는 오픈 테크넷 서밋(Open Technet Summit) 2022 버추얼 컨퍼런스는 20일부터 3일간 개최된다. 이번 오픈 테크넷 서밋 2022에서는 “성공적 디지털 전환, 오픈소스 생태계에서 찾는다”를 주제로 오픈소스 활용과 엔터프라이즈 규모의 플랫폼 도입 및 운영에 대한 인사이트를 제시해 볼 계획이다. 이번 행사에서는 삼성전자, 카카오뱅크, 토스, KT 등 기업의 오픈소스 활용은 물론 빔소프트웨어, 엘라스틱코리아, 클루커스, 더 리눅스 파운데이션, 몽고DB, 맨텍, 큐브리드, 래블업, LG CNS, OSC코리아, 오픈소스컨설팅, 인베슘 등 오픈소스 전문 벤더 및 커뮤니티의 발표가 이어진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>신한카드 앱, 매달 1000만명씩 쓴다</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005019739?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>올 디지털결제액 45조원 넘겨신한카드가 자사 애플리케이션(앱) 플랫폼의 통합 월간 활성이용자 수(MAU)가 1000만명을 돌파했다고 20일 밝혔다. 이는 신한카드 결제 플랫폼 '신한플레이(pLay)'와 자동차 종합플랫폼 '신한마이카(MyCar)', 온라인 직영몰 '신한카드 올댓(Allthat)' 등의 월간 이용 지표를 합산한 수치다. 금융사 앱 중 MAU가 1000만명을 넘어선 것은 토스와 카카오뱅크, KB국민은행 정도에 불과하다.이용자가 급증하면서 신한카드의 디지털 취급액은 올 들어 9월 말까지 45조원을 기록했다. 플랫폼 이용 고객이 늘어나면서 거래도 급증하는 디지털 선순환 구조를 만든 것이다. 지난해 말 신한카드의 통합 MAU는 768만명 수준으로, 1년 새 32% 늘었다. 이용자가 급증한 것은 주력 디지털 플랫폼인 신한플레이에서 혁신적인 결제 기술을 제공하고, 마이데이터 기반의 소비·자산 통합관리 서비스를 선보인 덕분이라고 회사 측은 설명했다.신한플레이 온라인 회원이 연초 대비 100만명 이상 증가하며 1500만명(9월 기준)을 돌파한 것도 영향을 미쳤다. 신한마이카 MAU도 신차·중고차의 알뜰 구매 정보, 자동차 수리 견적 비교 등 자동차 종합금융 플랫폼에 걸맞은 다양한 서비스에 힘입어 작년 대비 65.8% 증가한 160만명을 기록했다. 개방형 플랫폼 '신한카드 올댓' MAU 역시 작년보다 약 27% 늘어난 90만명을 확보했다.신한카드 관계자는 "통합 MAU 1000만명 달성은 빅테크 진입으로 급변하는 시장에서 차별화된 디지털 금융 경쟁력을 입증했다는 점에서 의의가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.09.30.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>‘여성 파워’ 여자경·이회수, 한강노들섬오페라 ‘마술피리’로 만났다</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002047325?sid=103</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>오페라 '마술피리' [서울문화재단 제공][헤럴드경제=고승희 기자] 순수예술계를 대표하는 여성 파워가 만났다. 지휘자 여자경과 오페라 연출가 이회수다. 두 사람은 모차르트 오페라 ‘마술피리’로 관객과 만난다.서울문화재단은 오는 10 월 1~2 일 한강 노들섬에서 오페라 ‘마술피리’를 선보인다고 30일 밝혔다.한강노들섬오페라 ‘마술피리’는 서울문화재단 창립 이래 처음 제작하는 야외오페라다. 평소 접하기 어려운 클래식 오페라 작품을 극장이 아닌 야외공간에서 무료로 기획, 문화향유 기회를 확대하고자 했다는 것이 재단의 설명이다.이번 공연을 위해 재단은 노들섬 잔디마당에 야외특설무대를 제작, 계단식 객석을 확장해 약 1000석 규모의 좌석을 조성한다. 또 영상을 활용한 현대적인 무대 구현을 통해 노들섬 잔디마당의 야외 정취와 어우러지는 오페라를 선보인다.‘마술피리’를 위해 막강한 제작진과 출연진이 뭉쳤다. 정통 오페라부터 젊은 세대를 겨냥하는 실험적 오페라, 다양한 창작 오페라를 연출해온 이회수가 작품 전면에 나섰다. 지휘에는 클래식 음악계의 대표 ‘여성 지휘자’인 여자경이 함께 한다. 콜로라투라 소프라노 유성녀(밤의 여왕 역), 테너 이명현(타미노 역 ), 소프라노 장혜지(파미나 역), 바리톤 최은석(파파게노 역), 소프라노 이세희 (파파게나 역), 베이스 박준혁 (자라스트로 역), 테너 오정율 (모노스타토스 역)이 출연한다.오페라 ‘마술피리’는 왕자 타미노가 밤의 여왕 딸 파미나를 구하기 위해 새장수 파파게노와 함께 모험을 떠나는 여정을 담았다. 당시 이탈리아어를 이해하지 못하는 서민들을 위해 만들어진 ‘징슈필 (Singspiel, 작품 중간에 대사가 포함된 민속적인 독일어 오페라 )’로 , 모차르트의 천재성이 집약된 오페라다 .공연에 앞선 오후 4 시부터 6 시까지는 ‘음악의 섬’ 노들섬을 테마로 준비된 음악 관련 거리예술과 서커스 작품들도 관람할 수 있다. ‘2022 서울거리예술축제’ 노들섬 프로그램으로 ‘팔도보부상 이야기보따리’(안해본소리 프로덕션), ‘랄랄라 패밀리쇼’(음악당 달다), ‘도시소리’(지온), ‘팔팔’(콜렉티브 쿠치), ‘ 스러지다’(봉앤줄) 공연이 준비됐다.지난 2003 년 ‘하이서울페스티벌’로 시작된 ‘서울거리예술축제’는 시민에게 공원이나 광장에서 거리예술을 만나는 기회를 제공하고, 예술가들의 지속적인 작품 발표 기회의 장을 마련하며 서울의 대표 축제로 자리잡았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.09.19.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>경남경찰청, 한달만에 악성사기 908건·242명 검거</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006341872?sid=102</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>사이버 악성사기 피해를 방지를 위해 ‘범죄별 예방법’(경남경찰청 제공)2022.9.19.(창원=뉴스1) 강대한 기자 = #. 경남경찰청 사이버범죄수사대는 지난 4~7월 SNS채팅으로 알게 된 피해자 수십여명에게 몸캠피싱 등 범죄를 통해 1억8700만원을 빼앗은 일당의 자금 관리책 A씨(31)를 공갈 혐의로 구속송치했다.이들 일당은 채팅을 하다가 음란영상을 보냈으며, 이를 클릭하면 피해자 휴대전화에 악성코드를 설치해 음란행위를 녹화했다. 이후 주변인들에게 공개하기 싫으면 돈을 달라고 협박했다. 이렇게 챙긴 돈을 A씨가 여러 계좌에 나눠 송금하며 자금세탁한 뒤 중국으로 송금했다. #. B씨(23)는 지난 6~7월 인력사무소에서 알게 된 60~70대 피해자 3명에게 ‘재난지원금 카드’를 받을 수 있도록 해주겠다며 접근했다. 피해자들로부터 휴대전화와 신분증을 받아 ‘토스뱅크’를 개설해 연동된 다른 은행의 잔고 703만원을 빼돌린 그는 사기 혐의로 구속 송치됐다. B씨는 이 돈을 도박자금과 생활비 등에 탕진했다.경남경찰청은 사이버사기, 사이버금융범죄 등 ‘악성사기 척결 종합대책’을 수립해 지난 8월부터 관련 범죄 단속에 집중하고 있다고 19일 밝혔다.최근 통신 및 인터넷 등의 발달, 신종 코로나바이러스 감염증(코로나19) 사태로 비대면 경향의 심화, 경기침체 등의 이유로 사이버범죄 발생이 증가하고 있는 데 따른 것이다.단속대상은 금융통신, 조직·상습, 다액 3개 분야의 전기통신금융·사이버·가상자산 유사수신·전세·보험·조직·특경법 등 7대 악성사기다.경남청은 지난 8월16일부터 9월15일까지 이들 악성사기를 단속한 결과 총 908건, 242명을 검거했다.일반 사기범죄 대비 사이버사기·금융범죄비율은 △2017년 37.3% △2018년 43.3% △2019년 52.3% △2020년 56.9% △2021년 57.2%다.경찰은 사이버 악성사기 피해를 방지를 위해 ‘범죄별 예방법’ 숙지가 무엇보다 중요하다고 강조했다.메신저피싱의 경우 실제 가족·지인이 맞는지 반드시 직접 통화로 확인해야 하며, 스미싱은 문자 메시지 내 포함된 인터넷 링크(URL) 클릭을 지양해야 한다. 파밍은 사이트 URL주소를 반드시 확인하고 보안카드나 번호 전체 입력은 절대 해서는 안된다.몸캠피싱 예방을 위해 스마트폰 환경성절 메뉴에서 ‘출처를 알 수 없는 어플의 설치를 차단’ 설정할 것을 주문했다. 사이버 사기 방지를 위해서는 거래전 경찰청 ‘사이버캅’ 앱 등으로 판매자 전화·계좌번호의 사기이력을 확인하는 방법을 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>“하루만 맡겨도 연 3%”… 초단기 돈 굴리기 경쟁 불붙은 저축銀·인뱅</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003303375?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>금리인상기 파킹통장 ‘이자 전쟁’수신금리 인상에 예적금 수요 커저축은행 연리 3%대 상품 쏟아내인터넷銀 최대 한도 3억으로 늘려미국의 금리 인상 기조가 이어지면서 주식과 가상자산(암호화폐) 시장을 떠난 자금이 안전자산에 몰리는 추세가 이어지고 있다. 그동안에는 연 단위 예적금에 대한 수요가 컸다면 최근에는 수시입출금통장(파킹통장)이나 만기가 짧은 단기 정기예금 상품에 대한 관심이 높아지고 있다. 한국은행 금융통화위원회의 금리 결정 회의가 다음달과 오는 11월 두 번 남아 있어 은행권의 수신금리가 더 오를 것으로 전망되고 있어서다. 이런 수요를 잡기 위해 특히 인터넷전문은행과 상호저축은행이 치열한 금리 경쟁을 벌이고 있다.21일 금융권에 따르면 SBI저축은행은 이날부터 ‘사이다뱅크 입출금통장’ 금리를 기존 연 2.2%에서 연 3.2%로 1% 포인트 인상했다. 이 상품은 1억원까지는 연 3.2%의 금리가 적용되며 1억원 초과분에 대해서는 연 0.2%가 적용된다. 이 저축은행이 한 번에 이처럼 금리를 대폭 인상한 것은 다른 저축은행들이 이미 입출금예금상품에 연 3.0%대의 금리를 지급하고 있어서다.OK저축은행의 경우 지난 13일 업계 최고 수준인 연 3.3%(우대금리 0.3% 추가 시)의 ‘OK세컨드통장’을 출시한 데 이어 이날 ‘OK비대면보통예금’ 상품의 금리를 0.6% 포인트 인상해 연 3.3%로 상향 조정했다. OK세컨드통장은 한도가 1000만원까지지만 OK비대면보통예금은 1억원까지 연 3.3%의 금리를 제공한다. 한 저축은행 관계자는 “수시입출금통장의 경우 금리에 따라 금융소비자의 이동이 잦기 때문에 방어적 차원에서 금리를 인상할 수밖에 없는 상황”이라고 말했다.수시입출금통장에 고금리 바람을 불러온 건 인터넷은행인 토스뱅크다. 하루만 맡겨도 연 2.0%의 금리를 제공한다는 소식에 많은 금융소비자들이 토스뱅크에 몰렸으나 현재는 케이뱅크 플러스박스(연 2.3%)나 카카오뱅크 세이프박스(연 2.2%)에 비해 오히려 금리가 낮다. 다만 케이뱅크와 카카오뱅크는 월복리식이라 매일 이자를 받는 토스뱅크와는 차이가 있다. 토스뱅크 관계자는 “2% 통장이 상징적이라 유지한 건데 금리 인상기인 만큼 여신 증가 등 종합적인 상황을 고려해 금리 인상을 긍정적으로 검토 중”이라고 밝혔다.파킹통장과 더불어 단기 정기예금 상품의 금리 경쟁도 진행 중이다. 케이뱅크는 이날 내년 1월 1일까지 약 100일간 연 3.1%의 금리를 제공하는 ‘새해준비예금’ 이벤트를 진행했는데, 기존 코드K정기예금(3개월)의 기본금리 연 2.4%에 우대금리가 연 0.7% 추가됐다. 지난 7월에도 100일 특판을 실시했는데 상품 한도 1000억원이 판매 10분 만에 완판됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.09.29.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>'토스 喜·카카오 悲'로 엇갈린 실적…인터넷證 경쟁 승자는</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000175319?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>토스·카카오證, 올해 2분기 적자 규모 각각 65억 원·131억 원29일 금융투자업계에 따르면 토스증권과 카카오페이증권이 출범 이래 적자를 유지 중인 가운데 적자폭은 엇갈린 추이를 보이고 있다. /더팩트 DB국내 인터넷전문증권사 쌍두마차인 카카오페이증권과 토스증권이 출범 후 적자 늪을 빠져나오지 못하고 있는 가운데 수익성 키우기에 본격 팔을 걷었다. 실적면에서 엇갈린 방향을 가리키는 상황에서 각자 내세운 수익 전략이 결과를 뒤집을 수 있을지 시선이 모인다.◆ "서학개미 고맙다"…적자 여전해도 웃는 쪽은 '토스증권'29일 금융투자업계에 따르면 두 회사가 출범 이래 지속적인 적자를 나타내고 있지만 적자폭은 엇갈린 추이를 보이고 있다.올해 토스증권의 적자 규모는 1분기 104억 원, 2분기에 65억 원을 기록했다.토스증권의 적자폭은 올해 들어 뚜렷한 감소세를 나타내고 있다. 적자 규모는 지난해 2분기 453억 원을 기록하고 3분기 107억 원을 나타냈다. 같은 해 4분기에는 150억 원으로 늘었지만 올해 2분기까지 65억 원 수준으로 줄었다.특히 토스증권은 최근 들어 회사 설립 1년 6개월만에 첫 월간 순이익 흑자를 기록하는 등 실적 면에서 스퍼트를 내고 있다. 토스증권은 지난 8월 말 기준 월간 순이익 2억4000만 원을 기록했다.반면 후발주자로 올해 4월부터 MTS 정식서비스를 시작한 카카오페이증권은 적자폭을 줄이지 못하고 있다. 지난해 4분기 45억 원의 당기순손실 기록 후 올해 1분기에 109억 원, 2분기에 131억 원으로 적자폭이 갈수록 확대되는 추이다.토스증권의 실적 성장은 서학개미(해외주식에 투자하는 국내투자자) 고객의 이용 확대를 이뤄낸데 따른 것으로 분석된다. 토스증권의 해외주식 거래대금은 올해 1분기 6조2380억 원에서 2분기 9조4450억 원으로 51.41% 급증했다. 이에 해외주식 위탁매매 수수료도 36억 원에서 99억 원으로 대폭 늘어났다. 이는 같은 기간 국내 대형 증권사인 KB증권(141억 원), 신한금융투자(112억 원)의 수익과 비슷한 수준이다.적자폭이 상승 추이를 보였던 지난해 2분기와 4분기 고객 유치를 위한 마케팅 비용 지출이 효과를 낸 것으로 해석된다. 지난해 2분기와 4분기 토스증권은 각각 국내주식거래와 해외주식거래 서비스를 시작하며 '무료 주식 나눠주기 이벤트' 등을 실시했다. 8월 말 기준 토스증권의 가입자는 440만 명, 월간 활성 이용자(MAU)는 230만 명 수준이다.토스증권은 최근 리츠, 부동산ETF 등 거래 종목을 늘려 서비스 고도화에 나서는 한편 소수점거래 시행 등으로 수수료 수익 키우기에 집중하고 있다. 카카오페이증권은 이달 7일 신용융자 서비스를 시작했다. /각 사 제공◆ 각자 다른 수익모델로 '수익성' 경쟁 시작…승자는?토스증권은 최근 리츠, 부동산ETF 등 거래 종목을 늘려 서비스 증대에 나서는 한편 소수점거래 서비스 등을 더해 수수료 수익 키우기에 나서고 있다.지난달 말에는 올해 3월부터 진행 중인 '주식 모으기 서비스' 누적 이용자가 10만 명을 돌파하는 등 위탁매매 수익 키우기 고도화가 진행되는 모습이다.카카오페이증권은 이달 초 신용융자 서비스를 시작하며 수익성 키우기에 나섰다. 주식 신용거래 서비스는 주식을 살 때 보유하고 있는 주식을 담보로 매수 대금의 전체나 일부를 융자받을 수 있는 서비스다.서비스 한도는 최대 20억 원에 달하는 규모를 제시했다. 담보 유지 비율은 140%이며 상환기간은 90일이다. 이자율은 기간에 따라 연 4.5%~8.5%로, 이는 지점이 없는 키움증권의 신용융자 이자율(7.5~9.5%)보다 저렴해 업계 최저 수준이다.다만, 카카오페이증권은 신용거래융자에 따른 이자수익이 제한적일 수 있다는 시각이 나온다. 인터넷전문증권사로서 자기자본규모가 상대적으로 낮은 탓에 신용공여를 늘리기가 쉽지 않아서다. 자본시장법에 따르면 증권사 신용공여 한도는 자기자본 100% 이내로 제한된다. 카카오페이증권의 지난 6월 말 기준 자기자본은 1680억 원이다.토스증권의 경우 위탁매매 수수료 수익면에서 카카오증권에 불리한 조건이다. 토스증권을 통해 거래가 가능한 미국 주식 종목수는 8월 말 기준 3578개로 전체 상장종목의 3분의 1가량에 불과하다. 카카오페이증권은 미국 증시 1만 개에 육박하는 종목을 대상으로 거래가 가능하다.전문가들은 현재까지 MTS 서비스 시행 시기와 마케팅 방향성 등에 따라 실적 추이가 엇갈렸지만, 향후 단기간 흑자를 내기 위해선 두 회사 모두 자본 확대가 선행돼야 한다고 보고 있다.정태준 유안타증권 연구원은 "금융업은 자본이 수익의 재원이기 때문에 기본적으로 흑자 상태가 유지돼야 안정적인 외형성장이 가능하다"며 "키움증권의 선례와 같이 빠른 모객과 신용공여 확대를 통해 이자손익으로 판관비를 감당할 수 있어야 흑자 전환에 성공할 수 있다"고 분석했다. 이어 "신용공여는 자본의 100% 이내에서 제공할 수 있기 때문에 이는 결국 자본 확대의 문제로 이어진다"고 설명했다.그는 "토스증권은 흑자전환을 위해서는 43억 원의 추가 이자수익이 필요하기 때문에 신용공여금은 약 2000억 원, 자본은 약 900억 원이 추가로 필요하다"며 "카카오페이증권은 토스증권보다 이익 체력은 더 낮고 판관비는 더 많이 지출하기 때문에 흑자 전환을 위해서는 더 많은 자본 확충이 필요하다"고 덧붙였다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>신원근 카카오페이 대표, 금융위원장과 만날까… 핀테크 위크 참석</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000855036?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>신원근 카카오페이 대표와 김주현 금융위원장의 만남이 성사될지 이목이 쏠린다.  사진은 지난 3월 28일 경기도 성남시 분당구 투썬월드빌딩에서 열린 제5기 정기 주주총회에서 신임 사내이사로 선임된 신원근 사내이사(대표 내정자)가 주주총회가 끝나고 나와 취재진과 인터뷰를 하는 모습./사진=뉴스1  신원근 카카오페이 대표가 오는 28일 서울 소공동 롯데호텔에서 열리는 '코리아 핀테크 위크'에 참석할 예정인 가운데 김주현 금융위원장과 만남이 성사될지 관심이 쏠린다.  두 수장 모두 개막식, 전시부스 체험 등에 참석 예정이어서 신 대표와 김 위원장은 자연스럽게 만날 것으로 예상된다.  오는 10월 카카오페이손해보험 출범을 앞두고 두 수장이 만나는 마지막 자리인 만큼 보험권 이목을 끌 게 될 것으로 보인다.  26일 금융권에 따르면 신원근 카카오페이 대표는 코리아 핀테크 위크 행사에 참석할 예정이다. 김주현 금융위원장도 이번 행사에 참석해 개막식 기조연설을 진행할 계획이다.   신 대표와 김 위원장의 만남은 기조연설 이후 진행하는 각 핀테크사 전시부스 관람에서 이뤄질 가능성이 크다.  지난 2019년 코리아 핀테크 위크에 참석한 최종구 금융위원장과 2020년 참석한 은성수 금융위원장 모두 기조연설 이후 주요 핀테크사 부스를 방문해 최고경영자(CEO)들과 이야기를 나눈 바 있다.   내달 초 카카오페이손해보험 출범을 앞둔 상황에서 김 위원장이 신 대표에게 어떤 메시지를 전할지 업계의 관심은 크다. 최근 금융위원회가 빅테크 플랫폼 업체들에 대해 보험 비교·추천 서비스업 진출을 허용하겠다는 방침을 밝힌 만큼 보험업계도 상당한 영향을 받을 수 있기 때문이다.  현재 금융당국은 핀테크의 보험 비교 및 추천서비스와 관련해 핀테크·보험 업계의 의견을 취합 중이다. 조만간 허용 범위 등 세부 내용을 최종 확정한다는 계획이다.  이와 관련해 보험대리점들은 네이버, 카카오, 토스 등 대형 정보기술(IT) 기업 이른바 빅테크들이 보험상품 중개 서비스를 시작할 경우 생존이 어려울 수 있다며 강하게 반발하는 중이다.  신 대표가 카카오페이손해보험 중장기 전략과 관련해 김 위원장에게 어떤 계획을 밝힐지도 관심사다. 카카오페이손해보험은 금융안심보험을 포함해 생활 밀착형 보험을 우선 선보일 예정이다. 동호회, 휴대폰 파손 보험, 카카오 키즈 연계 어린이보험, 카카오 모빌리티 연계 택시 안심·바이크·대리기사 보험 등이 꼽힌다. 카카오페이 관계자는 "신 대표가 핀테크 코리아 위크 행사에 참석할 예정이지만 구체적인 일정은 나오지 않았다"고 말했다.  보험업계 관계자는 "카카오페이와 금융위원회가 중장기 전략에 대해 전반적인 이야기를 나눌 가능성은 크다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>[테크코리아 우리가 이끈다]케이뱅크, 신용평가모델 고도화로 적극적인 이자감면</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003045376?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>케이뱅크가 금리 인상기에도 적극적인 이자감면으로 고객 혜택을 확대하고 있다.은행연합회 금리인하요구권 공시에 따르면 9월 기준 은행권에서 금리인하요구 수용으로 이자감면액이 가장 큰 곳은 케이뱅크다. 케이뱅크의 이자감면액 규모는 53억5600만원으로, 신한은행(47억100만원), 카카오뱅크(29억1300만원), 토스뱅크(21억2200만원)보다 크다.케이뱅크 금리인하요구권 수용률도 24.6%로 인터넷은행 중 가장 높았다. 이어 카카오뱅크 19%, 토스뱅크 17.9% 순이다. 수용률은 수용 건수를 전체 신청 건수로 나눈 비율이다.비대면으로 금리인하요구권 신청을 받아 고객 편의성을 높인 동시에 지속적인 신용평가모델(CSS) 고도화를 통해 고객 신용도 평가의 정확도를 끌어올린 결과다.케이뱅크는 영업점에 방문하는 번거로움 없이 모바일로 간편하게 신청하는 비대면 금리인하요구권으로 고객 편의성을 개선했다. 또 금리인하요구권에 대해 적극적으로 안내하고 있다. 대출 고객 대상으로 이메일 등을 통해 연 2회 안내하고 연말마다 앱 푸시로 금리인하요구권에 대한 정보를 전달하고 있다.이 같은 비대면 편의성과 적극적인 안내로 케이뱅크 금리인하요구권 신청 건수는 2020년 4만4745건에서 2021년 13만211건으로 증가하는 등 대폭 상승했다. 올 상반기까지 작년 한 해 수준에 달하는 11만2523건이 신청됐다.수용 건수도 크게 증가했다. 케이뱅크의 금리인하요구권 수용 건수는 작년 한 해 1만6054건에서 올 상반기에만 2만7661건을 수용하며 불과 6개월 만에 72% 증가했다.케이뱅크 관계자는 “지난 2월 고객군별 특성을 반영한 맞춤형 특화모형을 구축하고 머신러닝 기법을 적용해 정교한 평가를 수행하도록 하는 등 신용평가모형(CSS)을 고도화한 결과”라며 “고객 입장에서 신용점수 상승이나 자산 변화가 있을 때마다 비대면으로 편리하게 금리인하요구권을 신청하면서 이자감면 혜택을 받은 것으로 분석된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.09.28.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>“같은 조건인데 왜이렇게 달라?” 대출비교플랫폼별 추천 제각각</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002046092?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>직접 대출비교플랫폼 9곳 사용해보니제시된 최저금리·최대한도 상품 제각각대출 실행 과정서 최대한도 축소되기도토스 홈페이지 캡처.“시중은행에서 상담받으니 대출비교플랫폼이 제시한 금리보다 낮은 상품을 추천해 은행을 이용했다. 앞으로 대출플랫폼은 참고용으로만 사용할 계획이다”최근 시중은행에서 신용대출을 받은 A씨는 대출비교플랫폼을 이용하려다가, 더 높은 금리의 대출을 받을 뻔 했다. 또 다른 B씨는 “플랫폼서 추천받은 대출을 실행하려 금융사 애플리케이션을 통해 확인하니 실행 조건이 충족되지 않았다. 앱을 설치하고 정보만 뺏긴 기분”이라고 말했다.가장 유리한 대출 상품 소개를 표방한 대출비교플랫폼들이 같은 조건에도 제각각 최저 금리와 최대 한도를 제시하는 것으로 나타났다. 금리가 빠르게 오르며 한 푼이라도 대출 이자를 아끼기 위해 플랫폼을 이용하는 소비자가 오히려 하나가 아닌 여러개 플랫폼을 번갈아 가며 또다시 ‘비교’ 절차를 거쳐야 불편을 겪는 셈이다.제시된 최저금리 최대 1%포인트 이상 차이…시중은행 참여도 부족28일 헤럴드경제가 같은 조건으로 신용대출을 받는다고 가정해 토스, 카카오페이, 핀다 등을 포함한 9개사(핀크·핀셋N·뱅크샐러드·알다·핀마트·담비)의 대출비교서비스를 직접 이용해봤다. 그 결과 제시된 최저금리는 최대 1%포인트 이상 차이가 났다. 심지어 제시된 조건 그대로 대출 실행이 불가능한 곳도 있었다.같은 조건에도 각 서비스가 추천한 상품의 최저금리는 최대 1%포인트 이상 차이가 벌어졌다. 신용점수 등을 포함해 연소득 등을 대출실행조건으로 입력한 결과, 토스는 5.18% 금리의 토스뱅크 신용대출을 최저금리로 추천했다. 9개 플랫폼 중 가장 금리가 낮은 대출상품이다. 반면 카카오페이는 6.3%의 BNK경남은행 상품을 제시해 토스에 비해 1.12%포인트 높았다. 그 외 업체들도 6.16%~6.3% 수준의 대출을 추천했다.최대한도 상품도 격차가 벌어졌다. 토스와 핀다는 5800만원 한도의 농협캐피탈 상품을 최대한도로 제시했다. 반면 카카오페이는 7000만원 한도의 스마트저축은행 상품을 추천했다. 최대한도 5000만원의 SC제일은행 상품을 추천한 ‘담비’를 제외한 5개사(핀크·핀셋N·뱅크샐러드·알다·핀마트) 또한 스마트저축은행의 상품을 제시했다.같은 조건에서도 금리나 한도에 차이가 나는 주된 이유는 업체마다 제휴사와 제휴된 상품의 개수가 다르기 때문이다. 업계 관계자는 “기본적으로 제휴사의 수나 제휴된 상품이 많으면 같은 조건에도 더 다양한 상품이 제시되니 유리할 수밖에 없다”며 “얼마나 많은 제휴사를 가졌는지가 경쟁의 밑받침이 되는 상황”이라고 말했다.실제 27일 기준 핀다는 가장 많은 62개 제휴사를 보유하고 있으며 카카오페이가 57개, 토스가 54개 등으로 뒤따르고 있다.또 시중은행의 참여가 활성화되지 않고 업체별로 고르게 분포되지 않은 것도, 가장 유리한 조건의 대출 상품 제공이 어려운 원인으로 지적된다. 현재 카카오페이와 토스는 5대 시중은행 중 3곳(신한·하나·우리)과 제휴해 일부 상품을 중개하고 있으나, 핀다는 시중은행 5곳 중 하나은행만을 제휴사로 갖고 있다.사진은 서울 시내 한 시중은행 외벽에 붙은 주택담보대출상품 안내 현수막 모습. 박해묵 기자실제 대출 실행에선 한도 줄어…중개플랫폼은 ‘가심사’ 불과대출비교플랫폼에서 제시한 대출한도가 금융사의 심사 결과 크게 줄어드는 등의 문제도 발생했다. 급전이 필요한 이라면 당혹스러운 부분이다.업권 관계자는 “플랫폼 심사는 실제 은행에서 소득 산정 등 심사를 하는 과정을 축약한 ‘가심사’ 단계”라며 “소비자가 직접 정보를 입력하기 때문에 세부적인 내용이 달라질 수 있고, 은행권 심사 과정에서 바뀔 수 있다”고 말했다.또 다른 관계자는 “일부 업체에서는 정확도를 위해 건강보험료 납부내역 등 확실한 정보를 불러올 수 있는 금융인증서 연동으로 정확도를 높이려고도 하지만, 인증서 체계가 없는 곳도 다수”라며 “업권에서는 계속해서 정확도를 높여가는 단계”라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.09.28.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>`의욕만 앞선 금융위원회` 온·오프라인 핀테크 행사</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002756566?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>메타버스 도입했으나 참여도 저조대면 행사장엔 대기직원도 없어서비스 체험은커녕 단순 전시관28일 오전 '코리아핀테크위크 2022' 우리은행, 하나금융그룹, 카카오뱅크 등 메타버스 전시관에 관람객이 없는 모습    한국 핀테크 기업과 기술이 한데 모이는 '코리아 핀테크위크 2022'가 28일부터 시작됐다. 3년 만에 진행되는 대면 행사이지만 메타버스를 도입해 온라인도 병행한다는 점을 차별화 요소로 내세웠다. 하지만 메타버스 전시관은 참여자가 없어 썰렁하다 못해 텅 비어있었다. 홍보 부족 등으로 참여도가 저조한 것으로 보인다. 28일 금융위원회에 따르면 올해 코리아 핀테크위크는 오는 30일까지 사흘간 서울 소공동 롯데호텔 등에서 온·오프라인 방식으로 개최된다. 이 행사는 국내외 핀테크 기업 및 전문가들이 참여하는 글로벌 박람회로, 금융위원회와 금융감독원 주최로 2019년부터 매년 진행되고 있다. 올해 행사의 차별화 요소는 IT(정보기술) 분야에서 가장 주목받는 플랫폼인 메타버스를 도입했다는 점이다. 카카오페이·토스·네이버파이낸셜 등 핀테크 기업 71개, 하나금융그룹·신한은행·미래에셋증권 등 12개 금융사, 홍콩투자청·호주핀테크산업협회 등 해외 기관 27개, 총 110개 회사가 메타버스에 부스를 차렸다. 이날 오전부터 약 4시간 가량 메타버스 전시관을 둘러본 결과 전반적으로 아쉽다는 느낌이 들었다. 핀테크 행사를 게임처럼 느낄 수 있어 신선했지만, 음성 채팅과 화상으로 실시간 양방향 소통이 가능한 메타버스의 장점을 전혀 살리지 못했다. 사용자가 행사 홈페이지에 꾸려진 메타버스에 접속해 층마다 배치된 부스에 다가가면 해당 회사의 소개 영상과 홍보 자료가 나타나는 식이었다. 대면 행사장에서 진행되는 현장 세미나도 중계되고 있어 간편하게 들을 수 있었다. 하지만 각 사가 마련한 부스에는 서비스 설명을 위한 대기 직원이 없어 궁금한 게 있어도 홍보물을 눈으로 보는 데 그쳐야 했다. 금융위는  "국내외 핀테크 기업, 금융회사, 해외 기관의 혁신적인 서비스를 메타버스 전시관을 통해 체험할 수 있다"고 안내했지만, 체험은 커녕 단순 온라인 전시관을 구현한 셈이다. 참여 회사 수는 많았지만 참여 인원이 저조해 행사 참석자들과 대화를 나눌 수도 없었다. 금융사들이 자사의 핀테크 기술을 소개하는 '금융핀테크관'에는 최대 10여명 안팎의 적은 인원이 방문했다. 행사에 참가한 한 핀테크 기업 관계자는 "금융회사도 아닌 작은 핀테크 기업이 메타버스 전시관을 위한 인력을 별도로 편성하기는 현실적으로 어렵다"며 "메타버스 전시관 사전 홍보활동도 저조해 관계자들만 접속해 있는 상황인 것 같다"고 전했다.28일 오전 '코리아핀테크위크 2022' 네이버파이낸셜, 토스 등 메타버스 전시관에 관람객이 없는 모습.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.09.20.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>8월 예대금리차…5대 은행 중 농협, 인뱅은 토스가 최대</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011429312?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>기사내용 요약농협은행 가계 예대금리차 1.76%포인트농협 "단기성 정부 정책자금 일시적 유입 영향"정책서민금융 제외 1위 농협·2위 국민토스뱅크 가계 예대금리차 4.76%포인트[서울=뉴시스]이주혜 기자 = '이자 장사'로 비판받은 은행권의 예대금리차(예금금리와 대출금리 차)가 지난달에 이어 두 번째로 공시됐다. 5대 시중은행 중에서는 NH농협은행의 가계대출과 예금의 금리 차이가 가장 큰 것으로 나타났다. 20일 은행연합회는 홈페이지 소비자포털에 19개 은행의 지난달 신규액 취급 기준 예대금리차를 공시했다.농협은행의 8월 가계 예대금리차(가계대출금리-저축성수신금리)는 1.76%포인트로 5대 시중은행 중 가장 컸다. 이어 신한은행(1.65%포인트), 우리은행(1.57%포인트), KB국민은행(1.43%포인트), 하나은행(1.12%포인트) 순이다.농협은행 관계자는 "지난달 가계대출과 기업대출 금리 모두 다른 은행에 비해 낮은 수준이나 지난달 정부 정책 자금을 포함한 6개월 미만 단기성 자금이 대거 유입된 영향"이라고 설명했다.시중은행에 비해 중저신용자 대출 비중이 큰 인터넷은행에서는 토스뱅크의 가계 예대금리차가 컸다. 토스뱅크 4.76%포인트, 케이뱅크 3.13%포인트, 카카오뱅크 1.96%포인트로 나타났다. 지방은행과 외국계은행 등을 포함한 19개 은행 중 8월 가계 예대금리차가 가장 큰 은행은 전북은행(5.66%포인트)이며 가장 작은 은행은 SH수협은행(1.02%포인트)다.정책서민금융을 제외한 가계 예대금리차가 가장 큰 시중은행은 농협은행으로 1.73%포인트였으며 국민은행(1.40%포인트), 우리은행(1.37%포인트), 신한은행(1.36%포인트), 하나은행(1.09%포인트)이 뒤를 이었다. 이달부터는 정책서민금융을 제외한 예대금리차와 가계 대출금리가 추가로 공시된다. 이는 햇살론 등 고금리 정책대출 상품으로 인해 예대금리차가 커지는 왜곡이 발생한다는 지적을 보완하기 위해서다. 일각에서는 이러한 왜곡으로 은행들이 예대금리차를 줄이기 위해 서민금융 지원을 줄이는 것이 아니냐는 우려가 제기되기도 했다.8월 예대금리차 산정에서 제외된 보증부 서민금융상품은 햇살론뱅크, 햇살론15, 안전망대출Ⅱ이다. 정책서민금융상품 중 보증료를 은행이 분납 후취하는 상품을 제외하고 가계 예대금리차와 가계 대출금리를 산정했다.국민은행 관계자는 "새희망홀씨대출이 정책서민금융상품에 포함되지 않아 '정책서민금융 제외 대출금리'가 다소 높게 나타났다"면서 "KB국민은행은 은행권 대출이 어려운 금융소외계층을 위한 서민 맞춤형 대출상품인 '새희망홀씨대출'을 적극 지원해 지난달에는 다른 은행보다 2배 이상 취급했다"고 설명했다.기업대출을 포함한 예대금리차 기준으로는 5대 은행 가운데 농협은행이 1.78%포인트로 가장 컸다. 이어 국민은행(1.45%포인트), 우리은행(1.43%포인트), 신한은행(1.39%포인트), 하나은행(1.20%포인트) 순으로 집계됐다. 공시 대상 19개 은행 중에서는 토스뱅크의 예대금리차가 4.79%포인트로 가장 컸다.은행권의 예대금리차 공시는 금리 관련 정보를 소비자에게 정확하고 충분하게 제공해 금리상승기에 금융소비자의 부담을 완화하고자 지난달부터 시행되고 있다. 매월 변동 추이를 확인할 수 있도록 신규 취급액 기준으로 산출된다. 가계대출 기준 예대금리차와 기업대출을 포함한 대출평균 기준 예대금리차를 모두 공시한다. 예대금리차는 평균 대출금리에서 저축성수신금리를 뺀 것으로 한국은행의 '금융기관 가중평균금리' 기준과 동일하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.09.26.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>“대통령 계좌도 신분증 사본 하나면 털린다”</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/033/0000044639?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>정호철 경실련 간사 인터뷰보고도 믿기 힘든 일들이 있다. 실제로 문제가 생기기 전까진 자신과 관계없는 일처럼 보인다. 각종 피싱범죄(전화·문자 등으로 개인정보나 금융정보를 얻는 사기행위) 피해가 그렇다. 어눌하게 한국말을 구사하는 보이스피싱 범인의 목소리, 10대 남학생에게 전송된 ‘엄마 나 폰이 고장 나서 임시번호로 연락해’라는 스미싱 문자는 인터넷에 떠도는 웃음거리가 됐다. “진짜 이런 사기를 당하는 사람들이 있다고? 대체 어떤 사람들이 속는 거야”라는 말이 따라붙었다.사진/강윤중 기자실제 피해현황도 그냥 웃어넘길 수 있는 정도일까. 금융감독원이 최근 강병원 국회의원실에 제출한 ‘전기통신금융사기 유형별 피해금액 및 건수’ 통계가 있다. 해당 자료에 따르면 2022년 상반기 딱 6개월 동안, 무려 1만5253건의 피해가 발생했다. 이 수치는 피해자가 금융회사에 피해구제를 신청한 계좌 수를 기준으로 작성했다. 즉 피해구제 신청을 하지 않은 경우까지 합치면 피해발생 건수가 더욱 늘어난다는 의미다. 6개월 동안 발생한 피해액만 655억원이다. 최근 3년을 기준으로 살펴봐도 피해 건수는 증가하는 추세다. 2020년 2만5859건, 2021년 2만9909건이었다. 산술적으로 계산하면 2022년은 3만건을 넘길 가능성이 크다. 단일 사건 중 가장 피해액이 큰 경우는 2020년 12월 발생한 보이스피싱 사기로 피해금액이 약 10억3000만원이었다. 누군가에겐 평생 모은 재산이었다.‘그런 피해는 전부 노인들이나 당하는 것 아니냐’고 생각할 수도 있다. 경찰청이 국회 신정훈 의원실에 공개한 자료가 있다. 비록 보이스피싱 피해자에 한정됐지만 유의미한 수치가 확인된다. 최근 5년간 2030세대의 피해자가 6070세대 피해자보다 많다(20대 이하 2만7769명, 30대 2만6155명, 60대 2만869명, 70대 이상 4620명). 진짜 이런 사기를 당하는 사람들이 요즘 세상에 버젓이 존재함을 말해주는 통계다.피싱 사기는 어제오늘 갑자기 생겨나지 않았다. 정부와 금융기관 역시 문제를 알고 있다. 그럼에도 피해자는 줄지 않는다. “각자 피싱에 속지 않게 조심해야 한다”가 이들이 내놓는 사실상의 유일한 대안이다. 문제가 생기면 전부 피해자의 책임이 된다. 그렇다면 정부와 금융기관은 정말 할 수 있는 모든 조치를 다한 것일까.정호철 경제정의실천시민연합 간사는 지난해부터 피싱 범죄에 대한 금융회사, 당국의 책임을 따지고 있다. 지난 8월에는 ‘금융실명거래 및 비밀보장에 관한 법률’ 개정을 위한 입법 청원서까지 냈다. 실명거래 원칙을 강화하자는 취지다. 정 간사가 말하는 피싱범죄의 대안은 단순하다. “은행은 법이 정한 대로 금융거래를 하는 고객의 신원확인을 똑바로 하고, 당국은 은행이 해당 의무를 준수하는지 제대로 감시하라”는 것이다. 범죄를 막기 위해 그가 제안하는 대책은 너무나 단순해 귀를 의심하게 한다. 은행이 신분증(주민등록증·운전면허증 등) 검사만 똑바로 해도 피싱범죄가 줄어든다고 했다. 지난 9월 13일, 20일 2차례 서울시 종로구에 있는 경실련 사무실에서 정 간사를 만났다. 정 간사가 설명한 내용 중에는 믿기지 않을 정도로 허술한 금융회사의 보안 규정 및 실태가 많았다. 혹시라도 범행에 악용될 수 있는 부분은 최대한 걷어내고 정 간사의 지적을 옮겨싣는다.비대면 실명인증 시스템, 대포폰으로 본인인증 가능시중은행들, 신분증 원본 대조 시스템 의무화해야-신분증 확인이 범죄의 대안이라는 점이 잘 이해가 되지 않는다. 금융기관들이 이조차도 제대로 하지 않고 있다는 의미인가.“현행 비대면 실명인증 시스템은 누구든 신분증 사본 하나만으로 타인 계좌에 접근할 수 있게 설계돼 있다. 우선 신분증 사본을 이용해 모바일뱅킹 등 비대면 금융거래에 필요한 대포폰을 알뜰폰이나 이통3사를 통해 비대면으로 개통할 수 있다. 이렇게 개통한 휴대전화에 모바일뱅킹 앱을 다운받고 신분증 사본을 인증하면 모바일인증서나 전자식 가상카드번호, 전자서명인증서, 모바일 OTP(일회용 비밀번호) 등의 발급이 가능하고, 피해자가 기존에 사용하던 접근 매체의 비밀번호를 재설정하는 것까지도 가능하다. 이렇게 획득한 모바일인증서와 비밀번호, 각종 접근 매체로 무단인출까지 할 수 있다. 신분증 사본만 제출해도 계좌해지를 통해 손쉽게 현금을 인출할 수 있는 구조다.”-잘 믿기지 않는데.“더 극단적인 경우도 있다. 시중은행 외 캐피털사 등의 신규 신용대출 거래는 신분증 사본과 대포폰만으로도 본인확인이 가능하다. 비대면 실명확인 절차가 더 간편하고 쉽다는 의미다. 꼭 대포폰이 필요한 것도 아니다. 시중은행에 본인확인 업무 처리를 위탁하는 금융사들(5대 시중은행·카카오·토스를 제외한 나머지 금융권)의 비대면 신규거래는 고객 신원정보를 금융결제원을 비롯한 타 금융기관과의 공동인증 방식으로 교차검증하는 절차를 생략한다. 이 경우 신원정보를 허위로 식별처리할 수도 있기 때문에 휴대전화 명의자와 비대면 신규거래자의 실제 명의가 꼭 일치하지 않아도 제3자 명의의 휴대전화를 동원해 본인인증이 가능하다.”-윤석열 대통령, 이복현 금감원장도 주민등록증이 유출된다면 예금인출 피해를 당할 수 있다는 말인가. 실험까지 해본 것인가.“그렇다. 누구든지 신분증 사본 하나가 유출되면 무단인출 사고를 당할 수 있다. 이미 금융결제원의 공동인증 방식으로 타인명의, 사자명의, 가명 등 엉터리 금융인증서비스를 통해 가입 테스트를 해보았다. 물론 가명으로는 신분증이 존재하지 않기 때문에 이런 엉터리 인증서 발급은 불가능하다. 하지만 사자명의, 타인명의로 발급된 신분증 사본으로는 인증서 발급이 가능하다. 이 방식 그대로 윤 대통령과 이 감독원장의 신분증 사본을 금융사에 제출하면 인증서 위·변조 발급이 가능하다.”-주민등록증은 일상생활에서도 요구하는 곳이 많은 정보 아닌가. 신용카드를 수령하려 해도 주민등록증부터 건네는데.“현행 시스템에서는 신분증 하나가 모든 금융거래의 만능열쇠인 상황이다. 신분증 사본이 유출 안 된 것을 정말 행운으로 생각해야 하는 시대다. 신분증을 촬영해 저장해두거나, 촬영한 사본을 가족뿐만 아니라 타인에게 보내줘서는 절대로 안 된다. 신종피싱 수법의 시작이 바로 여기다. 신분증 사본인증의 허점을 노리고 진행된다.”-이런 방식으로 피해를 입는 경우가 얼마나 자주 발생한다고 보나.“아직도 정확한 공식통계가 없다. 신분증 사본인증 수법으로 발생한 사건은 지난해 3만5000~5만 건으로 추정한다. 피해자 중 한분이 네이버 개인 블로그에 신분증 관련 피해사건 하나를 올렸는데 두서 달 만에 피해상담 댓글이 300여개가 넘게 달렸다. 이를 통계적 방식으로 분석하면 모두 28만건, 1년 기준으로는 7만~10만건이 발생한다는 계산이 나온다. 보이스피싱 등을 제외한 신분증 사본인증 사고를 50%로 가정하면 최소 3만5000~5만건이 된다. 물론 금감원이나 경찰청에서 보이스피싱을 포함한 전기통신금융사기로 인정한 사건들은 지난 1년간 3만건 내외다. 2021년쯤부터 신분증 사본인증 수법이 여기저기로 퍼지면서 더 증가했으리라고 본다. 현재 10만건을 넘기지 않았다면 다행이다.”-이렇게 위험한 건데 왜 아직도 보안강화를 하지 않나.“신분증 사본만으로 인증서가 발급됨에도 금융결제원은 실명확인조차 하지 않는다. 시중은행을 비롯한 그 밖의 금융회사들 역시 신분증의 진위확인을 하지 않기 때문에 손쉽게 뚫리고 만다. 실제로 판사가 이런 피해를 직접 당하고 나서야 의정부지방법원, 서울중앙지방법원 등의 1심 판례가 바뀌기 시작했다. 신분증 사본 하나 유출됐을 뿐인데, 타인 명의로 전자금융거래가 가능하다는 게 문제의 본질이다. 전자금융거래 정보처리시스템이 전기통신금융사기를 허용하고 있는 셈이다. 아무리 공개적으로 말을 해도 금융권 누구도 개선하지도, 심지어 이에 반박하지도 않는다. 그사이 피해자들만 방치되고 있다.”-결국 비대면 본인확인 방식에 구멍이 뚫려 있다는 얘기인가.“가장 큰 문제는 국가기관과의 교차검증을 생략하고 있다는 점이다. 비대면 금융거래를 활성화하겠다며, 본인확인기관으로 지정된 민간 금융기관들의 사설인증과 공동인증 방식, 추가 인증수단을 채택하고 있다. 예를 들어 5대 시중은행과 카카오, 토스가 자체적으로 발급하는 모바일·간편인증서, 금융결제원이 제공하는 금융인증서(공동인증서), 각종 접근 매체로 본인인증을 해줘버린다. 본인확인 업무나 전자서명인증업무를 처리하기 어려운 영세 금융회사들은 금융결제원이나 시중은행에 업무를 위탁해 처리한다. 이 방식이 바로 타행 계좌인증이나 타행 접근 매체를 등록해 금융거래하는 방식이다. 이는 국가 행정기관에서 직접 신분증 진위확인을 통해 원본인증을 하던 구 공인인증 방식과는 완전히 다르다. 가장 큰 차이는 민간 서명인증사업자는 신분증상의 ‘이름’과 ‘주민등록번호’ 두 가지 개인정보만 고유식별정보로 처리해 신원인증을 한다는 점이다. 반면 국가 행정기관은 신원을 확인할 때 신분증의 사진, 주소, 발급일자, 지문뿐만 아니라 위·변조 방지장치(재질·돋음문자·색 변환 문양·홀로그램·다중 레이저 이미지)까지도 검증한다. 구 공인인증서 폐지 이후 오히려 보안이 취약해졌다는 피해 호소가 늘고 있는 건 어찌 보면 당연한 일이다.”-시중 5대 은행 중에 신분증의 원본 대조가 가능한 진위확인 시스템을 갖춘 곳이 없나.“없다. 기술을 도입하는 데 돈을 쓰느니 피해구제를 요구하는 피해자와 소송을 붙는 편이 더 싸게 먹힌다고 생각하는 듯하다.”-어떻게 해야 하나. 금융실명법 개정을 요구했다고 하는데 법을 바꾸면 되는 건가.“적어도 시중은행이 신분증 원본 대조가 가능한 시스템을 도입하도록 의무화해야 한다. 물론 법으로 강제하는 것만이 최선은 아니라고 생각한다. 하지만 이렇게라도 하지 않으면 금융업계는 바뀌질 않는다. 강제하지 않으면 방법이 없다는 의미다. 적어도 시중 5대 은행만이라도 이를 도입하도록 강제하면 나머지 기관들도 따라올 것이다. 신분증만 제대로 확인해도 그 피해를 절반 이상 막을 수 있다고 생각한다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.09.22.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>엔비티, 위메프와 '애디슨 오퍼월' 제휴</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011434137?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 김경택 기자 = 코스닥 상장사 엔비티는 '위메프'와 애디슨 오퍼월 서비스 제휴 계약을 체결했다고 22일 밝혔다.이번 계약으로 엔비티는 위메프 플랫폼 내 오퍼월 시스템을 구축, 운영할 계획이다. 엔비티가 구축하는 애디슨 오퍼월 서비스는 제휴 플랫폼 사용자들이 다양한 미션 수행을 통해 현금처럼 사용가능한 포인트를 무료 적립할 수 있는 기회를 제공한다. 해당 서비스는 위메프 앱 서비스 내 '포인트' 탭에 구축된다.애디슨 오퍼월은 국내 다양한 업종에서 대형 플랫폼을 중심으로 최근까지 네이버페이, 토스, 카카오모빌리티 등 국내 주요 플랫폼 제휴 성과를 이어오며 가파른 성장세를 나타내고 있다고 회사 측은 설명했다. 박수근 엔비티 대표이사는 "하반기 들어 국내 각각의 업종별로 손꼽히는 대형 플랫폼들을 중심으로 한 오퍼월 네트워크 제휴 수요가 지속 증가하고 있는 만큼, 올해 역시 포인트 산업부문은 견고한 실적 성장을 이어갈 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
